--- a/data/Covid-19_data_sexage.xlsx
+++ b/data/Covid-19_data_sexage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanjosevidal/Google Drive/Projects/Covid-19/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8001E5-39E3-E340-882C-3055F78772D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD258F03-9E6F-0341-A836-FF439ADE0C30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="7000" windowWidth="28040" windowHeight="17040" xr2:uid="{C24317C9-D1BD-7248-BEC1-07839536F6EA}"/>
+    <workbookView xWindow="540" yWindow="960" windowWidth="28040" windowHeight="17040" xr2:uid="{C24317C9-D1BD-7248-BEC1-07839536F6EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <definedName name="tabula_Actualizacion_54_COVID_19" localSheetId="0">Data!$C$31:$K$50</definedName>
     <definedName name="tabula_Actualizacion_55_COVID_19" localSheetId="0">Data!$C$51:$K$70</definedName>
     <definedName name="tabula_Actualizacion_56_COVID_19_1" localSheetId="0">Data!$C$71:$K$90</definedName>
+    <definedName name="tabula_Actualizacion_57_COVID_19_1" localSheetId="0">Data!$C$98:$K$119</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -115,11 +116,26 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="6" xr16:uid="{37410649-CFF6-DD40-AA2D-A41F8321A833}" name="tabula-Actualizacion_57_COVID-19(1)" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_57_COVID-19(1).csv" decimal="," thousands="." tab="0" comma="1">
+      <textFields count="9">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="26">
   <si>
     <t>0-9</t>
   </si>
@@ -266,7 +282,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -276,6 +292,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -295,23 +312,27 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_57_COVID-19(1)" connectionId="6" xr16:uid="{78E004BB-228B-5143-9AFE-91688C440A41}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_54_COVID-19" connectionId="3" xr16:uid="{E94F4815-0D2F-454F-8291-FCBF0C165C57}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_53_COVID-19" connectionId="2" xr16:uid="{31483431-2B39-A440-9E59-C26E082912EA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_52_COVID-19" connectionId="1" xr16:uid="{35D81D28-1058-4347-9DE2-5F2763DAC2A4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_56_COVID-19(1)" connectionId="5" xr16:uid="{C5B10145-DA18-EE44-A918-E407BEA443E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_55_COVID-19" connectionId="4" xr16:uid="{10575DCA-3AE8-5C4C-A970-60205B471337}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_54_COVID-19" connectionId="3" xr16:uid="{E94F4815-0D2F-454F-8291-FCBF0C165C57}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_53_COVID-19" connectionId="2" xr16:uid="{31483431-2B39-A440-9E59-C26E082912EA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -611,25 +632,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973FFFC2-62D5-A048-8409-BF1FADA21B40}">
-  <dimension ref="A1:L90"/>
+  <dimension ref="A1:L119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="29" x14ac:dyDescent="0.2">
@@ -3790,6 +3810,742 @@
       <c r="K90">
         <v>24.2</v>
       </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A91" s="2">
+        <v>43916</v>
+      </c>
+      <c r="B91" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" t="s">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>82</v>
+      </c>
+      <c r="E91">
+        <v>19</v>
+      </c>
+      <c r="F91">
+        <v>0.3</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A92" s="2">
+        <v>43916</v>
+      </c>
+      <c r="B92" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92">
+        <v>170</v>
+      </c>
+      <c r="E92">
+        <v>20</v>
+      </c>
+      <c r="F92">
+        <v>0.3</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>0.3</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>0.2</v>
+      </c>
+      <c r="K92">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A93" s="2">
+        <v>43916</v>
+      </c>
+      <c r="B93" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1</v>
+      </c>
+      <c r="D93" s="3">
+        <v>1186</v>
+      </c>
+      <c r="E93">
+        <v>132</v>
+      </c>
+      <c r="F93">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G93">
+        <v>7</v>
+      </c>
+      <c r="H93">
+        <v>2</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A94" s="2">
+        <v>43916</v>
+      </c>
+      <c r="B94" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94" s="3">
+        <v>2037</v>
+      </c>
+      <c r="E94">
+        <v>293</v>
+      </c>
+      <c r="F94">
+        <v>5</v>
+      </c>
+      <c r="G94">
+        <v>13</v>
+      </c>
+      <c r="H94">
+        <v>3.7</v>
+      </c>
+      <c r="I94">
+        <v>4</v>
+      </c>
+      <c r="J94">
+        <v>0.8</v>
+      </c>
+      <c r="K94">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95" s="2">
+        <v>43916</v>
+      </c>
+      <c r="B95" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" t="s">
+        <v>3</v>
+      </c>
+      <c r="D95" s="3">
+        <v>2798</v>
+      </c>
+      <c r="E95">
+        <v>533</v>
+      </c>
+      <c r="F95">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G95">
+        <v>30</v>
+      </c>
+      <c r="H95">
+        <v>8.5</v>
+      </c>
+      <c r="I95">
+        <v>10</v>
+      </c>
+      <c r="J95">
+        <v>1.9</v>
+      </c>
+      <c r="K95">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96" s="2">
+        <v>43916</v>
+      </c>
+      <c r="B96" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" t="s">
+        <v>4</v>
+      </c>
+      <c r="D96" s="3">
+        <v>3178</v>
+      </c>
+      <c r="E96">
+        <v>808</v>
+      </c>
+      <c r="F96">
+        <v>13.9</v>
+      </c>
+      <c r="G96">
+        <v>63</v>
+      </c>
+      <c r="H96">
+        <v>17.8</v>
+      </c>
+      <c r="I96">
+        <v>7</v>
+      </c>
+      <c r="J96">
+        <v>1.4</v>
+      </c>
+      <c r="K96">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A97" s="2">
+        <v>43916</v>
+      </c>
+      <c r="B97" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97" s="3">
+        <v>2636</v>
+      </c>
+      <c r="E97" s="3">
+        <v>1157</v>
+      </c>
+      <c r="F97">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="G97">
+        <v>103</v>
+      </c>
+      <c r="H97">
+        <v>29.2</v>
+      </c>
+      <c r="I97">
+        <v>44</v>
+      </c>
+      <c r="J97">
+        <v>8.5</v>
+      </c>
+      <c r="K97">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A98" s="2">
+        <v>43916</v>
+      </c>
+      <c r="B98" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" s="3">
+        <v>2258</v>
+      </c>
+      <c r="E98" s="3">
+        <v>1328</v>
+      </c>
+      <c r="F98">
+        <v>22.9</v>
+      </c>
+      <c r="G98">
+        <v>113</v>
+      </c>
+      <c r="H98">
+        <v>32</v>
+      </c>
+      <c r="I98">
+        <v>89</v>
+      </c>
+      <c r="J98">
+        <v>17.2</v>
+      </c>
+      <c r="K98">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A99" s="2">
+        <v>43916</v>
+      </c>
+      <c r="B99" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" s="3">
+        <v>1949</v>
+      </c>
+      <c r="E99" s="3">
+        <v>1114</v>
+      </c>
+      <c r="F99">
+        <v>19.2</v>
+      </c>
+      <c r="G99">
+        <v>23</v>
+      </c>
+      <c r="H99">
+        <v>6.5</v>
+      </c>
+      <c r="I99">
+        <v>239</v>
+      </c>
+      <c r="J99">
+        <v>46.2</v>
+      </c>
+      <c r="K99">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100" s="2">
+        <v>43916</v>
+      </c>
+      <c r="B100" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100">
+        <v>830</v>
+      </c>
+      <c r="E100">
+        <v>401</v>
+      </c>
+      <c r="F100">
+        <v>6.9</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>123</v>
+      </c>
+      <c r="J100">
+        <v>23.8</v>
+      </c>
+      <c r="K100">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A101" s="2">
+        <v>43916</v>
+      </c>
+      <c r="B101" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101" t="s">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>99</v>
+      </c>
+      <c r="E101">
+        <v>27</v>
+      </c>
+      <c r="F101">
+        <v>0.3</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>0.1</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A102" s="2">
+        <v>43916</v>
+      </c>
+      <c r="B102" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102">
+        <v>142</v>
+      </c>
+      <c r="E102">
+        <v>16</v>
+      </c>
+      <c r="F102">
+        <v>0.2</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A103" s="2">
+        <v>43916</v>
+      </c>
+      <c r="B103" t="s">
+        <v>10</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>822</v>
+      </c>
+      <c r="E103">
+        <v>161</v>
+      </c>
+      <c r="F103">
+        <v>1.9</v>
+      </c>
+      <c r="G103">
+        <v>9</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
+      <c r="I103">
+        <v>4</v>
+      </c>
+      <c r="J103">
+        <v>0.5</v>
+      </c>
+      <c r="K103">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A104" s="2">
+        <v>43916</v>
+      </c>
+      <c r="B104" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104" t="s">
+        <v>2</v>
+      </c>
+      <c r="D104" s="3">
+        <v>1538</v>
+      </c>
+      <c r="E104">
+        <v>362</v>
+      </c>
+      <c r="F104">
+        <v>4.3</v>
+      </c>
+      <c r="G104">
+        <v>28</v>
+      </c>
+      <c r="H104">
+        <v>3.2</v>
+      </c>
+      <c r="I104">
+        <v>3</v>
+      </c>
+      <c r="J104">
+        <v>0.4</v>
+      </c>
+      <c r="K104">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A105" s="2">
+        <v>43916</v>
+      </c>
+      <c r="B105" t="s">
+        <v>10</v>
+      </c>
+      <c r="C105" t="s">
+        <v>3</v>
+      </c>
+      <c r="D105" s="3">
+        <v>2444</v>
+      </c>
+      <c r="E105">
+        <v>815</v>
+      </c>
+      <c r="F105">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G105">
+        <v>69</v>
+      </c>
+      <c r="H105">
+        <v>7.8</v>
+      </c>
+      <c r="I105">
+        <v>9</v>
+      </c>
+      <c r="J105">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K105">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A106" s="2">
+        <v>43916</v>
+      </c>
+      <c r="B106" t="s">
+        <v>10</v>
+      </c>
+      <c r="C106" t="s">
+        <v>4</v>
+      </c>
+      <c r="D106" s="3">
+        <v>2850</v>
+      </c>
+      <c r="E106" s="3">
+        <v>1235</v>
+      </c>
+      <c r="F106">
+        <v>14.8</v>
+      </c>
+      <c r="G106">
+        <v>141</v>
+      </c>
+      <c r="H106">
+        <v>16</v>
+      </c>
+      <c r="I106">
+        <v>28</v>
+      </c>
+      <c r="J106">
+        <v>3.3</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A107" s="2">
+        <v>43916</v>
+      </c>
+      <c r="B107" t="s">
+        <v>10</v>
+      </c>
+      <c r="C107" t="s">
+        <v>5</v>
+      </c>
+      <c r="D107" s="3">
+        <v>2995</v>
+      </c>
+      <c r="E107" s="3">
+        <v>1627</v>
+      </c>
+      <c r="F107">
+        <v>19.5</v>
+      </c>
+      <c r="G107">
+        <v>257</v>
+      </c>
+      <c r="H107">
+        <v>29.1</v>
+      </c>
+      <c r="I107">
+        <v>75</v>
+      </c>
+      <c r="J107">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="K107">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A108" s="2">
+        <v>43916</v>
+      </c>
+      <c r="B108" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108" s="3">
+        <v>3360</v>
+      </c>
+      <c r="E108" s="3">
+        <v>2245</v>
+      </c>
+      <c r="F108">
+        <v>26.8</v>
+      </c>
+      <c r="G108">
+        <v>341</v>
+      </c>
+      <c r="H108">
+        <v>38.6</v>
+      </c>
+      <c r="I108">
+        <v>230</v>
+      </c>
+      <c r="J108">
+        <v>27.1</v>
+      </c>
+      <c r="K108">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A109" s="2">
+        <v>43916</v>
+      </c>
+      <c r="B109" t="s">
+        <v>10</v>
+      </c>
+      <c r="C109" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="3">
+        <v>2318</v>
+      </c>
+      <c r="E109" s="3">
+        <v>1540</v>
+      </c>
+      <c r="F109">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="G109">
+        <v>32</v>
+      </c>
+      <c r="H109">
+        <v>3.6</v>
+      </c>
+      <c r="I109">
+        <v>369</v>
+      </c>
+      <c r="J109">
+        <v>43.4</v>
+      </c>
+      <c r="K109">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A110" s="2">
+        <v>43916</v>
+      </c>
+      <c r="B110" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110" t="s">
+        <v>13</v>
+      </c>
+      <c r="D110">
+        <v>548</v>
+      </c>
+      <c r="E110">
+        <v>334</v>
+      </c>
+      <c r="F110">
+        <v>4</v>
+      </c>
+      <c r="G110">
+        <v>5</v>
+      </c>
+      <c r="H110">
+        <v>0.6</v>
+      </c>
+      <c r="I110">
+        <v>132</v>
+      </c>
+      <c r="J110">
+        <v>15.5</v>
+      </c>
+      <c r="K110">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="7"/>
+      <c r="H111" s="7"/>
+      <c r="J111" s="7"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D112" s="3"/>
+    </row>
+    <row r="113" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D113" s="3"/>
+    </row>
+    <row r="114" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+    </row>
+    <row r="115" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D115" s="3"/>
+      <c r="E115" s="3"/>
+    </row>
+    <row r="116" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
+    </row>
+    <row r="117" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
+    </row>
+    <row r="119" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D119" s="3"/>
+      <c r="E119" s="3"/>
+      <c r="F119" s="7"/>
+      <c r="H119" s="7"/>
+      <c r="J119" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Covid-19_data_sexage.xlsx
+++ b/data/Covid-19_data_sexage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanjosevidal/Google Drive/Projects/Covid-19/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD258F03-9E6F-0341-A836-FF439ADE0C30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39815CF8-90A1-114A-9DA0-8960B6498A9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="960" windowWidth="28040" windowHeight="17040" xr2:uid="{C24317C9-D1BD-7248-BEC1-07839536F6EA}"/>
   </bookViews>
@@ -116,8 +116,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="6" xr16:uid="{37410649-CFF6-DD40-AA2D-A41F8321A833}" name="tabula-Actualizacion_57_COVID-19(1)" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_57_COVID-19(1).csv" decimal="," thousands="." tab="0" comma="1">
+  <connection id="6" xr16:uid="{37410649-CFF6-DD40-AA2D-A41F8321A833}" name="tabula-Actualizacion_57_COVID-19(1)" type="6" refreshedVersion="6" deleted="1" background="1" saveData="1">
+    <textPr sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_57_COVID-19(1).csv" decimal="," thousands="." tab="0" comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="26">
   <si>
     <t>0-9</t>
   </si>
@@ -282,7 +282,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -293,6 +293,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -312,27 +313,27 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_52_COVID-19" connectionId="1" xr16:uid="{35D81D28-1058-4347-9DE2-5F2763DAC2A4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_56_COVID-19(1)" connectionId="5" xr16:uid="{C5B10145-DA18-EE44-A918-E407BEA443E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_55_COVID-19" connectionId="4" xr16:uid="{10575DCA-3AE8-5C4C-A970-60205B471337}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_57_COVID-19(1)" connectionId="6" xr16:uid="{78E004BB-228B-5143-9AFE-91688C440A41}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_54_COVID-19" connectionId="3" xr16:uid="{E94F4815-0D2F-454F-8291-FCBF0C165C57}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_53_COVID-19" connectionId="2" xr16:uid="{31483431-2B39-A440-9E59-C26E082912EA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_52_COVID-19" connectionId="1" xr16:uid="{35D81D28-1058-4347-9DE2-5F2763DAC2A4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_56_COVID-19(1)" connectionId="5" xr16:uid="{C5B10145-DA18-EE44-A918-E407BEA443E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_55_COVID-19" connectionId="4" xr16:uid="{10575DCA-3AE8-5C4C-A970-60205B471337}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -632,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973FFFC2-62D5-A048-8409-BF1FADA21B40}">
-  <dimension ref="A1:L119"/>
+  <dimension ref="A1:T134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="F119" sqref="F119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -650,6 +651,14 @@
     <col min="9" max="9" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="29" x14ac:dyDescent="0.2">
@@ -4512,40 +4521,736 @@
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D111" s="3"/>
-      <c r="E111" s="3"/>
-      <c r="F111" s="7"/>
-      <c r="H111" s="7"/>
-      <c r="J111" s="7"/>
+      <c r="A111" s="2">
+        <v>43917</v>
+      </c>
+      <c r="B111" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" t="s">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>83</v>
+      </c>
+      <c r="E111">
+        <v>19</v>
+      </c>
+      <c r="F111">
+        <v>0.3</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D112" s="3"/>
-    </row>
-    <row r="113" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D113" s="3"/>
-    </row>
-    <row r="114" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D114" s="3"/>
-      <c r="E114" s="3"/>
-    </row>
-    <row r="115" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D115" s="3"/>
-      <c r="E115" s="3"/>
-    </row>
-    <row r="116" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D116" s="3"/>
-      <c r="E116" s="3"/>
-    </row>
-    <row r="117" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D117" s="3"/>
-      <c r="E117" s="3"/>
-    </row>
-    <row r="119" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D119" s="3"/>
-      <c r="E119" s="3"/>
-      <c r="F119" s="7"/>
-      <c r="H119" s="7"/>
-      <c r="J119" s="7"/>
+      <c r="A112" s="2">
+        <v>43917</v>
+      </c>
+      <c r="B112" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112">
+        <v>174</v>
+      </c>
+      <c r="E112">
+        <v>20</v>
+      </c>
+      <c r="F112">
+        <v>0.3</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
+      </c>
+      <c r="H112">
+        <v>0.3</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="J112">
+        <v>0.2</v>
+      </c>
+      <c r="K112">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A113" s="2">
+        <v>43917</v>
+      </c>
+      <c r="B113" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1</v>
+      </c>
+      <c r="D113" s="3">
+        <v>1228</v>
+      </c>
+      <c r="E113">
+        <v>140</v>
+      </c>
+      <c r="F113">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G113">
+        <v>8</v>
+      </c>
+      <c r="H113">
+        <v>2.1</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A114" s="2">
+        <v>43917</v>
+      </c>
+      <c r="B114" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" t="s">
+        <v>2</v>
+      </c>
+      <c r="D114" s="3">
+        <v>2148</v>
+      </c>
+      <c r="E114">
+        <v>314</v>
+      </c>
+      <c r="F114">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G114">
+        <v>13</v>
+      </c>
+      <c r="H114">
+        <v>3.4</v>
+      </c>
+      <c r="I114">
+        <v>4</v>
+      </c>
+      <c r="J114">
+        <v>0.7</v>
+      </c>
+      <c r="K114">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A115" s="2">
+        <v>43917</v>
+      </c>
+      <c r="B115" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115" t="s">
+        <v>3</v>
+      </c>
+      <c r="D115" s="3">
+        <v>2973</v>
+      </c>
+      <c r="E115">
+        <v>580</v>
+      </c>
+      <c r="F115">
+        <v>9.4</v>
+      </c>
+      <c r="G115">
+        <v>32</v>
+      </c>
+      <c r="H115">
+        <v>8.4</v>
+      </c>
+      <c r="I115">
+        <v>10</v>
+      </c>
+      <c r="J115">
+        <v>1.8</v>
+      </c>
+      <c r="K115">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A116" s="2">
+        <v>43917</v>
+      </c>
+      <c r="B116" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116" t="s">
+        <v>4</v>
+      </c>
+      <c r="D116" s="3">
+        <v>3368</v>
+      </c>
+      <c r="E116">
+        <v>869</v>
+      </c>
+      <c r="F116">
+        <v>14</v>
+      </c>
+      <c r="G116">
+        <v>67</v>
+      </c>
+      <c r="H116">
+        <v>17.7</v>
+      </c>
+      <c r="I116">
+        <v>8</v>
+      </c>
+      <c r="J116">
+        <v>1.5</v>
+      </c>
+      <c r="K116">
+        <v>0.2</v>
+      </c>
+      <c r="M116" s="8"/>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A117" s="2">
+        <v>43917</v>
+      </c>
+      <c r="B117" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117" t="s">
+        <v>5</v>
+      </c>
+      <c r="D117" s="3">
+        <v>2790</v>
+      </c>
+      <c r="E117" s="3">
+        <v>1238</v>
+      </c>
+      <c r="F117">
+        <v>20</v>
+      </c>
+      <c r="G117">
+        <v>110</v>
+      </c>
+      <c r="H117">
+        <v>29</v>
+      </c>
+      <c r="I117">
+        <v>45</v>
+      </c>
+      <c r="J117">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="K117">
+        <v>1.6</v>
+      </c>
+      <c r="N117" s="3"/>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A118" s="2">
+        <v>43917</v>
+      </c>
+      <c r="B118" t="s">
+        <v>9</v>
+      </c>
+      <c r="C118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D118" s="3">
+        <v>2396</v>
+      </c>
+      <c r="E118" s="3">
+        <v>1416</v>
+      </c>
+      <c r="F118">
+        <v>22.9</v>
+      </c>
+      <c r="G118">
+        <v>125</v>
+      </c>
+      <c r="H118">
+        <v>33</v>
+      </c>
+      <c r="I118">
+        <v>95</v>
+      </c>
+      <c r="J118">
+        <v>17.3</v>
+      </c>
+      <c r="K118">
+        <v>4</v>
+      </c>
+      <c r="N118" s="3"/>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A119" s="2">
+        <v>43917</v>
+      </c>
+      <c r="B119" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" s="3">
+        <v>2076</v>
+      </c>
+      <c r="E119" s="3">
+        <v>1181</v>
+      </c>
+      <c r="F119">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="G119">
+        <v>23</v>
+      </c>
+      <c r="H119">
+        <v>6.1</v>
+      </c>
+      <c r="I119">
+        <v>258</v>
+      </c>
+      <c r="J119">
+        <v>46.9</v>
+      </c>
+      <c r="K119">
+        <v>12.4</v>
+      </c>
+      <c r="N119" s="3"/>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A120" s="2">
+        <v>43917</v>
+      </c>
+      <c r="B120" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120" t="s">
+        <v>13</v>
+      </c>
+      <c r="D120">
+        <v>891</v>
+      </c>
+      <c r="E120">
+        <v>416</v>
+      </c>
+      <c r="F120">
+        <v>6.7</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>129</v>
+      </c>
+      <c r="J120">
+        <v>23.5</v>
+      </c>
+      <c r="K120">
+        <v>14.5</v>
+      </c>
+      <c r="N120" s="3"/>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A121" s="2">
+        <v>43917</v>
+      </c>
+      <c r="B121" t="s">
+        <v>10</v>
+      </c>
+      <c r="C121" t="s">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>103</v>
+      </c>
+      <c r="E121">
+        <v>30</v>
+      </c>
+      <c r="F121">
+        <v>0.3</v>
+      </c>
+      <c r="G121">
+        <v>1</v>
+      </c>
+      <c r="H121">
+        <v>0.1</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="N121" s="3"/>
+      <c r="O121" s="3"/>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A122" s="2">
+        <v>43917</v>
+      </c>
+      <c r="B122" t="s">
+        <v>10</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D122">
+        <v>143</v>
+      </c>
+      <c r="E122">
+        <v>15</v>
+      </c>
+      <c r="F122">
+        <v>0.2</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A123" s="2">
+        <v>43917</v>
+      </c>
+      <c r="B123" t="s">
+        <v>10</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>857</v>
+      </c>
+      <c r="E123">
+        <v>168</v>
+      </c>
+      <c r="F123">
+        <v>1.9</v>
+      </c>
+      <c r="G123">
+        <v>10</v>
+      </c>
+      <c r="H123">
+        <v>1</v>
+      </c>
+      <c r="I123">
+        <v>4</v>
+      </c>
+      <c r="J123">
+        <v>0.4</v>
+      </c>
+      <c r="K123">
+        <v>0.5</v>
+      </c>
+      <c r="N123" s="3"/>
+      <c r="O123" s="3"/>
+      <c r="P123" s="7"/>
+      <c r="R123" s="7"/>
+      <c r="T123" s="7"/>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A124" s="2">
+        <v>43917</v>
+      </c>
+      <c r="B124" t="s">
+        <v>10</v>
+      </c>
+      <c r="C124" t="s">
+        <v>2</v>
+      </c>
+      <c r="D124" s="3">
+        <v>1626</v>
+      </c>
+      <c r="E124">
+        <v>383</v>
+      </c>
+      <c r="F124">
+        <v>4.3</v>
+      </c>
+      <c r="G124">
+        <v>28</v>
+      </c>
+      <c r="H124">
+        <v>2.9</v>
+      </c>
+      <c r="I124">
+        <v>3</v>
+      </c>
+      <c r="J124">
+        <v>0.3</v>
+      </c>
+      <c r="K124">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A125" s="2">
+        <v>43917</v>
+      </c>
+      <c r="B125" t="s">
+        <v>10</v>
+      </c>
+      <c r="C125" t="s">
+        <v>3</v>
+      </c>
+      <c r="D125" s="3">
+        <v>2578</v>
+      </c>
+      <c r="E125">
+        <v>880</v>
+      </c>
+      <c r="F125">
+        <v>9.9</v>
+      </c>
+      <c r="G125">
+        <v>76</v>
+      </c>
+      <c r="H125">
+        <v>7.9</v>
+      </c>
+      <c r="I125">
+        <v>9</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+      <c r="K125">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A126" s="2">
+        <v>43917</v>
+      </c>
+      <c r="B126" t="s">
+        <v>10</v>
+      </c>
+      <c r="C126" t="s">
+        <v>4</v>
+      </c>
+      <c r="D126" s="3">
+        <v>3054</v>
+      </c>
+      <c r="E126" s="3">
+        <v>1331</v>
+      </c>
+      <c r="F126">
+        <v>15</v>
+      </c>
+      <c r="G126">
+        <v>159</v>
+      </c>
+      <c r="H126">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="I126">
+        <v>29</v>
+      </c>
+      <c r="J126">
+        <v>3.3</v>
+      </c>
+      <c r="K126">
+        <v>0.9</v>
+      </c>
+      <c r="M126" s="8"/>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A127" s="2">
+        <v>43917</v>
+      </c>
+      <c r="B127" t="s">
+        <v>10</v>
+      </c>
+      <c r="C127" t="s">
+        <v>5</v>
+      </c>
+      <c r="D127" s="3">
+        <v>3187</v>
+      </c>
+      <c r="E127" s="3">
+        <v>1760</v>
+      </c>
+      <c r="F127">
+        <v>19.8</v>
+      </c>
+      <c r="G127">
+        <v>282</v>
+      </c>
+      <c r="H127">
+        <v>29.4</v>
+      </c>
+      <c r="I127">
+        <v>78</v>
+      </c>
+      <c r="J127">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="K127">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A128" s="2">
+        <v>43917</v>
+      </c>
+      <c r="B128" t="s">
+        <v>10</v>
+      </c>
+      <c r="C128" t="s">
+        <v>6</v>
+      </c>
+      <c r="D128" s="3">
+        <v>3527</v>
+      </c>
+      <c r="E128" s="3">
+        <v>2372</v>
+      </c>
+      <c r="F128">
+        <v>26.7</v>
+      </c>
+      <c r="G128">
+        <v>365</v>
+      </c>
+      <c r="H128">
+        <v>38.1</v>
+      </c>
+      <c r="I128">
+        <v>248</v>
+      </c>
+      <c r="J128">
+        <v>27.8</v>
+      </c>
+      <c r="K128">
+        <v>7</v>
+      </c>
+      <c r="N128" s="3"/>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A129" s="2">
+        <v>43917</v>
+      </c>
+      <c r="B129" t="s">
+        <v>10</v>
+      </c>
+      <c r="C129" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" s="3">
+        <v>2421</v>
+      </c>
+      <c r="E129" s="3">
+        <v>1610</v>
+      </c>
+      <c r="F129">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="G129">
+        <v>33</v>
+      </c>
+      <c r="H129">
+        <v>3.4</v>
+      </c>
+      <c r="I129">
+        <v>384</v>
+      </c>
+      <c r="J129">
+        <v>43</v>
+      </c>
+      <c r="K129">
+        <v>15.9</v>
+      </c>
+      <c r="N129" s="3"/>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A130" s="2">
+        <v>43917</v>
+      </c>
+      <c r="B130" t="s">
+        <v>10</v>
+      </c>
+      <c r="C130" t="s">
+        <v>13</v>
+      </c>
+      <c r="D130">
+        <v>574</v>
+      </c>
+      <c r="E130">
+        <v>350</v>
+      </c>
+      <c r="F130">
+        <v>3.9</v>
+      </c>
+      <c r="G130">
+        <v>5</v>
+      </c>
+      <c r="H130">
+        <v>0.5</v>
+      </c>
+      <c r="I130">
+        <v>137</v>
+      </c>
+      <c r="J130">
+        <v>15.4</v>
+      </c>
+      <c r="K130">
+        <v>23.9</v>
+      </c>
+      <c r="N130" s="3"/>
+      <c r="O130" s="3"/>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="N131" s="3"/>
+      <c r="O131" s="3"/>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="N132" s="3"/>
+      <c r="O132" s="3"/>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="N134" s="3"/>
+      <c r="O134" s="3"/>
+      <c r="P134" s="7"/>
+      <c r="R134" s="7"/>
+      <c r="T134" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Covid-19_data_sexage.xlsx
+++ b/data/Covid-19_data_sexage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanjosevidal/Google Drive/Projects/Covid-19/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39815CF8-90A1-114A-9DA0-8960B6498A9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67242DE-09F3-8649-9EC7-E2B80B9FE9FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="960" windowWidth="28040" windowHeight="17040" xr2:uid="{C24317C9-D1BD-7248-BEC1-07839536F6EA}"/>
   </bookViews>
@@ -23,6 +23,7 @@
     <definedName name="tabula_Actualizacion_55_COVID_19" localSheetId="0">Data!$C$51:$K$70</definedName>
     <definedName name="tabula_Actualizacion_56_COVID_19_1" localSheetId="0">Data!$C$71:$K$90</definedName>
     <definedName name="tabula_Actualizacion_57_COVID_19_1" localSheetId="0">Data!$C$98:$K$119</definedName>
+    <definedName name="tabula_Actualizacion_59_COVID_19_1" localSheetId="0">Data!$C$131:$K$150</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -131,11 +132,26 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="7" xr16:uid="{33B57B82-ABB6-7041-94AC-43345A0A99E1}" name="tabula-Actualizacion_59_COVID-19(1)" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_59_COVID-19(1).csv" decimal="," thousands="." tab="0" comma="1">
+      <textFields count="9">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="26">
   <si>
     <t>0-9</t>
   </si>
@@ -313,27 +329,31 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_59_COVID-19(1)" connectionId="7" xr16:uid="{6E93CE4F-1115-D449-959A-2A7263C31ABC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_54_COVID-19" connectionId="3" xr16:uid="{E94F4815-0D2F-454F-8291-FCBF0C165C57}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_53_COVID-19" connectionId="2" xr16:uid="{31483431-2B39-A440-9E59-C26E082912EA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_52_COVID-19" connectionId="1" xr16:uid="{35D81D28-1058-4347-9DE2-5F2763DAC2A4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_56_COVID-19(1)" connectionId="5" xr16:uid="{C5B10145-DA18-EE44-A918-E407BEA443E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_55_COVID-19" connectionId="4" xr16:uid="{10575DCA-3AE8-5C4C-A970-60205B471337}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_57_COVID-19(1)" connectionId="6" xr16:uid="{78E004BB-228B-5143-9AFE-91688C440A41}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_54_COVID-19" connectionId="3" xr16:uid="{E94F4815-0D2F-454F-8291-FCBF0C165C57}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_53_COVID-19" connectionId="2" xr16:uid="{31483431-2B39-A440-9E59-C26E082912EA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -633,23 +653,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973FFFC2-62D5-A048-8409-BF1FADA21B40}">
-  <dimension ref="A1:T134"/>
+  <dimension ref="A1:T150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="F119" sqref="F119"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="E140" sqref="E140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.6640625" bestFit="1" customWidth="1"/>
@@ -5238,19 +5256,713 @@
       <c r="O130" s="3"/>
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A131" s="2">
+        <v>43918</v>
+      </c>
+      <c r="B131" t="s">
+        <v>9</v>
+      </c>
+      <c r="C131" t="s">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>96</v>
+      </c>
+      <c r="E131">
+        <v>26</v>
+      </c>
+      <c r="F131">
+        <v>0.3</v>
+      </c>
+      <c r="G131">
+        <v>1</v>
+      </c>
+      <c r="H131">
+        <v>0.2</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
       <c r="N131" s="3"/>
       <c r="O131" s="3"/>
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A132" s="2">
+        <v>43918</v>
+      </c>
+      <c r="B132" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D132">
+        <v>195</v>
+      </c>
+      <c r="E132">
+        <v>25</v>
+      </c>
+      <c r="F132">
+        <v>0.3</v>
+      </c>
+      <c r="G132">
+        <v>1</v>
+      </c>
+      <c r="H132">
+        <v>0.2</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <v>0.1</v>
+      </c>
+      <c r="K132">
+        <v>0.5</v>
+      </c>
       <c r="N132" s="3"/>
       <c r="O132" s="3"/>
     </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A133" s="2">
+        <v>43918</v>
+      </c>
+      <c r="B133" t="s">
+        <v>9</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1</v>
+      </c>
+      <c r="D133" s="3">
+        <v>1693</v>
+      </c>
+      <c r="E133">
+        <v>218</v>
+      </c>
+      <c r="F133">
+        <v>2.4</v>
+      </c>
+      <c r="G133">
+        <v>9</v>
+      </c>
+      <c r="H133">
+        <v>1.9</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+    </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A134" s="2">
+        <v>43918</v>
+      </c>
+      <c r="B134" t="s">
+        <v>9</v>
+      </c>
+      <c r="C134" t="s">
+        <v>2</v>
+      </c>
+      <c r="D134" s="3">
+        <v>2957</v>
+      </c>
+      <c r="E134">
+        <v>486</v>
+      </c>
+      <c r="F134">
+        <v>5.3</v>
+      </c>
+      <c r="G134">
+        <v>18</v>
+      </c>
+      <c r="H134">
+        <v>3.8</v>
+      </c>
+      <c r="I134">
+        <v>5</v>
+      </c>
+      <c r="J134">
+        <v>0.5</v>
+      </c>
+      <c r="K134">
+        <v>0.2</v>
+      </c>
       <c r="N134" s="3"/>
       <c r="O134" s="3"/>
       <c r="P134" s="7"/>
       <c r="R134" s="7"/>
       <c r="T134" s="7"/>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A135" s="2">
+        <v>43918</v>
+      </c>
+      <c r="B135" t="s">
+        <v>9</v>
+      </c>
+      <c r="C135" t="s">
+        <v>3</v>
+      </c>
+      <c r="D135" s="3">
+        <v>4143</v>
+      </c>
+      <c r="E135">
+        <v>886</v>
+      </c>
+      <c r="F135">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G135">
+        <v>38</v>
+      </c>
+      <c r="H135">
+        <v>8</v>
+      </c>
+      <c r="I135">
+        <v>16</v>
+      </c>
+      <c r="J135">
+        <v>1.6</v>
+      </c>
+      <c r="K135">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A136" s="2">
+        <v>43918</v>
+      </c>
+      <c r="B136" t="s">
+        <v>9</v>
+      </c>
+      <c r="C136" t="s">
+        <v>4</v>
+      </c>
+      <c r="D136" s="3">
+        <v>4751</v>
+      </c>
+      <c r="E136" s="3">
+        <v>1293</v>
+      </c>
+      <c r="F136">
+        <v>14.1</v>
+      </c>
+      <c r="G136">
+        <v>83</v>
+      </c>
+      <c r="H136">
+        <v>17.5</v>
+      </c>
+      <c r="I136">
+        <v>18</v>
+      </c>
+      <c r="J136">
+        <v>1.8</v>
+      </c>
+      <c r="K136">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A137" s="2">
+        <v>43918</v>
+      </c>
+      <c r="B137" t="s">
+        <v>9</v>
+      </c>
+      <c r="C137" t="s">
+        <v>5</v>
+      </c>
+      <c r="D137" s="3">
+        <v>3903</v>
+      </c>
+      <c r="E137" s="3">
+        <v>1804</v>
+      </c>
+      <c r="F137">
+        <v>19.7</v>
+      </c>
+      <c r="G137">
+        <v>146</v>
+      </c>
+      <c r="H137">
+        <v>30.7</v>
+      </c>
+      <c r="I137">
+        <v>75</v>
+      </c>
+      <c r="J137">
+        <v>7.4</v>
+      </c>
+      <c r="K137">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A138" s="2">
+        <v>43918</v>
+      </c>
+      <c r="B138" t="s">
+        <v>9</v>
+      </c>
+      <c r="C138" t="s">
+        <v>6</v>
+      </c>
+      <c r="D138" s="3">
+        <v>3422</v>
+      </c>
+      <c r="E138" s="3">
+        <v>2176</v>
+      </c>
+      <c r="F138">
+        <v>23.8</v>
+      </c>
+      <c r="G138">
+        <v>155</v>
+      </c>
+      <c r="H138">
+        <v>32.6</v>
+      </c>
+      <c r="I138">
+        <v>213</v>
+      </c>
+      <c r="J138">
+        <v>21.1</v>
+      </c>
+      <c r="K138">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A139" s="2">
+        <v>43918</v>
+      </c>
+      <c r="B139" t="s">
+        <v>9</v>
+      </c>
+      <c r="C139" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" s="3">
+        <v>2820</v>
+      </c>
+      <c r="E139" s="3">
+        <v>1699</v>
+      </c>
+      <c r="F139">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="G139">
+        <v>24</v>
+      </c>
+      <c r="H139">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I139">
+        <v>467</v>
+      </c>
+      <c r="J139">
+        <v>46.2</v>
+      </c>
+      <c r="K139">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A140" s="2">
+        <v>43918</v>
+      </c>
+      <c r="B140" t="s">
+        <v>9</v>
+      </c>
+      <c r="C140" t="s">
+        <v>13</v>
+      </c>
+      <c r="D140" s="3">
+        <v>1074</v>
+      </c>
+      <c r="E140">
+        <v>544</v>
+      </c>
+      <c r="F140">
+        <v>5.9</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>215</v>
+      </c>
+      <c r="J140">
+        <v>21.3</v>
+      </c>
+      <c r="K140">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A141" s="2">
+        <v>43918</v>
+      </c>
+      <c r="B141" t="s">
+        <v>10</v>
+      </c>
+      <c r="C141" t="s">
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>110</v>
+      </c>
+      <c r="E141">
+        <v>39</v>
+      </c>
+      <c r="F141">
+        <v>0.3</v>
+      </c>
+      <c r="G141">
+        <v>2</v>
+      </c>
+      <c r="H141">
+        <v>0.2</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A142" s="2">
+        <v>43918</v>
+      </c>
+      <c r="B142" t="s">
+        <v>10</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D142">
+        <v>162</v>
+      </c>
+      <c r="E142">
+        <v>22</v>
+      </c>
+      <c r="F142">
+        <v>0.2</v>
+      </c>
+      <c r="G142">
+        <v>1</v>
+      </c>
+      <c r="H142">
+        <v>0.1</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A143" s="2">
+        <v>43918</v>
+      </c>
+      <c r="B143" t="s">
+        <v>10</v>
+      </c>
+      <c r="C143" t="s">
+        <v>1</v>
+      </c>
+      <c r="D143" s="3">
+        <v>1106</v>
+      </c>
+      <c r="E143">
+        <v>224</v>
+      </c>
+      <c r="F143">
+        <v>1.7</v>
+      </c>
+      <c r="G143">
+        <v>13</v>
+      </c>
+      <c r="H143">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I143">
+        <v>6</v>
+      </c>
+      <c r="J143">
+        <v>0.4</v>
+      </c>
+      <c r="K143">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A144" s="2">
+        <v>43918</v>
+      </c>
+      <c r="B144" t="s">
+        <v>10</v>
+      </c>
+      <c r="C144" t="s">
+        <v>2</v>
+      </c>
+      <c r="D144" s="3">
+        <v>2210</v>
+      </c>
+      <c r="E144">
+        <v>584</v>
+      </c>
+      <c r="F144">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G144">
+        <v>42</v>
+      </c>
+      <c r="H144">
+        <v>3.5</v>
+      </c>
+      <c r="I144">
+        <v>5</v>
+      </c>
+      <c r="J144">
+        <v>0.3</v>
+      </c>
+      <c r="K144">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A145" s="2">
+        <v>43918</v>
+      </c>
+      <c r="B145" t="s">
+        <v>10</v>
+      </c>
+      <c r="C145" t="s">
+        <v>3</v>
+      </c>
+      <c r="D145" s="3">
+        <v>3586</v>
+      </c>
+      <c r="E145" s="3">
+        <v>1317</v>
+      </c>
+      <c r="F145">
+        <v>9.9</v>
+      </c>
+      <c r="G145">
+        <v>96</v>
+      </c>
+      <c r="H145">
+        <v>7.9</v>
+      </c>
+      <c r="I145">
+        <v>19</v>
+      </c>
+      <c r="J145">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K145">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A146" s="2">
+        <v>43918</v>
+      </c>
+      <c r="B146" t="s">
+        <v>10</v>
+      </c>
+      <c r="C146" t="s">
+        <v>4</v>
+      </c>
+      <c r="D146" s="3">
+        <v>4382</v>
+      </c>
+      <c r="E146" s="3">
+        <v>2056</v>
+      </c>
+      <c r="F146">
+        <v>15.5</v>
+      </c>
+      <c r="G146">
+        <v>202</v>
+      </c>
+      <c r="H146">
+        <v>16.7</v>
+      </c>
+      <c r="I146">
+        <v>55</v>
+      </c>
+      <c r="J146">
+        <v>3.2</v>
+      </c>
+      <c r="K146">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A147" s="2">
+        <v>43918</v>
+      </c>
+      <c r="B147" t="s">
+        <v>10</v>
+      </c>
+      <c r="C147" t="s">
+        <v>5</v>
+      </c>
+      <c r="D147" s="3">
+        <v>4589</v>
+      </c>
+      <c r="E147" s="3">
+        <v>2654</v>
+      </c>
+      <c r="F147">
+        <v>20</v>
+      </c>
+      <c r="G147">
+        <v>373</v>
+      </c>
+      <c r="H147">
+        <v>30.8</v>
+      </c>
+      <c r="I147">
+        <v>150</v>
+      </c>
+      <c r="J147">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="K147">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A148" s="2">
+        <v>43918</v>
+      </c>
+      <c r="B148" t="s">
+        <v>10</v>
+      </c>
+      <c r="C148" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148" s="3">
+        <v>4994</v>
+      </c>
+      <c r="E148" s="3">
+        <v>3551</v>
+      </c>
+      <c r="F148">
+        <v>26.8</v>
+      </c>
+      <c r="G148">
+        <v>442</v>
+      </c>
+      <c r="H148">
+        <v>36.5</v>
+      </c>
+      <c r="I148">
+        <v>541</v>
+      </c>
+      <c r="J148">
+        <v>31.6</v>
+      </c>
+      <c r="K148">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A149" s="2">
+        <v>43918</v>
+      </c>
+      <c r="B149" t="s">
+        <v>10</v>
+      </c>
+      <c r="C149" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149" s="3">
+        <v>3297</v>
+      </c>
+      <c r="E149" s="3">
+        <v>2355</v>
+      </c>
+      <c r="F149">
+        <v>17.7</v>
+      </c>
+      <c r="G149">
+        <v>38</v>
+      </c>
+      <c r="H149">
+        <v>3.1</v>
+      </c>
+      <c r="I149">
+        <v>720</v>
+      </c>
+      <c r="J149">
+        <v>42</v>
+      </c>
+      <c r="K149">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A150" s="2">
+        <v>43918</v>
+      </c>
+      <c r="B150" t="s">
+        <v>10</v>
+      </c>
+      <c r="C150" t="s">
+        <v>13</v>
+      </c>
+      <c r="D150">
+        <v>730</v>
+      </c>
+      <c r="E150">
+        <v>470</v>
+      </c>
+      <c r="F150">
+        <v>3.5</v>
+      </c>
+      <c r="G150">
+        <v>3</v>
+      </c>
+      <c r="H150">
+        <v>0.2</v>
+      </c>
+      <c r="I150">
+        <v>218</v>
+      </c>
+      <c r="J150">
+        <v>12.7</v>
+      </c>
+      <c r="K150">
+        <v>29.9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Covid-19_data_sexage.xlsx
+++ b/data/Covid-19_data_sexage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanjosevidal/Google Drive/Projects/Covid-19/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67242DE-09F3-8649-9EC7-E2B80B9FE9FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D949CAB-57CD-794F-A76A-725D58204E78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="960" windowWidth="28040" windowHeight="17040" xr2:uid="{C24317C9-D1BD-7248-BEC1-07839536F6EA}"/>
   </bookViews>
@@ -24,6 +24,7 @@
     <definedName name="tabula_Actualizacion_56_COVID_19_1" localSheetId="0">Data!$C$71:$K$90</definedName>
     <definedName name="tabula_Actualizacion_57_COVID_19_1" localSheetId="0">Data!$C$98:$K$119</definedName>
     <definedName name="tabula_Actualizacion_59_COVID_19_1" localSheetId="0">Data!$C$131:$K$150</definedName>
+    <definedName name="tabula_Actualizacion_60_COVID_19_1" localSheetId="0">Data!$C$151:$K$170</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -132,8 +133,23 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="7" xr16:uid="{33B57B82-ABB6-7041-94AC-43345A0A99E1}" name="tabula-Actualizacion_59_COVID-19(1)" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_59_COVID-19(1).csv" decimal="," thousands="." tab="0" comma="1">
+  <connection id="7" xr16:uid="{33B57B82-ABB6-7041-94AC-43345A0A99E1}" name="tabula-Actualizacion_59_COVID-19(1)" type="6" refreshedVersion="6" deleted="1" background="1" saveData="1">
+    <textPr sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_59_COVID-19(1).csv" decimal="," thousands="." tab="0" comma="1">
+      <textFields count="9">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="8" xr16:uid="{A9429E75-1A5A-044E-88AF-5622DFE215C2}" name="tabula-Actualizacion_60_COVID-19(1)" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_60_COVID-19(1).csv" decimal="," thousands="." tab="0" comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -151,7 +167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="26">
   <si>
     <t>0-9</t>
   </si>
@@ -329,7 +345,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_59_COVID-19(1)" connectionId="7" xr16:uid="{6E93CE4F-1115-D449-959A-2A7263C31ABC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_60_COVID-19(1)" connectionId="8" xr16:uid="{C2F0088C-0355-9A48-BE55-175198337C67}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -337,23 +353,27 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_57_COVID-19(1)" connectionId="6" xr16:uid="{78E004BB-228B-5143-9AFE-91688C440A41}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_53_COVID-19" connectionId="2" xr16:uid="{31483431-2B39-A440-9E59-C26E082912EA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_52_COVID-19" connectionId="1" xr16:uid="{35D81D28-1058-4347-9DE2-5F2763DAC2A4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_56_COVID-19(1)" connectionId="5" xr16:uid="{C5B10145-DA18-EE44-A918-E407BEA443E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_55_COVID-19" connectionId="4" xr16:uid="{10575DCA-3AE8-5C4C-A970-60205B471337}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_57_COVID-19(1)" connectionId="6" xr16:uid="{78E004BB-228B-5143-9AFE-91688C440A41}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_59_COVID-19(1)" connectionId="7" xr16:uid="{6E93CE4F-1115-D449-959A-2A7263C31ABC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -653,22 +673,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973FFFC2-62D5-A048-8409-BF1FADA21B40}">
-  <dimension ref="A1:T150"/>
+  <dimension ref="A1:T170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="E140" sqref="E140"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="C161" sqref="C161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="5.6640625" bestFit="1" customWidth="1"/>
@@ -5962,6 +5982,706 @@
       </c>
       <c r="K150">
         <v>29.9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A151" s="2">
+        <v>43919</v>
+      </c>
+      <c r="B151" t="s">
+        <v>9</v>
+      </c>
+      <c r="C151" t="s">
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <v>98</v>
+      </c>
+      <c r="E151">
+        <v>26</v>
+      </c>
+      <c r="F151">
+        <v>0.3</v>
+      </c>
+      <c r="G151">
+        <v>1</v>
+      </c>
+      <c r="H151">
+        <v>0.2</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A152" s="2">
+        <v>43919</v>
+      </c>
+      <c r="B152" t="s">
+        <v>9</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D152">
+        <v>197</v>
+      </c>
+      <c r="E152">
+        <v>26</v>
+      </c>
+      <c r="F152">
+        <v>0.3</v>
+      </c>
+      <c r="G152">
+        <v>1</v>
+      </c>
+      <c r="H152">
+        <v>0.2</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+      <c r="J152">
+        <v>0.1</v>
+      </c>
+      <c r="K152">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A153" s="2">
+        <v>43919</v>
+      </c>
+      <c r="B153" t="s">
+        <v>9</v>
+      </c>
+      <c r="C153" t="s">
+        <v>1</v>
+      </c>
+      <c r="D153" s="3">
+        <v>1749</v>
+      </c>
+      <c r="E153">
+        <v>221</v>
+      </c>
+      <c r="F153">
+        <v>2.4</v>
+      </c>
+      <c r="G153">
+        <v>9</v>
+      </c>
+      <c r="H153">
+        <v>1.8</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A154" s="2">
+        <v>43919</v>
+      </c>
+      <c r="B154" t="s">
+        <v>9</v>
+      </c>
+      <c r="C154" t="s">
+        <v>2</v>
+      </c>
+      <c r="D154" s="3">
+        <v>3069</v>
+      </c>
+      <c r="E154">
+        <v>503</v>
+      </c>
+      <c r="F154">
+        <v>5.4</v>
+      </c>
+      <c r="G154">
+        <v>21</v>
+      </c>
+      <c r="H154">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I154">
+        <v>5</v>
+      </c>
+      <c r="J154">
+        <v>0.5</v>
+      </c>
+      <c r="K154">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A155" s="2">
+        <v>43919</v>
+      </c>
+      <c r="B155" t="s">
+        <v>9</v>
+      </c>
+      <c r="C155" t="s">
+        <v>3</v>
+      </c>
+      <c r="D155" s="3">
+        <v>4265</v>
+      </c>
+      <c r="E155">
+        <v>903</v>
+      </c>
+      <c r="F155">
+        <v>9.6</v>
+      </c>
+      <c r="G155">
+        <v>44</v>
+      </c>
+      <c r="H155">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I155">
+        <v>16</v>
+      </c>
+      <c r="J155">
+        <v>1.6</v>
+      </c>
+      <c r="K155">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A156" s="2">
+        <v>43919</v>
+      </c>
+      <c r="B156" t="s">
+        <v>9</v>
+      </c>
+      <c r="C156" t="s">
+        <v>4</v>
+      </c>
+      <c r="D156" s="3">
+        <v>4897</v>
+      </c>
+      <c r="E156" s="3">
+        <v>1330</v>
+      </c>
+      <c r="F156">
+        <v>14.2</v>
+      </c>
+      <c r="G156">
+        <v>87</v>
+      </c>
+      <c r="H156">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="I156">
+        <v>19</v>
+      </c>
+      <c r="J156">
+        <v>1.9</v>
+      </c>
+      <c r="K156">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A157" s="2">
+        <v>43919</v>
+      </c>
+      <c r="B157" t="s">
+        <v>9</v>
+      </c>
+      <c r="C157" t="s">
+        <v>5</v>
+      </c>
+      <c r="D157" s="3">
+        <v>4014</v>
+      </c>
+      <c r="E157" s="3">
+        <v>1863</v>
+      </c>
+      <c r="F157">
+        <v>19.8</v>
+      </c>
+      <c r="G157">
+        <v>157</v>
+      </c>
+      <c r="H157">
+        <v>30.9</v>
+      </c>
+      <c r="I157">
+        <v>78</v>
+      </c>
+      <c r="J157">
+        <v>7.6</v>
+      </c>
+      <c r="K157">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A158" s="2">
+        <v>43919</v>
+      </c>
+      <c r="B158" t="s">
+        <v>9</v>
+      </c>
+      <c r="C158" t="s">
+        <v>6</v>
+      </c>
+      <c r="D158" s="3">
+        <v>3519</v>
+      </c>
+      <c r="E158" s="3">
+        <v>2232</v>
+      </c>
+      <c r="F158">
+        <v>23.8</v>
+      </c>
+      <c r="G158">
+        <v>160</v>
+      </c>
+      <c r="H158">
+        <v>31.5</v>
+      </c>
+      <c r="I158">
+        <v>209</v>
+      </c>
+      <c r="J158">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="K158">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A159" s="2">
+        <v>43919</v>
+      </c>
+      <c r="B159" t="s">
+        <v>9</v>
+      </c>
+      <c r="C159" t="s">
+        <v>12</v>
+      </c>
+      <c r="D159" s="3">
+        <v>2892</v>
+      </c>
+      <c r="E159" s="3">
+        <v>1738</v>
+      </c>
+      <c r="F159">
+        <v>18.5</v>
+      </c>
+      <c r="G159">
+        <v>28</v>
+      </c>
+      <c r="H159">
+        <v>5.5</v>
+      </c>
+      <c r="I159">
+        <v>475</v>
+      </c>
+      <c r="J159">
+        <v>46.4</v>
+      </c>
+      <c r="K159">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A160" s="2">
+        <v>43919</v>
+      </c>
+      <c r="B160" t="s">
+        <v>9</v>
+      </c>
+      <c r="C160" t="s">
+        <v>13</v>
+      </c>
+      <c r="D160" s="3">
+        <v>1096</v>
+      </c>
+      <c r="E160">
+        <v>551</v>
+      </c>
+      <c r="F160">
+        <v>5.9</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160">
+        <v>221</v>
+      </c>
+      <c r="J160">
+        <v>21.6</v>
+      </c>
+      <c r="K160">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A161" s="2">
+        <v>43919</v>
+      </c>
+      <c r="B161" t="s">
+        <v>10</v>
+      </c>
+      <c r="C161" t="s">
+        <v>0</v>
+      </c>
+      <c r="D161">
+        <v>113</v>
+      </c>
+      <c r="E161">
+        <v>39</v>
+      </c>
+      <c r="F161">
+        <v>0.3</v>
+      </c>
+      <c r="G161">
+        <v>2</v>
+      </c>
+      <c r="H161">
+        <v>0.2</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A162" s="2">
+        <v>43919</v>
+      </c>
+      <c r="B162" t="s">
+        <v>10</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D162">
+        <v>168</v>
+      </c>
+      <c r="E162">
+        <v>23</v>
+      </c>
+      <c r="F162">
+        <v>0.2</v>
+      </c>
+      <c r="G162">
+        <v>1</v>
+      </c>
+      <c r="H162">
+        <v>0.1</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A163" s="2">
+        <v>43919</v>
+      </c>
+      <c r="B163" t="s">
+        <v>10</v>
+      </c>
+      <c r="C163" t="s">
+        <v>1</v>
+      </c>
+      <c r="D163" s="3">
+        <v>1130</v>
+      </c>
+      <c r="E163">
+        <v>228</v>
+      </c>
+      <c r="F163">
+        <v>1.7</v>
+      </c>
+      <c r="G163">
+        <v>13</v>
+      </c>
+      <c r="H163">
+        <v>1</v>
+      </c>
+      <c r="I163">
+        <v>6</v>
+      </c>
+      <c r="J163">
+        <v>0.3</v>
+      </c>
+      <c r="K163">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A164" s="2">
+        <v>43919</v>
+      </c>
+      <c r="B164" t="s">
+        <v>10</v>
+      </c>
+      <c r="C164" t="s">
+        <v>2</v>
+      </c>
+      <c r="D164" s="3">
+        <v>2281</v>
+      </c>
+      <c r="E164">
+        <v>596</v>
+      </c>
+      <c r="F164">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G164">
+        <v>44</v>
+      </c>
+      <c r="H164">
+        <v>3.5</v>
+      </c>
+      <c r="I164">
+        <v>5</v>
+      </c>
+      <c r="J164">
+        <v>0.3</v>
+      </c>
+      <c r="K164">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A165" s="2">
+        <v>43919</v>
+      </c>
+      <c r="B165" t="s">
+        <v>10</v>
+      </c>
+      <c r="C165" t="s">
+        <v>3</v>
+      </c>
+      <c r="D165" s="3">
+        <v>3696</v>
+      </c>
+      <c r="E165" s="3">
+        <v>1346</v>
+      </c>
+      <c r="F165">
+        <v>9.9</v>
+      </c>
+      <c r="G165">
+        <v>101</v>
+      </c>
+      <c r="H165">
+        <v>8</v>
+      </c>
+      <c r="I165">
+        <v>20</v>
+      </c>
+      <c r="J165">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K165">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A166" s="2">
+        <v>43919</v>
+      </c>
+      <c r="B166" t="s">
+        <v>10</v>
+      </c>
+      <c r="C166" t="s">
+        <v>4</v>
+      </c>
+      <c r="D166" s="3">
+        <v>4490</v>
+      </c>
+      <c r="E166" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F166">
+        <v>15.5</v>
+      </c>
+      <c r="G166">
+        <v>207</v>
+      </c>
+      <c r="H166">
+        <v>16.3</v>
+      </c>
+      <c r="I166">
+        <v>59</v>
+      </c>
+      <c r="J166">
+        <v>3.4</v>
+      </c>
+      <c r="K166">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A167" s="2">
+        <v>43919</v>
+      </c>
+      <c r="B167" t="s">
+        <v>10</v>
+      </c>
+      <c r="C167" t="s">
+        <v>5</v>
+      </c>
+      <c r="D167" s="3">
+        <v>4727</v>
+      </c>
+      <c r="E167" s="3">
+        <v>2745</v>
+      </c>
+      <c r="F167">
+        <v>20.2</v>
+      </c>
+      <c r="G167">
+        <v>398</v>
+      </c>
+      <c r="H167">
+        <v>31.4</v>
+      </c>
+      <c r="I167">
+        <v>154</v>
+      </c>
+      <c r="J167">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="K167">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A168" s="2">
+        <v>43919</v>
+      </c>
+      <c r="B168" t="s">
+        <v>10</v>
+      </c>
+      <c r="C168" t="s">
+        <v>6</v>
+      </c>
+      <c r="D168" s="3">
+        <v>5105</v>
+      </c>
+      <c r="E168" s="3">
+        <v>3634</v>
+      </c>
+      <c r="F168">
+        <v>26.8</v>
+      </c>
+      <c r="G168">
+        <v>460</v>
+      </c>
+      <c r="H168">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="I168">
+        <v>550</v>
+      </c>
+      <c r="J168">
+        <v>31.3</v>
+      </c>
+      <c r="K168">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A169" s="2">
+        <v>43919</v>
+      </c>
+      <c r="B169" t="s">
+        <v>10</v>
+      </c>
+      <c r="C169" t="s">
+        <v>12</v>
+      </c>
+      <c r="D169" s="3">
+        <v>3362</v>
+      </c>
+      <c r="E169" s="3">
+        <v>2398</v>
+      </c>
+      <c r="F169">
+        <v>17.7</v>
+      </c>
+      <c r="G169">
+        <v>40</v>
+      </c>
+      <c r="H169">
+        <v>3.2</v>
+      </c>
+      <c r="I169">
+        <v>740</v>
+      </c>
+      <c r="J169">
+        <v>42.1</v>
+      </c>
+      <c r="K169">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A170" s="2">
+        <v>43919</v>
+      </c>
+      <c r="B170" t="s">
+        <v>10</v>
+      </c>
+      <c r="C170" t="s">
+        <v>13</v>
+      </c>
+      <c r="D170">
+        <v>737</v>
+      </c>
+      <c r="E170">
+        <v>475</v>
+      </c>
+      <c r="F170">
+        <v>3.5</v>
+      </c>
+      <c r="G170">
+        <v>3</v>
+      </c>
+      <c r="H170">
+        <v>0.2</v>
+      </c>
+      <c r="I170">
+        <v>225</v>
+      </c>
+      <c r="J170">
+        <v>12.8</v>
+      </c>
+      <c r="K170">
+        <v>30.5</v>
       </c>
     </row>
   </sheetData>

--- a/data/Covid-19_data_sexage.xlsx
+++ b/data/Covid-19_data_sexage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanjosevidal/Google Drive/Projects/Covid-19/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D949CAB-57CD-794F-A76A-725D58204E78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E7A522-F14C-744A-90E3-71A78BB7BE07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="960" windowWidth="28040" windowHeight="17040" xr2:uid="{C24317C9-D1BD-7248-BEC1-07839536F6EA}"/>
   </bookViews>
@@ -25,6 +25,8 @@
     <definedName name="tabula_Actualizacion_57_COVID_19_1" localSheetId="0">Data!$C$98:$K$119</definedName>
     <definedName name="tabula_Actualizacion_59_COVID_19_1" localSheetId="0">Data!$C$131:$K$150</definedName>
     <definedName name="tabula_Actualizacion_60_COVID_19_1" localSheetId="0">Data!$C$151:$K$170</definedName>
+    <definedName name="tabula_Actualizacion_61_COVID_19_1" localSheetId="0">Data!$C$171:$J$190</definedName>
+    <definedName name="tabula_Actualizacion_61_COVID_19_2__1" localSheetId="0">Data!$C$171:$K$190</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -149,7 +151,36 @@
     </textPr>
   </connection>
   <connection id="8" xr16:uid="{A9429E75-1A5A-044E-88AF-5622DFE215C2}" name="tabula-Actualizacion_60_COVID-19(1)" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_60_COVID-19(1).csv" decimal="," thousands="." tab="0" comma="1">
+    <textPr sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_60_COVID-19(1).csv" decimal="," thousands="." tab="0" comma="1">
+      <textFields count="9">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="9" xr16:uid="{CE6A5852-6006-874F-A184-E7958FDEC2FB}" name="tabula-Actualizacion_61_COVID-19(1)" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_61_COVID-19(1).csv" decimal="," thousands="." tab="0" comma="1">
+      <textFields count="8">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="10" xr16:uid="{7DEEBD45-E8DB-D847-9CA3-346E41F5C2FA}" name="tabula-Actualizacion_61_COVID-19(2)1" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_61_COVID-19(2).csv" decimal="," thousands="." tab="0" comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -167,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="26">
   <si>
     <t>0-9</t>
   </si>
@@ -345,15 +376,19 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_60_COVID-19(1)" connectionId="8" xr16:uid="{C2F0088C-0355-9A48-BE55-175198337C67}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(2)_1" connectionId="10" xr16:uid="{252D0C3F-8429-6D40-AFE6-2BAFDCF71E62}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_57_COVID-19(1)" connectionId="6" xr16:uid="{78E004BB-228B-5143-9AFE-91688C440A41}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_54_COVID-19" connectionId="3" xr16:uid="{E94F4815-0D2F-454F-8291-FCBF0C165C57}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(1)" connectionId="9" xr16:uid="{C813FA0B-4B7A-0743-B527-E10C07F0E6C8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_57_COVID-19(1)" connectionId="6" xr16:uid="{78E004BB-228B-5143-9AFE-91688C440A41}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_59_COVID-19(1)" connectionId="7" xr16:uid="{6E93CE4F-1115-D449-959A-2A7263C31ABC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -369,11 +404,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_55_COVID-19" connectionId="4" xr16:uid="{10575DCA-3AE8-5C4C-A970-60205B471337}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_60_COVID-19(1)" connectionId="8" xr16:uid="{C2F0088C-0355-9A48-BE55-175198337C67}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_59_COVID-19(1)" connectionId="7" xr16:uid="{6E93CE4F-1115-D449-959A-2A7263C31ABC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_54_COVID-19" connectionId="3" xr16:uid="{E94F4815-0D2F-454F-8291-FCBF0C165C57}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_55_COVID-19" connectionId="4" xr16:uid="{10575DCA-3AE8-5C4C-A970-60205B471337}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -673,30 +712,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973FFFC2-62D5-A048-8409-BF1FADA21B40}">
-  <dimension ref="A1:T170"/>
+  <dimension ref="A1:T211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="C161" sqref="C161"/>
+    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
+      <selection activeCell="G177" sqref="G177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="5.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="29" x14ac:dyDescent="0.2">
@@ -6683,6 +6720,766 @@
       <c r="K170">
         <v>30.5</v>
       </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A171" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B171" t="s">
+        <v>9</v>
+      </c>
+      <c r="C171" t="s">
+        <v>0</v>
+      </c>
+      <c r="D171">
+        <v>119</v>
+      </c>
+      <c r="E171">
+        <v>35</v>
+      </c>
+      <c r="F171">
+        <v>0.3</v>
+      </c>
+      <c r="G171">
+        <v>1</v>
+      </c>
+      <c r="H171">
+        <v>0.2</v>
+      </c>
+      <c r="I171">
+        <v>1</v>
+      </c>
+      <c r="J171">
+        <v>0.1</v>
+      </c>
+      <c r="K171">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A172" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B172" t="s">
+        <v>9</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D172">
+        <v>208</v>
+      </c>
+      <c r="E172">
+        <v>29</v>
+      </c>
+      <c r="F172">
+        <v>0.3</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+      <c r="J172">
+        <v>0.1</v>
+      </c>
+      <c r="K172">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A173" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B173" t="s">
+        <v>9</v>
+      </c>
+      <c r="C173" t="s">
+        <v>1</v>
+      </c>
+      <c r="D173" s="3">
+        <v>1808</v>
+      </c>
+      <c r="E173">
+        <v>229</v>
+      </c>
+      <c r="F173">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G173">
+        <v>10</v>
+      </c>
+      <c r="H173">
+        <v>1.5</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A174" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B174" t="s">
+        <v>9</v>
+      </c>
+      <c r="C174" t="s">
+        <v>2</v>
+      </c>
+      <c r="D174" s="3">
+        <v>3237</v>
+      </c>
+      <c r="E174">
+        <v>540</v>
+      </c>
+      <c r="F174">
+        <v>5.2</v>
+      </c>
+      <c r="G174">
+        <v>30</v>
+      </c>
+      <c r="H174">
+        <v>4.5</v>
+      </c>
+      <c r="I174">
+        <v>6</v>
+      </c>
+      <c r="J174">
+        <v>0.5</v>
+      </c>
+      <c r="K174">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A175" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B175" t="s">
+        <v>9</v>
+      </c>
+      <c r="C175" t="s">
+        <v>3</v>
+      </c>
+      <c r="D175" s="3">
+        <v>4539</v>
+      </c>
+      <c r="E175">
+        <v>985</v>
+      </c>
+      <c r="F175">
+        <v>9.6</v>
+      </c>
+      <c r="G175">
+        <v>51</v>
+      </c>
+      <c r="H175">
+        <v>7.7</v>
+      </c>
+      <c r="I175">
+        <v>18</v>
+      </c>
+      <c r="J175">
+        <v>1.5</v>
+      </c>
+      <c r="K175">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A176" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B176" t="s">
+        <v>9</v>
+      </c>
+      <c r="C176" t="s">
+        <v>4</v>
+      </c>
+      <c r="D176" s="3">
+        <v>5295</v>
+      </c>
+      <c r="E176" s="3">
+        <v>1472</v>
+      </c>
+      <c r="F176">
+        <v>14.3</v>
+      </c>
+      <c r="G176">
+        <v>109</v>
+      </c>
+      <c r="H176">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="I176">
+        <v>27</v>
+      </c>
+      <c r="J176">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K176">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A177" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B177" t="s">
+        <v>9</v>
+      </c>
+      <c r="C177" t="s">
+        <v>5</v>
+      </c>
+      <c r="D177" s="3">
+        <v>4329</v>
+      </c>
+      <c r="E177" s="3">
+        <v>2037</v>
+      </c>
+      <c r="F177">
+        <v>19.7</v>
+      </c>
+      <c r="G177">
+        <v>214</v>
+      </c>
+      <c r="H177">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="I177">
+        <v>96</v>
+      </c>
+      <c r="J177">
+        <v>7.8</v>
+      </c>
+      <c r="K177">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A178" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B178" t="s">
+        <v>9</v>
+      </c>
+      <c r="C178" t="s">
+        <v>6</v>
+      </c>
+      <c r="D178" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E178" s="3">
+        <v>2446</v>
+      </c>
+      <c r="F178">
+        <v>23.7</v>
+      </c>
+      <c r="G178">
+        <v>207</v>
+      </c>
+      <c r="H178">
+        <v>31.1</v>
+      </c>
+      <c r="I178">
+        <v>261</v>
+      </c>
+      <c r="J178">
+        <v>21.1</v>
+      </c>
+      <c r="K178">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A179" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B179" t="s">
+        <v>9</v>
+      </c>
+      <c r="C179" t="s">
+        <v>12</v>
+      </c>
+      <c r="D179" s="3">
+        <v>3148</v>
+      </c>
+      <c r="E179" s="3">
+        <v>1933</v>
+      </c>
+      <c r="F179">
+        <v>18.7</v>
+      </c>
+      <c r="G179">
+        <v>43</v>
+      </c>
+      <c r="H179">
+        <v>6.5</v>
+      </c>
+      <c r="I179">
+        <v>568</v>
+      </c>
+      <c r="J179">
+        <v>45.9</v>
+      </c>
+      <c r="K179">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A180" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B180" t="s">
+        <v>9</v>
+      </c>
+      <c r="C180" t="s">
+        <v>13</v>
+      </c>
+      <c r="D180" s="3">
+        <v>1199</v>
+      </c>
+      <c r="E180">
+        <v>608</v>
+      </c>
+      <c r="F180">
+        <v>5.9</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
+      <c r="I180">
+        <v>259</v>
+      </c>
+      <c r="J180">
+        <v>20.9</v>
+      </c>
+      <c r="K180">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A181" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B181" t="s">
+        <v>10</v>
+      </c>
+      <c r="C181" t="s">
+        <v>0</v>
+      </c>
+      <c r="D181">
+        <v>115</v>
+      </c>
+      <c r="E181">
+        <v>39</v>
+      </c>
+      <c r="F181">
+        <v>0.3</v>
+      </c>
+      <c r="G181">
+        <v>3</v>
+      </c>
+      <c r="H181">
+        <v>0.3</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A182" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B182" t="s">
+        <v>10</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D182">
+        <v>185</v>
+      </c>
+      <c r="E182">
+        <v>24</v>
+      </c>
+      <c r="F182">
+        <v>0.2</v>
+      </c>
+      <c r="G182">
+        <v>2</v>
+      </c>
+      <c r="H182">
+        <v>0.2</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A183" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B183" t="s">
+        <v>10</v>
+      </c>
+      <c r="C183" t="s">
+        <v>1</v>
+      </c>
+      <c r="D183" s="3">
+        <v>1204</v>
+      </c>
+      <c r="E183">
+        <v>243</v>
+      </c>
+      <c r="F183">
+        <v>1.6</v>
+      </c>
+      <c r="G183">
+        <v>12</v>
+      </c>
+      <c r="H183">
+        <v>1</v>
+      </c>
+      <c r="I183">
+        <v>6</v>
+      </c>
+      <c r="J183">
+        <v>0.3</v>
+      </c>
+      <c r="K183">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A184" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B184" t="s">
+        <v>10</v>
+      </c>
+      <c r="C184" t="s">
+        <v>2</v>
+      </c>
+      <c r="D184" s="3">
+        <v>2419</v>
+      </c>
+      <c r="E184">
+        <v>623</v>
+      </c>
+      <c r="F184">
+        <v>4.2</v>
+      </c>
+      <c r="G184">
+        <v>36</v>
+      </c>
+      <c r="H184">
+        <v>3.1</v>
+      </c>
+      <c r="I184">
+        <v>7</v>
+      </c>
+      <c r="J184">
+        <v>0.3</v>
+      </c>
+      <c r="K184">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A185" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B185" t="s">
+        <v>10</v>
+      </c>
+      <c r="C185" t="s">
+        <v>3</v>
+      </c>
+      <c r="D185" s="3">
+        <v>3952</v>
+      </c>
+      <c r="E185" s="3">
+        <v>1455</v>
+      </c>
+      <c r="F185">
+        <v>9.9</v>
+      </c>
+      <c r="G185">
+        <v>97</v>
+      </c>
+      <c r="H185">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I185">
+        <v>25</v>
+      </c>
+      <c r="J185">
+        <v>1.2</v>
+      </c>
+      <c r="K185">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A186" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B186" t="s">
+        <v>10</v>
+      </c>
+      <c r="C186" t="s">
+        <v>4</v>
+      </c>
+      <c r="D186" s="3">
+        <v>4810</v>
+      </c>
+      <c r="E186" s="3">
+        <v>2271</v>
+      </c>
+      <c r="F186">
+        <v>15.4</v>
+      </c>
+      <c r="G186">
+        <v>193</v>
+      </c>
+      <c r="H186">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="I186">
+        <v>72</v>
+      </c>
+      <c r="J186">
+        <v>3.4</v>
+      </c>
+      <c r="K186">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A187" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B187" t="s">
+        <v>10</v>
+      </c>
+      <c r="C187" t="s">
+        <v>5</v>
+      </c>
+      <c r="D187" s="3">
+        <v>5064</v>
+      </c>
+      <c r="E187" s="3">
+        <v>2985</v>
+      </c>
+      <c r="F187">
+        <v>20.2</v>
+      </c>
+      <c r="G187">
+        <v>356</v>
+      </c>
+      <c r="H187">
+        <v>30.2</v>
+      </c>
+      <c r="I187">
+        <v>202</v>
+      </c>
+      <c r="J187">
+        <v>9.6</v>
+      </c>
+      <c r="K187">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A188" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B188" t="s">
+        <v>10</v>
+      </c>
+      <c r="C188" t="s">
+        <v>6</v>
+      </c>
+      <c r="D188" s="3">
+        <v>5494</v>
+      </c>
+      <c r="E188" s="3">
+        <v>3956</v>
+      </c>
+      <c r="F188">
+        <v>26.8</v>
+      </c>
+      <c r="G188">
+        <v>436</v>
+      </c>
+      <c r="H188">
+        <v>37</v>
+      </c>
+      <c r="I188">
+        <v>653</v>
+      </c>
+      <c r="J188">
+        <v>31.1</v>
+      </c>
+      <c r="K188">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A189" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B189" t="s">
+        <v>10</v>
+      </c>
+      <c r="C189" t="s">
+        <v>12</v>
+      </c>
+      <c r="D189" s="3">
+        <v>3710</v>
+      </c>
+      <c r="E189" s="3">
+        <v>2642</v>
+      </c>
+      <c r="F189">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="G189">
+        <v>41</v>
+      </c>
+      <c r="H189">
+        <v>3.5</v>
+      </c>
+      <c r="I189">
+        <v>874</v>
+      </c>
+      <c r="J189">
+        <v>41.6</v>
+      </c>
+      <c r="K189">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A190" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B190" t="s">
+        <v>10</v>
+      </c>
+      <c r="C190" t="s">
+        <v>13</v>
+      </c>
+      <c r="D190">
+        <v>835</v>
+      </c>
+      <c r="E190">
+        <v>530</v>
+      </c>
+      <c r="F190">
+        <v>3.6</v>
+      </c>
+      <c r="G190">
+        <v>3</v>
+      </c>
+      <c r="H190">
+        <v>0.3</v>
+      </c>
+      <c r="I190">
+        <v>264</v>
+      </c>
+      <c r="J190">
+        <v>12.6</v>
+      </c>
+      <c r="K190">
+        <v>31.6</v>
+      </c>
+    </row>
+    <row r="194" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M194" s="8"/>
+    </row>
+    <row r="195" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="N195" s="3"/>
+    </row>
+    <row r="196" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="N196" s="3"/>
+    </row>
+    <row r="197" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="N197" s="3"/>
+    </row>
+    <row r="198" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="N198" s="3"/>
+      <c r="O198" s="3"/>
+    </row>
+    <row r="199" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="N199" s="3"/>
+      <c r="O199" s="3"/>
+    </row>
+    <row r="200" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="N200" s="3"/>
+      <c r="O200" s="3"/>
+    </row>
+    <row r="201" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="N201" s="3"/>
+      <c r="O201" s="3"/>
+    </row>
+    <row r="202" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="N202" s="3"/>
+    </row>
+    <row r="204" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M204" s="8"/>
+    </row>
+    <row r="205" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="N205" s="3"/>
+    </row>
+    <row r="206" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="N206" s="3"/>
+    </row>
+    <row r="207" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="N207" s="3"/>
+      <c r="O207" s="3"/>
+    </row>
+    <row r="208" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="N208" s="3"/>
+      <c r="O208" s="3"/>
+    </row>
+    <row r="209" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N209" s="3"/>
+      <c r="O209" s="3"/>
+    </row>
+    <row r="210" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N210" s="3"/>
+      <c r="O210" s="3"/>
+    </row>
+    <row r="211" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N211" s="3"/>
+      <c r="O211" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Covid-19_data_sexage.xlsx
+++ b/data/Covid-19_data_sexage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanjosevidal/Google Drive/Projects/Covid-19/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E7A522-F14C-744A-90E3-71A78BB7BE07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B5A423-41BA-D142-8D7C-E8CD8E9347DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="960" windowWidth="28040" windowHeight="17040" xr2:uid="{C24317C9-D1BD-7248-BEC1-07839536F6EA}"/>
   </bookViews>
@@ -27,6 +27,7 @@
     <definedName name="tabula_Actualizacion_60_COVID_19_1" localSheetId="0">Data!$C$151:$K$170</definedName>
     <definedName name="tabula_Actualizacion_61_COVID_19_1" localSheetId="0">Data!$C$171:$J$190</definedName>
     <definedName name="tabula_Actualizacion_61_COVID_19_2__1" localSheetId="0">Data!$C$171:$K$190</definedName>
+    <definedName name="tabula_Actualizacion_62_COVID_19_1" localSheetId="0">Data!$C$191:$K$210</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -166,7 +167,7 @@
     </textPr>
   </connection>
   <connection id="9" xr16:uid="{CE6A5852-6006-874F-A184-E7958FDEC2FB}" name="tabula-Actualizacion_61_COVID-19(1)" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_61_COVID-19(1).csv" decimal="," thousands="." tab="0" comma="1">
+    <textPr sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_61_COVID-19(1).csv" decimal="," thousands="." tab="0" comma="1">
       <textFields count="8">
         <textField/>
         <textField/>
@@ -180,7 +181,22 @@
     </textPr>
   </connection>
   <connection id="10" xr16:uid="{7DEEBD45-E8DB-D847-9CA3-346E41F5C2FA}" name="tabula-Actualizacion_61_COVID-19(2)1" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_61_COVID-19(2).csv" decimal="," thousands="." tab="0" comma="1">
+    <textPr sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_61_COVID-19(2).csv" decimal="," thousands="." tab="0" comma="1">
+      <textFields count="9">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="11" xr16:uid="{D9E753A3-0975-2B4A-A431-4575D72D0DD4}" name="tabula-Actualizacion_62_COVID-19(1)" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_62_COVID-19(1).csv" decimal="," thousands="." tab="0" comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -198,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="26">
   <si>
     <t>0-9</t>
   </si>
@@ -376,43 +392,47 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_62_COVID-19(1)" connectionId="11" xr16:uid="{789174F4-7737-BE4C-9685-F15607B8C828}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_54_COVID-19" connectionId="3" xr16:uid="{E94F4815-0D2F-454F-8291-FCBF0C165C57}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_55_COVID-19" connectionId="4" xr16:uid="{10575DCA-3AE8-5C4C-A970-60205B471337}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_53_COVID-19" connectionId="2" xr16:uid="{31483431-2B39-A440-9E59-C26E082912EA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_57_COVID-19(1)" connectionId="6" xr16:uid="{78E004BB-228B-5143-9AFE-91688C440A41}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_52_COVID-19" connectionId="1" xr16:uid="{35D81D28-1058-4347-9DE2-5F2763DAC2A4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_56_COVID-19(1)" connectionId="5" xr16:uid="{C5B10145-DA18-EE44-A918-E407BEA443E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(2)_1" connectionId="10" xr16:uid="{252D0C3F-8429-6D40-AFE6-2BAFDCF71E62}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_57_COVID-19(1)" connectionId="6" xr16:uid="{78E004BB-228B-5143-9AFE-91688C440A41}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(1)" connectionId="9" xr16:uid="{C813FA0B-4B7A-0743-B527-E10C07F0E6C8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_59_COVID-19(1)" connectionId="7" xr16:uid="{6E93CE4F-1115-D449-959A-2A7263C31ABC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_53_COVID-19" connectionId="2" xr16:uid="{31483431-2B39-A440-9E59-C26E082912EA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_52_COVID-19" connectionId="1" xr16:uid="{35D81D28-1058-4347-9DE2-5F2763DAC2A4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_56_COVID-19(1)" connectionId="5" xr16:uid="{C5B10145-DA18-EE44-A918-E407BEA443E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_60_COVID-19(1)" connectionId="8" xr16:uid="{C2F0088C-0355-9A48-BE55-175198337C67}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_54_COVID-19" connectionId="3" xr16:uid="{E94F4815-0D2F-454F-8291-FCBF0C165C57}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_55_COVID-19" connectionId="4" xr16:uid="{10575DCA-3AE8-5C4C-A970-60205B471337}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_59_COVID-19(1)" connectionId="7" xr16:uid="{6E93CE4F-1115-D449-959A-2A7263C31ABC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -714,19 +734,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973FFFC2-62D5-A048-8409-BF1FADA21B40}">
   <dimension ref="A1:T211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="G177" sqref="G177"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="H201" sqref="H201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="5.1640625" bestFit="1" customWidth="1"/>
@@ -7421,63 +7441,731 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="194" spans="13:15" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A191" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B191" t="s">
+        <v>9</v>
+      </c>
+      <c r="C191" t="s">
+        <v>0</v>
+      </c>
+      <c r="D191">
+        <v>114</v>
+      </c>
+      <c r="E191">
+        <v>33</v>
+      </c>
+      <c r="F191">
+        <v>0.3</v>
+      </c>
+      <c r="G191">
+        <v>1</v>
+      </c>
+      <c r="H191">
+        <v>0.1</v>
+      </c>
+      <c r="I191">
+        <v>1</v>
+      </c>
+      <c r="J191">
+        <v>0.1</v>
+      </c>
+      <c r="K191">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A192" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B192" t="s">
+        <v>9</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D192">
+        <v>211</v>
+      </c>
+      <c r="E192">
+        <v>29</v>
+      </c>
+      <c r="F192">
+        <v>0.3</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+      <c r="H192">
+        <v>0</v>
+      </c>
+      <c r="I192">
+        <v>1</v>
+      </c>
+      <c r="J192">
+        <v>0.1</v>
+      </c>
+      <c r="K192">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A193" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B193" t="s">
+        <v>9</v>
+      </c>
+      <c r="C193" t="s">
+        <v>1</v>
+      </c>
+      <c r="D193" s="3">
+        <v>1840</v>
+      </c>
+      <c r="E193">
+        <v>232</v>
+      </c>
+      <c r="F193">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G193">
+        <v>10</v>
+      </c>
+      <c r="H193">
+        <v>1.5</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A194" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B194" t="s">
+        <v>9</v>
+      </c>
+      <c r="C194" t="s">
+        <v>2</v>
+      </c>
+      <c r="D194" s="3">
+        <v>3275</v>
+      </c>
+      <c r="E194">
+        <v>540</v>
+      </c>
+      <c r="F194">
+        <v>5.2</v>
+      </c>
+      <c r="G194">
+        <v>30</v>
+      </c>
+      <c r="H194">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I194">
+        <v>7</v>
+      </c>
+      <c r="J194">
+        <v>0.6</v>
+      </c>
+      <c r="K194">
+        <v>0.2</v>
+      </c>
       <c r="M194" s="8"/>
     </row>
-    <row r="195" spans="13:15" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A195" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B195" t="s">
+        <v>9</v>
+      </c>
+      <c r="C195" t="s">
+        <v>3</v>
+      </c>
+      <c r="D195" s="3">
+        <v>4593</v>
+      </c>
+      <c r="E195">
+        <v>979</v>
+      </c>
+      <c r="F195">
+        <v>9.4</v>
+      </c>
+      <c r="G195">
+        <v>52</v>
+      </c>
+      <c r="H195">
+        <v>7.6</v>
+      </c>
+      <c r="I195">
+        <v>18</v>
+      </c>
+      <c r="J195">
+        <v>1.4</v>
+      </c>
+      <c r="K195">
+        <v>0.4</v>
+      </c>
       <c r="N195" s="3"/>
     </row>
-    <row r="196" spans="13:15" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A196" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B196" t="s">
+        <v>9</v>
+      </c>
+      <c r="C196" t="s">
+        <v>4</v>
+      </c>
+      <c r="D196" s="3">
+        <v>5337</v>
+      </c>
+      <c r="E196" s="3">
+        <v>1485</v>
+      </c>
+      <c r="F196">
+        <v>14.3</v>
+      </c>
+      <c r="G196">
+        <v>115</v>
+      </c>
+      <c r="H196">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="I196">
+        <v>29</v>
+      </c>
+      <c r="J196">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K196">
+        <v>0.5</v>
+      </c>
       <c r="N196" s="3"/>
     </row>
-    <row r="197" spans="13:15" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A197" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B197" t="s">
+        <v>9</v>
+      </c>
+      <c r="C197" t="s">
+        <v>5</v>
+      </c>
+      <c r="D197" s="3">
+        <v>4369</v>
+      </c>
+      <c r="E197" s="3">
+        <v>2037</v>
+      </c>
+      <c r="F197">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="G197">
+        <v>215</v>
+      </c>
+      <c r="H197">
+        <v>31.6</v>
+      </c>
+      <c r="I197">
+        <v>97</v>
+      </c>
+      <c r="J197">
+        <v>7.7</v>
+      </c>
+      <c r="K197">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="N197" s="3"/>
     </row>
-    <row r="198" spans="13:15" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A198" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B198" t="s">
+        <v>9</v>
+      </c>
+      <c r="C198" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198" s="3">
+        <v>3841</v>
+      </c>
+      <c r="E198" s="3">
+        <v>2466</v>
+      </c>
+      <c r="F198">
+        <v>23.8</v>
+      </c>
+      <c r="G198">
+        <v>214</v>
+      </c>
+      <c r="H198">
+        <v>31.4</v>
+      </c>
+      <c r="I198">
+        <v>265</v>
+      </c>
+      <c r="J198">
+        <v>21</v>
+      </c>
+      <c r="K198">
+        <v>6.9</v>
+      </c>
       <c r="N198" s="3"/>
       <c r="O198" s="3"/>
     </row>
-    <row r="199" spans="13:15" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A199" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B199" t="s">
+        <v>9</v>
+      </c>
+      <c r="C199" t="s">
+        <v>12</v>
+      </c>
+      <c r="D199" s="3">
+        <v>3240</v>
+      </c>
+      <c r="E199" s="3">
+        <v>1957</v>
+      </c>
+      <c r="F199">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="G199">
+        <v>44</v>
+      </c>
+      <c r="H199">
+        <v>6.5</v>
+      </c>
+      <c r="I199">
+        <v>579</v>
+      </c>
+      <c r="J199">
+        <v>45.9</v>
+      </c>
+      <c r="K199">
+        <v>17.899999999999999</v>
+      </c>
       <c r="N199" s="3"/>
       <c r="O199" s="3"/>
     </row>
-    <row r="200" spans="13:15" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A200" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B200" t="s">
+        <v>9</v>
+      </c>
+      <c r="C200" t="s">
+        <v>13</v>
+      </c>
+      <c r="D200" s="3">
+        <v>1230</v>
+      </c>
+      <c r="E200">
+        <v>616</v>
+      </c>
+      <c r="F200">
+        <v>5.9</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="I200">
+        <v>264</v>
+      </c>
+      <c r="J200">
+        <v>20.9</v>
+      </c>
+      <c r="K200">
+        <v>21.5</v>
+      </c>
       <c r="N200" s="3"/>
       <c r="O200" s="3"/>
     </row>
-    <row r="201" spans="13:15" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A201" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B201" t="s">
+        <v>10</v>
+      </c>
+      <c r="C201" t="s">
+        <v>0</v>
+      </c>
+      <c r="D201">
+        <v>120</v>
+      </c>
+      <c r="E201">
+        <v>41</v>
+      </c>
+      <c r="F201">
+        <v>0.3</v>
+      </c>
+      <c r="G201">
+        <v>3</v>
+      </c>
+      <c r="H201">
+        <v>0.2</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="K201">
+        <v>0</v>
+      </c>
       <c r="N201" s="3"/>
       <c r="O201" s="3"/>
     </row>
-    <row r="202" spans="13:15" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A202" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B202" t="s">
+        <v>10</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D202">
+        <v>187</v>
+      </c>
+      <c r="E202">
+        <v>24</v>
+      </c>
+      <c r="F202">
+        <v>0.2</v>
+      </c>
+      <c r="G202">
+        <v>2</v>
+      </c>
+      <c r="H202">
+        <v>0.2</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
+      <c r="K202">
+        <v>0</v>
+      </c>
       <c r="N202" s="3"/>
     </row>
-    <row r="204" spans="13:15" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A203" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B203" t="s">
+        <v>10</v>
+      </c>
+      <c r="C203" t="s">
+        <v>1</v>
+      </c>
+      <c r="D203" s="3">
+        <v>1195</v>
+      </c>
+      <c r="E203">
+        <v>243</v>
+      </c>
+      <c r="F203">
+        <v>1.6</v>
+      </c>
+      <c r="G203">
+        <v>12</v>
+      </c>
+      <c r="H203">
+        <v>1</v>
+      </c>
+      <c r="I203">
+        <v>6</v>
+      </c>
+      <c r="J203">
+        <v>0.3</v>
+      </c>
+      <c r="K203">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A204" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B204" t="s">
+        <v>10</v>
+      </c>
+      <c r="C204" t="s">
+        <v>2</v>
+      </c>
+      <c r="D204" s="3">
+        <v>2411</v>
+      </c>
+      <c r="E204">
+        <v>631</v>
+      </c>
+      <c r="F204">
+        <v>4.2</v>
+      </c>
+      <c r="G204">
+        <v>37</v>
+      </c>
+      <c r="H204">
+        <v>3</v>
+      </c>
+      <c r="I204">
+        <v>7</v>
+      </c>
+      <c r="J204">
+        <v>0.3</v>
+      </c>
+      <c r="K204">
+        <v>0.3</v>
+      </c>
       <c r="M204" s="8"/>
     </row>
-    <row r="205" spans="13:15" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A205" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B205" t="s">
+        <v>10</v>
+      </c>
+      <c r="C205" t="s">
+        <v>3</v>
+      </c>
+      <c r="D205" s="3">
+        <v>3984</v>
+      </c>
+      <c r="E205" s="3">
+        <v>1482</v>
+      </c>
+      <c r="F205">
+        <v>9.9</v>
+      </c>
+      <c r="G205">
+        <v>106</v>
+      </c>
+      <c r="H205">
+        <v>8.6</v>
+      </c>
+      <c r="I205">
+        <v>26</v>
+      </c>
+      <c r="J205">
+        <v>1.2</v>
+      </c>
+      <c r="K205">
+        <v>0.7</v>
+      </c>
       <c r="N205" s="3"/>
     </row>
-    <row r="206" spans="13:15" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A206" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B206" t="s">
+        <v>10</v>
+      </c>
+      <c r="C206" t="s">
+        <v>4</v>
+      </c>
+      <c r="D206" s="3">
+        <v>4867</v>
+      </c>
+      <c r="E206" s="3">
+        <v>2309</v>
+      </c>
+      <c r="F206">
+        <v>15.4</v>
+      </c>
+      <c r="G206">
+        <v>203</v>
+      </c>
+      <c r="H206">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="I206">
+        <v>72</v>
+      </c>
+      <c r="J206">
+        <v>3.4</v>
+      </c>
+      <c r="K206">
+        <v>1.5</v>
+      </c>
       <c r="N206" s="3"/>
     </row>
-    <row r="207" spans="13:15" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A207" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B207" t="s">
+        <v>10</v>
+      </c>
+      <c r="C207" t="s">
+        <v>5</v>
+      </c>
+      <c r="D207" s="3">
+        <v>5142</v>
+      </c>
+      <c r="E207" s="3">
+        <v>3038</v>
+      </c>
+      <c r="F207">
+        <v>20.3</v>
+      </c>
+      <c r="G207">
+        <v>370</v>
+      </c>
+      <c r="H207">
+        <v>29.9</v>
+      </c>
+      <c r="I207">
+        <v>204</v>
+      </c>
+      <c r="J207">
+        <v>9.6</v>
+      </c>
+      <c r="K207">
+        <v>4</v>
+      </c>
       <c r="N207" s="3"/>
       <c r="O207" s="3"/>
     </row>
-    <row r="208" spans="13:15" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A208" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B208" t="s">
+        <v>10</v>
+      </c>
+      <c r="C208" t="s">
+        <v>6</v>
+      </c>
+      <c r="D208" s="3">
+        <v>5599</v>
+      </c>
+      <c r="E208" s="3">
+        <v>4011</v>
+      </c>
+      <c r="F208">
+        <v>26.8</v>
+      </c>
+      <c r="G208">
+        <v>457</v>
+      </c>
+      <c r="H208">
+        <v>36.9</v>
+      </c>
+      <c r="I208">
+        <v>664</v>
+      </c>
+      <c r="J208">
+        <v>31.1</v>
+      </c>
+      <c r="K208">
+        <v>11.9</v>
+      </c>
       <c r="N208" s="3"/>
       <c r="O208" s="3"/>
     </row>
-    <row r="209" spans="14:15" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A209" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B209" t="s">
+        <v>10</v>
+      </c>
+      <c r="C209" t="s">
+        <v>12</v>
+      </c>
+      <c r="D209" s="3">
+        <v>3709</v>
+      </c>
+      <c r="E209" s="3">
+        <v>2666</v>
+      </c>
+      <c r="F209">
+        <v>17.8</v>
+      </c>
+      <c r="G209">
+        <v>44</v>
+      </c>
+      <c r="H209">
+        <v>3.6</v>
+      </c>
+      <c r="I209">
+        <v>882</v>
+      </c>
+      <c r="J209">
+        <v>41.3</v>
+      </c>
+      <c r="K209">
+        <v>23.8</v>
+      </c>
       <c r="N209" s="3"/>
       <c r="O209" s="3"/>
     </row>
-    <row r="210" spans="14:15" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A210" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B210" t="s">
+        <v>10</v>
+      </c>
+      <c r="C210" t="s">
+        <v>13</v>
+      </c>
+      <c r="D210">
+        <v>833</v>
+      </c>
+      <c r="E210">
+        <v>536</v>
+      </c>
+      <c r="F210">
+        <v>3.6</v>
+      </c>
+      <c r="G210">
+        <v>3</v>
+      </c>
+      <c r="H210">
+        <v>0.2</v>
+      </c>
+      <c r="I210">
+        <v>274</v>
+      </c>
+      <c r="J210">
+        <v>12.8</v>
+      </c>
+      <c r="K210">
+        <v>32.9</v>
+      </c>
       <c r="N210" s="3"/>
       <c r="O210" s="3"/>
     </row>
-    <row r="211" spans="14:15" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N211" s="3"/>
       <c r="O211" s="3"/>
     </row>

--- a/data/Covid-19_data_sexage.xlsx
+++ b/data/Covid-19_data_sexage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanjosevidal/Google Drive/Projects/Covid-19/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B5A423-41BA-D142-8D7C-E8CD8E9347DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD58EC5-7C98-D24A-9A50-A2AC4D9E5003}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="960" windowWidth="28040" windowHeight="17040" xr2:uid="{C24317C9-D1BD-7248-BEC1-07839536F6EA}"/>
   </bookViews>
@@ -28,6 +28,7 @@
     <definedName name="tabula_Actualizacion_61_COVID_19_1" localSheetId="0">Data!$C$171:$J$190</definedName>
     <definedName name="tabula_Actualizacion_61_COVID_19_2__1" localSheetId="0">Data!$C$171:$K$190</definedName>
     <definedName name="tabula_Actualizacion_62_COVID_19_1" localSheetId="0">Data!$C$191:$K$210</definedName>
+    <definedName name="tabula_Actualizacion_63_COVID_19_1" localSheetId="0">Data!$C$211:$K$230</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -196,7 +197,22 @@
     </textPr>
   </connection>
   <connection id="11" xr16:uid="{D9E753A3-0975-2B4A-A431-4575D72D0DD4}" name="tabula-Actualizacion_62_COVID-19(1)" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_62_COVID-19(1).csv" decimal="," thousands="." tab="0" comma="1">
+    <textPr sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_62_COVID-19(1).csv" decimal="," thousands="." tab="0" comma="1">
+      <textFields count="9">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="12" xr16:uid="{3D624737-D49D-F448-8970-DEE31EFF2B05}" name="tabula-Actualizacion_63_COVID-19(1)" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_63_COVID-19(1).csv" decimal="," thousands="." comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -214,7 +230,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="26">
   <si>
     <t>0-9</t>
   </si>
@@ -392,47 +408,51 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_62_COVID-19(1)" connectionId="11" xr16:uid="{789174F4-7737-BE4C-9685-F15607B8C828}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_63_COVID-19(1)" connectionId="12" xr16:uid="{EFDFC980-4B86-C948-B035-B2786B80754E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_54_COVID-19" connectionId="3" xr16:uid="{E94F4815-0D2F-454F-8291-FCBF0C165C57}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_56_COVID-19(1)" connectionId="5" xr16:uid="{C5B10145-DA18-EE44-A918-E407BEA443E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_55_COVID-19" connectionId="4" xr16:uid="{10575DCA-3AE8-5C4C-A970-60205B471337}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(2)_1" connectionId="10" xr16:uid="{252D0C3F-8429-6D40-AFE6-2BAFDCF71E62}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_62_COVID-19(1)" connectionId="11" xr16:uid="{789174F4-7737-BE4C-9685-F15607B8C828}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_53_COVID-19" connectionId="2" xr16:uid="{31483431-2B39-A440-9E59-C26E082912EA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(1)" connectionId="9" xr16:uid="{C813FA0B-4B7A-0743-B527-E10C07F0E6C8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_57_COVID-19(1)" connectionId="6" xr16:uid="{78E004BB-228B-5143-9AFE-91688C440A41}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_60_COVID-19(1)" connectionId="8" xr16:uid="{C2F0088C-0355-9A48-BE55-175198337C67}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_59_COVID-19(1)" connectionId="7" xr16:uid="{6E93CE4F-1115-D449-959A-2A7263C31ABC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_52_COVID-19" connectionId="1" xr16:uid="{35D81D28-1058-4347-9DE2-5F2763DAC2A4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_56_COVID-19(1)" connectionId="5" xr16:uid="{C5B10145-DA18-EE44-A918-E407BEA443E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(2)_1" connectionId="10" xr16:uid="{252D0C3F-8429-6D40-AFE6-2BAFDCF71E62}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(1)" connectionId="9" xr16:uid="{C813FA0B-4B7A-0743-B527-E10C07F0E6C8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_60_COVID-19(1)" connectionId="8" xr16:uid="{C2F0088C-0355-9A48-BE55-175198337C67}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_59_COVID-19(1)" connectionId="7" xr16:uid="{6E93CE4F-1115-D449-959A-2A7263C31ABC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_54_COVID-19" connectionId="3" xr16:uid="{E94F4815-0D2F-454F-8291-FCBF0C165C57}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -732,21 +752,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973FFFC2-62D5-A048-8409-BF1FADA21B40}">
-  <dimension ref="A1:T211"/>
+  <dimension ref="A1:T230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="H201" sqref="H201"/>
+    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="G210" sqref="G210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="5.1640625" bestFit="1" customWidth="1"/>
@@ -8166,8 +8184,706 @@
       <c r="O210" s="3"/>
     </row>
     <row r="211" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A211" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B211" t="s">
+        <v>9</v>
+      </c>
+      <c r="C211" t="s">
+        <v>0</v>
+      </c>
+      <c r="D211">
+        <v>116</v>
+      </c>
+      <c r="E211">
+        <v>36</v>
+      </c>
+      <c r="F211">
+        <v>0.3</v>
+      </c>
+      <c r="G211">
+        <v>2</v>
+      </c>
+      <c r="H211">
+        <v>0.3</v>
+      </c>
+      <c r="I211">
+        <v>1</v>
+      </c>
+      <c r="J211">
+        <v>0.1</v>
+      </c>
+      <c r="K211">
+        <v>0.9</v>
+      </c>
       <c r="N211" s="3"/>
       <c r="O211" s="3"/>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A212" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B212" t="s">
+        <v>9</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D212">
+        <v>223</v>
+      </c>
+      <c r="E212">
+        <v>39</v>
+      </c>
+      <c r="F212">
+        <v>0.3</v>
+      </c>
+      <c r="G212">
+        <v>1</v>
+      </c>
+      <c r="H212">
+        <v>0.1</v>
+      </c>
+      <c r="I212">
+        <v>1</v>
+      </c>
+      <c r="J212">
+        <v>0.1</v>
+      </c>
+      <c r="K212">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A213" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B213" t="s">
+        <v>9</v>
+      </c>
+      <c r="C213" t="s">
+        <v>1</v>
+      </c>
+      <c r="D213" s="3">
+        <v>2233</v>
+      </c>
+      <c r="E213">
+        <v>270</v>
+      </c>
+      <c r="F213">
+        <v>2.1</v>
+      </c>
+      <c r="G213">
+        <v>11</v>
+      </c>
+      <c r="H213">
+        <v>1.5</v>
+      </c>
+      <c r="I213">
+        <v>1</v>
+      </c>
+      <c r="J213">
+        <v>0.1</v>
+      </c>
+      <c r="K213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A214" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B214" t="s">
+        <v>9</v>
+      </c>
+      <c r="C214" t="s">
+        <v>2</v>
+      </c>
+      <c r="D214" s="3">
+        <v>4028</v>
+      </c>
+      <c r="E214">
+        <v>642</v>
+      </c>
+      <c r="F214">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G214">
+        <v>30</v>
+      </c>
+      <c r="H214">
+        <v>4.2</v>
+      </c>
+      <c r="I214">
+        <v>7</v>
+      </c>
+      <c r="J214">
+        <v>0.4</v>
+      </c>
+      <c r="K214">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A215" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B215" t="s">
+        <v>9</v>
+      </c>
+      <c r="C215" t="s">
+        <v>3</v>
+      </c>
+      <c r="D215" s="3">
+        <v>5731</v>
+      </c>
+      <c r="E215" s="3">
+        <v>1204</v>
+      </c>
+      <c r="F215">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G215">
+        <v>64</v>
+      </c>
+      <c r="H215">
+        <v>8.9</v>
+      </c>
+      <c r="I215">
+        <v>20</v>
+      </c>
+      <c r="J215">
+        <v>1.2</v>
+      </c>
+      <c r="K215">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A216" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B216" t="s">
+        <v>9</v>
+      </c>
+      <c r="C216" t="s">
+        <v>4</v>
+      </c>
+      <c r="D216" s="3">
+        <v>6740</v>
+      </c>
+      <c r="E216" s="3">
+        <v>1876</v>
+      </c>
+      <c r="F216">
+        <v>14.3</v>
+      </c>
+      <c r="G216">
+        <v>130</v>
+      </c>
+      <c r="H216">
+        <v>18</v>
+      </c>
+      <c r="I216">
+        <v>43</v>
+      </c>
+      <c r="J216">
+        <v>2.6</v>
+      </c>
+      <c r="K216">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A217" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B217" t="s">
+        <v>9</v>
+      </c>
+      <c r="C217" t="s">
+        <v>5</v>
+      </c>
+      <c r="D217" s="3">
+        <v>5330</v>
+      </c>
+      <c r="E217" s="3">
+        <v>2559</v>
+      </c>
+      <c r="F217">
+        <v>19.5</v>
+      </c>
+      <c r="G217">
+        <v>209</v>
+      </c>
+      <c r="H217">
+        <v>28.9</v>
+      </c>
+      <c r="I217">
+        <v>111</v>
+      </c>
+      <c r="J217">
+        <v>6.7</v>
+      </c>
+      <c r="K217">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A218" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B218" t="s">
+        <v>9</v>
+      </c>
+      <c r="C218" t="s">
+        <v>6</v>
+      </c>
+      <c r="D218" s="3">
+        <v>4636</v>
+      </c>
+      <c r="E218" s="3">
+        <v>3078</v>
+      </c>
+      <c r="F218">
+        <v>23.5</v>
+      </c>
+      <c r="G218">
+        <v>222</v>
+      </c>
+      <c r="H218">
+        <v>30.7</v>
+      </c>
+      <c r="I218">
+        <v>333</v>
+      </c>
+      <c r="J218">
+        <v>20.2</v>
+      </c>
+      <c r="K218">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A219" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B219" t="s">
+        <v>9</v>
+      </c>
+      <c r="C219" t="s">
+        <v>12</v>
+      </c>
+      <c r="D219" s="3">
+        <v>4279</v>
+      </c>
+      <c r="E219" s="3">
+        <v>2559</v>
+      </c>
+      <c r="F219">
+        <v>19.5</v>
+      </c>
+      <c r="G219">
+        <v>51</v>
+      </c>
+      <c r="H219">
+        <v>7.1</v>
+      </c>
+      <c r="I219">
+        <v>743</v>
+      </c>
+      <c r="J219">
+        <v>45.1</v>
+      </c>
+      <c r="K219">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A220" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B220" t="s">
+        <v>9</v>
+      </c>
+      <c r="C220" t="s">
+        <v>13</v>
+      </c>
+      <c r="D220" s="3">
+        <v>1775</v>
+      </c>
+      <c r="E220">
+        <v>848</v>
+      </c>
+      <c r="F220">
+        <v>6.5</v>
+      </c>
+      <c r="G220">
+        <v>2</v>
+      </c>
+      <c r="H220">
+        <v>0.3</v>
+      </c>
+      <c r="I220">
+        <v>389</v>
+      </c>
+      <c r="J220">
+        <v>23.6</v>
+      </c>
+      <c r="K220">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A221" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B221" t="s">
+        <v>10</v>
+      </c>
+      <c r="C221" t="s">
+        <v>0</v>
+      </c>
+      <c r="D221">
+        <v>135</v>
+      </c>
+      <c r="E221">
+        <v>50</v>
+      </c>
+      <c r="F221">
+        <v>0.3</v>
+      </c>
+      <c r="G221">
+        <v>5</v>
+      </c>
+      <c r="H221">
+        <v>0.3</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="K221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A222" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B222" t="s">
+        <v>10</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D222">
+        <v>210</v>
+      </c>
+      <c r="E222">
+        <v>33</v>
+      </c>
+      <c r="F222">
+        <v>0.2</v>
+      </c>
+      <c r="G222">
+        <v>2</v>
+      </c>
+      <c r="H222">
+        <v>0.1</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A223" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B223" t="s">
+        <v>10</v>
+      </c>
+      <c r="C223" t="s">
+        <v>1</v>
+      </c>
+      <c r="D223" s="3">
+        <v>1356</v>
+      </c>
+      <c r="E223">
+        <v>274</v>
+      </c>
+      <c r="F223">
+        <v>1.4</v>
+      </c>
+      <c r="G223">
+        <v>18</v>
+      </c>
+      <c r="H223">
+        <v>1</v>
+      </c>
+      <c r="I223">
+        <v>5</v>
+      </c>
+      <c r="J223">
+        <v>0.2</v>
+      </c>
+      <c r="K223">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A224" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B224" t="s">
+        <v>10</v>
+      </c>
+      <c r="C224" t="s">
+        <v>2</v>
+      </c>
+      <c r="D224" s="3">
+        <v>2824</v>
+      </c>
+      <c r="E224">
+        <v>734</v>
+      </c>
+      <c r="F224">
+        <v>3.9</v>
+      </c>
+      <c r="G224">
+        <v>56</v>
+      </c>
+      <c r="H224">
+        <v>3.2</v>
+      </c>
+      <c r="I224">
+        <v>12</v>
+      </c>
+      <c r="J224">
+        <v>0.4</v>
+      </c>
+      <c r="K224">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A225" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B225" t="s">
+        <v>10</v>
+      </c>
+      <c r="C225" t="s">
+        <v>3</v>
+      </c>
+      <c r="D225" s="3">
+        <v>4822</v>
+      </c>
+      <c r="E225" s="3">
+        <v>1833</v>
+      </c>
+      <c r="F225">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G225">
+        <v>150</v>
+      </c>
+      <c r="H225">
+        <v>8.5</v>
+      </c>
+      <c r="I225">
+        <v>32</v>
+      </c>
+      <c r="J225">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K225">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A226" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B226" t="s">
+        <v>10</v>
+      </c>
+      <c r="C226" t="s">
+        <v>4</v>
+      </c>
+      <c r="D226" s="3">
+        <v>5979</v>
+      </c>
+      <c r="E226" s="3">
+        <v>2918</v>
+      </c>
+      <c r="F226">
+        <v>15.4</v>
+      </c>
+      <c r="G226">
+        <v>301</v>
+      </c>
+      <c r="H226">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="I226">
+        <v>94</v>
+      </c>
+      <c r="J226">
+        <v>3.3</v>
+      </c>
+      <c r="K226">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A227" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B227" t="s">
+        <v>10</v>
+      </c>
+      <c r="C227" t="s">
+        <v>5</v>
+      </c>
+      <c r="D227" s="3">
+        <v>6320</v>
+      </c>
+      <c r="E227" s="3">
+        <v>3949</v>
+      </c>
+      <c r="F227">
+        <v>20.9</v>
+      </c>
+      <c r="G227">
+        <v>570</v>
+      </c>
+      <c r="H227">
+        <v>32.4</v>
+      </c>
+      <c r="I227">
+        <v>274</v>
+      </c>
+      <c r="J227">
+        <v>9.5</v>
+      </c>
+      <c r="K227">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A228" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B228" t="s">
+        <v>10</v>
+      </c>
+      <c r="C228" t="s">
+        <v>6</v>
+      </c>
+      <c r="D228" s="3">
+        <v>6727</v>
+      </c>
+      <c r="E228" s="3">
+        <v>5032</v>
+      </c>
+      <c r="F228">
+        <v>26.6</v>
+      </c>
+      <c r="G228">
+        <v>597</v>
+      </c>
+      <c r="H228">
+        <v>34</v>
+      </c>
+      <c r="I228">
+        <v>887</v>
+      </c>
+      <c r="J228">
+        <v>30.9</v>
+      </c>
+      <c r="K228">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A229" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B229" t="s">
+        <v>10</v>
+      </c>
+      <c r="C229" t="s">
+        <v>12</v>
+      </c>
+      <c r="D229" s="3">
+        <v>4577</v>
+      </c>
+      <c r="E229" s="3">
+        <v>3370</v>
+      </c>
+      <c r="F229">
+        <v>17.8</v>
+      </c>
+      <c r="G229">
+        <v>54</v>
+      </c>
+      <c r="H229">
+        <v>3.1</v>
+      </c>
+      <c r="I229">
+        <v>1205</v>
+      </c>
+      <c r="J229">
+        <v>41.9</v>
+      </c>
+      <c r="K229">
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A230" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B230" t="s">
+        <v>10</v>
+      </c>
+      <c r="C230" t="s">
+        <v>13</v>
+      </c>
+      <c r="D230" s="3">
+        <v>1119</v>
+      </c>
+      <c r="E230">
+        <v>715</v>
+      </c>
+      <c r="F230">
+        <v>3.8</v>
+      </c>
+      <c r="G230">
+        <v>4</v>
+      </c>
+      <c r="H230">
+        <v>0.2</v>
+      </c>
+      <c r="I230">
+        <v>364</v>
+      </c>
+      <c r="J230">
+        <v>12.7</v>
+      </c>
+      <c r="K230">
+        <v>32.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Covid-19_data_sexage.xlsx
+++ b/data/Covid-19_data_sexage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanjosevidal/Google Drive/Projects/Covid-19/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD58EC5-7C98-D24A-9A50-A2AC4D9E5003}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEB49E4-8631-0541-9263-BAEA3C7E5EE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="960" windowWidth="28040" windowHeight="17040" xr2:uid="{C24317C9-D1BD-7248-BEC1-07839536F6EA}"/>
   </bookViews>
@@ -29,6 +29,7 @@
     <definedName name="tabula_Actualizacion_61_COVID_19_2__1" localSheetId="0">Data!$C$171:$K$190</definedName>
     <definedName name="tabula_Actualizacion_62_COVID_19_1" localSheetId="0">Data!$C$191:$K$210</definedName>
     <definedName name="tabula_Actualizacion_63_COVID_19_1" localSheetId="0">Data!$C$211:$K$230</definedName>
+    <definedName name="tabula_Actualizacion_64_COVID_19_1" localSheetId="0">Data!$C$231:$K$250</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -212,7 +213,22 @@
     </textPr>
   </connection>
   <connection id="12" xr16:uid="{3D624737-D49D-F448-8970-DEE31EFF2B05}" name="tabula-Actualizacion_63_COVID-19(1)" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_63_COVID-19(1).csv" decimal="," thousands="." comma="1">
+    <textPr sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_63_COVID-19(1).csv" decimal="," thousands="." comma="1">
+      <textFields count="9">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="13" xr16:uid="{C5B54B73-1A9E-EA41-9543-48A85C3D1EAD}" name="tabula-Actualizacion_64_COVID-19(1)" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_64_COVID-19(1).csv" decimal="," thousands="." comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -230,7 +246,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="26">
   <si>
     <t>0-9</t>
   </si>
@@ -408,43 +424,47 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_64_COVID-19(1)" connectionId="13" xr16:uid="{24F5186E-14BA-4941-BB1A-F21AEE9F7F07}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(1)" connectionId="9" xr16:uid="{C813FA0B-4B7A-0743-B527-E10C07F0E6C8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_56_COVID-19(1)" connectionId="5" xr16:uid="{C5B10145-DA18-EE44-A918-E407BEA443E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_57_COVID-19(1)" connectionId="6" xr16:uid="{78E004BB-228B-5143-9AFE-91688C440A41}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_55_COVID-19" connectionId="4" xr16:uid="{10575DCA-3AE8-5C4C-A970-60205B471337}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_60_COVID-19(1)" connectionId="8" xr16:uid="{C2F0088C-0355-9A48-BE55-175198337C67}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_63_COVID-19(1)" connectionId="12" xr16:uid="{EFDFC980-4B86-C948-B035-B2786B80754E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_56_COVID-19(1)" connectionId="5" xr16:uid="{C5B10145-DA18-EE44-A918-E407BEA443E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_62_COVID-19(1)" connectionId="11" xr16:uid="{789174F4-7737-BE4C-9685-F15607B8C828}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_55_COVID-19" connectionId="4" xr16:uid="{10575DCA-3AE8-5C4C-A970-60205B471337}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(2)_1" connectionId="10" xr16:uid="{252D0C3F-8429-6D40-AFE6-2BAFDCF71E62}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_62_COVID-19(1)" connectionId="11" xr16:uid="{789174F4-7737-BE4C-9685-F15607B8C828}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_53_COVID-19" connectionId="2" xr16:uid="{31483431-2B39-A440-9E59-C26E082912EA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(1)" connectionId="9" xr16:uid="{C813FA0B-4B7A-0743-B527-E10C07F0E6C8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_57_COVID-19(1)" connectionId="6" xr16:uid="{78E004BB-228B-5143-9AFE-91688C440A41}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_60_COVID-19(1)" connectionId="8" xr16:uid="{C2F0088C-0355-9A48-BE55-175198337C67}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_59_COVID-19(1)" connectionId="7" xr16:uid="{6E93CE4F-1115-D449-959A-2A7263C31ABC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_59_COVID-19(1)" connectionId="7" xr16:uid="{6E93CE4F-1115-D449-959A-2A7263C31ABC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_53_COVID-19" connectionId="2" xr16:uid="{31483431-2B39-A440-9E59-C26E082912EA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
@@ -752,19 +772,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973FFFC2-62D5-A048-8409-BF1FADA21B40}">
-  <dimension ref="A1:T230"/>
+  <dimension ref="A1:T250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="G210" sqref="G210"/>
+    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
+      <selection activeCell="G237" sqref="G237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="5.1640625" bestFit="1" customWidth="1"/>
@@ -8883,6 +8905,706 @@
       </c>
       <c r="K230">
         <v>32.5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A231" s="2">
+        <v>43923</v>
+      </c>
+      <c r="B231" t="s">
+        <v>9</v>
+      </c>
+      <c r="C231" t="s">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>117</v>
+      </c>
+      <c r="E231">
+        <v>36</v>
+      </c>
+      <c r="F231">
+        <v>0.3</v>
+      </c>
+      <c r="G231">
+        <v>2</v>
+      </c>
+      <c r="H231">
+        <v>0.3</v>
+      </c>
+      <c r="I231">
+        <v>1</v>
+      </c>
+      <c r="J231">
+        <v>0.1</v>
+      </c>
+      <c r="K231">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A232" s="2">
+        <v>43923</v>
+      </c>
+      <c r="B232" t="s">
+        <v>9</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D232">
+        <v>228</v>
+      </c>
+      <c r="E232">
+        <v>40</v>
+      </c>
+      <c r="F232">
+        <v>0.3</v>
+      </c>
+      <c r="G232">
+        <v>1</v>
+      </c>
+      <c r="H232">
+        <v>0.1</v>
+      </c>
+      <c r="I232">
+        <v>1</v>
+      </c>
+      <c r="J232">
+        <v>0.1</v>
+      </c>
+      <c r="K232">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A233" s="2">
+        <v>43923</v>
+      </c>
+      <c r="B233" t="s">
+        <v>9</v>
+      </c>
+      <c r="C233" t="s">
+        <v>1</v>
+      </c>
+      <c r="D233" s="3">
+        <v>2279</v>
+      </c>
+      <c r="E233">
+        <v>275</v>
+      </c>
+      <c r="F233">
+        <v>2</v>
+      </c>
+      <c r="G233">
+        <v>11</v>
+      </c>
+      <c r="H233">
+        <v>1.4</v>
+      </c>
+      <c r="I233">
+        <v>1</v>
+      </c>
+      <c r="J233">
+        <v>0.1</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A234" s="2">
+        <v>43923</v>
+      </c>
+      <c r="B234" t="s">
+        <v>9</v>
+      </c>
+      <c r="C234" t="s">
+        <v>2</v>
+      </c>
+      <c r="D234" s="3">
+        <v>4113</v>
+      </c>
+      <c r="E234">
+        <v>657</v>
+      </c>
+      <c r="F234">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G234">
+        <v>31</v>
+      </c>
+      <c r="H234">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I234">
+        <v>8</v>
+      </c>
+      <c r="J234">
+        <v>0.5</v>
+      </c>
+      <c r="K234">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A235" s="2">
+        <v>43923</v>
+      </c>
+      <c r="B235" t="s">
+        <v>9</v>
+      </c>
+      <c r="C235" t="s">
+        <v>3</v>
+      </c>
+      <c r="D235" s="3">
+        <v>5849</v>
+      </c>
+      <c r="E235" s="3">
+        <v>1245</v>
+      </c>
+      <c r="F235">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G235">
+        <v>68</v>
+      </c>
+      <c r="H235">
+        <v>8.9</v>
+      </c>
+      <c r="I235">
+        <v>19</v>
+      </c>
+      <c r="J235">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K235">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A236" s="2">
+        <v>43923</v>
+      </c>
+      <c r="B236" t="s">
+        <v>9</v>
+      </c>
+      <c r="C236" t="s">
+        <v>4</v>
+      </c>
+      <c r="D236" s="3">
+        <v>6887</v>
+      </c>
+      <c r="E236" s="3">
+        <v>1937</v>
+      </c>
+      <c r="F236">
+        <v>14.3</v>
+      </c>
+      <c r="G236">
+        <v>134</v>
+      </c>
+      <c r="H236">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="I236">
+        <v>43</v>
+      </c>
+      <c r="J236">
+        <v>2.5</v>
+      </c>
+      <c r="K236">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A237" s="2">
+        <v>43923</v>
+      </c>
+      <c r="B237" t="s">
+        <v>9</v>
+      </c>
+      <c r="C237" t="s">
+        <v>5</v>
+      </c>
+      <c r="D237" s="3">
+        <v>5449</v>
+      </c>
+      <c r="E237" s="3">
+        <v>2640</v>
+      </c>
+      <c r="F237">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="G237">
+        <v>224</v>
+      </c>
+      <c r="H237">
+        <v>29.4</v>
+      </c>
+      <c r="I237">
+        <v>115</v>
+      </c>
+      <c r="J237">
+        <v>6.7</v>
+      </c>
+      <c r="K237">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A238" s="2">
+        <v>43923</v>
+      </c>
+      <c r="B238" t="s">
+        <v>9</v>
+      </c>
+      <c r="C238" t="s">
+        <v>6</v>
+      </c>
+      <c r="D238" s="3">
+        <v>4742</v>
+      </c>
+      <c r="E238" s="3">
+        <v>3172</v>
+      </c>
+      <c r="F238">
+        <v>23.5</v>
+      </c>
+      <c r="G238">
+        <v>239</v>
+      </c>
+      <c r="H238">
+        <v>31.3</v>
+      </c>
+      <c r="I238">
+        <v>352</v>
+      </c>
+      <c r="J238">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="K238">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A239" s="2">
+        <v>43923</v>
+      </c>
+      <c r="B239" t="s">
+        <v>9</v>
+      </c>
+      <c r="C239" t="s">
+        <v>12</v>
+      </c>
+      <c r="D239" s="3">
+        <v>4397</v>
+      </c>
+      <c r="E239" s="3">
+        <v>2632</v>
+      </c>
+      <c r="F239">
+        <v>19.5</v>
+      </c>
+      <c r="G239">
+        <v>51</v>
+      </c>
+      <c r="H239">
+        <v>6.7</v>
+      </c>
+      <c r="I239">
+        <v>777</v>
+      </c>
+      <c r="J239">
+        <v>45.1</v>
+      </c>
+      <c r="K239">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A240" s="2">
+        <v>43923</v>
+      </c>
+      <c r="B240" t="s">
+        <v>9</v>
+      </c>
+      <c r="C240" t="s">
+        <v>13</v>
+      </c>
+      <c r="D240" s="3">
+        <v>1824</v>
+      </c>
+      <c r="E240">
+        <v>868</v>
+      </c>
+      <c r="F240">
+        <v>6.4</v>
+      </c>
+      <c r="G240">
+        <v>2</v>
+      </c>
+      <c r="H240">
+        <v>0.3</v>
+      </c>
+      <c r="I240">
+        <v>405</v>
+      </c>
+      <c r="J240">
+        <v>23.5</v>
+      </c>
+      <c r="K240">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A241" s="2">
+        <v>43923</v>
+      </c>
+      <c r="B241" t="s">
+        <v>10</v>
+      </c>
+      <c r="C241" t="s">
+        <v>0</v>
+      </c>
+      <c r="D241">
+        <v>134</v>
+      </c>
+      <c r="E241">
+        <v>50</v>
+      </c>
+      <c r="F241">
+        <v>0.3</v>
+      </c>
+      <c r="G241">
+        <v>5</v>
+      </c>
+      <c r="H241">
+        <v>0.3</v>
+      </c>
+      <c r="I241">
+        <v>0</v>
+      </c>
+      <c r="J241">
+        <v>0</v>
+      </c>
+      <c r="K241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A242" s="2">
+        <v>43923</v>
+      </c>
+      <c r="B242" t="s">
+        <v>10</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D242">
+        <v>217</v>
+      </c>
+      <c r="E242">
+        <v>38</v>
+      </c>
+      <c r="F242">
+        <v>0.2</v>
+      </c>
+      <c r="G242">
+        <v>2</v>
+      </c>
+      <c r="H242">
+        <v>0.1</v>
+      </c>
+      <c r="I242">
+        <v>0</v>
+      </c>
+      <c r="J242">
+        <v>0</v>
+      </c>
+      <c r="K242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A243" s="2">
+        <v>43923</v>
+      </c>
+      <c r="B243" t="s">
+        <v>10</v>
+      </c>
+      <c r="C243" t="s">
+        <v>1</v>
+      </c>
+      <c r="D243" s="3">
+        <v>1380</v>
+      </c>
+      <c r="E243">
+        <v>280</v>
+      </c>
+      <c r="F243">
+        <v>1.4</v>
+      </c>
+      <c r="G243">
+        <v>19</v>
+      </c>
+      <c r="H243">
+        <v>1</v>
+      </c>
+      <c r="I243">
+        <v>5</v>
+      </c>
+      <c r="J243">
+        <v>0.2</v>
+      </c>
+      <c r="K243">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A244" s="2">
+        <v>43923</v>
+      </c>
+      <c r="B244" t="s">
+        <v>10</v>
+      </c>
+      <c r="C244" t="s">
+        <v>2</v>
+      </c>
+      <c r="D244" s="3">
+        <v>2884</v>
+      </c>
+      <c r="E244">
+        <v>754</v>
+      </c>
+      <c r="F244">
+        <v>3.9</v>
+      </c>
+      <c r="G244">
+        <v>58</v>
+      </c>
+      <c r="H244">
+        <v>3.2</v>
+      </c>
+      <c r="I244">
+        <v>12</v>
+      </c>
+      <c r="J244">
+        <v>0.4</v>
+      </c>
+      <c r="K244">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A245" s="2">
+        <v>43923</v>
+      </c>
+      <c r="B245" t="s">
+        <v>10</v>
+      </c>
+      <c r="C245" t="s">
+        <v>3</v>
+      </c>
+      <c r="D245" s="3">
+        <v>4909</v>
+      </c>
+      <c r="E245" s="3">
+        <v>1874</v>
+      </c>
+      <c r="F245">
+        <v>9.6</v>
+      </c>
+      <c r="G245">
+        <v>159</v>
+      </c>
+      <c r="H245">
+        <v>8.6</v>
+      </c>
+      <c r="I245">
+        <v>32</v>
+      </c>
+      <c r="J245">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K245">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A246" s="2">
+        <v>43923</v>
+      </c>
+      <c r="B246" t="s">
+        <v>10</v>
+      </c>
+      <c r="C246" t="s">
+        <v>4</v>
+      </c>
+      <c r="D246" s="3">
+        <v>6098</v>
+      </c>
+      <c r="E246" s="3">
+        <v>3010</v>
+      </c>
+      <c r="F246">
+        <v>15.5</v>
+      </c>
+      <c r="G246">
+        <v>319</v>
+      </c>
+      <c r="H246">
+        <v>17.3</v>
+      </c>
+      <c r="I246">
+        <v>96</v>
+      </c>
+      <c r="J246">
+        <v>3.2</v>
+      </c>
+      <c r="K246">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A247" s="2">
+        <v>43923</v>
+      </c>
+      <c r="B247" t="s">
+        <v>10</v>
+      </c>
+      <c r="C247" t="s">
+        <v>5</v>
+      </c>
+      <c r="D247" s="3">
+        <v>6475</v>
+      </c>
+      <c r="E247" s="3">
+        <v>4078</v>
+      </c>
+      <c r="F247">
+        <v>21</v>
+      </c>
+      <c r="G247">
+        <v>599</v>
+      </c>
+      <c r="H247">
+        <v>32.5</v>
+      </c>
+      <c r="I247">
+        <v>284</v>
+      </c>
+      <c r="J247">
+        <v>9.5</v>
+      </c>
+      <c r="K247">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A248" s="2">
+        <v>43923</v>
+      </c>
+      <c r="B248" t="s">
+        <v>10</v>
+      </c>
+      <c r="C248" t="s">
+        <v>6</v>
+      </c>
+      <c r="D248" s="3">
+        <v>6886</v>
+      </c>
+      <c r="E248" s="3">
+        <v>5174</v>
+      </c>
+      <c r="F248">
+        <v>26.6</v>
+      </c>
+      <c r="G248">
+        <v>620</v>
+      </c>
+      <c r="H248">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="I248">
+        <v>930</v>
+      </c>
+      <c r="J248">
+        <v>31.2</v>
+      </c>
+      <c r="K248">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A249" s="2">
+        <v>43923</v>
+      </c>
+      <c r="B249" t="s">
+        <v>10</v>
+      </c>
+      <c r="C249" t="s">
+        <v>12</v>
+      </c>
+      <c r="D249" s="3">
+        <v>4667</v>
+      </c>
+      <c r="E249" s="3">
+        <v>3453</v>
+      </c>
+      <c r="F249">
+        <v>17.8</v>
+      </c>
+      <c r="G249">
+        <v>56</v>
+      </c>
+      <c r="H249">
+        <v>3</v>
+      </c>
+      <c r="I249">
+        <v>1237</v>
+      </c>
+      <c r="J249">
+        <v>41.5</v>
+      </c>
+      <c r="K249">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A250" s="2">
+        <v>43923</v>
+      </c>
+      <c r="B250" t="s">
+        <v>10</v>
+      </c>
+      <c r="C250" t="s">
+        <v>13</v>
+      </c>
+      <c r="D250" s="3">
+        <v>1139</v>
+      </c>
+      <c r="E250">
+        <v>726</v>
+      </c>
+      <c r="F250">
+        <v>3.7</v>
+      </c>
+      <c r="G250">
+        <v>4</v>
+      </c>
+      <c r="H250">
+        <v>0.2</v>
+      </c>
+      <c r="I250">
+        <v>386</v>
+      </c>
+      <c r="J250">
+        <v>12.9</v>
+      </c>
+      <c r="K250">
+        <v>33.9</v>
       </c>
     </row>
   </sheetData>

--- a/data/Covid-19_data_sexage.xlsx
+++ b/data/Covid-19_data_sexage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanjosevidal/Google Drive/Projects/Covid-19/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEB49E4-8631-0541-9263-BAEA3C7E5EE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8375BBE2-6BD9-0A42-8E85-218FC4002879}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="960" windowWidth="28040" windowHeight="17040" xr2:uid="{C24317C9-D1BD-7248-BEC1-07839536F6EA}"/>
   </bookViews>
@@ -30,6 +30,7 @@
     <definedName name="tabula_Actualizacion_62_COVID_19_1" localSheetId="0">Data!$C$191:$K$210</definedName>
     <definedName name="tabula_Actualizacion_63_COVID_19_1" localSheetId="0">Data!$C$211:$K$230</definedName>
     <definedName name="tabula_Actualizacion_64_COVID_19_1" localSheetId="0">Data!$C$231:$K$250</definedName>
+    <definedName name="tabula_Actualizacion_65_COVID_19_1" localSheetId="0">Data!$C$251:$K$270</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -228,7 +229,22 @@
     </textPr>
   </connection>
   <connection id="13" xr16:uid="{C5B54B73-1A9E-EA41-9543-48A85C3D1EAD}" name="tabula-Actualizacion_64_COVID-19(1)" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_64_COVID-19(1).csv" decimal="," thousands="." comma="1">
+    <textPr sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_64_COVID-19(1).csv" decimal="," thousands="." comma="1">
+      <textFields count="9">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="14" xr16:uid="{CA9AF6AD-B6F8-924C-A97D-8C9285D9F1D8}" name="tabula-Actualizacion_65_COVID-19(1)" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_65_COVID-19(1).csv" decimal="," thousands="." comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -246,7 +262,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="26">
   <si>
     <t>0-9</t>
   </si>
@@ -424,7 +440,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_64_COVID-19(1)" connectionId="13" xr16:uid="{24F5186E-14BA-4941-BB1A-F21AEE9F7F07}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_65_COVID-19(1)" connectionId="14" xr16:uid="{1F7FC7F3-ADF7-CE4C-A901-C09AA03AA932}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -432,15 +448,19 @@
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(2)_1" connectionId="10" xr16:uid="{252D0C3F-8429-6D40-AFE6-2BAFDCF71E62}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_56_COVID-19(1)" connectionId="5" xr16:uid="{C5B10145-DA18-EE44-A918-E407BEA443E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_57_COVID-19(1)" connectionId="6" xr16:uid="{78E004BB-228B-5143-9AFE-91688C440A41}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_59_COVID-19(1)" connectionId="7" xr16:uid="{6E93CE4F-1115-D449-959A-2A7263C31ABC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_55_COVID-19" connectionId="4" xr16:uid="{10575DCA-3AE8-5C4C-A970-60205B471337}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_64_COVID-19(1)" connectionId="13" xr16:uid="{24F5186E-14BA-4941-BB1A-F21AEE9F7F07}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -448,31 +468,31 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_57_COVID-19(1)" connectionId="6" xr16:uid="{78E004BB-228B-5143-9AFE-91688C440A41}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_53_COVID-19" connectionId="2" xr16:uid="{31483431-2B39-A440-9E59-C26E082912EA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_63_COVID-19(1)" connectionId="12" xr16:uid="{EFDFC980-4B86-C948-B035-B2786B80754E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_62_COVID-19(1)" connectionId="11" xr16:uid="{789174F4-7737-BE4C-9685-F15607B8C828}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(2)_1" connectionId="10" xr16:uid="{252D0C3F-8429-6D40-AFE6-2BAFDCF71E62}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_59_COVID-19(1)" connectionId="7" xr16:uid="{6E93CE4F-1115-D449-959A-2A7263C31ABC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_55_COVID-19" connectionId="4" xr16:uid="{10575DCA-3AE8-5C4C-A970-60205B471337}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_53_COVID-19" connectionId="2" xr16:uid="{31483431-2B39-A440-9E59-C26E082912EA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_52_COVID-19" connectionId="1" xr16:uid="{35D81D28-1058-4347-9DE2-5F2763DAC2A4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_52_COVID-19" connectionId="1" xr16:uid="{35D81D28-1058-4347-9DE2-5F2763DAC2A4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_54_COVID-19" connectionId="3" xr16:uid="{E94F4815-0D2F-454F-8291-FCBF0C165C57}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_54_COVID-19" connectionId="3" xr16:uid="{E94F4815-0D2F-454F-8291-FCBF0C165C57}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_62_COVID-19(1)" connectionId="11" xr16:uid="{789174F4-7737-BE4C-9685-F15607B8C828}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -772,10 +792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973FFFC2-62D5-A048-8409-BF1FADA21B40}">
-  <dimension ref="A1:T250"/>
+  <dimension ref="A1:T270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
-      <selection activeCell="G237" sqref="G237"/>
+    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
+      <selection activeCell="E254" sqref="E254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9607,6 +9627,706 @@
         <v>33.9</v>
       </c>
     </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A251" s="2">
+        <v>43924</v>
+      </c>
+      <c r="B251" t="s">
+        <v>9</v>
+      </c>
+      <c r="C251" t="s">
+        <v>0</v>
+      </c>
+      <c r="D251">
+        <v>117</v>
+      </c>
+      <c r="E251">
+        <v>36</v>
+      </c>
+      <c r="F251">
+        <v>0.3</v>
+      </c>
+      <c r="G251">
+        <v>2</v>
+      </c>
+      <c r="H251">
+        <v>0.3</v>
+      </c>
+      <c r="I251">
+        <v>1</v>
+      </c>
+      <c r="J251">
+        <v>0.1</v>
+      </c>
+      <c r="K251">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A252" s="2">
+        <v>43924</v>
+      </c>
+      <c r="B252" t="s">
+        <v>9</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D252">
+        <v>228</v>
+      </c>
+      <c r="E252">
+        <v>40</v>
+      </c>
+      <c r="F252">
+        <v>0.3</v>
+      </c>
+      <c r="G252">
+        <v>1</v>
+      </c>
+      <c r="H252">
+        <v>0.1</v>
+      </c>
+      <c r="I252">
+        <v>1</v>
+      </c>
+      <c r="J252">
+        <v>0.1</v>
+      </c>
+      <c r="K252">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A253" s="2">
+        <v>43924</v>
+      </c>
+      <c r="B253" t="s">
+        <v>9</v>
+      </c>
+      <c r="C253" t="s">
+        <v>1</v>
+      </c>
+      <c r="D253" s="3">
+        <v>2279</v>
+      </c>
+      <c r="E253">
+        <v>275</v>
+      </c>
+      <c r="F253">
+        <v>2</v>
+      </c>
+      <c r="G253">
+        <v>11</v>
+      </c>
+      <c r="H253">
+        <v>1.4</v>
+      </c>
+      <c r="I253">
+        <v>1</v>
+      </c>
+      <c r="J253">
+        <v>0.1</v>
+      </c>
+      <c r="K253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A254" s="2">
+        <v>43924</v>
+      </c>
+      <c r="B254" t="s">
+        <v>9</v>
+      </c>
+      <c r="C254" t="s">
+        <v>2</v>
+      </c>
+      <c r="D254" s="3">
+        <v>4113</v>
+      </c>
+      <c r="E254">
+        <v>657</v>
+      </c>
+      <c r="F254">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G254">
+        <v>31</v>
+      </c>
+      <c r="H254">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I254">
+        <v>8</v>
+      </c>
+      <c r="J254">
+        <v>0.5</v>
+      </c>
+      <c r="K254">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A255" s="2">
+        <v>43924</v>
+      </c>
+      <c r="B255" t="s">
+        <v>9</v>
+      </c>
+      <c r="C255" t="s">
+        <v>3</v>
+      </c>
+      <c r="D255" s="3">
+        <v>5849</v>
+      </c>
+      <c r="E255" s="3">
+        <v>1245</v>
+      </c>
+      <c r="F255">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G255">
+        <v>68</v>
+      </c>
+      <c r="H255">
+        <v>8.9</v>
+      </c>
+      <c r="I255">
+        <v>19</v>
+      </c>
+      <c r="J255">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K255">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A256" s="2">
+        <v>43924</v>
+      </c>
+      <c r="B256" t="s">
+        <v>9</v>
+      </c>
+      <c r="C256" t="s">
+        <v>4</v>
+      </c>
+      <c r="D256" s="3">
+        <v>6887</v>
+      </c>
+      <c r="E256" s="3">
+        <v>1937</v>
+      </c>
+      <c r="F256">
+        <v>14.3</v>
+      </c>
+      <c r="G256">
+        <v>134</v>
+      </c>
+      <c r="H256">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="I256">
+        <v>43</v>
+      </c>
+      <c r="J256">
+        <v>2.5</v>
+      </c>
+      <c r="K256">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A257" s="2">
+        <v>43924</v>
+      </c>
+      <c r="B257" t="s">
+        <v>9</v>
+      </c>
+      <c r="C257" t="s">
+        <v>5</v>
+      </c>
+      <c r="D257" s="3">
+        <v>5449</v>
+      </c>
+      <c r="E257" s="3">
+        <v>2640</v>
+      </c>
+      <c r="F257">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="G257">
+        <v>224</v>
+      </c>
+      <c r="H257">
+        <v>29.4</v>
+      </c>
+      <c r="I257">
+        <v>115</v>
+      </c>
+      <c r="J257">
+        <v>6.7</v>
+      </c>
+      <c r="K257">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A258" s="2">
+        <v>43924</v>
+      </c>
+      <c r="B258" t="s">
+        <v>9</v>
+      </c>
+      <c r="C258" t="s">
+        <v>6</v>
+      </c>
+      <c r="D258" s="3">
+        <v>4742</v>
+      </c>
+      <c r="E258" s="3">
+        <v>3172</v>
+      </c>
+      <c r="F258">
+        <v>23.5</v>
+      </c>
+      <c r="G258">
+        <v>239</v>
+      </c>
+      <c r="H258">
+        <v>31.3</v>
+      </c>
+      <c r="I258">
+        <v>352</v>
+      </c>
+      <c r="J258">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="K258">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A259" s="2">
+        <v>43924</v>
+      </c>
+      <c r="B259" t="s">
+        <v>9</v>
+      </c>
+      <c r="C259" t="s">
+        <v>12</v>
+      </c>
+      <c r="D259" s="3">
+        <v>4397</v>
+      </c>
+      <c r="E259" s="3">
+        <v>2632</v>
+      </c>
+      <c r="F259">
+        <v>19.5</v>
+      </c>
+      <c r="G259">
+        <v>51</v>
+      </c>
+      <c r="H259">
+        <v>6.7</v>
+      </c>
+      <c r="I259">
+        <v>777</v>
+      </c>
+      <c r="J259">
+        <v>45.1</v>
+      </c>
+      <c r="K259">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A260" s="2">
+        <v>43924</v>
+      </c>
+      <c r="B260" t="s">
+        <v>9</v>
+      </c>
+      <c r="C260" t="s">
+        <v>13</v>
+      </c>
+      <c r="D260" s="3">
+        <v>1824</v>
+      </c>
+      <c r="E260">
+        <v>868</v>
+      </c>
+      <c r="F260">
+        <v>6.4</v>
+      </c>
+      <c r="G260">
+        <v>2</v>
+      </c>
+      <c r="H260">
+        <v>0.3</v>
+      </c>
+      <c r="I260">
+        <v>405</v>
+      </c>
+      <c r="J260">
+        <v>23.5</v>
+      </c>
+      <c r="K260">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A261" s="2">
+        <v>43924</v>
+      </c>
+      <c r="B261" t="s">
+        <v>10</v>
+      </c>
+      <c r="C261" t="s">
+        <v>0</v>
+      </c>
+      <c r="D261">
+        <v>134</v>
+      </c>
+      <c r="E261">
+        <v>50</v>
+      </c>
+      <c r="F261">
+        <v>0.3</v>
+      </c>
+      <c r="G261">
+        <v>5</v>
+      </c>
+      <c r="H261">
+        <v>0.3</v>
+      </c>
+      <c r="I261">
+        <v>0</v>
+      </c>
+      <c r="J261">
+        <v>0</v>
+      </c>
+      <c r="K261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A262" s="2">
+        <v>43924</v>
+      </c>
+      <c r="B262" t="s">
+        <v>10</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D262">
+        <v>217</v>
+      </c>
+      <c r="E262">
+        <v>38</v>
+      </c>
+      <c r="F262">
+        <v>0.2</v>
+      </c>
+      <c r="G262">
+        <v>2</v>
+      </c>
+      <c r="H262">
+        <v>0.1</v>
+      </c>
+      <c r="I262">
+        <v>0</v>
+      </c>
+      <c r="J262">
+        <v>0</v>
+      </c>
+      <c r="K262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A263" s="2">
+        <v>43924</v>
+      </c>
+      <c r="B263" t="s">
+        <v>10</v>
+      </c>
+      <c r="C263" t="s">
+        <v>1</v>
+      </c>
+      <c r="D263" s="3">
+        <v>1380</v>
+      </c>
+      <c r="E263">
+        <v>280</v>
+      </c>
+      <c r="F263">
+        <v>1.4</v>
+      </c>
+      <c r="G263">
+        <v>19</v>
+      </c>
+      <c r="H263">
+        <v>1</v>
+      </c>
+      <c r="I263">
+        <v>5</v>
+      </c>
+      <c r="J263">
+        <v>0.2</v>
+      </c>
+      <c r="K263">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A264" s="2">
+        <v>43924</v>
+      </c>
+      <c r="B264" t="s">
+        <v>10</v>
+      </c>
+      <c r="C264" t="s">
+        <v>2</v>
+      </c>
+      <c r="D264" s="3">
+        <v>2884</v>
+      </c>
+      <c r="E264">
+        <v>754</v>
+      </c>
+      <c r="F264">
+        <v>3.9</v>
+      </c>
+      <c r="G264">
+        <v>58</v>
+      </c>
+      <c r="H264">
+        <v>3.2</v>
+      </c>
+      <c r="I264">
+        <v>12</v>
+      </c>
+      <c r="J264">
+        <v>0.4</v>
+      </c>
+      <c r="K264">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A265" s="2">
+        <v>43924</v>
+      </c>
+      <c r="B265" t="s">
+        <v>10</v>
+      </c>
+      <c r="C265" t="s">
+        <v>3</v>
+      </c>
+      <c r="D265" s="3">
+        <v>4909</v>
+      </c>
+      <c r="E265" s="3">
+        <v>1874</v>
+      </c>
+      <c r="F265">
+        <v>9.6</v>
+      </c>
+      <c r="G265">
+        <v>159</v>
+      </c>
+      <c r="H265">
+        <v>8.6</v>
+      </c>
+      <c r="I265">
+        <v>32</v>
+      </c>
+      <c r="J265">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K265">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A266" s="2">
+        <v>43924</v>
+      </c>
+      <c r="B266" t="s">
+        <v>10</v>
+      </c>
+      <c r="C266" t="s">
+        <v>4</v>
+      </c>
+      <c r="D266" s="3">
+        <v>6098</v>
+      </c>
+      <c r="E266" s="3">
+        <v>3010</v>
+      </c>
+      <c r="F266">
+        <v>15.5</v>
+      </c>
+      <c r="G266">
+        <v>319</v>
+      </c>
+      <c r="H266">
+        <v>17.3</v>
+      </c>
+      <c r="I266">
+        <v>96</v>
+      </c>
+      <c r="J266">
+        <v>3.2</v>
+      </c>
+      <c r="K266">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A267" s="2">
+        <v>43924</v>
+      </c>
+      <c r="B267" t="s">
+        <v>10</v>
+      </c>
+      <c r="C267" t="s">
+        <v>5</v>
+      </c>
+      <c r="D267" s="3">
+        <v>6475</v>
+      </c>
+      <c r="E267" s="3">
+        <v>4078</v>
+      </c>
+      <c r="F267">
+        <v>21</v>
+      </c>
+      <c r="G267">
+        <v>599</v>
+      </c>
+      <c r="H267">
+        <v>32.5</v>
+      </c>
+      <c r="I267">
+        <v>284</v>
+      </c>
+      <c r="J267">
+        <v>9.5</v>
+      </c>
+      <c r="K267">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A268" s="2">
+        <v>43924</v>
+      </c>
+      <c r="B268" t="s">
+        <v>10</v>
+      </c>
+      <c r="C268" t="s">
+        <v>6</v>
+      </c>
+      <c r="D268" s="3">
+        <v>6886</v>
+      </c>
+      <c r="E268" s="3">
+        <v>5174</v>
+      </c>
+      <c r="F268">
+        <v>26.6</v>
+      </c>
+      <c r="G268">
+        <v>620</v>
+      </c>
+      <c r="H268">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="I268">
+        <v>930</v>
+      </c>
+      <c r="J268">
+        <v>31.2</v>
+      </c>
+      <c r="K268">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A269" s="2">
+        <v>43924</v>
+      </c>
+      <c r="B269" t="s">
+        <v>10</v>
+      </c>
+      <c r="C269" t="s">
+        <v>12</v>
+      </c>
+      <c r="D269" s="3">
+        <v>4667</v>
+      </c>
+      <c r="E269" s="3">
+        <v>3453</v>
+      </c>
+      <c r="F269">
+        <v>17.8</v>
+      </c>
+      <c r="G269">
+        <v>56</v>
+      </c>
+      <c r="H269">
+        <v>3</v>
+      </c>
+      <c r="I269">
+        <v>1237</v>
+      </c>
+      <c r="J269">
+        <v>41.5</v>
+      </c>
+      <c r="K269">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A270" s="2">
+        <v>43924</v>
+      </c>
+      <c r="B270" t="s">
+        <v>10</v>
+      </c>
+      <c r="C270" t="s">
+        <v>13</v>
+      </c>
+      <c r="D270" s="3">
+        <v>1139</v>
+      </c>
+      <c r="E270">
+        <v>726</v>
+      </c>
+      <c r="F270">
+        <v>3.7</v>
+      </c>
+      <c r="G270">
+        <v>4</v>
+      </c>
+      <c r="H270">
+        <v>0.2</v>
+      </c>
+      <c r="I270">
+        <v>386</v>
+      </c>
+      <c r="J270">
+        <v>12.9</v>
+      </c>
+      <c r="K270">
+        <v>33.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Covid-19_data_sexage.xlsx
+++ b/data/Covid-19_data_sexage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanjosevidal/Google Drive/Projects/Covid-19/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8375BBE2-6BD9-0A42-8E85-218FC4002879}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E60463-00A7-7542-A118-4889D73BC0DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="960" windowWidth="28040" windowHeight="17040" xr2:uid="{C24317C9-D1BD-7248-BEC1-07839536F6EA}"/>
   </bookViews>
@@ -31,6 +31,7 @@
     <definedName name="tabula_Actualizacion_63_COVID_19_1" localSheetId="0">Data!$C$211:$K$230</definedName>
     <definedName name="tabula_Actualizacion_64_COVID_19_1" localSheetId="0">Data!$C$231:$K$250</definedName>
     <definedName name="tabula_Actualizacion_65_COVID_19_1" localSheetId="0">Data!$C$251:$K$270</definedName>
+    <definedName name="tabula_Actualizacion_66_COVID_19_1" localSheetId="0">Data!$C$271:$K$290</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -244,7 +245,22 @@
     </textPr>
   </connection>
   <connection id="14" xr16:uid="{CA9AF6AD-B6F8-924C-A97D-8C9285D9F1D8}" name="tabula-Actualizacion_65_COVID-19(1)" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_65_COVID-19(1).csv" decimal="," thousands="." comma="1">
+    <textPr sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_65_COVID-19(1).csv" decimal="," thousands="." comma="1">
+      <textFields count="9">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="15" xr16:uid="{479E761C-6EBF-564F-915B-4300347654BE}" name="tabula-Actualizacion_66_COVID-19(1)" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_66_COVID-19(1).csv" decimal="," thousands="." tab="0" comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -262,7 +278,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="26">
   <si>
     <t>0-9</t>
   </si>
@@ -440,7 +456,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_65_COVID-19(1)" connectionId="14" xr16:uid="{1F7FC7F3-ADF7-CE4C-A901-C09AA03AA932}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_66_COVID-19(1)" connectionId="15" xr16:uid="{784FDDA9-F525-C54F-BA21-682143B55347}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -448,51 +464,55 @@
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_63_COVID-19(1)" connectionId="12" xr16:uid="{EFDFC980-4B86-C948-B035-B2786B80754E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(2)_1" connectionId="10" xr16:uid="{252D0C3F-8429-6D40-AFE6-2BAFDCF71E62}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_55_COVID-19" connectionId="4" xr16:uid="{10575DCA-3AE8-5C4C-A970-60205B471337}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_65_COVID-19(1)" connectionId="14" xr16:uid="{1F7FC7F3-ADF7-CE4C-A901-C09AA03AA932}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_60_COVID-19(1)" connectionId="8" xr16:uid="{C2F0088C-0355-9A48-BE55-175198337C67}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_56_COVID-19(1)" connectionId="5" xr16:uid="{C5B10145-DA18-EE44-A918-E407BEA443E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_52_COVID-19" connectionId="1" xr16:uid="{35D81D28-1058-4347-9DE2-5F2763DAC2A4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_57_COVID-19(1)" connectionId="6" xr16:uid="{78E004BB-228B-5143-9AFE-91688C440A41}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_59_COVID-19(1)" connectionId="7" xr16:uid="{6E93CE4F-1115-D449-959A-2A7263C31ABC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_54_COVID-19" connectionId="3" xr16:uid="{E94F4815-0D2F-454F-8291-FCBF0C165C57}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_64_COVID-19(1)" connectionId="13" xr16:uid="{24F5186E-14BA-4941-BB1A-F21AEE9F7F07}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_60_COVID-19(1)" connectionId="8" xr16:uid="{C2F0088C-0355-9A48-BE55-175198337C67}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_57_COVID-19(1)" connectionId="6" xr16:uid="{78E004BB-228B-5143-9AFE-91688C440A41}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_53_COVID-19" connectionId="2" xr16:uid="{31483431-2B39-A440-9E59-C26E082912EA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_63_COVID-19(1)" connectionId="12" xr16:uid="{EFDFC980-4B86-C948-B035-B2786B80754E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_55_COVID-19" connectionId="4" xr16:uid="{10575DCA-3AE8-5C4C-A970-60205B471337}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_52_COVID-19" connectionId="1" xr16:uid="{35D81D28-1058-4347-9DE2-5F2763DAC2A4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_54_COVID-19" connectionId="3" xr16:uid="{E94F4815-0D2F-454F-8291-FCBF0C165C57}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_62_COVID-19(1)" connectionId="11" xr16:uid="{789174F4-7737-BE4C-9685-F15607B8C828}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_62_COVID-19(1)" connectionId="11" xr16:uid="{789174F4-7737-BE4C-9685-F15607B8C828}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_53_COVID-19" connectionId="2" xr16:uid="{31483431-2B39-A440-9E59-C26E082912EA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -792,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973FFFC2-62D5-A048-8409-BF1FADA21B40}">
-  <dimension ref="A1:T270"/>
+  <dimension ref="A1:T290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
-      <selection activeCell="E254" sqref="E254"/>
+    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
+      <selection activeCell="A271" sqref="A271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10327,6 +10347,706 @@
         <v>33.9</v>
       </c>
     </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A271" s="2">
+        <v>43925</v>
+      </c>
+      <c r="B271" t="s">
+        <v>9</v>
+      </c>
+      <c r="C271" t="s">
+        <v>0</v>
+      </c>
+      <c r="D271">
+        <v>131</v>
+      </c>
+      <c r="E271">
+        <v>42</v>
+      </c>
+      <c r="F271">
+        <v>0.2</v>
+      </c>
+      <c r="G271">
+        <v>3</v>
+      </c>
+      <c r="H271">
+        <v>0.3</v>
+      </c>
+      <c r="I271">
+        <v>1</v>
+      </c>
+      <c r="J271">
+        <v>0</v>
+      </c>
+      <c r="K271">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A272" s="2">
+        <v>43925</v>
+      </c>
+      <c r="B272" t="s">
+        <v>9</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D272">
+        <v>258</v>
+      </c>
+      <c r="E272">
+        <v>53</v>
+      </c>
+      <c r="F272">
+        <v>0.3</v>
+      </c>
+      <c r="G272">
+        <v>1</v>
+      </c>
+      <c r="H272">
+        <v>0.1</v>
+      </c>
+      <c r="I272">
+        <v>1</v>
+      </c>
+      <c r="J272">
+        <v>0</v>
+      </c>
+      <c r="K272">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A273" s="2">
+        <v>43925</v>
+      </c>
+      <c r="B273" t="s">
+        <v>9</v>
+      </c>
+      <c r="C273" t="s">
+        <v>1</v>
+      </c>
+      <c r="D273" s="3">
+        <v>2889</v>
+      </c>
+      <c r="E273">
+        <v>370</v>
+      </c>
+      <c r="F273">
+        <v>2.1</v>
+      </c>
+      <c r="G273">
+        <v>16</v>
+      </c>
+      <c r="H273">
+        <v>1.6</v>
+      </c>
+      <c r="I273">
+        <v>2</v>
+      </c>
+      <c r="J273">
+        <v>0.1</v>
+      </c>
+      <c r="K273">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A274" s="2">
+        <v>43925</v>
+      </c>
+      <c r="B274" t="s">
+        <v>9</v>
+      </c>
+      <c r="C274" t="s">
+        <v>2</v>
+      </c>
+      <c r="D274" s="3">
+        <v>5131</v>
+      </c>
+      <c r="E274">
+        <v>899</v>
+      </c>
+      <c r="F274">
+        <v>5</v>
+      </c>
+      <c r="G274">
+        <v>44</v>
+      </c>
+      <c r="H274">
+        <v>4.3</v>
+      </c>
+      <c r="I274">
+        <v>10</v>
+      </c>
+      <c r="J274">
+        <v>0.4</v>
+      </c>
+      <c r="K274">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A275" s="2">
+        <v>43925</v>
+      </c>
+      <c r="B275" t="s">
+        <v>9</v>
+      </c>
+      <c r="C275" t="s">
+        <v>3</v>
+      </c>
+      <c r="D275" s="3">
+        <v>7178</v>
+      </c>
+      <c r="E275" s="3">
+        <v>1686</v>
+      </c>
+      <c r="F275">
+        <v>9.4</v>
+      </c>
+      <c r="G275">
+        <v>94</v>
+      </c>
+      <c r="H275">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I275">
+        <v>28</v>
+      </c>
+      <c r="J275">
+        <v>1.2</v>
+      </c>
+      <c r="K275">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A276" s="2">
+        <v>43925</v>
+      </c>
+      <c r="B276" t="s">
+        <v>9</v>
+      </c>
+      <c r="C276" t="s">
+        <v>4</v>
+      </c>
+      <c r="D276" s="3">
+        <v>8715</v>
+      </c>
+      <c r="E276" s="3">
+        <v>2680</v>
+      </c>
+      <c r="F276">
+        <v>15</v>
+      </c>
+      <c r="G276">
+        <v>185</v>
+      </c>
+      <c r="H276">
+        <v>18</v>
+      </c>
+      <c r="I276">
+        <v>59</v>
+      </c>
+      <c r="J276">
+        <v>2.5</v>
+      </c>
+      <c r="K276">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A277" s="2">
+        <v>43925</v>
+      </c>
+      <c r="B277" t="s">
+        <v>9</v>
+      </c>
+      <c r="C277" t="s">
+        <v>5</v>
+      </c>
+      <c r="D277" s="3">
+        <v>6790</v>
+      </c>
+      <c r="E277" s="3">
+        <v>3479</v>
+      </c>
+      <c r="F277">
+        <v>19.5</v>
+      </c>
+      <c r="G277">
+        <v>315</v>
+      </c>
+      <c r="H277">
+        <v>30.7</v>
+      </c>
+      <c r="I277">
+        <v>169</v>
+      </c>
+      <c r="J277">
+        <v>7.3</v>
+      </c>
+      <c r="K277">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A278" s="2">
+        <v>43925</v>
+      </c>
+      <c r="B278" t="s">
+        <v>9</v>
+      </c>
+      <c r="C278" t="s">
+        <v>6</v>
+      </c>
+      <c r="D278" s="3">
+        <v>5820</v>
+      </c>
+      <c r="E278" s="3">
+        <v>4184</v>
+      </c>
+      <c r="F278">
+        <v>23.4</v>
+      </c>
+      <c r="G278">
+        <v>306</v>
+      </c>
+      <c r="H278">
+        <v>29.9</v>
+      </c>
+      <c r="I278">
+        <v>509</v>
+      </c>
+      <c r="J278">
+        <v>21.9</v>
+      </c>
+      <c r="K278">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A279" s="2">
+        <v>43925</v>
+      </c>
+      <c r="B279" t="s">
+        <v>9</v>
+      </c>
+      <c r="C279" t="s">
+        <v>12</v>
+      </c>
+      <c r="D279" s="3">
+        <v>5424</v>
+      </c>
+      <c r="E279" s="3">
+        <v>3410</v>
+      </c>
+      <c r="F279">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="G279">
+        <v>57</v>
+      </c>
+      <c r="H279">
+        <v>5.6</v>
+      </c>
+      <c r="I279">
+        <v>1033</v>
+      </c>
+      <c r="J279">
+        <v>44.4</v>
+      </c>
+      <c r="K279">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A280" s="2">
+        <v>43925</v>
+      </c>
+      <c r="B280" t="s">
+        <v>9</v>
+      </c>
+      <c r="C280" t="s">
+        <v>13</v>
+      </c>
+      <c r="D280" s="3">
+        <v>2221</v>
+      </c>
+      <c r="E280" s="3">
+        <v>1083</v>
+      </c>
+      <c r="F280">
+        <v>6.1</v>
+      </c>
+      <c r="G280">
+        <v>4</v>
+      </c>
+      <c r="H280">
+        <v>0.4</v>
+      </c>
+      <c r="I280">
+        <v>517</v>
+      </c>
+      <c r="J280">
+        <v>22.2</v>
+      </c>
+      <c r="K280">
+        <v>23.3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A281" s="2">
+        <v>43925</v>
+      </c>
+      <c r="B281" t="s">
+        <v>10</v>
+      </c>
+      <c r="C281" t="s">
+        <v>0</v>
+      </c>
+      <c r="D281">
+        <v>155</v>
+      </c>
+      <c r="E281">
+        <v>65</v>
+      </c>
+      <c r="F281">
+        <v>0.3</v>
+      </c>
+      <c r="G281">
+        <v>12</v>
+      </c>
+      <c r="H281">
+        <v>0.5</v>
+      </c>
+      <c r="I281">
+        <v>1</v>
+      </c>
+      <c r="J281">
+        <v>0</v>
+      </c>
+      <c r="K281">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A282" s="2">
+        <v>43925</v>
+      </c>
+      <c r="B282" t="s">
+        <v>10</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D282">
+        <v>228</v>
+      </c>
+      <c r="E282">
+        <v>46</v>
+      </c>
+      <c r="F282">
+        <v>0.2</v>
+      </c>
+      <c r="G282">
+        <v>3</v>
+      </c>
+      <c r="H282">
+        <v>0.1</v>
+      </c>
+      <c r="I282">
+        <v>0</v>
+      </c>
+      <c r="J282">
+        <v>0</v>
+      </c>
+      <c r="K282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A283" s="2">
+        <v>43925</v>
+      </c>
+      <c r="B283" t="s">
+        <v>10</v>
+      </c>
+      <c r="C283" t="s">
+        <v>1</v>
+      </c>
+      <c r="D283" s="3">
+        <v>1683</v>
+      </c>
+      <c r="E283">
+        <v>378</v>
+      </c>
+      <c r="F283">
+        <v>1.5</v>
+      </c>
+      <c r="G283">
+        <v>27</v>
+      </c>
+      <c r="H283">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I283">
+        <v>7</v>
+      </c>
+      <c r="J283">
+        <v>0.2</v>
+      </c>
+      <c r="K283">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A284" s="2">
+        <v>43925</v>
+      </c>
+      <c r="B284" t="s">
+        <v>10</v>
+      </c>
+      <c r="C284" t="s">
+        <v>2</v>
+      </c>
+      <c r="D284" s="3">
+        <v>3532</v>
+      </c>
+      <c r="E284" s="3">
+        <v>1043</v>
+      </c>
+      <c r="F284">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G284">
+        <v>81</v>
+      </c>
+      <c r="H284">
+        <v>3.3</v>
+      </c>
+      <c r="I284">
+        <v>16</v>
+      </c>
+      <c r="J284">
+        <v>0.4</v>
+      </c>
+      <c r="K284">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A285" s="2">
+        <v>43925</v>
+      </c>
+      <c r="B285" t="s">
+        <v>10</v>
+      </c>
+      <c r="C285" t="s">
+        <v>3</v>
+      </c>
+      <c r="D285" s="3">
+        <v>6122</v>
+      </c>
+      <c r="E285" s="3">
+        <v>2583</v>
+      </c>
+      <c r="F285">
+        <v>10.1</v>
+      </c>
+      <c r="G285">
+        <v>232</v>
+      </c>
+      <c r="H285">
+        <v>9.4</v>
+      </c>
+      <c r="I285">
+        <v>38</v>
+      </c>
+      <c r="J285">
+        <v>0.9</v>
+      </c>
+      <c r="K285">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A286" s="2">
+        <v>43925</v>
+      </c>
+      <c r="B286" t="s">
+        <v>10</v>
+      </c>
+      <c r="C286" t="s">
+        <v>4</v>
+      </c>
+      <c r="D286" s="3">
+        <v>7739</v>
+      </c>
+      <c r="E286" s="3">
+        <v>4120</v>
+      </c>
+      <c r="F286">
+        <v>16.2</v>
+      </c>
+      <c r="G286">
+        <v>455</v>
+      </c>
+      <c r="H286">
+        <v>18.5</v>
+      </c>
+      <c r="I286">
+        <v>125</v>
+      </c>
+      <c r="J286">
+        <v>3.1</v>
+      </c>
+      <c r="K286">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A287" s="2">
+        <v>43925</v>
+      </c>
+      <c r="B287" t="s">
+        <v>10</v>
+      </c>
+      <c r="C287" t="s">
+        <v>5</v>
+      </c>
+      <c r="D287" s="3">
+        <v>8053</v>
+      </c>
+      <c r="E287" s="3">
+        <v>5351</v>
+      </c>
+      <c r="F287">
+        <v>21</v>
+      </c>
+      <c r="G287">
+        <v>774</v>
+      </c>
+      <c r="H287">
+        <v>31.5</v>
+      </c>
+      <c r="I287">
+        <v>402</v>
+      </c>
+      <c r="J287">
+        <v>10</v>
+      </c>
+      <c r="K287">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A288" s="2">
+        <v>43925</v>
+      </c>
+      <c r="B288" t="s">
+        <v>10</v>
+      </c>
+      <c r="C288" t="s">
+        <v>6</v>
+      </c>
+      <c r="D288" s="3">
+        <v>8397</v>
+      </c>
+      <c r="E288" s="3">
+        <v>6612</v>
+      </c>
+      <c r="F288">
+        <v>25.9</v>
+      </c>
+      <c r="G288">
+        <v>800</v>
+      </c>
+      <c r="H288">
+        <v>32.5</v>
+      </c>
+      <c r="I288">
+        <v>1301</v>
+      </c>
+      <c r="J288">
+        <v>32.5</v>
+      </c>
+      <c r="K288">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A289" s="2">
+        <v>43925</v>
+      </c>
+      <c r="B289" t="s">
+        <v>10</v>
+      </c>
+      <c r="C289" t="s">
+        <v>12</v>
+      </c>
+      <c r="D289" s="3">
+        <v>5695</v>
+      </c>
+      <c r="E289" s="3">
+        <v>4397</v>
+      </c>
+      <c r="F289">
+        <v>17.3</v>
+      </c>
+      <c r="G289">
+        <v>69</v>
+      </c>
+      <c r="H289">
+        <v>2.8</v>
+      </c>
+      <c r="I289">
+        <v>1659</v>
+      </c>
+      <c r="J289">
+        <v>41.4</v>
+      </c>
+      <c r="K289">
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A290" s="2">
+        <v>43925</v>
+      </c>
+      <c r="B290" t="s">
+        <v>10</v>
+      </c>
+      <c r="C290" t="s">
+        <v>13</v>
+      </c>
+      <c r="D290" s="3">
+        <v>1368</v>
+      </c>
+      <c r="E290">
+        <v>885</v>
+      </c>
+      <c r="F290">
+        <v>3.5</v>
+      </c>
+      <c r="G290">
+        <v>8</v>
+      </c>
+      <c r="H290">
+        <v>0.3</v>
+      </c>
+      <c r="I290">
+        <v>459</v>
+      </c>
+      <c r="J290">
+        <v>11.5</v>
+      </c>
+      <c r="K290">
+        <v>33.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Covid-19_data_sexage.xlsx
+++ b/data/Covid-19_data_sexage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanjosevidal/Google Drive/Projects/Covid-19/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E60463-00A7-7542-A118-4889D73BC0DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B1EDD7-6730-2F4B-8EF2-5602320F9C58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="960" windowWidth="28040" windowHeight="17040" xr2:uid="{C24317C9-D1BD-7248-BEC1-07839536F6EA}"/>
   </bookViews>
@@ -32,6 +32,7 @@
     <definedName name="tabula_Actualizacion_64_COVID_19_1" localSheetId="0">Data!$C$231:$K$250</definedName>
     <definedName name="tabula_Actualizacion_65_COVID_19_1" localSheetId="0">Data!$C$251:$K$270</definedName>
     <definedName name="tabula_Actualizacion_66_COVID_19_1" localSheetId="0">Data!$C$271:$K$290</definedName>
+    <definedName name="tabula_Actualizacion_67_COVID_19_1" localSheetId="0">Data!$C$291:$K$310</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -260,7 +261,22 @@
     </textPr>
   </connection>
   <connection id="15" xr16:uid="{479E761C-6EBF-564F-915B-4300347654BE}" name="tabula-Actualizacion_66_COVID-19(1)" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_66_COVID-19(1).csv" decimal="," thousands="." tab="0" comma="1">
+    <textPr sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_66_COVID-19(1).csv" decimal="," thousands="." tab="0" comma="1">
+      <textFields count="9">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="16" xr16:uid="{497834C5-EF53-8A4D-8C36-23AF6056CD73}" name="tabula-Actualizacion_67_COVID-19(1)" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_67_COVID-19(1).csv" decimal="," thousands="." comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -278,7 +294,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="26">
   <si>
     <t>0-9</t>
   </si>
@@ -456,63 +472,67 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_67_COVID-19(1)" connectionId="16" xr16:uid="{0DCC7075-52E5-6445-A2D9-0D0404D0E63E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_65_COVID-19(1)" connectionId="14" xr16:uid="{1F7FC7F3-ADF7-CE4C-A901-C09AA03AA932}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_53_COVID-19" connectionId="2" xr16:uid="{31483431-2B39-A440-9E59-C26E082912EA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_57_COVID-19(1)" connectionId="6" xr16:uid="{78E004BB-228B-5143-9AFE-91688C440A41}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(1)" connectionId="9" xr16:uid="{C813FA0B-4B7A-0743-B527-E10C07F0E6C8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_60_COVID-19(1)" connectionId="8" xr16:uid="{C2F0088C-0355-9A48-BE55-175198337C67}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_59_COVID-19(1)" connectionId="7" xr16:uid="{6E93CE4F-1115-D449-959A-2A7263C31ABC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_63_COVID-19(1)" connectionId="12" xr16:uid="{EFDFC980-4B86-C948-B035-B2786B80754E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_54_COVID-19" connectionId="3" xr16:uid="{E94F4815-0D2F-454F-8291-FCBF0C165C57}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_66_COVID-19(1)" connectionId="15" xr16:uid="{784FDDA9-F525-C54F-BA21-682143B55347}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(1)" connectionId="9" xr16:uid="{C813FA0B-4B7A-0743-B527-E10C07F0E6C8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_56_COVID-19(1)" connectionId="5" xr16:uid="{C5B10145-DA18-EE44-A918-E407BEA443E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_63_COVID-19(1)" connectionId="12" xr16:uid="{EFDFC980-4B86-C948-B035-B2786B80754E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(2)_1" connectionId="10" xr16:uid="{252D0C3F-8429-6D40-AFE6-2BAFDCF71E62}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_64_COVID-19(1)" connectionId="13" xr16:uid="{24F5186E-14BA-4941-BB1A-F21AEE9F7F07}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_52_COVID-19" connectionId="1" xr16:uid="{35D81D28-1058-4347-9DE2-5F2763DAC2A4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_55_COVID-19" connectionId="4" xr16:uid="{10575DCA-3AE8-5C4C-A970-60205B471337}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_65_COVID-19(1)" connectionId="14" xr16:uid="{1F7FC7F3-ADF7-CE4C-A901-C09AA03AA932}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_60_COVID-19(1)" connectionId="8" xr16:uid="{C2F0088C-0355-9A48-BE55-175198337C67}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_56_COVID-19(1)" connectionId="5" xr16:uid="{C5B10145-DA18-EE44-A918-E407BEA443E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_52_COVID-19" connectionId="1" xr16:uid="{35D81D28-1058-4347-9DE2-5F2763DAC2A4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_57_COVID-19(1)" connectionId="6" xr16:uid="{78E004BB-228B-5143-9AFE-91688C440A41}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_59_COVID-19(1)" connectionId="7" xr16:uid="{6E93CE4F-1115-D449-959A-2A7263C31ABC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_54_COVID-19" connectionId="3" xr16:uid="{E94F4815-0D2F-454F-8291-FCBF0C165C57}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_64_COVID-19(1)" connectionId="13" xr16:uid="{24F5186E-14BA-4941-BB1A-F21AEE9F7F07}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_62_COVID-19(1)" connectionId="11" xr16:uid="{789174F4-7737-BE4C-9685-F15607B8C828}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_53_COVID-19" connectionId="2" xr16:uid="{31483431-2B39-A440-9E59-C26E082912EA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -812,10 +832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973FFFC2-62D5-A048-8409-BF1FADA21B40}">
-  <dimension ref="A1:T290"/>
+  <dimension ref="A1:T310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
-      <selection activeCell="A271" sqref="A271"/>
+    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
+      <selection activeCell="D292" sqref="D292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11047,6 +11067,706 @@
         <v>33.6</v>
       </c>
     </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A291" s="2">
+        <v>43926</v>
+      </c>
+      <c r="B291" t="s">
+        <v>9</v>
+      </c>
+      <c r="C291" t="s">
+        <v>0</v>
+      </c>
+      <c r="D291">
+        <v>123</v>
+      </c>
+      <c r="E291">
+        <v>35</v>
+      </c>
+      <c r="F291">
+        <v>0.2</v>
+      </c>
+      <c r="G291">
+        <v>2</v>
+      </c>
+      <c r="H291">
+        <v>0.2</v>
+      </c>
+      <c r="I291">
+        <v>1</v>
+      </c>
+      <c r="J291">
+        <v>0.1</v>
+      </c>
+      <c r="K291">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A292" s="2">
+        <v>43926</v>
+      </c>
+      <c r="B292" t="s">
+        <v>9</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D292">
+        <v>265</v>
+      </c>
+      <c r="E292">
+        <v>58</v>
+      </c>
+      <c r="F292">
+        <v>0.3</v>
+      </c>
+      <c r="G292">
+        <v>2</v>
+      </c>
+      <c r="H292">
+        <v>0.2</v>
+      </c>
+      <c r="I292">
+        <v>1</v>
+      </c>
+      <c r="J292">
+        <v>0.1</v>
+      </c>
+      <c r="K292">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A293" s="2">
+        <v>43926</v>
+      </c>
+      <c r="B293" t="s">
+        <v>9</v>
+      </c>
+      <c r="C293" t="s">
+        <v>1</v>
+      </c>
+      <c r="D293" s="3">
+        <v>2911</v>
+      </c>
+      <c r="E293">
+        <v>391</v>
+      </c>
+      <c r="F293">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G293">
+        <v>21</v>
+      </c>
+      <c r="H293">
+        <v>2</v>
+      </c>
+      <c r="I293">
+        <v>1</v>
+      </c>
+      <c r="J293">
+        <v>0.1</v>
+      </c>
+      <c r="K293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A294" s="2">
+        <v>43926</v>
+      </c>
+      <c r="B294" t="s">
+        <v>9</v>
+      </c>
+      <c r="C294" t="s">
+        <v>2</v>
+      </c>
+      <c r="D294" s="3">
+        <v>5153</v>
+      </c>
+      <c r="E294">
+        <v>924</v>
+      </c>
+      <c r="F294">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G294">
+        <v>45</v>
+      </c>
+      <c r="H294">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I294">
+        <v>8</v>
+      </c>
+      <c r="J294">
+        <v>0.4</v>
+      </c>
+      <c r="K294">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A295" s="2">
+        <v>43926</v>
+      </c>
+      <c r="B295" t="s">
+        <v>9</v>
+      </c>
+      <c r="C295" t="s">
+        <v>3</v>
+      </c>
+      <c r="D295" s="3">
+        <v>7248</v>
+      </c>
+      <c r="E295" s="3">
+        <v>1719</v>
+      </c>
+      <c r="F295">
+        <v>9.6</v>
+      </c>
+      <c r="G295">
+        <v>101</v>
+      </c>
+      <c r="H295">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I295">
+        <v>19</v>
+      </c>
+      <c r="J295">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K295">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A296" s="2">
+        <v>43926</v>
+      </c>
+      <c r="B296" t="s">
+        <v>9</v>
+      </c>
+      <c r="C296" t="s">
+        <v>4</v>
+      </c>
+      <c r="D296" s="3">
+        <v>8788</v>
+      </c>
+      <c r="E296" s="3">
+        <v>2708</v>
+      </c>
+      <c r="F296">
+        <v>15.1</v>
+      </c>
+      <c r="G296">
+        <v>185</v>
+      </c>
+      <c r="H296">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="I296">
+        <v>45</v>
+      </c>
+      <c r="J296">
+        <v>2.5</v>
+      </c>
+      <c r="K296">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A297" s="2">
+        <v>43926</v>
+      </c>
+      <c r="B297" t="s">
+        <v>9</v>
+      </c>
+      <c r="C297" t="s">
+        <v>5</v>
+      </c>
+      <c r="D297" s="3">
+        <v>6833</v>
+      </c>
+      <c r="E297" s="3">
+        <v>3484</v>
+      </c>
+      <c r="F297">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="G297">
+        <v>315</v>
+      </c>
+      <c r="H297">
+        <v>30.5</v>
+      </c>
+      <c r="I297">
+        <v>119</v>
+      </c>
+      <c r="J297">
+        <v>6.6</v>
+      </c>
+      <c r="K297">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A298" s="2">
+        <v>43926</v>
+      </c>
+      <c r="B298" t="s">
+        <v>9</v>
+      </c>
+      <c r="C298" t="s">
+        <v>6</v>
+      </c>
+      <c r="D298" s="3">
+        <v>5887</v>
+      </c>
+      <c r="E298" s="3">
+        <v>4178</v>
+      </c>
+      <c r="F298">
+        <v>23.2</v>
+      </c>
+      <c r="G298">
+        <v>302</v>
+      </c>
+      <c r="H298">
+        <v>29.2</v>
+      </c>
+      <c r="I298">
+        <v>364</v>
+      </c>
+      <c r="J298">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="K298">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A299" s="2">
+        <v>43926</v>
+      </c>
+      <c r="B299" t="s">
+        <v>9</v>
+      </c>
+      <c r="C299" t="s">
+        <v>12</v>
+      </c>
+      <c r="D299" s="3">
+        <v>5469</v>
+      </c>
+      <c r="E299" s="3">
+        <v>3397</v>
+      </c>
+      <c r="F299">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="G299">
+        <v>55</v>
+      </c>
+      <c r="H299">
+        <v>5.3</v>
+      </c>
+      <c r="I299">
+        <v>821</v>
+      </c>
+      <c r="J299">
+        <v>45.4</v>
+      </c>
+      <c r="K299">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A300" s="2">
+        <v>43926</v>
+      </c>
+      <c r="B300" t="s">
+        <v>9</v>
+      </c>
+      <c r="C300" t="s">
+        <v>13</v>
+      </c>
+      <c r="D300" s="3">
+        <v>2248</v>
+      </c>
+      <c r="E300" s="3">
+        <v>1087</v>
+      </c>
+      <c r="F300">
+        <v>6</v>
+      </c>
+      <c r="G300">
+        <v>6</v>
+      </c>
+      <c r="H300">
+        <v>0.6</v>
+      </c>
+      <c r="I300">
+        <v>430</v>
+      </c>
+      <c r="J300">
+        <v>23.8</v>
+      </c>
+      <c r="K300">
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A301" s="2">
+        <v>43926</v>
+      </c>
+      <c r="B301" t="s">
+        <v>10</v>
+      </c>
+      <c r="C301" t="s">
+        <v>0</v>
+      </c>
+      <c r="D301">
+        <v>127</v>
+      </c>
+      <c r="E301">
+        <v>44</v>
+      </c>
+      <c r="F301">
+        <v>0.2</v>
+      </c>
+      <c r="G301">
+        <v>5</v>
+      </c>
+      <c r="H301">
+        <v>0.2</v>
+      </c>
+      <c r="I301">
+        <v>0</v>
+      </c>
+      <c r="J301">
+        <v>0</v>
+      </c>
+      <c r="K301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A302" s="2">
+        <v>43926</v>
+      </c>
+      <c r="B302" t="s">
+        <v>10</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D302">
+        <v>226</v>
+      </c>
+      <c r="E302">
+        <v>47</v>
+      </c>
+      <c r="F302">
+        <v>0.2</v>
+      </c>
+      <c r="G302">
+        <v>4</v>
+      </c>
+      <c r="H302">
+        <v>0.2</v>
+      </c>
+      <c r="I302">
+        <v>0</v>
+      </c>
+      <c r="J302">
+        <v>0</v>
+      </c>
+      <c r="K302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A303" s="2">
+        <v>43926</v>
+      </c>
+      <c r="B303" t="s">
+        <v>10</v>
+      </c>
+      <c r="C303" t="s">
+        <v>1</v>
+      </c>
+      <c r="D303" s="3">
+        <v>1713</v>
+      </c>
+      <c r="E303">
+        <v>401</v>
+      </c>
+      <c r="F303">
+        <v>1.6</v>
+      </c>
+      <c r="G303">
+        <v>32</v>
+      </c>
+      <c r="H303">
+        <v>1.3</v>
+      </c>
+      <c r="I303">
+        <v>5</v>
+      </c>
+      <c r="J303">
+        <v>0.2</v>
+      </c>
+      <c r="K303">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A304" s="2">
+        <v>43926</v>
+      </c>
+      <c r="B304" t="s">
+        <v>10</v>
+      </c>
+      <c r="C304" t="s">
+        <v>2</v>
+      </c>
+      <c r="D304" s="3">
+        <v>3607</v>
+      </c>
+      <c r="E304" s="3">
+        <v>1095</v>
+      </c>
+      <c r="F304">
+        <v>4.3</v>
+      </c>
+      <c r="G304">
+        <v>91</v>
+      </c>
+      <c r="H304">
+        <v>3.7</v>
+      </c>
+      <c r="I304">
+        <v>12</v>
+      </c>
+      <c r="J304">
+        <v>0.4</v>
+      </c>
+      <c r="K304">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A305" s="2">
+        <v>43926</v>
+      </c>
+      <c r="B305" t="s">
+        <v>10</v>
+      </c>
+      <c r="C305" t="s">
+        <v>3</v>
+      </c>
+      <c r="D305" s="3">
+        <v>6171</v>
+      </c>
+      <c r="E305" s="3">
+        <v>2620</v>
+      </c>
+      <c r="F305">
+        <v>10.3</v>
+      </c>
+      <c r="G305">
+        <v>239</v>
+      </c>
+      <c r="H305">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="I305">
+        <v>31</v>
+      </c>
+      <c r="J305">
+        <v>1</v>
+      </c>
+      <c r="K305">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A306" s="2">
+        <v>43926</v>
+      </c>
+      <c r="B306" t="s">
+        <v>10</v>
+      </c>
+      <c r="C306" t="s">
+        <v>4</v>
+      </c>
+      <c r="D306" s="3">
+        <v>7787</v>
+      </c>
+      <c r="E306" s="3">
+        <v>4132</v>
+      </c>
+      <c r="F306">
+        <v>16.2</v>
+      </c>
+      <c r="G306">
+        <v>458</v>
+      </c>
+      <c r="H306">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="I306">
+        <v>102</v>
+      </c>
+      <c r="J306">
+        <v>3.3</v>
+      </c>
+      <c r="K306">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A307" s="2">
+        <v>43926</v>
+      </c>
+      <c r="B307" t="s">
+        <v>10</v>
+      </c>
+      <c r="C307" t="s">
+        <v>5</v>
+      </c>
+      <c r="D307" s="3">
+        <v>8096</v>
+      </c>
+      <c r="E307" s="3">
+        <v>5338</v>
+      </c>
+      <c r="F307">
+        <v>20.9</v>
+      </c>
+      <c r="G307">
+        <v>765</v>
+      </c>
+      <c r="H307">
+        <v>31</v>
+      </c>
+      <c r="I307">
+        <v>300</v>
+      </c>
+      <c r="J307">
+        <v>9.6</v>
+      </c>
+      <c r="K307">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A308" s="2">
+        <v>43926</v>
+      </c>
+      <c r="B308" t="s">
+        <v>10</v>
+      </c>
+      <c r="C308" t="s">
+        <v>6</v>
+      </c>
+      <c r="D308" s="3">
+        <v>8410</v>
+      </c>
+      <c r="E308" s="3">
+        <v>6591</v>
+      </c>
+      <c r="F308">
+        <v>25.8</v>
+      </c>
+      <c r="G308">
+        <v>792</v>
+      </c>
+      <c r="H308">
+        <v>32.1</v>
+      </c>
+      <c r="I308">
+        <v>977</v>
+      </c>
+      <c r="J308">
+        <v>31.2</v>
+      </c>
+      <c r="K308">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A309" s="2">
+        <v>43926</v>
+      </c>
+      <c r="B309" t="s">
+        <v>10</v>
+      </c>
+      <c r="C309" t="s">
+        <v>12</v>
+      </c>
+      <c r="D309" s="3">
+        <v>5726</v>
+      </c>
+      <c r="E309" s="3">
+        <v>4392</v>
+      </c>
+      <c r="F309">
+        <v>17.2</v>
+      </c>
+      <c r="G309">
+        <v>73</v>
+      </c>
+      <c r="H309">
+        <v>3</v>
+      </c>
+      <c r="I309">
+        <v>1300</v>
+      </c>
+      <c r="J309">
+        <v>41.5</v>
+      </c>
+      <c r="K309">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A310" s="2">
+        <v>43926</v>
+      </c>
+      <c r="B310" t="s">
+        <v>10</v>
+      </c>
+      <c r="C310" t="s">
+        <v>13</v>
+      </c>
+      <c r="D310" s="3">
+        <v>1384</v>
+      </c>
+      <c r="E310">
+        <v>894</v>
+      </c>
+      <c r="F310">
+        <v>3.5</v>
+      </c>
+      <c r="G310">
+        <v>9</v>
+      </c>
+      <c r="H310">
+        <v>0.4</v>
+      </c>
+      <c r="I310">
+        <v>403</v>
+      </c>
+      <c r="J310">
+        <v>12.9</v>
+      </c>
+      <c r="K310">
+        <v>29.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Covid-19_data_sexage.xlsx
+++ b/data/Covid-19_data_sexage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanjosevidal/Google Drive/Projects/Covid-19/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B1EDD7-6730-2F4B-8EF2-5602320F9C58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F34953-C7A6-CA44-8598-ABF942428EF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="960" windowWidth="28040" windowHeight="17040" xr2:uid="{C24317C9-D1BD-7248-BEC1-07839536F6EA}"/>
   </bookViews>
@@ -33,6 +33,7 @@
     <definedName name="tabula_Actualizacion_65_COVID_19_1" localSheetId="0">Data!$C$251:$K$270</definedName>
     <definedName name="tabula_Actualizacion_66_COVID_19_1" localSheetId="0">Data!$C$271:$K$290</definedName>
     <definedName name="tabula_Actualizacion_67_COVID_19_1" localSheetId="0">Data!$C$291:$K$310</definedName>
+    <definedName name="tabula_Actualizacion_68_COVID_19_1" localSheetId="0">Data!$C$311:$K$330</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -276,7 +277,22 @@
     </textPr>
   </connection>
   <connection id="16" xr16:uid="{497834C5-EF53-8A4D-8C36-23AF6056CD73}" name="tabula-Actualizacion_67_COVID-19(1)" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_67_COVID-19(1).csv" decimal="," thousands="." comma="1">
+    <textPr sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_67_COVID-19(1).csv" decimal="," thousands="." comma="1">
+      <textFields count="9">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="17" xr16:uid="{971913ED-1189-6B48-8B06-D69E35F109D9}" name="tabula-Actualizacion_68_COVID-19(1)" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_68_COVID-19(1).csv" decimal="," thousands="." comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -294,7 +310,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="26">
   <si>
     <t>0-9</t>
   </si>
@@ -472,67 +488,71 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_68_COVID-19(1)" connectionId="17" xr16:uid="{15D6F25C-3F4D-0947-8994-7F669D041C1F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_64_COVID-19(1)" connectionId="13" xr16:uid="{24F5186E-14BA-4941-BB1A-F21AEE9F7F07}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_67_COVID-19(1)" connectionId="16" xr16:uid="{0DCC7075-52E5-6445-A2D9-0D0404D0E63E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_63_COVID-19(1)" connectionId="12" xr16:uid="{EFDFC980-4B86-C948-B035-B2786B80754E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_54_COVID-19" connectionId="3" xr16:uid="{E94F4815-0D2F-454F-8291-FCBF0C165C57}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_57_COVID-19(1)" connectionId="6" xr16:uid="{78E004BB-228B-5143-9AFE-91688C440A41}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_52_COVID-19" connectionId="1" xr16:uid="{35D81D28-1058-4347-9DE2-5F2763DAC2A4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_66_COVID-19(1)" connectionId="15" xr16:uid="{784FDDA9-F525-C54F-BA21-682143B55347}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(1)" connectionId="9" xr16:uid="{C813FA0B-4B7A-0743-B527-E10C07F0E6C8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_55_COVID-19" connectionId="4" xr16:uid="{10575DCA-3AE8-5C4C-A970-60205B471337}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_60_COVID-19(1)" connectionId="8" xr16:uid="{C2F0088C-0355-9A48-BE55-175198337C67}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_62_COVID-19(1)" connectionId="11" xr16:uid="{789174F4-7737-BE4C-9685-F15607B8C828}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_56_COVID-19(1)" connectionId="5" xr16:uid="{C5B10145-DA18-EE44-A918-E407BEA443E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_65_COVID-19(1)" connectionId="14" xr16:uid="{1F7FC7F3-ADF7-CE4C-A901-C09AA03AA932}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_53_COVID-19" connectionId="2" xr16:uid="{31483431-2B39-A440-9E59-C26E082912EA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_57_COVID-19(1)" connectionId="6" xr16:uid="{78E004BB-228B-5143-9AFE-91688C440A41}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(1)" connectionId="9" xr16:uid="{C813FA0B-4B7A-0743-B527-E10C07F0E6C8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_60_COVID-19(1)" connectionId="8" xr16:uid="{C2F0088C-0355-9A48-BE55-175198337C67}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_59_COVID-19(1)" connectionId="7" xr16:uid="{6E93CE4F-1115-D449-959A-2A7263C31ABC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_63_COVID-19(1)" connectionId="12" xr16:uid="{EFDFC980-4B86-C948-B035-B2786B80754E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_54_COVID-19" connectionId="3" xr16:uid="{E94F4815-0D2F-454F-8291-FCBF0C165C57}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_66_COVID-19(1)" connectionId="15" xr16:uid="{784FDDA9-F525-C54F-BA21-682143B55347}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_56_COVID-19(1)" connectionId="5" xr16:uid="{C5B10145-DA18-EE44-A918-E407BEA443E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(2)_1" connectionId="10" xr16:uid="{252D0C3F-8429-6D40-AFE6-2BAFDCF71E62}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_64_COVID-19(1)" connectionId="13" xr16:uid="{24F5186E-14BA-4941-BB1A-F21AEE9F7F07}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_52_COVID-19" connectionId="1" xr16:uid="{35D81D28-1058-4347-9DE2-5F2763DAC2A4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_55_COVID-19" connectionId="4" xr16:uid="{10575DCA-3AE8-5C4C-A970-60205B471337}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_62_COVID-19(1)" connectionId="11" xr16:uid="{789174F4-7737-BE4C-9685-F15607B8C828}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_53_COVID-19" connectionId="2" xr16:uid="{31483431-2B39-A440-9E59-C26E082912EA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -832,10 +852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973FFFC2-62D5-A048-8409-BF1FADA21B40}">
-  <dimension ref="A1:T310"/>
+  <dimension ref="A1:T330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
-      <selection activeCell="D292" sqref="D292"/>
+    <sheetView tabSelected="1" topLeftCell="A297" workbookViewId="0">
+      <selection activeCell="E319" sqref="E319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11767,6 +11787,706 @@
         <v>29.1</v>
       </c>
     </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A311" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B311" t="s">
+        <v>9</v>
+      </c>
+      <c r="C311" t="s">
+        <v>0</v>
+      </c>
+      <c r="D311">
+        <v>120</v>
+      </c>
+      <c r="E311">
+        <v>35</v>
+      </c>
+      <c r="F311">
+        <v>0.2</v>
+      </c>
+      <c r="G311">
+        <v>2</v>
+      </c>
+      <c r="H311">
+        <v>0.2</v>
+      </c>
+      <c r="I311">
+        <v>1</v>
+      </c>
+      <c r="J311">
+        <v>0.1</v>
+      </c>
+      <c r="K311">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A312" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B312" t="s">
+        <v>9</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D312">
+        <v>258</v>
+      </c>
+      <c r="E312">
+        <v>54</v>
+      </c>
+      <c r="F312">
+        <v>0.3</v>
+      </c>
+      <c r="G312">
+        <v>1</v>
+      </c>
+      <c r="H312">
+        <v>0.1</v>
+      </c>
+      <c r="I312">
+        <v>1</v>
+      </c>
+      <c r="J312">
+        <v>0.1</v>
+      </c>
+      <c r="K312">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A313" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B313" t="s">
+        <v>9</v>
+      </c>
+      <c r="C313" t="s">
+        <v>1</v>
+      </c>
+      <c r="D313" s="3">
+        <v>2904</v>
+      </c>
+      <c r="E313">
+        <v>373</v>
+      </c>
+      <c r="F313">
+        <v>2.1</v>
+      </c>
+      <c r="G313">
+        <v>17</v>
+      </c>
+      <c r="H313">
+        <v>1.6</v>
+      </c>
+      <c r="I313">
+        <v>2</v>
+      </c>
+      <c r="J313">
+        <v>0.1</v>
+      </c>
+      <c r="K313">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A314" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B314" t="s">
+        <v>9</v>
+      </c>
+      <c r="C314" t="s">
+        <v>2</v>
+      </c>
+      <c r="D314" s="3">
+        <v>5183</v>
+      </c>
+      <c r="E314">
+        <v>902</v>
+      </c>
+      <c r="F314">
+        <v>5</v>
+      </c>
+      <c r="G314">
+        <v>44</v>
+      </c>
+      <c r="H314">
+        <v>4.3</v>
+      </c>
+      <c r="I314">
+        <v>8</v>
+      </c>
+      <c r="J314">
+        <v>0.4</v>
+      </c>
+      <c r="K314">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A315" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B315" t="s">
+        <v>9</v>
+      </c>
+      <c r="C315" t="s">
+        <v>3</v>
+      </c>
+      <c r="D315" s="3">
+        <v>7255</v>
+      </c>
+      <c r="E315" s="3">
+        <v>1699</v>
+      </c>
+      <c r="F315">
+        <v>9.4</v>
+      </c>
+      <c r="G315">
+        <v>94</v>
+      </c>
+      <c r="H315">
+        <v>9.1</v>
+      </c>
+      <c r="I315">
+        <v>19</v>
+      </c>
+      <c r="J315">
+        <v>1</v>
+      </c>
+      <c r="K315">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A316" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B316" t="s">
+        <v>9</v>
+      </c>
+      <c r="C316" t="s">
+        <v>4</v>
+      </c>
+      <c r="D316" s="3">
+        <v>8776</v>
+      </c>
+      <c r="E316" s="3">
+        <v>2690</v>
+      </c>
+      <c r="F316">
+        <v>15</v>
+      </c>
+      <c r="G316">
+        <v>188</v>
+      </c>
+      <c r="H316">
+        <v>18.2</v>
+      </c>
+      <c r="I316">
+        <v>45</v>
+      </c>
+      <c r="J316">
+        <v>2.5</v>
+      </c>
+      <c r="K316">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A317" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B317" t="s">
+        <v>9</v>
+      </c>
+      <c r="C317" t="s">
+        <v>5</v>
+      </c>
+      <c r="D317" s="3">
+        <v>6825</v>
+      </c>
+      <c r="E317" s="3">
+        <v>3497</v>
+      </c>
+      <c r="F317">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="G317">
+        <v>317</v>
+      </c>
+      <c r="H317">
+        <v>30.7</v>
+      </c>
+      <c r="I317">
+        <v>119</v>
+      </c>
+      <c r="J317">
+        <v>6.5</v>
+      </c>
+      <c r="K317">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A318" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B318" t="s">
+        <v>9</v>
+      </c>
+      <c r="C318" t="s">
+        <v>6</v>
+      </c>
+      <c r="D318" s="3">
+        <v>5866</v>
+      </c>
+      <c r="E318" s="3">
+        <v>4199</v>
+      </c>
+      <c r="F318">
+        <v>23.4</v>
+      </c>
+      <c r="G318">
+        <v>307</v>
+      </c>
+      <c r="H318">
+        <v>29.7</v>
+      </c>
+      <c r="I318">
+        <v>369</v>
+      </c>
+      <c r="J318">
+        <v>20.2</v>
+      </c>
+      <c r="K318">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A319" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B319" t="s">
+        <v>9</v>
+      </c>
+      <c r="C319" t="s">
+        <v>12</v>
+      </c>
+      <c r="D319" s="3">
+        <v>5474</v>
+      </c>
+      <c r="E319" s="3">
+        <v>3433</v>
+      </c>
+      <c r="F319">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="G319">
+        <v>59</v>
+      </c>
+      <c r="H319">
+        <v>5.7</v>
+      </c>
+      <c r="I319">
+        <v>827</v>
+      </c>
+      <c r="J319">
+        <v>45.3</v>
+      </c>
+      <c r="K319">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A320" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B320" t="s">
+        <v>9</v>
+      </c>
+      <c r="C320" t="s">
+        <v>13</v>
+      </c>
+      <c r="D320" s="3">
+        <v>2259</v>
+      </c>
+      <c r="E320" s="3">
+        <v>1099</v>
+      </c>
+      <c r="F320">
+        <v>6.1</v>
+      </c>
+      <c r="G320">
+        <v>4</v>
+      </c>
+      <c r="H320">
+        <v>0.4</v>
+      </c>
+      <c r="I320">
+        <v>436</v>
+      </c>
+      <c r="J320">
+        <v>23.9</v>
+      </c>
+      <c r="K320">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A321" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B321" t="s">
+        <v>10</v>
+      </c>
+      <c r="C321" t="s">
+        <v>0</v>
+      </c>
+      <c r="D321">
+        <v>127</v>
+      </c>
+      <c r="E321">
+        <v>42</v>
+      </c>
+      <c r="F321">
+        <v>0.2</v>
+      </c>
+      <c r="G321">
+        <v>4</v>
+      </c>
+      <c r="H321">
+        <v>0.2</v>
+      </c>
+      <c r="I321">
+        <v>0</v>
+      </c>
+      <c r="J321">
+        <v>0</v>
+      </c>
+      <c r="K321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A322" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B322" t="s">
+        <v>10</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D322">
+        <v>231</v>
+      </c>
+      <c r="E322">
+        <v>46</v>
+      </c>
+      <c r="F322">
+        <v>0.2</v>
+      </c>
+      <c r="G322">
+        <v>3</v>
+      </c>
+      <c r="H322">
+        <v>0.1</v>
+      </c>
+      <c r="I322">
+        <v>0</v>
+      </c>
+      <c r="J322">
+        <v>0</v>
+      </c>
+      <c r="K322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A323" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B323" t="s">
+        <v>10</v>
+      </c>
+      <c r="C323" t="s">
+        <v>1</v>
+      </c>
+      <c r="D323" s="3">
+        <v>1694</v>
+      </c>
+      <c r="E323">
+        <v>378</v>
+      </c>
+      <c r="F323">
+        <v>1.5</v>
+      </c>
+      <c r="G323">
+        <v>27</v>
+      </c>
+      <c r="H323">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I323">
+        <v>5</v>
+      </c>
+      <c r="J323">
+        <v>0.2</v>
+      </c>
+      <c r="K323">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="324" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A324" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B324" t="s">
+        <v>10</v>
+      </c>
+      <c r="C324" t="s">
+        <v>2</v>
+      </c>
+      <c r="D324" s="3">
+        <v>3561</v>
+      </c>
+      <c r="E324" s="3">
+        <v>1050</v>
+      </c>
+      <c r="F324">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G324">
+        <v>81</v>
+      </c>
+      <c r="H324">
+        <v>3.3</v>
+      </c>
+      <c r="I324">
+        <v>12</v>
+      </c>
+      <c r="J324">
+        <v>0.4</v>
+      </c>
+      <c r="K324">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A325" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B325" t="s">
+        <v>10</v>
+      </c>
+      <c r="C325" t="s">
+        <v>3</v>
+      </c>
+      <c r="D325" s="3">
+        <v>6156</v>
+      </c>
+      <c r="E325" s="3">
+        <v>2590</v>
+      </c>
+      <c r="F325">
+        <v>10.1</v>
+      </c>
+      <c r="G325">
+        <v>232</v>
+      </c>
+      <c r="H325">
+        <v>9.4</v>
+      </c>
+      <c r="I325">
+        <v>31</v>
+      </c>
+      <c r="J325">
+        <v>1</v>
+      </c>
+      <c r="K325">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A326" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B326" t="s">
+        <v>10</v>
+      </c>
+      <c r="C326" t="s">
+        <v>4</v>
+      </c>
+      <c r="D326" s="3">
+        <v>7792</v>
+      </c>
+      <c r="E326" s="3">
+        <v>4138</v>
+      </c>
+      <c r="F326">
+        <v>16.2</v>
+      </c>
+      <c r="G326">
+        <v>457</v>
+      </c>
+      <c r="H326">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="I326">
+        <v>102</v>
+      </c>
+      <c r="J326">
+        <v>3.2</v>
+      </c>
+      <c r="K326">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A327" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B327" t="s">
+        <v>10</v>
+      </c>
+      <c r="C327" t="s">
+        <v>5</v>
+      </c>
+      <c r="D327" s="3">
+        <v>8106</v>
+      </c>
+      <c r="E327" s="3">
+        <v>5368</v>
+      </c>
+      <c r="F327">
+        <v>21</v>
+      </c>
+      <c r="G327">
+        <v>778</v>
+      </c>
+      <c r="H327">
+        <v>31.6</v>
+      </c>
+      <c r="I327">
+        <v>301</v>
+      </c>
+      <c r="J327">
+        <v>9.6</v>
+      </c>
+      <c r="K327">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A328" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B328" t="s">
+        <v>10</v>
+      </c>
+      <c r="C328" t="s">
+        <v>6</v>
+      </c>
+      <c r="D328" s="3">
+        <v>8429</v>
+      </c>
+      <c r="E328" s="3">
+        <v>6631</v>
+      </c>
+      <c r="F328">
+        <v>25.9</v>
+      </c>
+      <c r="G328">
+        <v>800</v>
+      </c>
+      <c r="H328">
+        <v>32.5</v>
+      </c>
+      <c r="I328">
+        <v>984</v>
+      </c>
+      <c r="J328">
+        <v>31.2</v>
+      </c>
+      <c r="K328">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A329" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B329" t="s">
+        <v>10</v>
+      </c>
+      <c r="C329" t="s">
+        <v>12</v>
+      </c>
+      <c r="D329" s="3">
+        <v>5730</v>
+      </c>
+      <c r="E329" s="3">
+        <v>4424</v>
+      </c>
+      <c r="F329">
+        <v>17.3</v>
+      </c>
+      <c r="G329">
+        <v>69</v>
+      </c>
+      <c r="H329">
+        <v>2.8</v>
+      </c>
+      <c r="I329">
+        <v>1308</v>
+      </c>
+      <c r="J329">
+        <v>41.5</v>
+      </c>
+      <c r="K329">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A330" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B330" t="s">
+        <v>10</v>
+      </c>
+      <c r="C330" t="s">
+        <v>13</v>
+      </c>
+      <c r="D330" s="3">
+        <v>1386</v>
+      </c>
+      <c r="E330">
+        <v>896</v>
+      </c>
+      <c r="F330">
+        <v>3.5</v>
+      </c>
+      <c r="G330">
+        <v>8</v>
+      </c>
+      <c r="H330">
+        <v>0.3</v>
+      </c>
+      <c r="I330">
+        <v>408</v>
+      </c>
+      <c r="J330">
+        <v>12.9</v>
+      </c>
+      <c r="K330">
+        <v>29.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Covid-19_data_sexage.xlsx
+++ b/data/Covid-19_data_sexage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanjosevidal/Google Drive/Projects/Covid-19/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F34953-C7A6-CA44-8598-ABF942428EF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782FA68A-BEFF-BA45-9A18-031F0E8B6DF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="960" windowWidth="28040" windowHeight="17040" xr2:uid="{C24317C9-D1BD-7248-BEC1-07839536F6EA}"/>
   </bookViews>
@@ -34,6 +34,7 @@
     <definedName name="tabula_Actualizacion_66_COVID_19_1" localSheetId="0">Data!$C$271:$K$290</definedName>
     <definedName name="tabula_Actualizacion_67_COVID_19_1" localSheetId="0">Data!$C$291:$K$310</definedName>
     <definedName name="tabula_Actualizacion_68_COVID_19_1" localSheetId="0">Data!$C$311:$K$330</definedName>
+    <definedName name="tabula_Actualizacion_69_COVID_19_1" localSheetId="0">Data!$C$331:$K$350</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -292,7 +293,22 @@
     </textPr>
   </connection>
   <connection id="17" xr16:uid="{971913ED-1189-6B48-8B06-D69E35F109D9}" name="tabula-Actualizacion_68_COVID-19(1)" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_68_COVID-19(1).csv" decimal="," thousands="." comma="1">
+    <textPr sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_68_COVID-19(1).csv" decimal="," thousands="." comma="1">
+      <textFields count="9">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="18" xr16:uid="{60FA1083-D751-CE43-AD31-002B70DF7489}" name="tabula-Actualizacion_69_COVID-19(1)" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_69_COVID-19(1).csv" decimal="," thousands="." comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -310,7 +326,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="26">
   <si>
     <t>0-9</t>
   </si>
@@ -488,71 +504,75 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_69_COVID-19(1)" connectionId="18" xr16:uid="{43D60223-767A-964E-8CC2-E64E5ACAFF9F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_65_COVID-19(1)" connectionId="14" xr16:uid="{1F7FC7F3-ADF7-CE4C-A901-C09AA03AA932}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_68_COVID-19(1)" connectionId="17" xr16:uid="{15D6F25C-3F4D-0947-8994-7F669D041C1F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_66_COVID-19(1)" connectionId="15" xr16:uid="{784FDDA9-F525-C54F-BA21-682143B55347}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_55_COVID-19" connectionId="4" xr16:uid="{10575DCA-3AE8-5C4C-A970-60205B471337}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(1)" connectionId="9" xr16:uid="{C813FA0B-4B7A-0743-B527-E10C07F0E6C8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_63_COVID-19(1)" connectionId="12" xr16:uid="{EFDFC980-4B86-C948-B035-B2786B80754E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_59_COVID-19(1)" connectionId="7" xr16:uid="{6E93CE4F-1115-D449-959A-2A7263C31ABC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_60_COVID-19(1)" connectionId="8" xr16:uid="{C2F0088C-0355-9A48-BE55-175198337C67}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_54_COVID-19" connectionId="3" xr16:uid="{E94F4815-0D2F-454F-8291-FCBF0C165C57}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(2)_1" connectionId="10" xr16:uid="{252D0C3F-8429-6D40-AFE6-2BAFDCF71E62}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_57_COVID-19(1)" connectionId="6" xr16:uid="{78E004BB-228B-5143-9AFE-91688C440A41}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_53_COVID-19" connectionId="2" xr16:uid="{31483431-2B39-A440-9E59-C26E082912EA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_62_COVID-19(1)" connectionId="11" xr16:uid="{789174F4-7737-BE4C-9685-F15607B8C828}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_64_COVID-19(1)" connectionId="13" xr16:uid="{24F5186E-14BA-4941-BB1A-F21AEE9F7F07}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_67_COVID-19(1)" connectionId="16" xr16:uid="{0DCC7075-52E5-6445-A2D9-0D0404D0E63E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_63_COVID-19(1)" connectionId="12" xr16:uid="{EFDFC980-4B86-C948-B035-B2786B80754E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_54_COVID-19" connectionId="3" xr16:uid="{E94F4815-0D2F-454F-8291-FCBF0C165C57}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_57_COVID-19(1)" connectionId="6" xr16:uid="{78E004BB-228B-5143-9AFE-91688C440A41}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_52_COVID-19" connectionId="1" xr16:uid="{35D81D28-1058-4347-9DE2-5F2763DAC2A4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_66_COVID-19(1)" connectionId="15" xr16:uid="{784FDDA9-F525-C54F-BA21-682143B55347}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(1)" connectionId="9" xr16:uid="{C813FA0B-4B7A-0743-B527-E10C07F0E6C8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_55_COVID-19" connectionId="4" xr16:uid="{10575DCA-3AE8-5C4C-A970-60205B471337}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_60_COVID-19(1)" connectionId="8" xr16:uid="{C2F0088C-0355-9A48-BE55-175198337C67}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_62_COVID-19(1)" connectionId="11" xr16:uid="{789174F4-7737-BE4C-9685-F15607B8C828}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_56_COVID-19(1)" connectionId="5" xr16:uid="{C5B10145-DA18-EE44-A918-E407BEA443E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_65_COVID-19(1)" connectionId="14" xr16:uid="{1F7FC7F3-ADF7-CE4C-A901-C09AA03AA932}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_59_COVID-19(1)" connectionId="7" xr16:uid="{6E93CE4F-1115-D449-959A-2A7263C31ABC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(2)_1" connectionId="10" xr16:uid="{252D0C3F-8429-6D40-AFE6-2BAFDCF71E62}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_53_COVID-19" connectionId="2" xr16:uid="{31483431-2B39-A440-9E59-C26E082912EA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_67_COVID-19(1)" connectionId="16" xr16:uid="{0DCC7075-52E5-6445-A2D9-0D0404D0E63E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -852,10 +872,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973FFFC2-62D5-A048-8409-BF1FADA21B40}">
-  <dimension ref="A1:T330"/>
+  <dimension ref="A1:T350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A297" workbookViewId="0">
-      <selection activeCell="E319" sqref="E319"/>
+    <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
+      <selection activeCell="D337" sqref="D337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -863,10 +883,13 @@
     <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="5.1640625" bestFit="1" customWidth="1"/>
@@ -12485,6 +12508,706 @@
       </c>
       <c r="K330">
         <v>29.4</v>
+      </c>
+    </row>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A331" s="2">
+        <v>43928</v>
+      </c>
+      <c r="B331" t="s">
+        <v>9</v>
+      </c>
+      <c r="C331" t="s">
+        <v>0</v>
+      </c>
+      <c r="D331">
+        <v>139</v>
+      </c>
+      <c r="E331">
+        <v>34</v>
+      </c>
+      <c r="F331">
+        <v>0.2</v>
+      </c>
+      <c r="G331">
+        <v>2</v>
+      </c>
+      <c r="H331">
+        <v>0.2</v>
+      </c>
+      <c r="I331">
+        <v>1</v>
+      </c>
+      <c r="J331">
+        <v>0</v>
+      </c>
+      <c r="K331">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="332" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A332" s="2">
+        <v>43928</v>
+      </c>
+      <c r="B332" t="s">
+        <v>9</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D332">
+        <v>289</v>
+      </c>
+      <c r="E332">
+        <v>58</v>
+      </c>
+      <c r="F332">
+        <v>0.3</v>
+      </c>
+      <c r="G332">
+        <v>1</v>
+      </c>
+      <c r="H332">
+        <v>0.1</v>
+      </c>
+      <c r="I332">
+        <v>1</v>
+      </c>
+      <c r="J332">
+        <v>0</v>
+      </c>
+      <c r="K332">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A333" s="2">
+        <v>43928</v>
+      </c>
+      <c r="B333" t="s">
+        <v>9</v>
+      </c>
+      <c r="C333" t="s">
+        <v>1</v>
+      </c>
+      <c r="D333" s="3">
+        <v>3267</v>
+      </c>
+      <c r="E333">
+        <v>402</v>
+      </c>
+      <c r="F333">
+        <v>2</v>
+      </c>
+      <c r="G333">
+        <v>20</v>
+      </c>
+      <c r="H333">
+        <v>1.7</v>
+      </c>
+      <c r="I333">
+        <v>3</v>
+      </c>
+      <c r="J333">
+        <v>0.1</v>
+      </c>
+      <c r="K333">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A334" s="2">
+        <v>43928</v>
+      </c>
+      <c r="B334" t="s">
+        <v>9</v>
+      </c>
+      <c r="C334" t="s">
+        <v>2</v>
+      </c>
+      <c r="D334" s="3">
+        <v>5841</v>
+      </c>
+      <c r="E334">
+        <v>986</v>
+      </c>
+      <c r="F334">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G334">
+        <v>48</v>
+      </c>
+      <c r="H334">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I334">
+        <v>8</v>
+      </c>
+      <c r="J334">
+        <v>0.4</v>
+      </c>
+      <c r="K334">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A335" s="2">
+        <v>43928</v>
+      </c>
+      <c r="B335" t="s">
+        <v>9</v>
+      </c>
+      <c r="C335" t="s">
+        <v>3</v>
+      </c>
+      <c r="D335" s="3">
+        <v>8334</v>
+      </c>
+      <c r="E335" s="3">
+        <v>1884</v>
+      </c>
+      <c r="F335">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G335">
+        <v>105</v>
+      </c>
+      <c r="H335">
+        <v>8.9</v>
+      </c>
+      <c r="I335">
+        <v>19</v>
+      </c>
+      <c r="J335">
+        <v>0.9</v>
+      </c>
+      <c r="K335">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A336" s="2">
+        <v>43928</v>
+      </c>
+      <c r="B336" t="s">
+        <v>9</v>
+      </c>
+      <c r="C336" t="s">
+        <v>4</v>
+      </c>
+      <c r="D336" s="3">
+        <v>10008</v>
+      </c>
+      <c r="E336" s="3">
+        <v>3030</v>
+      </c>
+      <c r="F336">
+        <v>14.9</v>
+      </c>
+      <c r="G336">
+        <v>223</v>
+      </c>
+      <c r="H336">
+        <v>19</v>
+      </c>
+      <c r="I336">
+        <v>56</v>
+      </c>
+      <c r="J336">
+        <v>2.5</v>
+      </c>
+      <c r="K336">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="337" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A337" s="2">
+        <v>43928</v>
+      </c>
+      <c r="B337" t="s">
+        <v>9</v>
+      </c>
+      <c r="C337" t="s">
+        <v>5</v>
+      </c>
+      <c r="D337" s="3">
+        <v>7797</v>
+      </c>
+      <c r="E337" s="3">
+        <v>3959</v>
+      </c>
+      <c r="F337">
+        <v>19.5</v>
+      </c>
+      <c r="G337">
+        <v>356</v>
+      </c>
+      <c r="H337">
+        <v>30.3</v>
+      </c>
+      <c r="I337">
+        <v>153</v>
+      </c>
+      <c r="J337">
+        <v>6.9</v>
+      </c>
+      <c r="K337">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A338" s="2">
+        <v>43928</v>
+      </c>
+      <c r="B338" t="s">
+        <v>9</v>
+      </c>
+      <c r="C338" t="s">
+        <v>6</v>
+      </c>
+      <c r="D338" s="3">
+        <v>6765</v>
+      </c>
+      <c r="E338" s="3">
+        <v>4746</v>
+      </c>
+      <c r="F338">
+        <v>23.4</v>
+      </c>
+      <c r="G338">
+        <v>366</v>
+      </c>
+      <c r="H338">
+        <v>31.1</v>
+      </c>
+      <c r="I338">
+        <v>455</v>
+      </c>
+      <c r="J338">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="K338">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="339" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A339" s="2">
+        <v>43928</v>
+      </c>
+      <c r="B339" t="s">
+        <v>9</v>
+      </c>
+      <c r="C339" t="s">
+        <v>12</v>
+      </c>
+      <c r="D339" s="3">
+        <v>6557</v>
+      </c>
+      <c r="E339" s="3">
+        <v>3957</v>
+      </c>
+      <c r="F339">
+        <v>19.5</v>
+      </c>
+      <c r="G339">
+        <v>50</v>
+      </c>
+      <c r="H339">
+        <v>4.3</v>
+      </c>
+      <c r="I339" s="3">
+        <v>1007</v>
+      </c>
+      <c r="J339">
+        <v>45.2</v>
+      </c>
+      <c r="K339">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A340" s="2">
+        <v>43928</v>
+      </c>
+      <c r="B340" t="s">
+        <v>9</v>
+      </c>
+      <c r="C340" t="s">
+        <v>13</v>
+      </c>
+      <c r="D340" s="3">
+        <v>2743</v>
+      </c>
+      <c r="E340" s="3">
+        <v>1241</v>
+      </c>
+      <c r="F340">
+        <v>6.1</v>
+      </c>
+      <c r="G340">
+        <v>4</v>
+      </c>
+      <c r="H340">
+        <v>0.3</v>
+      </c>
+      <c r="I340">
+        <v>526</v>
+      </c>
+      <c r="J340">
+        <v>23.6</v>
+      </c>
+      <c r="K340">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A341" s="2">
+        <v>43928</v>
+      </c>
+      <c r="B341" t="s">
+        <v>10</v>
+      </c>
+      <c r="C341" t="s">
+        <v>0</v>
+      </c>
+      <c r="D341">
+        <v>148</v>
+      </c>
+      <c r="E341">
+        <v>47</v>
+      </c>
+      <c r="F341">
+        <v>0.2</v>
+      </c>
+      <c r="G341">
+        <v>4</v>
+      </c>
+      <c r="H341">
+        <v>0.1</v>
+      </c>
+      <c r="I341">
+        <v>0</v>
+      </c>
+      <c r="J341">
+        <v>0</v>
+      </c>
+      <c r="K341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A342" s="2">
+        <v>43928</v>
+      </c>
+      <c r="B342" t="s">
+        <v>10</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D342">
+        <v>264</v>
+      </c>
+      <c r="E342">
+        <v>53</v>
+      </c>
+      <c r="F342">
+        <v>0.2</v>
+      </c>
+      <c r="G342">
+        <v>4</v>
+      </c>
+      <c r="H342">
+        <v>0.1</v>
+      </c>
+      <c r="I342">
+        <v>0</v>
+      </c>
+      <c r="J342">
+        <v>0</v>
+      </c>
+      <c r="K342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A343" s="2">
+        <v>43928</v>
+      </c>
+      <c r="B343" t="s">
+        <v>10</v>
+      </c>
+      <c r="C343" t="s">
+        <v>1</v>
+      </c>
+      <c r="D343" s="3">
+        <v>1840</v>
+      </c>
+      <c r="E343">
+        <v>398</v>
+      </c>
+      <c r="F343">
+        <v>1.4</v>
+      </c>
+      <c r="G343">
+        <v>30</v>
+      </c>
+      <c r="H343">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I343">
+        <v>6</v>
+      </c>
+      <c r="J343">
+        <v>0.2</v>
+      </c>
+      <c r="K343">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A344" s="2">
+        <v>43928</v>
+      </c>
+      <c r="B344" t="s">
+        <v>10</v>
+      </c>
+      <c r="C344" t="s">
+        <v>2</v>
+      </c>
+      <c r="D344" s="3">
+        <v>3976</v>
+      </c>
+      <c r="E344" s="3">
+        <v>1142</v>
+      </c>
+      <c r="F344">
+        <v>4</v>
+      </c>
+      <c r="G344">
+        <v>95</v>
+      </c>
+      <c r="H344">
+        <v>3.3</v>
+      </c>
+      <c r="I344">
+        <v>15</v>
+      </c>
+      <c r="J344">
+        <v>0.4</v>
+      </c>
+      <c r="K344">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A345" s="2">
+        <v>43928</v>
+      </c>
+      <c r="B345" t="s">
+        <v>10</v>
+      </c>
+      <c r="C345" t="s">
+        <v>3</v>
+      </c>
+      <c r="D345" s="3">
+        <v>6920</v>
+      </c>
+      <c r="E345" s="3">
+        <v>2865</v>
+      </c>
+      <c r="F345">
+        <v>10</v>
+      </c>
+      <c r="G345">
+        <v>264</v>
+      </c>
+      <c r="H345">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="I345">
+        <v>34</v>
+      </c>
+      <c r="J345">
+        <v>0.9</v>
+      </c>
+      <c r="K345">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A346" s="2">
+        <v>43928</v>
+      </c>
+      <c r="B346" t="s">
+        <v>10</v>
+      </c>
+      <c r="C346" t="s">
+        <v>4</v>
+      </c>
+      <c r="D346" s="3">
+        <v>8775</v>
+      </c>
+      <c r="E346" s="3">
+        <v>4635</v>
+      </c>
+      <c r="F346">
+        <v>16.2</v>
+      </c>
+      <c r="G346">
+        <v>541</v>
+      </c>
+      <c r="H346">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="I346">
+        <v>130</v>
+      </c>
+      <c r="J346">
+        <v>3.5</v>
+      </c>
+      <c r="K346">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A347" s="2">
+        <v>43928</v>
+      </c>
+      <c r="B347" t="s">
+        <v>10</v>
+      </c>
+      <c r="C347" t="s">
+        <v>5</v>
+      </c>
+      <c r="D347" s="3">
+        <v>9172</v>
+      </c>
+      <c r="E347" s="3">
+        <v>6059</v>
+      </c>
+      <c r="F347">
+        <v>21.2</v>
+      </c>
+      <c r="G347">
+        <v>920</v>
+      </c>
+      <c r="H347">
+        <v>32.4</v>
+      </c>
+      <c r="I347">
+        <v>374</v>
+      </c>
+      <c r="J347">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="K347">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A348" s="2">
+        <v>43928</v>
+      </c>
+      <c r="B348" t="s">
+        <v>10</v>
+      </c>
+      <c r="C348" t="s">
+        <v>6</v>
+      </c>
+      <c r="D348" s="3">
+        <v>9486</v>
+      </c>
+      <c r="E348" s="3">
+        <v>7409</v>
+      </c>
+      <c r="F348">
+        <v>25.9</v>
+      </c>
+      <c r="G348">
+        <v>896</v>
+      </c>
+      <c r="H348">
+        <v>31.6</v>
+      </c>
+      <c r="I348" s="3">
+        <v>1148</v>
+      </c>
+      <c r="J348">
+        <v>31.2</v>
+      </c>
+      <c r="K348">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A349" s="2">
+        <v>43928</v>
+      </c>
+      <c r="B349" t="s">
+        <v>10</v>
+      </c>
+      <c r="C349" t="s">
+        <v>12</v>
+      </c>
+      <c r="D349" s="3">
+        <v>6509</v>
+      </c>
+      <c r="E349" s="3">
+        <v>4953</v>
+      </c>
+      <c r="F349">
+        <v>17.3</v>
+      </c>
+      <c r="G349">
+        <v>76</v>
+      </c>
+      <c r="H349">
+        <v>2.7</v>
+      </c>
+      <c r="I349" s="3">
+        <v>1508</v>
+      </c>
+      <c r="J349">
+        <v>41</v>
+      </c>
+      <c r="K349">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A350" s="2">
+        <v>43928</v>
+      </c>
+      <c r="B350" t="s">
+        <v>10</v>
+      </c>
+      <c r="C350" t="s">
+        <v>13</v>
+      </c>
+      <c r="D350" s="3">
+        <v>1594</v>
+      </c>
+      <c r="E350">
+        <v>995</v>
+      </c>
+      <c r="F350">
+        <v>3.5</v>
+      </c>
+      <c r="G350">
+        <v>8</v>
+      </c>
+      <c r="H350">
+        <v>0.3</v>
+      </c>
+      <c r="I350">
+        <v>460</v>
+      </c>
+      <c r="J350">
+        <v>12.5</v>
+      </c>
+      <c r="K350">
+        <v>28.9</v>
       </c>
     </row>
   </sheetData>

--- a/data/Covid-19_data_sexage.xlsx
+++ b/data/Covid-19_data_sexage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanjosevidal/Google Drive/Projects/Covid-19/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782FA68A-BEFF-BA45-9A18-031F0E8B6DF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54212A57-2736-FC40-B7DA-BB3E8531E657}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="960" windowWidth="28040" windowHeight="17040" xr2:uid="{C24317C9-D1BD-7248-BEC1-07839536F6EA}"/>
   </bookViews>
@@ -35,6 +35,7 @@
     <definedName name="tabula_Actualizacion_67_COVID_19_1" localSheetId="0">Data!$C$291:$K$310</definedName>
     <definedName name="tabula_Actualizacion_68_COVID_19_1" localSheetId="0">Data!$C$311:$K$330</definedName>
     <definedName name="tabula_Actualizacion_69_COVID_19_1" localSheetId="0">Data!$C$331:$K$350</definedName>
+    <definedName name="tabula_Actualizacion_70_COVID_19_1" localSheetId="0">Data!$C$351:$K$370</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -308,7 +309,22 @@
     </textPr>
   </connection>
   <connection id="18" xr16:uid="{60FA1083-D751-CE43-AD31-002B70DF7489}" name="tabula-Actualizacion_69_COVID-19(1)" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_69_COVID-19(1).csv" decimal="," thousands="." comma="1">
+    <textPr sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_69_COVID-19(1).csv" decimal="," thousands="." comma="1">
+      <textFields count="9">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="19" xr16:uid="{3B48A2EE-430F-7142-93E6-8A99F61C0BB1}" name="tabula-Actualizacion_70_COVID-19(1)" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_70_COVID-19(1).csv" decimal="," thousands="." comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -326,7 +342,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="26">
   <si>
     <t>0-9</t>
   </si>
@@ -504,75 +520,79 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_70_COVID-19(1)" connectionId="19" xr16:uid="{F30EDCDD-4769-4442-A6A9-407F59F6429F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_64_COVID-19(1)" connectionId="13" xr16:uid="{24F5186E-14BA-4941-BB1A-F21AEE9F7F07}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_69_COVID-19(1)" connectionId="18" xr16:uid="{43D60223-767A-964E-8CC2-E64E5ACAFF9F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_65_COVID-19(1)" connectionId="14" xr16:uid="{1F7FC7F3-ADF7-CE4C-A901-C09AA03AA932}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_59_COVID-19(1)" connectionId="7" xr16:uid="{6E93CE4F-1115-D449-959A-2A7263C31ABC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_68_COVID-19(1)" connectionId="17" xr16:uid="{15D6F25C-3F4D-0947-8994-7F669D041C1F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(2)_1" connectionId="10" xr16:uid="{252D0C3F-8429-6D40-AFE6-2BAFDCF71E62}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_60_COVID-19(1)" connectionId="8" xr16:uid="{C2F0088C-0355-9A48-BE55-175198337C67}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_66_COVID-19(1)" connectionId="15" xr16:uid="{784FDDA9-F525-C54F-BA21-682143B55347}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_55_COVID-19" connectionId="4" xr16:uid="{10575DCA-3AE8-5C4C-A970-60205B471337}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(1)" connectionId="9" xr16:uid="{C813FA0B-4B7A-0743-B527-E10C07F0E6C8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_63_COVID-19(1)" connectionId="12" xr16:uid="{EFDFC980-4B86-C948-B035-B2786B80754E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_59_COVID-19(1)" connectionId="7" xr16:uid="{6E93CE4F-1115-D449-959A-2A7263C31ABC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_52_COVID-19" connectionId="1" xr16:uid="{35D81D28-1058-4347-9DE2-5F2763DAC2A4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_60_COVID-19(1)" connectionId="8" xr16:uid="{C2F0088C-0355-9A48-BE55-175198337C67}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_57_COVID-19(1)" connectionId="6" xr16:uid="{78E004BB-228B-5143-9AFE-91688C440A41}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_54_COVID-19" connectionId="3" xr16:uid="{E94F4815-0D2F-454F-8291-FCBF0C165C57}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_55_COVID-19" connectionId="4" xr16:uid="{10575DCA-3AE8-5C4C-A970-60205B471337}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(2)_1" connectionId="10" xr16:uid="{252D0C3F-8429-6D40-AFE6-2BAFDCF71E62}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_56_COVID-19(1)" connectionId="5" xr16:uid="{C5B10145-DA18-EE44-A918-E407BEA443E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_57_COVID-19(1)" connectionId="6" xr16:uid="{78E004BB-228B-5143-9AFE-91688C440A41}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(1)" connectionId="9" xr16:uid="{C813FA0B-4B7A-0743-B527-E10C07F0E6C8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_67_COVID-19(1)" connectionId="16" xr16:uid="{0DCC7075-52E5-6445-A2D9-0D0404D0E63E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_53_COVID-19" connectionId="2" xr16:uid="{31483431-2B39-A440-9E59-C26E082912EA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_65_COVID-19(1)" connectionId="14" xr16:uid="{1F7FC7F3-ADF7-CE4C-A901-C09AA03AA932}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_63_COVID-19(1)" connectionId="12" xr16:uid="{EFDFC980-4B86-C948-B035-B2786B80754E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_62_COVID-19(1)" connectionId="11" xr16:uid="{789174F4-7737-BE4C-9685-F15607B8C828}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_64_COVID-19(1)" connectionId="13" xr16:uid="{24F5186E-14BA-4941-BB1A-F21AEE9F7F07}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_52_COVID-19" connectionId="1" xr16:uid="{35D81D28-1058-4347-9DE2-5F2763DAC2A4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_56_COVID-19(1)" connectionId="5" xr16:uid="{C5B10145-DA18-EE44-A918-E407BEA443E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_67_COVID-19(1)" connectionId="16" xr16:uid="{0DCC7075-52E5-6445-A2D9-0D0404D0E63E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_68_COVID-19(1)" connectionId="17" xr16:uid="{15D6F25C-3F4D-0947-8994-7F669D041C1F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -872,10 +892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973FFFC2-62D5-A048-8409-BF1FADA21B40}">
-  <dimension ref="A1:T350"/>
+  <dimension ref="A1:T370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
-      <selection activeCell="D337" sqref="D337"/>
+    <sheetView tabSelected="1" topLeftCell="A330" workbookViewId="0">
+      <selection activeCell="F356" sqref="F356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -886,7 +906,7 @@
     <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="5.1640625" bestFit="1" customWidth="1"/>
@@ -13208,6 +13228,706 @@
       </c>
       <c r="K350">
         <v>28.9</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A351" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B351" t="s">
+        <v>9</v>
+      </c>
+      <c r="C351" t="s">
+        <v>0</v>
+      </c>
+      <c r="D351">
+        <v>138</v>
+      </c>
+      <c r="E351">
+        <v>37</v>
+      </c>
+      <c r="F351">
+        <v>0.2</v>
+      </c>
+      <c r="G351">
+        <v>2</v>
+      </c>
+      <c r="H351">
+        <v>0.1</v>
+      </c>
+      <c r="I351">
+        <v>1</v>
+      </c>
+      <c r="J351">
+        <v>0</v>
+      </c>
+      <c r="K351">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A352" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B352" t="s">
+        <v>9</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D352">
+        <v>307</v>
+      </c>
+      <c r="E352">
+        <v>63</v>
+      </c>
+      <c r="F352">
+        <v>0.3</v>
+      </c>
+      <c r="G352">
+        <v>1</v>
+      </c>
+      <c r="H352">
+        <v>0.1</v>
+      </c>
+      <c r="I352">
+        <v>1</v>
+      </c>
+      <c r="J352">
+        <v>0</v>
+      </c>
+      <c r="K352">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A353" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B353" t="s">
+        <v>9</v>
+      </c>
+      <c r="C353" t="s">
+        <v>1</v>
+      </c>
+      <c r="D353" s="3">
+        <v>3458</v>
+      </c>
+      <c r="E353">
+        <v>417</v>
+      </c>
+      <c r="F353">
+        <v>1.9</v>
+      </c>
+      <c r="G353">
+        <v>22</v>
+      </c>
+      <c r="H353">
+        <v>1.6</v>
+      </c>
+      <c r="I353">
+        <v>3</v>
+      </c>
+      <c r="J353">
+        <v>0.1</v>
+      </c>
+      <c r="K353">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A354" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B354" t="s">
+        <v>9</v>
+      </c>
+      <c r="C354" t="s">
+        <v>2</v>
+      </c>
+      <c r="D354" s="3">
+        <v>6199</v>
+      </c>
+      <c r="E354" s="3">
+        <v>1039</v>
+      </c>
+      <c r="F354">
+        <v>4.8</v>
+      </c>
+      <c r="G354">
+        <v>61</v>
+      </c>
+      <c r="H354">
+        <v>4.5</v>
+      </c>
+      <c r="I354">
+        <v>9</v>
+      </c>
+      <c r="J354">
+        <v>0.3</v>
+      </c>
+      <c r="K354">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A355" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B355" t="s">
+        <v>9</v>
+      </c>
+      <c r="C355" t="s">
+        <v>3</v>
+      </c>
+      <c r="D355" s="3">
+        <v>8869</v>
+      </c>
+      <c r="E355" s="3">
+        <v>1995</v>
+      </c>
+      <c r="F355">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G355">
+        <v>116</v>
+      </c>
+      <c r="H355">
+        <v>8.6</v>
+      </c>
+      <c r="I355">
+        <v>20</v>
+      </c>
+      <c r="J355">
+        <v>0.8</v>
+      </c>
+      <c r="K355">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A356" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B356" t="s">
+        <v>9</v>
+      </c>
+      <c r="C356" t="s">
+        <v>4</v>
+      </c>
+      <c r="D356" s="3">
+        <v>10658</v>
+      </c>
+      <c r="E356" s="3">
+        <v>3172</v>
+      </c>
+      <c r="F356">
+        <v>14.8</v>
+      </c>
+      <c r="G356">
+        <v>245</v>
+      </c>
+      <c r="H356">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="I356">
+        <v>60</v>
+      </c>
+      <c r="J356">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K356">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A357" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B357" t="s">
+        <v>9</v>
+      </c>
+      <c r="C357" t="s">
+        <v>5</v>
+      </c>
+      <c r="D357" s="3">
+        <v>8167</v>
+      </c>
+      <c r="E357" s="3">
+        <v>4093</v>
+      </c>
+      <c r="F357">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="G357">
+        <v>419</v>
+      </c>
+      <c r="H357">
+        <v>30.9</v>
+      </c>
+      <c r="I357">
+        <v>174</v>
+      </c>
+      <c r="J357">
+        <v>6.6</v>
+      </c>
+      <c r="K357">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A358" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B358" t="s">
+        <v>9</v>
+      </c>
+      <c r="C358" t="s">
+        <v>6</v>
+      </c>
+      <c r="D358" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E358" s="3">
+        <v>4934</v>
+      </c>
+      <c r="F358">
+        <v>23</v>
+      </c>
+      <c r="G358">
+        <v>420</v>
+      </c>
+      <c r="H358">
+        <v>31</v>
+      </c>
+      <c r="I358">
+        <v>513</v>
+      </c>
+      <c r="J358">
+        <v>19.3</v>
+      </c>
+      <c r="K358">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A359" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B359" t="s">
+        <v>9</v>
+      </c>
+      <c r="C359" t="s">
+        <v>12</v>
+      </c>
+      <c r="D359" s="3">
+        <v>7279</v>
+      </c>
+      <c r="E359" s="3">
+        <v>4296</v>
+      </c>
+      <c r="F359">
+        <v>20</v>
+      </c>
+      <c r="G359">
+        <v>64</v>
+      </c>
+      <c r="H359">
+        <v>4.7</v>
+      </c>
+      <c r="I359" s="3">
+        <v>1193</v>
+      </c>
+      <c r="J359">
+        <v>45</v>
+      </c>
+      <c r="K359">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A360" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B360" t="s">
+        <v>9</v>
+      </c>
+      <c r="C360" t="s">
+        <v>13</v>
+      </c>
+      <c r="D360" s="3">
+        <v>3275</v>
+      </c>
+      <c r="E360" s="3">
+        <v>1423</v>
+      </c>
+      <c r="F360">
+        <v>6.6</v>
+      </c>
+      <c r="G360">
+        <v>6</v>
+      </c>
+      <c r="H360">
+        <v>0.4</v>
+      </c>
+      <c r="I360">
+        <v>678</v>
+      </c>
+      <c r="J360">
+        <v>25.6</v>
+      </c>
+      <c r="K360">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A361" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B361" t="s">
+        <v>10</v>
+      </c>
+      <c r="C361" t="s">
+        <v>0</v>
+      </c>
+      <c r="D361">
+        <v>146</v>
+      </c>
+      <c r="E361">
+        <v>50</v>
+      </c>
+      <c r="F361">
+        <v>0.2</v>
+      </c>
+      <c r="G361">
+        <v>5</v>
+      </c>
+      <c r="H361">
+        <v>0.2</v>
+      </c>
+      <c r="I361">
+        <v>0</v>
+      </c>
+      <c r="J361">
+        <v>0</v>
+      </c>
+      <c r="K361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A362" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B362" t="s">
+        <v>10</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D362">
+        <v>281</v>
+      </c>
+      <c r="E362">
+        <v>55</v>
+      </c>
+      <c r="F362">
+        <v>0.2</v>
+      </c>
+      <c r="G362">
+        <v>4</v>
+      </c>
+      <c r="H362">
+        <v>0.1</v>
+      </c>
+      <c r="I362">
+        <v>0</v>
+      </c>
+      <c r="J362">
+        <v>0</v>
+      </c>
+      <c r="K362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A363" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B363" t="s">
+        <v>10</v>
+      </c>
+      <c r="C363" t="s">
+        <v>1</v>
+      </c>
+      <c r="D363" s="3">
+        <v>1918</v>
+      </c>
+      <c r="E363">
+        <v>407</v>
+      </c>
+      <c r="F363">
+        <v>1.4</v>
+      </c>
+      <c r="G363">
+        <v>31</v>
+      </c>
+      <c r="H363">
+        <v>1</v>
+      </c>
+      <c r="I363">
+        <v>8</v>
+      </c>
+      <c r="J363">
+        <v>0.2</v>
+      </c>
+      <c r="K363">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A364" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B364" t="s">
+        <v>10</v>
+      </c>
+      <c r="C364" t="s">
+        <v>2</v>
+      </c>
+      <c r="D364" s="3">
+        <v>4141</v>
+      </c>
+      <c r="E364" s="3">
+        <v>1164</v>
+      </c>
+      <c r="F364">
+        <v>3.9</v>
+      </c>
+      <c r="G364">
+        <v>99</v>
+      </c>
+      <c r="H364">
+        <v>3.1</v>
+      </c>
+      <c r="I364">
+        <v>15</v>
+      </c>
+      <c r="J364">
+        <v>0.4</v>
+      </c>
+      <c r="K364">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A365" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B365" t="s">
+        <v>10</v>
+      </c>
+      <c r="C365" t="s">
+        <v>3</v>
+      </c>
+      <c r="D365" s="3">
+        <v>7217</v>
+      </c>
+      <c r="E365" s="3">
+        <v>2969</v>
+      </c>
+      <c r="F365">
+        <v>10</v>
+      </c>
+      <c r="G365">
+        <v>286</v>
+      </c>
+      <c r="H365">
+        <v>8.9</v>
+      </c>
+      <c r="I365">
+        <v>41</v>
+      </c>
+      <c r="J365">
+        <v>1</v>
+      </c>
+      <c r="K365">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A366" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B366" t="s">
+        <v>10</v>
+      </c>
+      <c r="C366" t="s">
+        <v>4</v>
+      </c>
+      <c r="D366" s="3">
+        <v>9175</v>
+      </c>
+      <c r="E366" s="3">
+        <v>4833</v>
+      </c>
+      <c r="F366">
+        <v>16.2</v>
+      </c>
+      <c r="G366">
+        <v>632</v>
+      </c>
+      <c r="H366">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="I366">
+        <v>137</v>
+      </c>
+      <c r="J366">
+        <v>3.3</v>
+      </c>
+      <c r="K366">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A367" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B367" t="s">
+        <v>10</v>
+      </c>
+      <c r="C367" t="s">
+        <v>5</v>
+      </c>
+      <c r="D367" s="3">
+        <v>9542</v>
+      </c>
+      <c r="E367" s="3">
+        <v>6283</v>
+      </c>
+      <c r="F367">
+        <v>21.1</v>
+      </c>
+      <c r="G367" s="3">
+        <v>1037</v>
+      </c>
+      <c r="H367">
+        <v>32.1</v>
+      </c>
+      <c r="I367">
+        <v>422</v>
+      </c>
+      <c r="J367">
+        <v>10.3</v>
+      </c>
+      <c r="K367">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A368" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B368" t="s">
+        <v>10</v>
+      </c>
+      <c r="C368" t="s">
+        <v>6</v>
+      </c>
+      <c r="D368" s="3">
+        <v>9855</v>
+      </c>
+      <c r="E368" s="3">
+        <v>7653</v>
+      </c>
+      <c r="F368">
+        <v>25.7</v>
+      </c>
+      <c r="G368" s="3">
+        <v>1037</v>
+      </c>
+      <c r="H368">
+        <v>32.1</v>
+      </c>
+      <c r="I368" s="3">
+        <v>1263</v>
+      </c>
+      <c r="J368">
+        <v>30.8</v>
+      </c>
+      <c r="K368">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A369" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B369" t="s">
+        <v>10</v>
+      </c>
+      <c r="C369" t="s">
+        <v>12</v>
+      </c>
+      <c r="D369" s="3">
+        <v>6938</v>
+      </c>
+      <c r="E369" s="3">
+        <v>5226</v>
+      </c>
+      <c r="F369">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="G369">
+        <v>86</v>
+      </c>
+      <c r="H369">
+        <v>2.7</v>
+      </c>
+      <c r="I369" s="3">
+        <v>1684</v>
+      </c>
+      <c r="J369">
+        <v>41</v>
+      </c>
+      <c r="K369">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A370" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B370" t="s">
+        <v>10</v>
+      </c>
+      <c r="C370" t="s">
+        <v>13</v>
+      </c>
+      <c r="D370" s="3">
+        <v>1764</v>
+      </c>
+      <c r="E370" s="3">
+        <v>1104</v>
+      </c>
+      <c r="F370">
+        <v>3.7</v>
+      </c>
+      <c r="G370">
+        <v>11</v>
+      </c>
+      <c r="H370">
+        <v>0.3</v>
+      </c>
+      <c r="I370">
+        <v>534</v>
+      </c>
+      <c r="J370">
+        <v>13</v>
+      </c>
+      <c r="K370">
+        <v>30.3</v>
       </c>
     </row>
   </sheetData>

--- a/data/Covid-19_data_sexage.xlsx
+++ b/data/Covid-19_data_sexage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanjosevidal/Google Drive/Projects/Covid-19/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54212A57-2736-FC40-B7DA-BB3E8531E657}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F468957-6686-024C-9FEA-43EA6F066105}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="960" windowWidth="28040" windowHeight="17040" xr2:uid="{C24317C9-D1BD-7248-BEC1-07839536F6EA}"/>
   </bookViews>
@@ -36,6 +36,7 @@
     <definedName name="tabula_Actualizacion_68_COVID_19_1" localSheetId="0">Data!$C$311:$K$330</definedName>
     <definedName name="tabula_Actualizacion_69_COVID_19_1" localSheetId="0">Data!$C$331:$K$350</definedName>
     <definedName name="tabula_Actualizacion_70_COVID_19_1" localSheetId="0">Data!$C$351:$K$370</definedName>
+    <definedName name="tabula_Actualizacion_71_COVID_19_1" localSheetId="0">Data!$C$371:$K$390</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -324,7 +325,22 @@
     </textPr>
   </connection>
   <connection id="19" xr16:uid="{3B48A2EE-430F-7142-93E6-8A99F61C0BB1}" name="tabula-Actualizacion_70_COVID-19(1)" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_70_COVID-19(1).csv" decimal="," thousands="." comma="1">
+    <textPr sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_70_COVID-19(1).csv" decimal="," thousands="." comma="1">
+      <textFields count="9">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="20" xr16:uid="{30D9FE15-B253-E54A-AD1A-E688745CC879}" name="tabula-Actualizacion_71_COVID-19(1)" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_71_COVID-19(1).csv" decimal="," thousands="." comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -342,7 +358,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="26">
   <si>
     <t>0-9</t>
   </si>
@@ -520,79 +536,83 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_71_COVID-19(1)" connectionId="20" xr16:uid="{E40B0E49-9F2B-2549-8124-9C24FFB9F4B1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_69_COVID-19(1)" connectionId="18" xr16:uid="{43D60223-767A-964E-8CC2-E64E5ACAFF9F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_65_COVID-19(1)" connectionId="14" xr16:uid="{1F7FC7F3-ADF7-CE4C-A901-C09AA03AA932}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_70_COVID-19(1)" connectionId="19" xr16:uid="{F30EDCDD-4769-4442-A6A9-407F59F6429F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_52_COVID-19" connectionId="1" xr16:uid="{35D81D28-1058-4347-9DE2-5F2763DAC2A4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_56_COVID-19(1)" connectionId="5" xr16:uid="{C5B10145-DA18-EE44-A918-E407BEA443E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_57_COVID-19(1)" connectionId="6" xr16:uid="{78E004BB-228B-5143-9AFE-91688C440A41}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_59_COVID-19(1)" connectionId="7" xr16:uid="{6E93CE4F-1115-D449-959A-2A7263C31ABC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_63_COVID-19(1)" connectionId="12" xr16:uid="{EFDFC980-4B86-C948-B035-B2786B80754E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(1)" connectionId="9" xr16:uid="{C813FA0B-4B7A-0743-B527-E10C07F0E6C8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_54_COVID-19" connectionId="3" xr16:uid="{E94F4815-0D2F-454F-8291-FCBF0C165C57}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_62_COVID-19(1)" connectionId="11" xr16:uid="{789174F4-7737-BE4C-9685-F15607B8C828}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(2)_1" connectionId="10" xr16:uid="{252D0C3F-8429-6D40-AFE6-2BAFDCF71E62}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_60_COVID-19(1)" connectionId="8" xr16:uid="{C2F0088C-0355-9A48-BE55-175198337C67}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_68_COVID-19(1)" connectionId="17" xr16:uid="{15D6F25C-3F4D-0947-8994-7F669D041C1F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_67_COVID-19(1)" connectionId="16" xr16:uid="{0DCC7075-52E5-6445-A2D9-0D0404D0E63E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_55_COVID-19" connectionId="4" xr16:uid="{10575DCA-3AE8-5C4C-A970-60205B471337}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_64_COVID-19(1)" connectionId="13" xr16:uid="{24F5186E-14BA-4941-BB1A-F21AEE9F7F07}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_69_COVID-19(1)" connectionId="18" xr16:uid="{43D60223-767A-964E-8CC2-E64E5ACAFF9F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_59_COVID-19(1)" connectionId="7" xr16:uid="{6E93CE4F-1115-D449-959A-2A7263C31ABC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(2)_1" connectionId="10" xr16:uid="{252D0C3F-8429-6D40-AFE6-2BAFDCF71E62}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_60_COVID-19(1)" connectionId="8" xr16:uid="{C2F0088C-0355-9A48-BE55-175198337C67}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_66_COVID-19(1)" connectionId="15" xr16:uid="{784FDDA9-F525-C54F-BA21-682143B55347}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_52_COVID-19" connectionId="1" xr16:uid="{35D81D28-1058-4347-9DE2-5F2763DAC2A4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_57_COVID-19(1)" connectionId="6" xr16:uid="{78E004BB-228B-5143-9AFE-91688C440A41}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_54_COVID-19" connectionId="3" xr16:uid="{E94F4815-0D2F-454F-8291-FCBF0C165C57}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_55_COVID-19" connectionId="4" xr16:uid="{10575DCA-3AE8-5C4C-A970-60205B471337}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_56_COVID-19(1)" connectionId="5" xr16:uid="{C5B10145-DA18-EE44-A918-E407BEA443E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(1)" connectionId="9" xr16:uid="{C813FA0B-4B7A-0743-B527-E10C07F0E6C8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_67_COVID-19(1)" connectionId="16" xr16:uid="{0DCC7075-52E5-6445-A2D9-0D0404D0E63E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_53_COVID-19" connectionId="2" xr16:uid="{31483431-2B39-A440-9E59-C26E082912EA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_65_COVID-19(1)" connectionId="14" xr16:uid="{1F7FC7F3-ADF7-CE4C-A901-C09AA03AA932}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_63_COVID-19(1)" connectionId="12" xr16:uid="{EFDFC980-4B86-C948-B035-B2786B80754E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_62_COVID-19(1)" connectionId="11" xr16:uid="{789174F4-7737-BE4C-9685-F15607B8C828}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_68_COVID-19(1)" connectionId="17" xr16:uid="{15D6F25C-3F4D-0947-8994-7F669D041C1F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -892,10 +912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973FFFC2-62D5-A048-8409-BF1FADA21B40}">
-  <dimension ref="A1:T370"/>
+  <dimension ref="A1:T390"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A330" workbookViewId="0">
-      <selection activeCell="F356" sqref="F356"/>
+    <sheetView tabSelected="1" topLeftCell="A357" workbookViewId="0">
+      <selection activeCell="C379" sqref="C379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13930,6 +13950,706 @@
         <v>30.3</v>
       </c>
     </row>
+    <row r="371" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A371" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B371" t="s">
+        <v>9</v>
+      </c>
+      <c r="C371" t="s">
+        <v>0</v>
+      </c>
+      <c r="D371">
+        <v>142</v>
+      </c>
+      <c r="E371">
+        <v>36</v>
+      </c>
+      <c r="F371">
+        <v>0.2</v>
+      </c>
+      <c r="G371">
+        <v>2</v>
+      </c>
+      <c r="H371">
+        <v>0.1</v>
+      </c>
+      <c r="I371">
+        <v>1</v>
+      </c>
+      <c r="J371">
+        <v>0</v>
+      </c>
+      <c r="K371">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A372" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B372" t="s">
+        <v>9</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D372">
+        <v>304</v>
+      </c>
+      <c r="E372">
+        <v>62</v>
+      </c>
+      <c r="F372">
+        <v>0.3</v>
+      </c>
+      <c r="G372">
+        <v>1</v>
+      </c>
+      <c r="H372">
+        <v>0.1</v>
+      </c>
+      <c r="I372">
+        <v>1</v>
+      </c>
+      <c r="J372">
+        <v>0</v>
+      </c>
+      <c r="K372">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="373" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A373" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B373" t="s">
+        <v>9</v>
+      </c>
+      <c r="C373" t="s">
+        <v>1</v>
+      </c>
+      <c r="D373" s="3">
+        <v>3531</v>
+      </c>
+      <c r="E373">
+        <v>420</v>
+      </c>
+      <c r="F373">
+        <v>1.9</v>
+      </c>
+      <c r="G373">
+        <v>22</v>
+      </c>
+      <c r="H373">
+        <v>1.6</v>
+      </c>
+      <c r="I373">
+        <v>3</v>
+      </c>
+      <c r="J373">
+        <v>0.1</v>
+      </c>
+      <c r="K373">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A374" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B374" t="s">
+        <v>9</v>
+      </c>
+      <c r="C374" t="s">
+        <v>2</v>
+      </c>
+      <c r="D374" s="3">
+        <v>6307</v>
+      </c>
+      <c r="E374" s="3">
+        <v>1042</v>
+      </c>
+      <c r="F374">
+        <v>4.8</v>
+      </c>
+      <c r="G374">
+        <v>60</v>
+      </c>
+      <c r="H374">
+        <v>4.5</v>
+      </c>
+      <c r="I374">
+        <v>9</v>
+      </c>
+      <c r="J374">
+        <v>0.3</v>
+      </c>
+      <c r="K374">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A375" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B375" t="s">
+        <v>9</v>
+      </c>
+      <c r="C375" t="s">
+        <v>3</v>
+      </c>
+      <c r="D375" s="3">
+        <v>9107</v>
+      </c>
+      <c r="E375" s="3">
+        <v>2007</v>
+      </c>
+      <c r="F375">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G375">
+        <v>112</v>
+      </c>
+      <c r="H375">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I375">
+        <v>22</v>
+      </c>
+      <c r="J375">
+        <v>0.8</v>
+      </c>
+      <c r="K375">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A376" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B376" t="s">
+        <v>9</v>
+      </c>
+      <c r="C376" t="s">
+        <v>4</v>
+      </c>
+      <c r="D376" s="3">
+        <v>10963</v>
+      </c>
+      <c r="E376" s="3">
+        <v>3236</v>
+      </c>
+      <c r="F376">
+        <v>14.8</v>
+      </c>
+      <c r="G376">
+        <v>244</v>
+      </c>
+      <c r="H376">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="I376">
+        <v>61</v>
+      </c>
+      <c r="J376">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K376">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A377" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B377" t="s">
+        <v>9</v>
+      </c>
+      <c r="C377" t="s">
+        <v>5</v>
+      </c>
+      <c r="D377" s="3">
+        <v>8354</v>
+      </c>
+      <c r="E377" s="3">
+        <v>4164</v>
+      </c>
+      <c r="F377">
+        <v>19</v>
+      </c>
+      <c r="G377">
+        <v>415</v>
+      </c>
+      <c r="H377">
+        <v>30.8</v>
+      </c>
+      <c r="I377">
+        <v>179</v>
+      </c>
+      <c r="J377">
+        <v>6.4</v>
+      </c>
+      <c r="K377">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A378" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B378" t="s">
+        <v>9</v>
+      </c>
+      <c r="C378" t="s">
+        <v>6</v>
+      </c>
+      <c r="D378" s="3">
+        <v>7230</v>
+      </c>
+      <c r="E378" s="3">
+        <v>5018</v>
+      </c>
+      <c r="F378">
+        <v>23</v>
+      </c>
+      <c r="G378">
+        <v>420</v>
+      </c>
+      <c r="H378">
+        <v>31.2</v>
+      </c>
+      <c r="I378">
+        <v>530</v>
+      </c>
+      <c r="J378">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K378">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A379" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B379" t="s">
+        <v>9</v>
+      </c>
+      <c r="C379" t="s">
+        <v>12</v>
+      </c>
+      <c r="D379" s="3">
+        <v>7566</v>
+      </c>
+      <c r="E379" s="3">
+        <v>4407</v>
+      </c>
+      <c r="F379">
+        <v>20.2</v>
+      </c>
+      <c r="G379">
+        <v>65</v>
+      </c>
+      <c r="H379">
+        <v>4.8</v>
+      </c>
+      <c r="I379" s="3">
+        <v>1257</v>
+      </c>
+      <c r="J379">
+        <v>45.2</v>
+      </c>
+      <c r="K379">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A380" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B380" t="s">
+        <v>9</v>
+      </c>
+      <c r="C380" t="s">
+        <v>13</v>
+      </c>
+      <c r="D380" s="3">
+        <v>3472</v>
+      </c>
+      <c r="E380" s="3">
+        <v>1468</v>
+      </c>
+      <c r="F380">
+        <v>6.7</v>
+      </c>
+      <c r="G380">
+        <v>7</v>
+      </c>
+      <c r="H380">
+        <v>0.5</v>
+      </c>
+      <c r="I380">
+        <v>718</v>
+      </c>
+      <c r="J380">
+        <v>25.8</v>
+      </c>
+      <c r="K380">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A381" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B381" t="s">
+        <v>10</v>
+      </c>
+      <c r="C381" t="s">
+        <v>0</v>
+      </c>
+      <c r="D381">
+        <v>145</v>
+      </c>
+      <c r="E381">
+        <v>52</v>
+      </c>
+      <c r="F381">
+        <v>0.2</v>
+      </c>
+      <c r="G381">
+        <v>5</v>
+      </c>
+      <c r="H381">
+        <v>0.2</v>
+      </c>
+      <c r="I381">
+        <v>0</v>
+      </c>
+      <c r="J381">
+        <v>0</v>
+      </c>
+      <c r="K381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A382" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B382" t="s">
+        <v>10</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D382">
+        <v>289</v>
+      </c>
+      <c r="E382">
+        <v>57</v>
+      </c>
+      <c r="F382">
+        <v>0.2</v>
+      </c>
+      <c r="G382">
+        <v>4</v>
+      </c>
+      <c r="H382">
+        <v>0.1</v>
+      </c>
+      <c r="I382">
+        <v>0</v>
+      </c>
+      <c r="J382">
+        <v>0</v>
+      </c>
+      <c r="K382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A383" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B383" t="s">
+        <v>10</v>
+      </c>
+      <c r="C383" t="s">
+        <v>1</v>
+      </c>
+      <c r="D383" s="3">
+        <v>1939</v>
+      </c>
+      <c r="E383">
+        <v>410</v>
+      </c>
+      <c r="F383">
+        <v>1.4</v>
+      </c>
+      <c r="G383">
+        <v>31</v>
+      </c>
+      <c r="H383">
+        <v>1</v>
+      </c>
+      <c r="I383">
+        <v>8</v>
+      </c>
+      <c r="J383">
+        <v>0.2</v>
+      </c>
+      <c r="K383">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="384" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A384" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B384" t="s">
+        <v>10</v>
+      </c>
+      <c r="C384" t="s">
+        <v>2</v>
+      </c>
+      <c r="D384" s="3">
+        <v>4209</v>
+      </c>
+      <c r="E384" s="3">
+        <v>1179</v>
+      </c>
+      <c r="F384">
+        <v>3.9</v>
+      </c>
+      <c r="G384">
+        <v>102</v>
+      </c>
+      <c r="H384">
+        <v>3.1</v>
+      </c>
+      <c r="I384">
+        <v>15</v>
+      </c>
+      <c r="J384">
+        <v>0.3</v>
+      </c>
+      <c r="K384">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A385" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B385" t="s">
+        <v>10</v>
+      </c>
+      <c r="C385" t="s">
+        <v>3</v>
+      </c>
+      <c r="D385" s="3">
+        <v>7340</v>
+      </c>
+      <c r="E385" s="3">
+        <v>3019</v>
+      </c>
+      <c r="F385">
+        <v>9.9</v>
+      </c>
+      <c r="G385">
+        <v>287</v>
+      </c>
+      <c r="H385">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I385">
+        <v>44</v>
+      </c>
+      <c r="J385">
+        <v>1</v>
+      </c>
+      <c r="K385">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A386" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B386" t="s">
+        <v>10</v>
+      </c>
+      <c r="C386" t="s">
+        <v>4</v>
+      </c>
+      <c r="D386" s="3">
+        <v>9370</v>
+      </c>
+      <c r="E386" s="3">
+        <v>4915</v>
+      </c>
+      <c r="F386">
+        <v>16.2</v>
+      </c>
+      <c r="G386">
+        <v>646</v>
+      </c>
+      <c r="H386">
+        <v>19.8</v>
+      </c>
+      <c r="I386">
+        <v>145</v>
+      </c>
+      <c r="J386">
+        <v>3.4</v>
+      </c>
+      <c r="K386">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="387" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A387" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B387" t="s">
+        <v>10</v>
+      </c>
+      <c r="C387" t="s">
+        <v>5</v>
+      </c>
+      <c r="D387" s="3">
+        <v>9736</v>
+      </c>
+      <c r="E387" s="3">
+        <v>6399</v>
+      </c>
+      <c r="F387">
+        <v>21.1</v>
+      </c>
+      <c r="G387" s="3">
+        <v>1047</v>
+      </c>
+      <c r="H387">
+        <v>32.1</v>
+      </c>
+      <c r="I387">
+        <v>445</v>
+      </c>
+      <c r="J387">
+        <v>10.3</v>
+      </c>
+      <c r="K387">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="388" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A388" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B388" t="s">
+        <v>10</v>
+      </c>
+      <c r="C388" t="s">
+        <v>6</v>
+      </c>
+      <c r="D388" s="3">
+        <v>10060</v>
+      </c>
+      <c r="E388" s="3">
+        <v>7804</v>
+      </c>
+      <c r="F388">
+        <v>25.7</v>
+      </c>
+      <c r="G388" s="3">
+        <v>1043</v>
+      </c>
+      <c r="H388">
+        <v>32</v>
+      </c>
+      <c r="I388" s="3">
+        <v>1318</v>
+      </c>
+      <c r="J388">
+        <v>30.5</v>
+      </c>
+      <c r="K388">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A389" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B389" t="s">
+        <v>10</v>
+      </c>
+      <c r="C389" t="s">
+        <v>12</v>
+      </c>
+      <c r="D389" s="3">
+        <v>7171</v>
+      </c>
+      <c r="E389" s="3">
+        <v>5376</v>
+      </c>
+      <c r="F389">
+        <v>17.7</v>
+      </c>
+      <c r="G389">
+        <v>85</v>
+      </c>
+      <c r="H389">
+        <v>2.6</v>
+      </c>
+      <c r="I389" s="3">
+        <v>1778</v>
+      </c>
+      <c r="J389">
+        <v>41.1</v>
+      </c>
+      <c r="K389">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="390" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A390" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B390" t="s">
+        <v>10</v>
+      </c>
+      <c r="C390" t="s">
+        <v>13</v>
+      </c>
+      <c r="D390" s="3">
+        <v>1871</v>
+      </c>
+      <c r="E390" s="3">
+        <v>1142</v>
+      </c>
+      <c r="F390">
+        <v>3.8</v>
+      </c>
+      <c r="G390">
+        <v>10</v>
+      </c>
+      <c r="H390">
+        <v>0.3</v>
+      </c>
+      <c r="I390">
+        <v>572</v>
+      </c>
+      <c r="J390">
+        <v>13.2</v>
+      </c>
+      <c r="K390">
+        <v>30.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Covid-19_data_sexage.xlsx
+++ b/data/Covid-19_data_sexage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanjosevidal/Google Drive/Projects/Covid-19/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F468957-6686-024C-9FEA-43EA6F066105}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB96091-17D0-764B-911D-63C4C73365EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="960" windowWidth="28040" windowHeight="17040" xr2:uid="{C24317C9-D1BD-7248-BEC1-07839536F6EA}"/>
+    <workbookView xWindow="540" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{C24317C9-D1BD-7248-BEC1-07839536F6EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -37,6 +37,7 @@
     <definedName name="tabula_Actualizacion_69_COVID_19_1" localSheetId="0">Data!$C$331:$K$350</definedName>
     <definedName name="tabula_Actualizacion_70_COVID_19_1" localSheetId="0">Data!$C$351:$K$370</definedName>
     <definedName name="tabula_Actualizacion_71_COVID_19_1" localSheetId="0">Data!$C$371:$K$390</definedName>
+    <definedName name="tabula_Actualizacion_72_COVID_19_1" localSheetId="0">Data!$C$391:$K$410</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -340,7 +341,22 @@
     </textPr>
   </connection>
   <connection id="20" xr16:uid="{30D9FE15-B253-E54A-AD1A-E688745CC879}" name="tabula-Actualizacion_71_COVID-19(1)" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_71_COVID-19(1).csv" decimal="," thousands="." comma="1">
+    <textPr sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_71_COVID-19(1).csv" decimal="," thousands="." comma="1">
+      <textFields count="9">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="21" xr16:uid="{CE8FA996-0325-BA4C-BACE-1528778233BC}" name="tabula-Actualizacion_72_COVID-19(1)" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_72_COVID-19(1).csv" decimal="," thousands="." comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -358,7 +374,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="26">
   <si>
     <t>0-9</t>
   </si>
@@ -536,83 +552,87 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_72_COVID-19(1)" connectionId="21" xr16:uid="{1488C0E5-7AB9-C44D-8BE2-997243B88982}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_65_COVID-19(1)" connectionId="14" xr16:uid="{1F7FC7F3-ADF7-CE4C-A901-C09AA03AA932}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_55_COVID-19" connectionId="4" xr16:uid="{10575DCA-3AE8-5C4C-A970-60205B471337}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_71_COVID-19(1)" connectionId="20" xr16:uid="{E40B0E49-9F2B-2549-8124-9C24FFB9F4B1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(2)_1" connectionId="10" xr16:uid="{252D0C3F-8429-6D40-AFE6-2BAFDCF71E62}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_59_COVID-19(1)" connectionId="7" xr16:uid="{6E93CE4F-1115-D449-959A-2A7263C31ABC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_62_COVID-19(1)" connectionId="11" xr16:uid="{789174F4-7737-BE4C-9685-F15607B8C828}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_63_COVID-19(1)" connectionId="12" xr16:uid="{EFDFC980-4B86-C948-B035-B2786B80754E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_70_COVID-19(1)" connectionId="19" xr16:uid="{F30EDCDD-4769-4442-A6A9-407F59F6429F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_64_COVID-19(1)" connectionId="13" xr16:uid="{24F5186E-14BA-4941-BB1A-F21AEE9F7F07}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_60_COVID-19(1)" connectionId="8" xr16:uid="{C2F0088C-0355-9A48-BE55-175198337C67}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_66_COVID-19(1)" connectionId="15" xr16:uid="{784FDDA9-F525-C54F-BA21-682143B55347}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(1)" connectionId="9" xr16:uid="{C813FA0B-4B7A-0743-B527-E10C07F0E6C8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_52_COVID-19" connectionId="1" xr16:uid="{35D81D28-1058-4347-9DE2-5F2763DAC2A4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_56_COVID-19(1)" connectionId="5" xr16:uid="{C5B10145-DA18-EE44-A918-E407BEA443E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_53_COVID-19" connectionId="2" xr16:uid="{31483431-2B39-A440-9E59-C26E082912EA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_68_COVID-19(1)" connectionId="17" xr16:uid="{15D6F25C-3F4D-0947-8994-7F669D041C1F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_54_COVID-19" connectionId="3" xr16:uid="{E94F4815-0D2F-454F-8291-FCBF0C165C57}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_69_COVID-19(1)" connectionId="18" xr16:uid="{43D60223-767A-964E-8CC2-E64E5ACAFF9F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_65_COVID-19(1)" connectionId="14" xr16:uid="{1F7FC7F3-ADF7-CE4C-A901-C09AA03AA932}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_70_COVID-19(1)" connectionId="19" xr16:uid="{F30EDCDD-4769-4442-A6A9-407F59F6429F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_52_COVID-19" connectionId="1" xr16:uid="{35D81D28-1058-4347-9DE2-5F2763DAC2A4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_56_COVID-19(1)" connectionId="5" xr16:uid="{C5B10145-DA18-EE44-A918-E407BEA443E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_57_COVID-19(1)" connectionId="6" xr16:uid="{78E004BB-228B-5143-9AFE-91688C440A41}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_59_COVID-19(1)" connectionId="7" xr16:uid="{6E93CE4F-1115-D449-959A-2A7263C31ABC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_63_COVID-19(1)" connectionId="12" xr16:uid="{EFDFC980-4B86-C948-B035-B2786B80754E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(1)" connectionId="9" xr16:uid="{C813FA0B-4B7A-0743-B527-E10C07F0E6C8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_54_COVID-19" connectionId="3" xr16:uid="{E94F4815-0D2F-454F-8291-FCBF0C165C57}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_62_COVID-19(1)" connectionId="11" xr16:uid="{789174F4-7737-BE4C-9685-F15607B8C828}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(2)_1" connectionId="10" xr16:uid="{252D0C3F-8429-6D40-AFE6-2BAFDCF71E62}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_60_COVID-19(1)" connectionId="8" xr16:uid="{C2F0088C-0355-9A48-BE55-175198337C67}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_68_COVID-19(1)" connectionId="17" xr16:uid="{15D6F25C-3F4D-0947-8994-7F669D041C1F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_67_COVID-19(1)" connectionId="16" xr16:uid="{0DCC7075-52E5-6445-A2D9-0D0404D0E63E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_55_COVID-19" connectionId="4" xr16:uid="{10575DCA-3AE8-5C4C-A970-60205B471337}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_64_COVID-19(1)" connectionId="13" xr16:uid="{24F5186E-14BA-4941-BB1A-F21AEE9F7F07}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_66_COVID-19(1)" connectionId="15" xr16:uid="{784FDDA9-F525-C54F-BA21-682143B55347}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_53_COVID-19" connectionId="2" xr16:uid="{31483431-2B39-A440-9E59-C26E082912EA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -912,10 +932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973FFFC2-62D5-A048-8409-BF1FADA21B40}">
-  <dimension ref="A1:T390"/>
+  <dimension ref="A1:T410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A357" workbookViewId="0">
-      <selection activeCell="C379" sqref="C379"/>
+    <sheetView tabSelected="1" topLeftCell="A380" workbookViewId="0">
+      <selection activeCell="D393" sqref="D393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14650,6 +14670,706 @@
         <v>30.6</v>
       </c>
     </row>
+    <row r="391" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A391" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B391" t="s">
+        <v>9</v>
+      </c>
+      <c r="C391" t="s">
+        <v>0</v>
+      </c>
+      <c r="D391">
+        <v>144</v>
+      </c>
+      <c r="E391">
+        <v>37</v>
+      </c>
+      <c r="F391">
+        <v>0.2</v>
+      </c>
+      <c r="G391">
+        <v>2</v>
+      </c>
+      <c r="H391">
+        <v>0.1</v>
+      </c>
+      <c r="I391">
+        <v>1</v>
+      </c>
+      <c r="J391">
+        <v>0</v>
+      </c>
+      <c r="K391">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="392" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A392" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B392" t="s">
+        <v>9</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D392">
+        <v>312</v>
+      </c>
+      <c r="E392">
+        <v>64</v>
+      </c>
+      <c r="F392">
+        <v>0.3</v>
+      </c>
+      <c r="G392">
+        <v>1</v>
+      </c>
+      <c r="H392">
+        <v>0.1</v>
+      </c>
+      <c r="I392">
+        <v>1</v>
+      </c>
+      <c r="J392">
+        <v>0</v>
+      </c>
+      <c r="K392">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="393" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A393" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B393" t="s">
+        <v>9</v>
+      </c>
+      <c r="C393" t="s">
+        <v>1</v>
+      </c>
+      <c r="D393" s="3">
+        <v>3575</v>
+      </c>
+      <c r="E393">
+        <v>415</v>
+      </c>
+      <c r="F393">
+        <v>1.9</v>
+      </c>
+      <c r="G393">
+        <v>22</v>
+      </c>
+      <c r="H393">
+        <v>1.6</v>
+      </c>
+      <c r="I393">
+        <v>3</v>
+      </c>
+      <c r="J393">
+        <v>0.1</v>
+      </c>
+      <c r="K393">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A394" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B394" t="s">
+        <v>9</v>
+      </c>
+      <c r="C394" t="s">
+        <v>2</v>
+      </c>
+      <c r="D394" s="3">
+        <v>6361</v>
+      </c>
+      <c r="E394" s="3">
+        <v>1027</v>
+      </c>
+      <c r="F394">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G394">
+        <v>60</v>
+      </c>
+      <c r="H394">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I394">
+        <v>9</v>
+      </c>
+      <c r="J394">
+        <v>0.3</v>
+      </c>
+      <c r="K394">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A395" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B395" t="s">
+        <v>9</v>
+      </c>
+      <c r="C395" t="s">
+        <v>3</v>
+      </c>
+      <c r="D395" s="3">
+        <v>9185</v>
+      </c>
+      <c r="E395" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F395">
+        <v>9</v>
+      </c>
+      <c r="G395">
+        <v>115</v>
+      </c>
+      <c r="H395">
+        <v>8.4</v>
+      </c>
+      <c r="I395">
+        <v>26</v>
+      </c>
+      <c r="J395">
+        <v>0.9</v>
+      </c>
+      <c r="K395">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="396" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A396" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B396" t="s">
+        <v>9</v>
+      </c>
+      <c r="C396" t="s">
+        <v>4</v>
+      </c>
+      <c r="D396" s="3">
+        <v>11070</v>
+      </c>
+      <c r="E396" s="3">
+        <v>3235</v>
+      </c>
+      <c r="F396">
+        <v>14.6</v>
+      </c>
+      <c r="G396">
+        <v>246</v>
+      </c>
+      <c r="H396">
+        <v>18</v>
+      </c>
+      <c r="I396">
+        <v>62</v>
+      </c>
+      <c r="J396">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K396">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="397" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A397" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B397" t="s">
+        <v>9</v>
+      </c>
+      <c r="C397" t="s">
+        <v>5</v>
+      </c>
+      <c r="D397" s="3">
+        <v>8426</v>
+      </c>
+      <c r="E397" s="3">
+        <v>4169</v>
+      </c>
+      <c r="F397">
+        <v>18.8</v>
+      </c>
+      <c r="G397">
+        <v>422</v>
+      </c>
+      <c r="H397">
+        <v>30.8</v>
+      </c>
+      <c r="I397">
+        <v>184</v>
+      </c>
+      <c r="J397">
+        <v>6.5</v>
+      </c>
+      <c r="K397">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="398" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A398" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B398" t="s">
+        <v>9</v>
+      </c>
+      <c r="C398" t="s">
+        <v>6</v>
+      </c>
+      <c r="D398" s="3">
+        <v>7309</v>
+      </c>
+      <c r="E398" s="3">
+        <v>5064</v>
+      </c>
+      <c r="F398">
+        <v>22.9</v>
+      </c>
+      <c r="G398">
+        <v>427</v>
+      </c>
+      <c r="H398">
+        <v>31.2</v>
+      </c>
+      <c r="I398">
+        <v>551</v>
+      </c>
+      <c r="J398">
+        <v>19.3</v>
+      </c>
+      <c r="K398">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="399" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A399" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B399" t="s">
+        <v>9</v>
+      </c>
+      <c r="C399" t="s">
+        <v>12</v>
+      </c>
+      <c r="D399" s="3">
+        <v>7707</v>
+      </c>
+      <c r="E399" s="3">
+        <v>4541</v>
+      </c>
+      <c r="F399">
+        <v>20.5</v>
+      </c>
+      <c r="G399">
+        <v>67</v>
+      </c>
+      <c r="H399">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I399" s="3">
+        <v>1278</v>
+      </c>
+      <c r="J399">
+        <v>44.9</v>
+      </c>
+      <c r="K399">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="400" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A400" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B400" t="s">
+        <v>9</v>
+      </c>
+      <c r="C400" t="s">
+        <v>13</v>
+      </c>
+      <c r="D400" s="3">
+        <v>3558</v>
+      </c>
+      <c r="E400" s="3">
+        <v>1588</v>
+      </c>
+      <c r="F400">
+        <v>7.2</v>
+      </c>
+      <c r="G400">
+        <v>7</v>
+      </c>
+      <c r="H400">
+        <v>0.5</v>
+      </c>
+      <c r="I400">
+        <v>734</v>
+      </c>
+      <c r="J400">
+        <v>25.8</v>
+      </c>
+      <c r="K400">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="401" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A401" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B401" t="s">
+        <v>10</v>
+      </c>
+      <c r="C401" t="s">
+        <v>0</v>
+      </c>
+      <c r="D401">
+        <v>148</v>
+      </c>
+      <c r="E401">
+        <v>49</v>
+      </c>
+      <c r="F401">
+        <v>0.2</v>
+      </c>
+      <c r="G401">
+        <v>6</v>
+      </c>
+      <c r="H401">
+        <v>0.2</v>
+      </c>
+      <c r="I401">
+        <v>0</v>
+      </c>
+      <c r="J401">
+        <v>0</v>
+      </c>
+      <c r="K401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A402" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B402" t="s">
+        <v>10</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D402">
+        <v>291</v>
+      </c>
+      <c r="E402">
+        <v>55</v>
+      </c>
+      <c r="F402">
+        <v>0.2</v>
+      </c>
+      <c r="G402">
+        <v>3</v>
+      </c>
+      <c r="H402">
+        <v>0.1</v>
+      </c>
+      <c r="I402">
+        <v>0</v>
+      </c>
+      <c r="J402">
+        <v>0</v>
+      </c>
+      <c r="K402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A403" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B403" t="s">
+        <v>10</v>
+      </c>
+      <c r="C403" t="s">
+        <v>1</v>
+      </c>
+      <c r="D403" s="3">
+        <v>1964</v>
+      </c>
+      <c r="E403">
+        <v>408</v>
+      </c>
+      <c r="F403">
+        <v>1.3</v>
+      </c>
+      <c r="G403">
+        <v>31</v>
+      </c>
+      <c r="H403">
+        <v>0.9</v>
+      </c>
+      <c r="I403">
+        <v>8</v>
+      </c>
+      <c r="J403">
+        <v>0.2</v>
+      </c>
+      <c r="K403">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="404" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A404" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B404" t="s">
+        <v>10</v>
+      </c>
+      <c r="C404" t="s">
+        <v>2</v>
+      </c>
+      <c r="D404" s="3">
+        <v>4241</v>
+      </c>
+      <c r="E404" s="3">
+        <v>1186</v>
+      </c>
+      <c r="F404">
+        <v>3.9</v>
+      </c>
+      <c r="G404">
+        <v>105</v>
+      </c>
+      <c r="H404">
+        <v>3.2</v>
+      </c>
+      <c r="I404">
+        <v>15</v>
+      </c>
+      <c r="J404">
+        <v>0.3</v>
+      </c>
+      <c r="K404">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="405" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A405" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B405" t="s">
+        <v>10</v>
+      </c>
+      <c r="C405" t="s">
+        <v>3</v>
+      </c>
+      <c r="D405" s="3">
+        <v>7404</v>
+      </c>
+      <c r="E405" s="3">
+        <v>3036</v>
+      </c>
+      <c r="F405">
+        <v>9.9</v>
+      </c>
+      <c r="G405">
+        <v>289</v>
+      </c>
+      <c r="H405">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I405">
+        <v>48</v>
+      </c>
+      <c r="J405">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K405">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="406" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A406" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B406" t="s">
+        <v>10</v>
+      </c>
+      <c r="C406" t="s">
+        <v>4</v>
+      </c>
+      <c r="D406" s="3">
+        <v>9448</v>
+      </c>
+      <c r="E406" s="3">
+        <v>4975</v>
+      </c>
+      <c r="F406">
+        <v>16.3</v>
+      </c>
+      <c r="G406">
+        <v>657</v>
+      </c>
+      <c r="H406">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="I406">
+        <v>150</v>
+      </c>
+      <c r="J406">
+        <v>3.4</v>
+      </c>
+      <c r="K406">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="407" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A407" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B407" t="s">
+        <v>10</v>
+      </c>
+      <c r="C407" t="s">
+        <v>5</v>
+      </c>
+      <c r="D407" s="3">
+        <v>9831</v>
+      </c>
+      <c r="E407" s="3">
+        <v>6466</v>
+      </c>
+      <c r="F407">
+        <v>21.1</v>
+      </c>
+      <c r="G407" s="3">
+        <v>1063</v>
+      </c>
+      <c r="H407">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="I407">
+        <v>453</v>
+      </c>
+      <c r="J407">
+        <v>10.3</v>
+      </c>
+      <c r="K407">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="408" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A408" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B408" t="s">
+        <v>10</v>
+      </c>
+      <c r="C408" t="s">
+        <v>6</v>
+      </c>
+      <c r="D408" s="3">
+        <v>10163</v>
+      </c>
+      <c r="E408" s="3">
+        <v>7826</v>
+      </c>
+      <c r="F408">
+        <v>25.6</v>
+      </c>
+      <c r="G408" s="3">
+        <v>1055</v>
+      </c>
+      <c r="H408">
+        <v>31.9</v>
+      </c>
+      <c r="I408" s="3">
+        <v>1345</v>
+      </c>
+      <c r="J408">
+        <v>30.5</v>
+      </c>
+      <c r="K408">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="409" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A409" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B409" t="s">
+        <v>10</v>
+      </c>
+      <c r="C409" t="s">
+        <v>12</v>
+      </c>
+      <c r="D409" s="3">
+        <v>7258</v>
+      </c>
+      <c r="E409" s="3">
+        <v>5431</v>
+      </c>
+      <c r="F409">
+        <v>17.8</v>
+      </c>
+      <c r="G409">
+        <v>86</v>
+      </c>
+      <c r="H409">
+        <v>2.6</v>
+      </c>
+      <c r="I409" s="3">
+        <v>1808</v>
+      </c>
+      <c r="J409">
+        <v>41</v>
+      </c>
+      <c r="K409">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="410" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A410" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B410" t="s">
+        <v>10</v>
+      </c>
+      <c r="C410" t="s">
+        <v>13</v>
+      </c>
+      <c r="D410" s="3">
+        <v>1897</v>
+      </c>
+      <c r="E410" s="3">
+        <v>1162</v>
+      </c>
+      <c r="F410">
+        <v>3.8</v>
+      </c>
+      <c r="G410">
+        <v>10</v>
+      </c>
+      <c r="H410">
+        <v>0.3</v>
+      </c>
+      <c r="I410">
+        <v>584</v>
+      </c>
+      <c r="J410">
+        <v>13.2</v>
+      </c>
+      <c r="K410">
+        <v>30.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Covid-19_data_sexage.xlsx
+++ b/data/Covid-19_data_sexage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanjosevidal/Google Drive/Projects/Covid-19/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB96091-17D0-764B-911D-63C4C73365EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C432BD8B-6737-E842-9083-4FE85319FC6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{C24317C9-D1BD-7248-BEC1-07839536F6EA}"/>
   </bookViews>
@@ -38,6 +38,7 @@
     <definedName name="tabula_Actualizacion_70_COVID_19_1" localSheetId="0">Data!$C$351:$K$370</definedName>
     <definedName name="tabula_Actualizacion_71_COVID_19_1" localSheetId="0">Data!$C$371:$K$390</definedName>
     <definedName name="tabula_Actualizacion_72_COVID_19_1" localSheetId="0">Data!$C$391:$K$410</definedName>
+    <definedName name="tabula_Actualizacion_73_COVID_19_1" localSheetId="0">Data!$C$411:$K$430</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -356,7 +357,22 @@
     </textPr>
   </connection>
   <connection id="21" xr16:uid="{CE8FA996-0325-BA4C-BACE-1528778233BC}" name="tabula-Actualizacion_72_COVID-19(1)" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_72_COVID-19(1).csv" decimal="," thousands="." comma="1">
+    <textPr sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_72_COVID-19(1).csv" decimal="," thousands="." comma="1">
+      <textFields count="9">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="22" xr16:uid="{72FAD156-F5C2-7D4D-AEEF-B4E891EF5C3D}" name="tabula-Actualizacion_73_COVID-19(1)" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_73_COVID-19(1).csv" decimal="," thousands="." comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -374,7 +390,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="26">
   <si>
     <t>0-9</t>
   </si>
@@ -552,31 +568,31 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_73_COVID-19(1)" connectionId="22" xr16:uid="{144BDA4A-6CCF-094D-8B47-C4994B28C9F4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_62_COVID-19(1)" connectionId="11" xr16:uid="{789174F4-7737-BE4C-9685-F15607B8C828}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_68_COVID-19(1)" connectionId="17" xr16:uid="{15D6F25C-3F4D-0947-8994-7F669D041C1F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_55_COVID-19" connectionId="4" xr16:uid="{10575DCA-3AE8-5C4C-A970-60205B471337}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_54_COVID-19" connectionId="3" xr16:uid="{E94F4815-0D2F-454F-8291-FCBF0C165C57}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_72_COVID-19(1)" connectionId="21" xr16:uid="{1488C0E5-7AB9-C44D-8BE2-997243B88982}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_65_COVID-19(1)" connectionId="14" xr16:uid="{1F7FC7F3-ADF7-CE4C-A901-C09AA03AA932}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_55_COVID-19" connectionId="4" xr16:uid="{10575DCA-3AE8-5C4C-A970-60205B471337}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_71_COVID-19(1)" connectionId="20" xr16:uid="{E40B0E49-9F2B-2549-8124-9C24FFB9F4B1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(2)_1" connectionId="10" xr16:uid="{252D0C3F-8429-6D40-AFE6-2BAFDCF71E62}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_59_COVID-19(1)" connectionId="7" xr16:uid="{6E93CE4F-1115-D449-959A-2A7263C31ABC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_62_COVID-19(1)" connectionId="11" xr16:uid="{789174F4-7737-BE4C-9685-F15607B8C828}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(1)" connectionId="9" xr16:uid="{C813FA0B-4B7A-0743-B527-E10C07F0E6C8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
@@ -584,55 +600,59 @@
 </file>
 
 <file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_66_COVID-19(1)" connectionId="15" xr16:uid="{784FDDA9-F525-C54F-BA21-682143B55347}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_70_COVID-19(1)" connectionId="19" xr16:uid="{F30EDCDD-4769-4442-A6A9-407F59F6429F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_71_COVID-19(1)" connectionId="20" xr16:uid="{E40B0E49-9F2B-2549-8124-9C24FFB9F4B1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_64_COVID-19(1)" connectionId="13" xr16:uid="{24F5186E-14BA-4941-BB1A-F21AEE9F7F07}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_60_COVID-19(1)" connectionId="8" xr16:uid="{C2F0088C-0355-9A48-BE55-175198337C67}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_66_COVID-19(1)" connectionId="15" xr16:uid="{784FDDA9-F525-C54F-BA21-682143B55347}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(1)" connectionId="9" xr16:uid="{C813FA0B-4B7A-0743-B527-E10C07F0E6C8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_69_COVID-19(1)" connectionId="18" xr16:uid="{43D60223-767A-964E-8CC2-E64E5ACAFF9F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_52_COVID-19" connectionId="1" xr16:uid="{35D81D28-1058-4347-9DE2-5F2763DAC2A4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_56_COVID-19(1)" connectionId="5" xr16:uid="{C5B10145-DA18-EE44-A918-E407BEA443E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(2)_1" connectionId="10" xr16:uid="{252D0C3F-8429-6D40-AFE6-2BAFDCF71E62}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_57_COVID-19(1)" connectionId="6" xr16:uid="{78E004BB-228B-5143-9AFE-91688C440A41}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_59_COVID-19(1)" connectionId="7" xr16:uid="{6E93CE4F-1115-D449-959A-2A7263C31ABC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_67_COVID-19(1)" connectionId="16" xr16:uid="{0DCC7075-52E5-6445-A2D9-0D0404D0E63E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_53_COVID-19" connectionId="2" xr16:uid="{31483431-2B39-A440-9E59-C26E082912EA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_68_COVID-19(1)" connectionId="17" xr16:uid="{15D6F25C-3F4D-0947-8994-7F669D041C1F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_54_COVID-19" connectionId="3" xr16:uid="{E94F4815-0D2F-454F-8291-FCBF0C165C57}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_69_COVID-19(1)" connectionId="18" xr16:uid="{43D60223-767A-964E-8CC2-E64E5ACAFF9F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_57_COVID-19(1)" connectionId="6" xr16:uid="{78E004BB-228B-5143-9AFE-91688C440A41}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_60_COVID-19(1)" connectionId="8" xr16:uid="{C2F0088C-0355-9A48-BE55-175198337C67}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_67_COVID-19(1)" connectionId="16" xr16:uid="{0DCC7075-52E5-6445-A2D9-0D0404D0E63E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_65_COVID-19(1)" connectionId="14" xr16:uid="{1F7FC7F3-ADF7-CE4C-A901-C09AA03AA932}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -932,10 +952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973FFFC2-62D5-A048-8409-BF1FADA21B40}">
-  <dimension ref="A1:T410"/>
+  <dimension ref="A1:T430"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A380" workbookViewId="0">
-      <selection activeCell="D393" sqref="D393"/>
+    <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
+      <selection activeCell="D420" sqref="D420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15370,6 +15390,706 @@
         <v>30.8</v>
       </c>
     </row>
+    <row r="411" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A411" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B411" t="s">
+        <v>9</v>
+      </c>
+      <c r="C411" t="s">
+        <v>0</v>
+      </c>
+      <c r="D411">
+        <v>184</v>
+      </c>
+      <c r="E411">
+        <v>64</v>
+      </c>
+      <c r="F411">
+        <v>0.3</v>
+      </c>
+      <c r="G411">
+        <v>6</v>
+      </c>
+      <c r="H411">
+        <v>0.4</v>
+      </c>
+      <c r="I411">
+        <v>1</v>
+      </c>
+      <c r="J411">
+        <v>0</v>
+      </c>
+      <c r="K411">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="412" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A412" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B412" t="s">
+        <v>9</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D412">
+        <v>341</v>
+      </c>
+      <c r="E412">
+        <v>71</v>
+      </c>
+      <c r="F412">
+        <v>0.3</v>
+      </c>
+      <c r="G412">
+        <v>2</v>
+      </c>
+      <c r="H412">
+        <v>0.1</v>
+      </c>
+      <c r="I412">
+        <v>1</v>
+      </c>
+      <c r="J412">
+        <v>0</v>
+      </c>
+      <c r="K412">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="413" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A413" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B413" t="s">
+        <v>9</v>
+      </c>
+      <c r="C413" t="s">
+        <v>1</v>
+      </c>
+      <c r="D413" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E413">
+        <v>462</v>
+      </c>
+      <c r="F413">
+        <v>1.9</v>
+      </c>
+      <c r="G413">
+        <v>22</v>
+      </c>
+      <c r="H413">
+        <v>1.5</v>
+      </c>
+      <c r="I413">
+        <v>5</v>
+      </c>
+      <c r="J413">
+        <v>0.1</v>
+      </c>
+      <c r="K413">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A414" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B414" t="s">
+        <v>9</v>
+      </c>
+      <c r="C414" t="s">
+        <v>2</v>
+      </c>
+      <c r="D414" s="3">
+        <v>6948</v>
+      </c>
+      <c r="E414" s="3">
+        <v>1132</v>
+      </c>
+      <c r="F414">
+        <v>4.7</v>
+      </c>
+      <c r="G414">
+        <v>61</v>
+      </c>
+      <c r="H414">
+        <v>4.3</v>
+      </c>
+      <c r="I414">
+        <v>15</v>
+      </c>
+      <c r="J414">
+        <v>0.4</v>
+      </c>
+      <c r="K414">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="415" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A415" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B415" t="s">
+        <v>9</v>
+      </c>
+      <c r="C415" t="s">
+        <v>3</v>
+      </c>
+      <c r="D415" s="3">
+        <v>9989</v>
+      </c>
+      <c r="E415" s="3">
+        <v>2197</v>
+      </c>
+      <c r="F415">
+        <v>9.1</v>
+      </c>
+      <c r="G415">
+        <v>118</v>
+      </c>
+      <c r="H415">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I415">
+        <v>39</v>
+      </c>
+      <c r="J415">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K415">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="416" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A416" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B416" t="s">
+        <v>9</v>
+      </c>
+      <c r="C416" t="s">
+        <v>4</v>
+      </c>
+      <c r="D416" s="3">
+        <v>12095</v>
+      </c>
+      <c r="E416" s="3">
+        <v>3549</v>
+      </c>
+      <c r="F416">
+        <v>14.8</v>
+      </c>
+      <c r="G416">
+        <v>260</v>
+      </c>
+      <c r="H416">
+        <v>18.3</v>
+      </c>
+      <c r="I416">
+        <v>89</v>
+      </c>
+      <c r="J416">
+        <v>2.4</v>
+      </c>
+      <c r="K416">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="417" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A417" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B417" t="s">
+        <v>9</v>
+      </c>
+      <c r="C417" t="s">
+        <v>5</v>
+      </c>
+      <c r="D417" s="3">
+        <v>9134</v>
+      </c>
+      <c r="E417" s="3">
+        <v>4511</v>
+      </c>
+      <c r="F417">
+        <v>18.8</v>
+      </c>
+      <c r="G417">
+        <v>432</v>
+      </c>
+      <c r="H417">
+        <v>30.4</v>
+      </c>
+      <c r="I417">
+        <v>259</v>
+      </c>
+      <c r="J417">
+        <v>7</v>
+      </c>
+      <c r="K417">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="418" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A418" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B418" t="s">
+        <v>9</v>
+      </c>
+      <c r="C418" t="s">
+        <v>6</v>
+      </c>
+      <c r="D418" s="3">
+        <v>7884</v>
+      </c>
+      <c r="E418" s="3">
+        <v>5410</v>
+      </c>
+      <c r="F418">
+        <v>22.5</v>
+      </c>
+      <c r="G418">
+        <v>440</v>
+      </c>
+      <c r="H418">
+        <v>31</v>
+      </c>
+      <c r="I418">
+        <v>770</v>
+      </c>
+      <c r="J418">
+        <v>20.9</v>
+      </c>
+      <c r="K418">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="419" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A419" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B419" t="s">
+        <v>9</v>
+      </c>
+      <c r="C419" t="s">
+        <v>12</v>
+      </c>
+      <c r="D419" s="3">
+        <v>8537</v>
+      </c>
+      <c r="E419" s="3">
+        <v>4952</v>
+      </c>
+      <c r="F419">
+        <v>20.6</v>
+      </c>
+      <c r="G419">
+        <v>73</v>
+      </c>
+      <c r="H419">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I419" s="3">
+        <v>1624</v>
+      </c>
+      <c r="J419">
+        <v>44.1</v>
+      </c>
+      <c r="K419">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="420" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A420" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B420" t="s">
+        <v>9</v>
+      </c>
+      <c r="C420" t="s">
+        <v>13</v>
+      </c>
+      <c r="D420" s="3">
+        <v>3989</v>
+      </c>
+      <c r="E420" s="3">
+        <v>1696</v>
+      </c>
+      <c r="F420">
+        <v>7.1</v>
+      </c>
+      <c r="G420">
+        <v>7</v>
+      </c>
+      <c r="H420">
+        <v>0.5</v>
+      </c>
+      <c r="I420">
+        <v>880</v>
+      </c>
+      <c r="J420">
+        <v>23.9</v>
+      </c>
+      <c r="K420">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A421" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B421" t="s">
+        <v>10</v>
+      </c>
+      <c r="C421" t="s">
+        <v>0</v>
+      </c>
+      <c r="D421">
+        <v>212</v>
+      </c>
+      <c r="E421">
+        <v>90</v>
+      </c>
+      <c r="F421">
+        <v>0.3</v>
+      </c>
+      <c r="G421">
+        <v>14</v>
+      </c>
+      <c r="H421">
+        <v>0.4</v>
+      </c>
+      <c r="I421">
+        <v>0</v>
+      </c>
+      <c r="J421">
+        <v>0</v>
+      </c>
+      <c r="K421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A422" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B422" t="s">
+        <v>10</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D422">
+        <v>306</v>
+      </c>
+      <c r="E422">
+        <v>58</v>
+      </c>
+      <c r="F422">
+        <v>0.2</v>
+      </c>
+      <c r="G422">
+        <v>3</v>
+      </c>
+      <c r="H422">
+        <v>0.1</v>
+      </c>
+      <c r="I422">
+        <v>0</v>
+      </c>
+      <c r="J422">
+        <v>0</v>
+      </c>
+      <c r="K422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A423" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B423" t="s">
+        <v>10</v>
+      </c>
+      <c r="C423" t="s">
+        <v>1</v>
+      </c>
+      <c r="D423" s="3">
+        <v>2131</v>
+      </c>
+      <c r="E423">
+        <v>447</v>
+      </c>
+      <c r="F423">
+        <v>1.4</v>
+      </c>
+      <c r="G423">
+        <v>31</v>
+      </c>
+      <c r="H423">
+        <v>0.9</v>
+      </c>
+      <c r="I423">
+        <v>12</v>
+      </c>
+      <c r="J423">
+        <v>0.2</v>
+      </c>
+      <c r="K423">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A424" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B424" t="s">
+        <v>10</v>
+      </c>
+      <c r="C424" t="s">
+        <v>2</v>
+      </c>
+      <c r="D424" s="3">
+        <v>4535</v>
+      </c>
+      <c r="E424" s="3">
+        <v>1276</v>
+      </c>
+      <c r="F424">
+        <v>3.9</v>
+      </c>
+      <c r="G424">
+        <v>109</v>
+      </c>
+      <c r="H424">
+        <v>3.2</v>
+      </c>
+      <c r="I424">
+        <v>20</v>
+      </c>
+      <c r="J424">
+        <v>0.3</v>
+      </c>
+      <c r="K424">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A425" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B425" t="s">
+        <v>10</v>
+      </c>
+      <c r="C425" t="s">
+        <v>3</v>
+      </c>
+      <c r="D425" s="3">
+        <v>7971</v>
+      </c>
+      <c r="E425" s="3">
+        <v>3303</v>
+      </c>
+      <c r="F425">
+        <v>10</v>
+      </c>
+      <c r="G425">
+        <v>306</v>
+      </c>
+      <c r="H425">
+        <v>8.9</v>
+      </c>
+      <c r="I425">
+        <v>70</v>
+      </c>
+      <c r="J425">
+        <v>1.2</v>
+      </c>
+      <c r="K425">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="426" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A426" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B426" t="s">
+        <v>10</v>
+      </c>
+      <c r="C426" t="s">
+        <v>4</v>
+      </c>
+      <c r="D426" s="3">
+        <v>10237</v>
+      </c>
+      <c r="E426" s="3">
+        <v>5382</v>
+      </c>
+      <c r="F426">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="G426">
+        <v>677</v>
+      </c>
+      <c r="H426">
+        <v>19.7</v>
+      </c>
+      <c r="I426">
+        <v>192</v>
+      </c>
+      <c r="J426">
+        <v>3.3</v>
+      </c>
+      <c r="K426">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="427" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A427" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B427" t="s">
+        <v>10</v>
+      </c>
+      <c r="C427" t="s">
+        <v>5</v>
+      </c>
+      <c r="D427" s="3">
+        <v>10610</v>
+      </c>
+      <c r="E427" s="3">
+        <v>6956</v>
+      </c>
+      <c r="F427">
+        <v>21.1</v>
+      </c>
+      <c r="G427" s="3">
+        <v>1131</v>
+      </c>
+      <c r="H427">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="I427">
+        <v>614</v>
+      </c>
+      <c r="J427">
+        <v>10.6</v>
+      </c>
+      <c r="K427">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="428" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A428" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B428" t="s">
+        <v>10</v>
+      </c>
+      <c r="C428" t="s">
+        <v>6</v>
+      </c>
+      <c r="D428" s="3">
+        <v>10829</v>
+      </c>
+      <c r="E428" s="3">
+        <v>8313</v>
+      </c>
+      <c r="F428">
+        <v>25.3</v>
+      </c>
+      <c r="G428" s="3">
+        <v>1077</v>
+      </c>
+      <c r="H428">
+        <v>31.3</v>
+      </c>
+      <c r="I428" s="3">
+        <v>1837</v>
+      </c>
+      <c r="J428">
+        <v>31.7</v>
+      </c>
+      <c r="K428">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="429" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A429" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B429" t="s">
+        <v>10</v>
+      </c>
+      <c r="C429" t="s">
+        <v>12</v>
+      </c>
+      <c r="D429" s="3">
+        <v>7930</v>
+      </c>
+      <c r="E429" s="3">
+        <v>5809</v>
+      </c>
+      <c r="F429">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="G429">
+        <v>87</v>
+      </c>
+      <c r="H429">
+        <v>2.5</v>
+      </c>
+      <c r="I429" s="3">
+        <v>2345</v>
+      </c>
+      <c r="J429">
+        <v>40.4</v>
+      </c>
+      <c r="K429">
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="430" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A430" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B430" t="s">
+        <v>10</v>
+      </c>
+      <c r="C430" t="s">
+        <v>13</v>
+      </c>
+      <c r="D430" s="3">
+        <v>2112</v>
+      </c>
+      <c r="E430" s="3">
+        <v>1280</v>
+      </c>
+      <c r="F430">
+        <v>3.9</v>
+      </c>
+      <c r="G430">
+        <v>9</v>
+      </c>
+      <c r="H430">
+        <v>0.3</v>
+      </c>
+      <c r="I430">
+        <v>709</v>
+      </c>
+      <c r="J430">
+        <v>12.2</v>
+      </c>
+      <c r="K430">
+        <v>33.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Covid-19_data_sexage.xlsx
+++ b/data/Covid-19_data_sexage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanjosevidal/Google Drive/Projects/Covid-19/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C432BD8B-6737-E842-9083-4FE85319FC6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86393A70-C837-8045-A82C-BF7E3A342023}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{C24317C9-D1BD-7248-BEC1-07839536F6EA}"/>
   </bookViews>
@@ -39,6 +39,7 @@
     <definedName name="tabula_Actualizacion_71_COVID_19_1" localSheetId="0">Data!$C$371:$K$390</definedName>
     <definedName name="tabula_Actualizacion_72_COVID_19_1" localSheetId="0">Data!$C$391:$K$410</definedName>
     <definedName name="tabula_Actualizacion_73_COVID_19_1" localSheetId="0">Data!$C$411:$K$430</definedName>
+    <definedName name="tabula_Actualizacion_74_COVID_19_1" localSheetId="0">Data!$C$431:$K$450</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -372,7 +373,22 @@
     </textPr>
   </connection>
   <connection id="22" xr16:uid="{72FAD156-F5C2-7D4D-AEEF-B4E891EF5C3D}" name="tabula-Actualizacion_73_COVID-19(1)" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_73_COVID-19(1).csv" decimal="," thousands="." comma="1">
+    <textPr sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_73_COVID-19(1).csv" decimal="," thousands="." comma="1">
+      <textFields count="9">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="23" xr16:uid="{30CF1085-1841-4C45-B031-A9D5697AFC42}" name="tabula-Actualizacion_74_COVID-19(1)" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_74_COVID-19(1).csv" decimal="," thousands="." comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -390,7 +406,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="26">
   <si>
     <t>0-9</t>
   </si>
@@ -568,11 +584,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_73_COVID-19(1)" connectionId="22" xr16:uid="{144BDA4A-6CCF-094D-8B47-C4994B28C9F4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_74_COVID-19(1)" connectionId="23" xr16:uid="{486A1335-E13C-A646-B386-9ED2A72BEEE6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_62_COVID-19(1)" connectionId="11" xr16:uid="{789174F4-7737-BE4C-9685-F15607B8C828}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_59_COVID-19(1)" connectionId="7" xr16:uid="{6E93CE4F-1115-D449-959A-2A7263C31ABC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
@@ -580,23 +596,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_55_COVID-19" connectionId="4" xr16:uid="{10575DCA-3AE8-5C4C-A970-60205B471337}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_67_COVID-19(1)" connectionId="16" xr16:uid="{0DCC7075-52E5-6445-A2D9-0D0404D0E63E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_54_COVID-19" connectionId="3" xr16:uid="{E94F4815-0D2F-454F-8291-FCBF0C165C57}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_73_COVID-19(1)" connectionId="22" xr16:uid="{144BDA4A-6CCF-094D-8B47-C4994B28C9F4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_72_COVID-19(1)" connectionId="21" xr16:uid="{1488C0E5-7AB9-C44D-8BE2-997243B88982}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_69_COVID-19(1)" connectionId="18" xr16:uid="{43D60223-767A-964E-8CC2-E64E5ACAFF9F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(1)" connectionId="9" xr16:uid="{C813FA0B-4B7A-0743-B527-E10C07F0E6C8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_63_COVID-19(1)" connectionId="12" xr16:uid="{EFDFC980-4B86-C948-B035-B2786B80754E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_63_COVID-19(1)" connectionId="12" xr16:uid="{EFDFC980-4B86-C948-B035-B2786B80754E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_64_COVID-19(1)" connectionId="13" xr16:uid="{24F5186E-14BA-4941-BB1A-F21AEE9F7F07}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
@@ -604,55 +620,59 @@
 </file>
 
 <file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_55_COVID-19" connectionId="4" xr16:uid="{10575DCA-3AE8-5C4C-A970-60205B471337}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_53_COVID-19" connectionId="2" xr16:uid="{31483431-2B39-A440-9E59-C26E082912EA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_60_COVID-19(1)" connectionId="8" xr16:uid="{C2F0088C-0355-9A48-BE55-175198337C67}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_52_COVID-19" connectionId="1" xr16:uid="{35D81D28-1058-4347-9DE2-5F2763DAC2A4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(2)_1" connectionId="10" xr16:uid="{252D0C3F-8429-6D40-AFE6-2BAFDCF71E62}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_70_COVID-19(1)" connectionId="19" xr16:uid="{F30EDCDD-4769-4442-A6A9-407F59F6429F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_54_COVID-19" connectionId="3" xr16:uid="{E94F4815-0D2F-454F-8291-FCBF0C165C57}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_56_COVID-19(1)" connectionId="5" xr16:uid="{C5B10145-DA18-EE44-A918-E407BEA443E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_72_COVID-19(1)" connectionId="21" xr16:uid="{1488C0E5-7AB9-C44D-8BE2-997243B88982}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_65_COVID-19(1)" connectionId="14" xr16:uid="{1F7FC7F3-ADF7-CE4C-A901-C09AA03AA932}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_57_COVID-19(1)" connectionId="6" xr16:uid="{78E004BB-228B-5143-9AFE-91688C440A41}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_71_COVID-19(1)" connectionId="20" xr16:uid="{E40B0E49-9F2B-2549-8124-9C24FFB9F4B1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_64_COVID-19(1)" connectionId="13" xr16:uid="{24F5186E-14BA-4941-BB1A-F21AEE9F7F07}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_69_COVID-19(1)" connectionId="18" xr16:uid="{43D60223-767A-964E-8CC2-E64E5ACAFF9F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_52_COVID-19" connectionId="1" xr16:uid="{35D81D28-1058-4347-9DE2-5F2763DAC2A4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_56_COVID-19(1)" connectionId="5" xr16:uid="{C5B10145-DA18-EE44-A918-E407BEA443E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(2)_1" connectionId="10" xr16:uid="{252D0C3F-8429-6D40-AFE6-2BAFDCF71E62}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_57_COVID-19(1)" connectionId="6" xr16:uid="{78E004BB-228B-5143-9AFE-91688C440A41}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_59_COVID-19(1)" connectionId="7" xr16:uid="{6E93CE4F-1115-D449-959A-2A7263C31ABC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_67_COVID-19(1)" connectionId="16" xr16:uid="{0DCC7075-52E5-6445-A2D9-0D0404D0E63E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_53_COVID-19" connectionId="2" xr16:uid="{31483431-2B39-A440-9E59-C26E082912EA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_60_COVID-19(1)" connectionId="8" xr16:uid="{C2F0088C-0355-9A48-BE55-175198337C67}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_62_COVID-19(1)" connectionId="11" xr16:uid="{789174F4-7737-BE4C-9685-F15607B8C828}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_65_COVID-19(1)" connectionId="14" xr16:uid="{1F7FC7F3-ADF7-CE4C-A901-C09AA03AA932}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(1)" connectionId="9" xr16:uid="{C813FA0B-4B7A-0743-B527-E10C07F0E6C8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -952,10 +972,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973FFFC2-62D5-A048-8409-BF1FADA21B40}">
-  <dimension ref="A1:T430"/>
+  <dimension ref="A1:T450"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
-      <selection activeCell="D420" sqref="D420"/>
+    <sheetView tabSelected="1" topLeftCell="A412" workbookViewId="0">
+      <selection activeCell="C435" sqref="C435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16090,6 +16110,706 @@
         <v>33.6</v>
       </c>
     </row>
+    <row r="431" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A431" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B431" t="s">
+        <v>9</v>
+      </c>
+      <c r="C431" t="s">
+        <v>0</v>
+      </c>
+      <c r="D431">
+        <v>184</v>
+      </c>
+      <c r="E431">
+        <v>64</v>
+      </c>
+      <c r="F431">
+        <v>0.3</v>
+      </c>
+      <c r="G431">
+        <v>6</v>
+      </c>
+      <c r="H431">
+        <v>0.4</v>
+      </c>
+      <c r="I431">
+        <v>1</v>
+      </c>
+      <c r="J431">
+        <v>0</v>
+      </c>
+      <c r="K431">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="432" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A432" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B432" t="s">
+        <v>9</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D432">
+        <v>341</v>
+      </c>
+      <c r="E432">
+        <v>71</v>
+      </c>
+      <c r="F432">
+        <v>0.3</v>
+      </c>
+      <c r="G432">
+        <v>2</v>
+      </c>
+      <c r="H432">
+        <v>0.1</v>
+      </c>
+      <c r="I432">
+        <v>1</v>
+      </c>
+      <c r="J432">
+        <v>0</v>
+      </c>
+      <c r="K432">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="433" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A433" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B433" t="s">
+        <v>9</v>
+      </c>
+      <c r="C433" t="s">
+        <v>1</v>
+      </c>
+      <c r="D433" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E433">
+        <v>462</v>
+      </c>
+      <c r="F433">
+        <v>1.9</v>
+      </c>
+      <c r="G433">
+        <v>22</v>
+      </c>
+      <c r="H433">
+        <v>1.5</v>
+      </c>
+      <c r="I433">
+        <v>5</v>
+      </c>
+      <c r="J433">
+        <v>0.1</v>
+      </c>
+      <c r="K433">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A434" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B434" t="s">
+        <v>9</v>
+      </c>
+      <c r="C434" t="s">
+        <v>2</v>
+      </c>
+      <c r="D434" s="3">
+        <v>6948</v>
+      </c>
+      <c r="E434" s="3">
+        <v>1132</v>
+      </c>
+      <c r="F434">
+        <v>4.7</v>
+      </c>
+      <c r="G434">
+        <v>61</v>
+      </c>
+      <c r="H434">
+        <v>4.3</v>
+      </c>
+      <c r="I434">
+        <v>15</v>
+      </c>
+      <c r="J434">
+        <v>0.4</v>
+      </c>
+      <c r="K434">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="435" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A435" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B435" t="s">
+        <v>9</v>
+      </c>
+      <c r="C435" t="s">
+        <v>3</v>
+      </c>
+      <c r="D435" s="3">
+        <v>9989</v>
+      </c>
+      <c r="E435" s="3">
+        <v>2197</v>
+      </c>
+      <c r="F435">
+        <v>9.1</v>
+      </c>
+      <c r="G435">
+        <v>118</v>
+      </c>
+      <c r="H435">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I435">
+        <v>39</v>
+      </c>
+      <c r="J435">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K435">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="436" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A436" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B436" t="s">
+        <v>9</v>
+      </c>
+      <c r="C436" t="s">
+        <v>4</v>
+      </c>
+      <c r="D436" s="3">
+        <v>12095</v>
+      </c>
+      <c r="E436" s="3">
+        <v>3549</v>
+      </c>
+      <c r="F436">
+        <v>14.8</v>
+      </c>
+      <c r="G436">
+        <v>260</v>
+      </c>
+      <c r="H436">
+        <v>18.3</v>
+      </c>
+      <c r="I436">
+        <v>89</v>
+      </c>
+      <c r="J436">
+        <v>2.4</v>
+      </c>
+      <c r="K436">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="437" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A437" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B437" t="s">
+        <v>9</v>
+      </c>
+      <c r="C437" t="s">
+        <v>5</v>
+      </c>
+      <c r="D437" s="3">
+        <v>9134</v>
+      </c>
+      <c r="E437" s="3">
+        <v>4511</v>
+      </c>
+      <c r="F437">
+        <v>18.8</v>
+      </c>
+      <c r="G437">
+        <v>432</v>
+      </c>
+      <c r="H437">
+        <v>30.4</v>
+      </c>
+      <c r="I437">
+        <v>259</v>
+      </c>
+      <c r="J437">
+        <v>7</v>
+      </c>
+      <c r="K437">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="438" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A438" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B438" t="s">
+        <v>9</v>
+      </c>
+      <c r="C438" t="s">
+        <v>6</v>
+      </c>
+      <c r="D438" s="3">
+        <v>7884</v>
+      </c>
+      <c r="E438" s="3">
+        <v>5410</v>
+      </c>
+      <c r="F438">
+        <v>22.5</v>
+      </c>
+      <c r="G438">
+        <v>440</v>
+      </c>
+      <c r="H438">
+        <v>31</v>
+      </c>
+      <c r="I438">
+        <v>770</v>
+      </c>
+      <c r="J438">
+        <v>20.9</v>
+      </c>
+      <c r="K438">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="439" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A439" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B439" t="s">
+        <v>9</v>
+      </c>
+      <c r="C439" t="s">
+        <v>12</v>
+      </c>
+      <c r="D439" s="3">
+        <v>8537</v>
+      </c>
+      <c r="E439" s="3">
+        <v>4952</v>
+      </c>
+      <c r="F439">
+        <v>20.6</v>
+      </c>
+      <c r="G439">
+        <v>73</v>
+      </c>
+      <c r="H439">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I439" s="3">
+        <v>1624</v>
+      </c>
+      <c r="J439">
+        <v>44.1</v>
+      </c>
+      <c r="K439">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="440" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A440" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B440" t="s">
+        <v>9</v>
+      </c>
+      <c r="C440" t="s">
+        <v>13</v>
+      </c>
+      <c r="D440" s="3">
+        <v>3989</v>
+      </c>
+      <c r="E440" s="3">
+        <v>1696</v>
+      </c>
+      <c r="F440">
+        <v>7.1</v>
+      </c>
+      <c r="G440">
+        <v>7</v>
+      </c>
+      <c r="H440">
+        <v>0.5</v>
+      </c>
+      <c r="I440">
+        <v>880</v>
+      </c>
+      <c r="J440">
+        <v>23.9</v>
+      </c>
+      <c r="K440">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A441" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B441" t="s">
+        <v>10</v>
+      </c>
+      <c r="C441" t="s">
+        <v>0</v>
+      </c>
+      <c r="D441">
+        <v>212</v>
+      </c>
+      <c r="E441">
+        <v>90</v>
+      </c>
+      <c r="F441">
+        <v>0.3</v>
+      </c>
+      <c r="G441">
+        <v>14</v>
+      </c>
+      <c r="H441">
+        <v>0.4</v>
+      </c>
+      <c r="I441">
+        <v>0</v>
+      </c>
+      <c r="J441">
+        <v>0</v>
+      </c>
+      <c r="K441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A442" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B442" t="s">
+        <v>10</v>
+      </c>
+      <c r="C442" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D442">
+        <v>306</v>
+      </c>
+      <c r="E442">
+        <v>58</v>
+      </c>
+      <c r="F442">
+        <v>0.2</v>
+      </c>
+      <c r="G442">
+        <v>3</v>
+      </c>
+      <c r="H442">
+        <v>0.1</v>
+      </c>
+      <c r="I442">
+        <v>0</v>
+      </c>
+      <c r="J442">
+        <v>0</v>
+      </c>
+      <c r="K442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A443" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B443" t="s">
+        <v>10</v>
+      </c>
+      <c r="C443" t="s">
+        <v>1</v>
+      </c>
+      <c r="D443" s="3">
+        <v>2131</v>
+      </c>
+      <c r="E443">
+        <v>447</v>
+      </c>
+      <c r="F443">
+        <v>1.4</v>
+      </c>
+      <c r="G443">
+        <v>31</v>
+      </c>
+      <c r="H443">
+        <v>0.9</v>
+      </c>
+      <c r="I443">
+        <v>12</v>
+      </c>
+      <c r="J443">
+        <v>0.2</v>
+      </c>
+      <c r="K443">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="444" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A444" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B444" t="s">
+        <v>10</v>
+      </c>
+      <c r="C444" t="s">
+        <v>2</v>
+      </c>
+      <c r="D444" s="3">
+        <v>4535</v>
+      </c>
+      <c r="E444" s="3">
+        <v>1276</v>
+      </c>
+      <c r="F444">
+        <v>3.9</v>
+      </c>
+      <c r="G444">
+        <v>109</v>
+      </c>
+      <c r="H444">
+        <v>3.2</v>
+      </c>
+      <c r="I444">
+        <v>20</v>
+      </c>
+      <c r="J444">
+        <v>0.3</v>
+      </c>
+      <c r="K444">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="445" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A445" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B445" t="s">
+        <v>10</v>
+      </c>
+      <c r="C445" t="s">
+        <v>3</v>
+      </c>
+      <c r="D445" s="3">
+        <v>7971</v>
+      </c>
+      <c r="E445" s="3">
+        <v>3303</v>
+      </c>
+      <c r="F445">
+        <v>10</v>
+      </c>
+      <c r="G445">
+        <v>306</v>
+      </c>
+      <c r="H445">
+        <v>8.9</v>
+      </c>
+      <c r="I445">
+        <v>70</v>
+      </c>
+      <c r="J445">
+        <v>1.2</v>
+      </c>
+      <c r="K445">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="446" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A446" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B446" t="s">
+        <v>10</v>
+      </c>
+      <c r="C446" t="s">
+        <v>4</v>
+      </c>
+      <c r="D446" s="3">
+        <v>10237</v>
+      </c>
+      <c r="E446" s="3">
+        <v>5382</v>
+      </c>
+      <c r="F446">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="G446">
+        <v>677</v>
+      </c>
+      <c r="H446">
+        <v>19.7</v>
+      </c>
+      <c r="I446">
+        <v>192</v>
+      </c>
+      <c r="J446">
+        <v>3.3</v>
+      </c>
+      <c r="K446">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="447" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A447" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B447" t="s">
+        <v>10</v>
+      </c>
+      <c r="C447" t="s">
+        <v>5</v>
+      </c>
+      <c r="D447" s="3">
+        <v>10610</v>
+      </c>
+      <c r="E447" s="3">
+        <v>6956</v>
+      </c>
+      <c r="F447">
+        <v>21.1</v>
+      </c>
+      <c r="G447" s="3">
+        <v>1131</v>
+      </c>
+      <c r="H447">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="I447">
+        <v>614</v>
+      </c>
+      <c r="J447">
+        <v>10.6</v>
+      </c>
+      <c r="K447">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="448" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A448" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B448" t="s">
+        <v>10</v>
+      </c>
+      <c r="C448" t="s">
+        <v>6</v>
+      </c>
+      <c r="D448" s="3">
+        <v>10829</v>
+      </c>
+      <c r="E448" s="3">
+        <v>8313</v>
+      </c>
+      <c r="F448">
+        <v>25.3</v>
+      </c>
+      <c r="G448" s="3">
+        <v>1077</v>
+      </c>
+      <c r="H448">
+        <v>31.3</v>
+      </c>
+      <c r="I448" s="3">
+        <v>1837</v>
+      </c>
+      <c r="J448">
+        <v>31.7</v>
+      </c>
+      <c r="K448">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="449" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A449" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B449" t="s">
+        <v>10</v>
+      </c>
+      <c r="C449" t="s">
+        <v>12</v>
+      </c>
+      <c r="D449" s="3">
+        <v>7930</v>
+      </c>
+      <c r="E449" s="3">
+        <v>5809</v>
+      </c>
+      <c r="F449">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="G449">
+        <v>87</v>
+      </c>
+      <c r="H449">
+        <v>2.5</v>
+      </c>
+      <c r="I449" s="3">
+        <v>2345</v>
+      </c>
+      <c r="J449">
+        <v>40.4</v>
+      </c>
+      <c r="K449">
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="450" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A450" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B450" t="s">
+        <v>10</v>
+      </c>
+      <c r="C450" t="s">
+        <v>13</v>
+      </c>
+      <c r="D450" s="3">
+        <v>2112</v>
+      </c>
+      <c r="E450" s="3">
+        <v>1280</v>
+      </c>
+      <c r="F450">
+        <v>3.9</v>
+      </c>
+      <c r="G450">
+        <v>9</v>
+      </c>
+      <c r="H450">
+        <v>0.3</v>
+      </c>
+      <c r="I450">
+        <v>709</v>
+      </c>
+      <c r="J450">
+        <v>12.2</v>
+      </c>
+      <c r="K450">
+        <v>33.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Covid-19_data_sexage.xlsx
+++ b/data/Covid-19_data_sexage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanjosevidal/Google Drive/Projects/Covid-19/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86393A70-C837-8045-A82C-BF7E3A342023}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E0AB7A-A479-2A40-9D84-A69B8AE570E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{C24317C9-D1BD-7248-BEC1-07839536F6EA}"/>
   </bookViews>
@@ -40,6 +40,7 @@
     <definedName name="tabula_Actualizacion_72_COVID_19_1" localSheetId="0">Data!$C$391:$K$410</definedName>
     <definedName name="tabula_Actualizacion_73_COVID_19_1" localSheetId="0">Data!$C$411:$K$430</definedName>
     <definedName name="tabula_Actualizacion_74_COVID_19_1" localSheetId="0">Data!$C$431:$K$450</definedName>
+    <definedName name="tabula_Actualizacion_75_COVID_19_1" localSheetId="0">Data!$C$451:$K$470</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -388,7 +389,22 @@
     </textPr>
   </connection>
   <connection id="23" xr16:uid="{30CF1085-1841-4C45-B031-A9D5697AFC42}" name="tabula-Actualizacion_74_COVID-19(1)" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_74_COVID-19(1).csv" decimal="," thousands="." comma="1">
+    <textPr sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_74_COVID-19(1).csv" decimal="," thousands="." comma="1">
+      <textFields count="9">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="24" xr16:uid="{21D9C3D0-364D-7245-9386-57E3291626E2}" name="tabula-Actualizacion_75_COVID-19(1)" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_75_COVID-19(1).csv" decimal="," thousands="." comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -406,7 +422,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="26">
   <si>
     <t>0-9</t>
   </si>
@@ -584,31 +600,31 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_75_COVID-19(1)" connectionId="24" xr16:uid="{D7A38836-E0C5-5046-B8FD-EF82AA804006}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_63_COVID-19(1)" connectionId="12" xr16:uid="{EFDFC980-4B86-C948-B035-B2786B80754E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_65_COVID-19(1)" connectionId="14" xr16:uid="{1F7FC7F3-ADF7-CE4C-A901-C09AA03AA932}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_68_COVID-19(1)" connectionId="17" xr16:uid="{15D6F25C-3F4D-0947-8994-7F669D041C1F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_57_COVID-19(1)" connectionId="6" xr16:uid="{78E004BB-228B-5143-9AFE-91688C440A41}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_74_COVID-19(1)" connectionId="23" xr16:uid="{486A1335-E13C-A646-B386-9ED2A72BEEE6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_59_COVID-19(1)" connectionId="7" xr16:uid="{6E93CE4F-1115-D449-959A-2A7263C31ABC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_68_COVID-19(1)" connectionId="17" xr16:uid="{15D6F25C-3F4D-0947-8994-7F669D041C1F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_67_COVID-19(1)" connectionId="16" xr16:uid="{0DCC7075-52E5-6445-A2D9-0D0404D0E63E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_73_COVID-19(1)" connectionId="22" xr16:uid="{144BDA4A-6CCF-094D-8B47-C4994B28C9F4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_69_COVID-19(1)" connectionId="18" xr16:uid="{43D60223-767A-964E-8CC2-E64E5ACAFF9F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_63_COVID-19(1)" connectionId="12" xr16:uid="{EFDFC980-4B86-C948-B035-B2786B80754E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_52_COVID-19" connectionId="1" xr16:uid="{35D81D28-1058-4347-9DE2-5F2763DAC2A4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
@@ -616,23 +632,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_60_COVID-19(1)" connectionId="8" xr16:uid="{C2F0088C-0355-9A48-BE55-175198337C67}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_66_COVID-19(1)" connectionId="15" xr16:uid="{784FDDA9-F525-C54F-BA21-682143B55347}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_55_COVID-19" connectionId="4" xr16:uid="{10575DCA-3AE8-5C4C-A970-60205B471337}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_53_COVID-19" connectionId="2" xr16:uid="{31483431-2B39-A440-9E59-C26E082912EA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_67_COVID-19(1)" connectionId="16" xr16:uid="{0DCC7075-52E5-6445-A2D9-0D0404D0E63E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_60_COVID-19(1)" connectionId="8" xr16:uid="{C2F0088C-0355-9A48-BE55-175198337C67}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_62_COVID-19(1)" connectionId="11" xr16:uid="{789174F4-7737-BE4C-9685-F15607B8C828}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_52_COVID-19" connectionId="1" xr16:uid="{35D81D28-1058-4347-9DE2-5F2763DAC2A4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_71_COVID-19(1)" connectionId="20" xr16:uid="{E40B0E49-9F2B-2549-8124-9C24FFB9F4B1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
@@ -640,39 +656,43 @@
 </file>
 
 <file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_56_COVID-19(1)" connectionId="5" xr16:uid="{C5B10145-DA18-EE44-A918-E407BEA443E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_55_COVID-19" connectionId="4" xr16:uid="{10575DCA-3AE8-5C4C-A970-60205B471337}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_73_COVID-19(1)" connectionId="22" xr16:uid="{144BDA4A-6CCF-094D-8B47-C4994B28C9F4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_70_COVID-19(1)" connectionId="19" xr16:uid="{F30EDCDD-4769-4442-A6A9-407F59F6429F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_54_COVID-19" connectionId="3" xr16:uid="{E94F4815-0D2F-454F-8291-FCBF0C165C57}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_69_COVID-19(1)" connectionId="18" xr16:uid="{43D60223-767A-964E-8CC2-E64E5ACAFF9F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_56_COVID-19(1)" connectionId="5" xr16:uid="{C5B10145-DA18-EE44-A918-E407BEA443E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(1)" connectionId="9" xr16:uid="{C813FA0B-4B7A-0743-B527-E10C07F0E6C8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_72_COVID-19(1)" connectionId="21" xr16:uid="{1488C0E5-7AB9-C44D-8BE2-997243B88982}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_65_COVID-19(1)" connectionId="14" xr16:uid="{1F7FC7F3-ADF7-CE4C-A901-C09AA03AA932}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_57_COVID-19(1)" connectionId="6" xr16:uid="{78E004BB-228B-5143-9AFE-91688C440A41}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_71_COVID-19(1)" connectionId="20" xr16:uid="{E40B0E49-9F2B-2549-8124-9C24FFB9F4B1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_53_COVID-19" connectionId="2" xr16:uid="{31483431-2B39-A440-9E59-C26E082912EA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_62_COVID-19(1)" connectionId="11" xr16:uid="{789174F4-7737-BE4C-9685-F15607B8C828}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_59_COVID-19(1)" connectionId="7" xr16:uid="{6E93CE4F-1115-D449-959A-2A7263C31ABC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(1)" connectionId="9" xr16:uid="{C813FA0B-4B7A-0743-B527-E10C07F0E6C8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_54_COVID-19" connectionId="3" xr16:uid="{E94F4815-0D2F-454F-8291-FCBF0C165C57}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -972,10 +992,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973FFFC2-62D5-A048-8409-BF1FADA21B40}">
-  <dimension ref="A1:T450"/>
+  <dimension ref="A1:T470"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A412" workbookViewId="0">
-      <selection activeCell="C435" sqref="C435"/>
+    <sheetView tabSelected="1" topLeftCell="A443" workbookViewId="0">
+      <selection activeCell="E451" sqref="E451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16777,7 +16797,7 @@
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A450" s="2">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="B450" t="s">
         <v>10</v>
@@ -16807,6 +16827,706 @@
         <v>12.2</v>
       </c>
       <c r="K450">
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="451" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A451" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B451" t="s">
+        <v>9</v>
+      </c>
+      <c r="C451" t="s">
+        <v>0</v>
+      </c>
+      <c r="D451">
+        <v>184</v>
+      </c>
+      <c r="E451">
+        <v>63</v>
+      </c>
+      <c r="F451">
+        <v>0.3</v>
+      </c>
+      <c r="G451">
+        <v>1</v>
+      </c>
+      <c r="H451">
+        <v>0</v>
+      </c>
+      <c r="I451">
+        <v>1</v>
+      </c>
+      <c r="J451">
+        <v>0</v>
+      </c>
+      <c r="K451">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="452" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A452" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B452" t="s">
+        <v>9</v>
+      </c>
+      <c r="C452" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D452">
+        <v>344</v>
+      </c>
+      <c r="E452">
+        <v>71</v>
+      </c>
+      <c r="F452">
+        <v>0.3</v>
+      </c>
+      <c r="G452">
+        <v>2</v>
+      </c>
+      <c r="H452">
+        <v>0.1</v>
+      </c>
+      <c r="I452">
+        <v>1</v>
+      </c>
+      <c r="J452">
+        <v>0</v>
+      </c>
+      <c r="K452">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="453" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A453" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B453" t="s">
+        <v>9</v>
+      </c>
+      <c r="C453" t="s">
+        <v>1</v>
+      </c>
+      <c r="D453" s="3">
+        <v>4004</v>
+      </c>
+      <c r="E453">
+        <v>463</v>
+      </c>
+      <c r="F453">
+        <v>1.9</v>
+      </c>
+      <c r="G453">
+        <v>19</v>
+      </c>
+      <c r="H453">
+        <v>0.8</v>
+      </c>
+      <c r="I453">
+        <v>5</v>
+      </c>
+      <c r="J453">
+        <v>0.1</v>
+      </c>
+      <c r="K453">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A454" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B454" t="s">
+        <v>9</v>
+      </c>
+      <c r="C454" t="s">
+        <v>2</v>
+      </c>
+      <c r="D454" s="3">
+        <v>6981</v>
+      </c>
+      <c r="E454" s="3">
+        <v>1139</v>
+      </c>
+      <c r="F454">
+        <v>4.7</v>
+      </c>
+      <c r="G454">
+        <v>48</v>
+      </c>
+      <c r="H454">
+        <v>2</v>
+      </c>
+      <c r="I454">
+        <v>15</v>
+      </c>
+      <c r="J454">
+        <v>0.4</v>
+      </c>
+      <c r="K454">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="455" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A455" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B455" t="s">
+        <v>9</v>
+      </c>
+      <c r="C455" t="s">
+        <v>3</v>
+      </c>
+      <c r="D455" s="3">
+        <v>10011</v>
+      </c>
+      <c r="E455" s="3">
+        <v>2199</v>
+      </c>
+      <c r="F455">
+        <v>9.1</v>
+      </c>
+      <c r="G455">
+        <v>97</v>
+      </c>
+      <c r="H455">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I455">
+        <v>39</v>
+      </c>
+      <c r="J455">
+        <v>1</v>
+      </c>
+      <c r="K455">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="456" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A456" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B456" t="s">
+        <v>9</v>
+      </c>
+      <c r="C456" t="s">
+        <v>4</v>
+      </c>
+      <c r="D456" s="3">
+        <v>12123</v>
+      </c>
+      <c r="E456" s="3">
+        <v>3557</v>
+      </c>
+      <c r="F456">
+        <v>14.7</v>
+      </c>
+      <c r="G456">
+        <v>222</v>
+      </c>
+      <c r="H456">
+        <v>9.5</v>
+      </c>
+      <c r="I456">
+        <v>89</v>
+      </c>
+      <c r="J456">
+        <v>2.4</v>
+      </c>
+      <c r="K456">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="457" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A457" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B457" t="s">
+        <v>9</v>
+      </c>
+      <c r="C457" t="s">
+        <v>5</v>
+      </c>
+      <c r="D457" s="3">
+        <v>9154</v>
+      </c>
+      <c r="E457" s="3">
+        <v>4517</v>
+      </c>
+      <c r="F457">
+        <v>18.7</v>
+      </c>
+      <c r="G457">
+        <v>393</v>
+      </c>
+      <c r="H457">
+        <v>16.8</v>
+      </c>
+      <c r="I457">
+        <v>262</v>
+      </c>
+      <c r="J457">
+        <v>7</v>
+      </c>
+      <c r="K457">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="458" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A458" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B458" t="s">
+        <v>9</v>
+      </c>
+      <c r="C458" t="s">
+        <v>6</v>
+      </c>
+      <c r="D458" s="3">
+        <v>7912</v>
+      </c>
+      <c r="E458" s="3">
+        <v>5427</v>
+      </c>
+      <c r="F458">
+        <v>22.5</v>
+      </c>
+      <c r="G458">
+        <v>664</v>
+      </c>
+      <c r="H458">
+        <v>28.3</v>
+      </c>
+      <c r="I458">
+        <v>775</v>
+      </c>
+      <c r="J458">
+        <v>20.8</v>
+      </c>
+      <c r="K458">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="459" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A459" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B459" t="s">
+        <v>9</v>
+      </c>
+      <c r="C459" t="s">
+        <v>12</v>
+      </c>
+      <c r="D459" s="3">
+        <v>8596</v>
+      </c>
+      <c r="E459" s="3">
+        <v>4978</v>
+      </c>
+      <c r="F459">
+        <v>20.6</v>
+      </c>
+      <c r="G459">
+        <v>645</v>
+      </c>
+      <c r="H459">
+        <v>27.5</v>
+      </c>
+      <c r="I459" s="3">
+        <v>1643</v>
+      </c>
+      <c r="J459">
+        <v>44.1</v>
+      </c>
+      <c r="K459">
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="460" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A460" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B460" t="s">
+        <v>9</v>
+      </c>
+      <c r="C460" t="s">
+        <v>13</v>
+      </c>
+      <c r="D460" s="3">
+        <v>4020</v>
+      </c>
+      <c r="E460" s="3">
+        <v>1708</v>
+      </c>
+      <c r="F460">
+        <v>7.1</v>
+      </c>
+      <c r="G460">
+        <v>255</v>
+      </c>
+      <c r="H460">
+        <v>10.9</v>
+      </c>
+      <c r="I460">
+        <v>897</v>
+      </c>
+      <c r="J460">
+        <v>24.1</v>
+      </c>
+      <c r="K460">
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="461" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A461" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B461" t="s">
+        <v>10</v>
+      </c>
+      <c r="C461" t="s">
+        <v>0</v>
+      </c>
+      <c r="D461">
+        <v>211</v>
+      </c>
+      <c r="E461">
+        <v>88</v>
+      </c>
+      <c r="F461">
+        <v>0.3</v>
+      </c>
+      <c r="G461">
+        <v>14</v>
+      </c>
+      <c r="H461">
+        <v>0.4</v>
+      </c>
+      <c r="I461">
+        <v>0</v>
+      </c>
+      <c r="J461">
+        <v>0</v>
+      </c>
+      <c r="K461">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A462" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B462" t="s">
+        <v>10</v>
+      </c>
+      <c r="C462" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D462">
+        <v>306</v>
+      </c>
+      <c r="E462">
+        <v>57</v>
+      </c>
+      <c r="F462">
+        <v>0.2</v>
+      </c>
+      <c r="G462">
+        <v>3</v>
+      </c>
+      <c r="H462">
+        <v>0.1</v>
+      </c>
+      <c r="I462">
+        <v>0</v>
+      </c>
+      <c r="J462">
+        <v>0</v>
+      </c>
+      <c r="K462">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A463" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B463" t="s">
+        <v>10</v>
+      </c>
+      <c r="C463" t="s">
+        <v>1</v>
+      </c>
+      <c r="D463" s="3">
+        <v>2138</v>
+      </c>
+      <c r="E463">
+        <v>447</v>
+      </c>
+      <c r="F463">
+        <v>1.4</v>
+      </c>
+      <c r="G463">
+        <v>31</v>
+      </c>
+      <c r="H463">
+        <v>0.9</v>
+      </c>
+      <c r="I463">
+        <v>12</v>
+      </c>
+      <c r="J463">
+        <v>0.2</v>
+      </c>
+      <c r="K463">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="464" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A464" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B464" t="s">
+        <v>10</v>
+      </c>
+      <c r="C464" t="s">
+        <v>2</v>
+      </c>
+      <c r="D464" s="3">
+        <v>4542</v>
+      </c>
+      <c r="E464" s="3">
+        <v>1278</v>
+      </c>
+      <c r="F464">
+        <v>3.9</v>
+      </c>
+      <c r="G464">
+        <v>108</v>
+      </c>
+      <c r="H464">
+        <v>3.1</v>
+      </c>
+      <c r="I464">
+        <v>20</v>
+      </c>
+      <c r="J464">
+        <v>0.3</v>
+      </c>
+      <c r="K464">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="465" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A465" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B465" t="s">
+        <v>10</v>
+      </c>
+      <c r="C465" t="s">
+        <v>3</v>
+      </c>
+      <c r="D465" s="3">
+        <v>7989</v>
+      </c>
+      <c r="E465" s="3">
+        <v>3311</v>
+      </c>
+      <c r="F465">
+        <v>10</v>
+      </c>
+      <c r="G465">
+        <v>309</v>
+      </c>
+      <c r="H465">
+        <v>9</v>
+      </c>
+      <c r="I465">
+        <v>70</v>
+      </c>
+      <c r="J465">
+        <v>1.2</v>
+      </c>
+      <c r="K465">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="466" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A466" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B466" t="s">
+        <v>10</v>
+      </c>
+      <c r="C466" t="s">
+        <v>4</v>
+      </c>
+      <c r="D466" s="3">
+        <v>10264</v>
+      </c>
+      <c r="E466" s="3">
+        <v>5387</v>
+      </c>
+      <c r="F466">
+        <v>16.3</v>
+      </c>
+      <c r="G466">
+        <v>681</v>
+      </c>
+      <c r="H466">
+        <v>19.8</v>
+      </c>
+      <c r="I466">
+        <v>195</v>
+      </c>
+      <c r="J466">
+        <v>3.3</v>
+      </c>
+      <c r="K466">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="467" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A467" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B467" t="s">
+        <v>10</v>
+      </c>
+      <c r="C467" t="s">
+        <v>5</v>
+      </c>
+      <c r="D467" s="3">
+        <v>10639</v>
+      </c>
+      <c r="E467" s="3">
+        <v>6973</v>
+      </c>
+      <c r="F467">
+        <v>21.1</v>
+      </c>
+      <c r="G467" s="3">
+        <v>1129</v>
+      </c>
+      <c r="H467">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="I467">
+        <v>618</v>
+      </c>
+      <c r="J467">
+        <v>10.6</v>
+      </c>
+      <c r="K467">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="468" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A468" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B468" t="s">
+        <v>10</v>
+      </c>
+      <c r="C468" t="s">
+        <v>6</v>
+      </c>
+      <c r="D468" s="3">
+        <v>10849</v>
+      </c>
+      <c r="E468" s="3">
+        <v>8333</v>
+      </c>
+      <c r="F468">
+        <v>25.3</v>
+      </c>
+      <c r="G468" s="3">
+        <v>1067</v>
+      </c>
+      <c r="H468">
+        <v>31</v>
+      </c>
+      <c r="I468" s="3">
+        <v>1850</v>
+      </c>
+      <c r="J468">
+        <v>31.7</v>
+      </c>
+      <c r="K468">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="469" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A469" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B469" t="s">
+        <v>10</v>
+      </c>
+      <c r="C469" t="s">
+        <v>12</v>
+      </c>
+      <c r="D469" s="3">
+        <v>7959</v>
+      </c>
+      <c r="E469" s="3">
+        <v>5838</v>
+      </c>
+      <c r="F469">
+        <v>17.7</v>
+      </c>
+      <c r="G469">
+        <v>86</v>
+      </c>
+      <c r="H469">
+        <v>2.5</v>
+      </c>
+      <c r="I469" s="3">
+        <v>2356</v>
+      </c>
+      <c r="J469">
+        <v>40.4</v>
+      </c>
+      <c r="K469">
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="470" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A470" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B470" t="s">
+        <v>10</v>
+      </c>
+      <c r="C470" t="s">
+        <v>13</v>
+      </c>
+      <c r="D470" s="3">
+        <v>2132</v>
+      </c>
+      <c r="E470" s="3">
+        <v>1285</v>
+      </c>
+      <c r="F470">
+        <v>3.9</v>
+      </c>
+      <c r="G470">
+        <v>9</v>
+      </c>
+      <c r="H470">
+        <v>0.3</v>
+      </c>
+      <c r="I470">
+        <v>716</v>
+      </c>
+      <c r="J470">
+        <v>12.3</v>
+      </c>
+      <c r="K470">
         <v>33.6</v>
       </c>
     </row>

--- a/data/Covid-19_data_sexage.xlsx
+++ b/data/Covid-19_data_sexage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanjosevidal/Google Drive/Projects/Covid-19/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E0AB7A-A479-2A40-9D84-A69B8AE570E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A463966-A672-6C41-A494-C1CE98AE9701}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{C24317C9-D1BD-7248-BEC1-07839536F6EA}"/>
   </bookViews>
@@ -41,6 +41,7 @@
     <definedName name="tabula_Actualizacion_73_COVID_19_1" localSheetId="0">Data!$C$411:$K$430</definedName>
     <definedName name="tabula_Actualizacion_74_COVID_19_1" localSheetId="0">Data!$C$431:$K$450</definedName>
     <definedName name="tabula_Actualizacion_75_COVID_19_1" localSheetId="0">Data!$C$451:$K$470</definedName>
+    <definedName name="tabula_Actualizacion_76_COVID_19_2" localSheetId="0">Data!$C$471:$K$490</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -404,7 +405,22 @@
     </textPr>
   </connection>
   <connection id="24" xr16:uid="{21D9C3D0-364D-7245-9386-57E3291626E2}" name="tabula-Actualizacion_75_COVID-19(1)" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_75_COVID-19(1).csv" decimal="," thousands="." comma="1">
+    <textPr sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_75_COVID-19(1).csv" decimal="," thousands="." comma="1">
+      <textFields count="9">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="25" xr16:uid="{AA55B43A-6669-3349-88E7-2C63E39C369C}" name="tabula-Actualizacion_76_COVID-19(2)" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_76_COVID-19(2).csv" decimal="," thousands="." comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -422,7 +438,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="26">
   <si>
     <t>0-9</t>
   </si>
@@ -600,7 +616,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_75_COVID-19(1)" connectionId="24" xr16:uid="{D7A38836-E0C5-5046-B8FD-EF82AA804006}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_76_COVID-19(2)" connectionId="25" xr16:uid="{70AE20FA-7C65-AC4F-B077-971D1C6A5B94}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -608,91 +624,95 @@
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_55_COVID-19" connectionId="4" xr16:uid="{10575DCA-3AE8-5C4C-A970-60205B471337}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_52_COVID-19" connectionId="1" xr16:uid="{35D81D28-1058-4347-9DE2-5F2763DAC2A4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(1)" connectionId="9" xr16:uid="{C813FA0B-4B7A-0743-B527-E10C07F0E6C8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_73_COVID-19(1)" connectionId="22" xr16:uid="{144BDA4A-6CCF-094D-8B47-C4994B28C9F4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_65_COVID-19(1)" connectionId="14" xr16:uid="{1F7FC7F3-ADF7-CE4C-A901-C09AA03AA932}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_72_COVID-19(1)" connectionId="21" xr16:uid="{1488C0E5-7AB9-C44D-8BE2-997243B88982}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_75_COVID-19(1)" connectionId="24" xr16:uid="{D7A38836-E0C5-5046-B8FD-EF82AA804006}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_71_COVID-19(1)" connectionId="20" xr16:uid="{E40B0E49-9F2B-2549-8124-9C24FFB9F4B1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_64_COVID-19(1)" connectionId="13" xr16:uid="{24F5186E-14BA-4941-BB1A-F21AEE9F7F07}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_66_COVID-19(1)" connectionId="15" xr16:uid="{784FDDA9-F525-C54F-BA21-682143B55347}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_62_COVID-19(1)" connectionId="11" xr16:uid="{789174F4-7737-BE4C-9685-F15607B8C828}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_60_COVID-19(1)" connectionId="8" xr16:uid="{C2F0088C-0355-9A48-BE55-175198337C67}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_68_COVID-19(1)" connectionId="17" xr16:uid="{15D6F25C-3F4D-0947-8994-7F669D041C1F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_53_COVID-19" connectionId="2" xr16:uid="{31483431-2B39-A440-9E59-C26E082912EA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(2)_1" connectionId="10" xr16:uid="{252D0C3F-8429-6D40-AFE6-2BAFDCF71E62}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_70_COVID-19(1)" connectionId="19" xr16:uid="{F30EDCDD-4769-4442-A6A9-407F59F6429F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_57_COVID-19(1)" connectionId="6" xr16:uid="{78E004BB-228B-5143-9AFE-91688C440A41}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_59_COVID-19(1)" connectionId="7" xr16:uid="{6E93CE4F-1115-D449-959A-2A7263C31ABC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_56_COVID-19(1)" connectionId="5" xr16:uid="{C5B10145-DA18-EE44-A918-E407BEA443E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_74_COVID-19(1)" connectionId="23" xr16:uid="{486A1335-E13C-A646-B386-9ED2A72BEEE6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_52_COVID-19" connectionId="1" xr16:uid="{35D81D28-1058-4347-9DE2-5F2763DAC2A4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_54_COVID-19" connectionId="3" xr16:uid="{E94F4815-0D2F-454F-8291-FCBF0C165C57}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_64_COVID-19(1)" connectionId="13" xr16:uid="{24F5186E-14BA-4941-BB1A-F21AEE9F7F07}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_60_COVID-19(1)" connectionId="8" xr16:uid="{C2F0088C-0355-9A48-BE55-175198337C67}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_66_COVID-19(1)" connectionId="15" xr16:uid="{784FDDA9-F525-C54F-BA21-682143B55347}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_67_COVID-19(1)" connectionId="16" xr16:uid="{0DCC7075-52E5-6445-A2D9-0D0404D0E63E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_62_COVID-19(1)" connectionId="11" xr16:uid="{789174F4-7737-BE4C-9685-F15607B8C828}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_71_COVID-19(1)" connectionId="20" xr16:uid="{E40B0E49-9F2B-2549-8124-9C24FFB9F4B1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(2)_1" connectionId="10" xr16:uid="{252D0C3F-8429-6D40-AFE6-2BAFDCF71E62}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_56_COVID-19(1)" connectionId="5" xr16:uid="{C5B10145-DA18-EE44-A918-E407BEA443E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_55_COVID-19" connectionId="4" xr16:uid="{10575DCA-3AE8-5C4C-A970-60205B471337}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_73_COVID-19(1)" connectionId="22" xr16:uid="{144BDA4A-6CCF-094D-8B47-C4994B28C9F4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_70_COVID-19(1)" connectionId="19" xr16:uid="{F30EDCDD-4769-4442-A6A9-407F59F6429F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_69_COVID-19(1)" connectionId="18" xr16:uid="{43D60223-767A-964E-8CC2-E64E5ACAFF9F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(1)" connectionId="9" xr16:uid="{C813FA0B-4B7A-0743-B527-E10C07F0E6C8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_72_COVID-19(1)" connectionId="21" xr16:uid="{1488C0E5-7AB9-C44D-8BE2-997243B88982}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_53_COVID-19" connectionId="2" xr16:uid="{31483431-2B39-A440-9E59-C26E082912EA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_59_COVID-19(1)" connectionId="7" xr16:uid="{6E93CE4F-1115-D449-959A-2A7263C31ABC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_54_COVID-19" connectionId="3" xr16:uid="{E94F4815-0D2F-454F-8291-FCBF0C165C57}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_67_COVID-19(1)" connectionId="16" xr16:uid="{0DCC7075-52E5-6445-A2D9-0D0404D0E63E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -992,15 +1012,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973FFFC2-62D5-A048-8409-BF1FADA21B40}">
-  <dimension ref="A1:T470"/>
+  <dimension ref="A1:T490"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A443" workbookViewId="0">
-      <selection activeCell="E451" sqref="E451"/>
+    <sheetView tabSelected="1" topLeftCell="A454" workbookViewId="0">
+      <selection activeCell="E476" sqref="E476"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
@@ -16797,7 +16817,7 @@
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A450" s="2">
-        <v>43934</v>
+        <v>43933</v>
       </c>
       <c r="B450" t="s">
         <v>10</v>
@@ -17528,6 +17548,706 @@
       </c>
       <c r="K470">
         <v>33.6</v>
+      </c>
+    </row>
+    <row r="471" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A471" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B471" t="s">
+        <v>9</v>
+      </c>
+      <c r="C471" t="s">
+        <v>0</v>
+      </c>
+      <c r="D471">
+        <v>177</v>
+      </c>
+      <c r="E471">
+        <v>57</v>
+      </c>
+      <c r="F471">
+        <v>0.2</v>
+      </c>
+      <c r="G471">
+        <v>1</v>
+      </c>
+      <c r="H471">
+        <v>0</v>
+      </c>
+      <c r="I471">
+        <v>1</v>
+      </c>
+      <c r="J471">
+        <v>0</v>
+      </c>
+      <c r="K471">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="472" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A472" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B472" t="s">
+        <v>9</v>
+      </c>
+      <c r="C472" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D472">
+        <v>361</v>
+      </c>
+      <c r="E472">
+        <v>73</v>
+      </c>
+      <c r="F472">
+        <v>0.3</v>
+      </c>
+      <c r="G472">
+        <v>2</v>
+      </c>
+      <c r="H472">
+        <v>0.1</v>
+      </c>
+      <c r="I472">
+        <v>1</v>
+      </c>
+      <c r="J472">
+        <v>0</v>
+      </c>
+      <c r="K472">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="473" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A473" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B473" t="s">
+        <v>9</v>
+      </c>
+      <c r="C473" t="s">
+        <v>1</v>
+      </c>
+      <c r="D473" s="3">
+        <v>4094</v>
+      </c>
+      <c r="E473">
+        <v>463</v>
+      </c>
+      <c r="F473">
+        <v>1.9</v>
+      </c>
+      <c r="G473">
+        <v>18</v>
+      </c>
+      <c r="H473">
+        <v>0.8</v>
+      </c>
+      <c r="I473">
+        <v>5</v>
+      </c>
+      <c r="J473">
+        <v>0.1</v>
+      </c>
+      <c r="K473">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A474" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B474" t="s">
+        <v>9</v>
+      </c>
+      <c r="C474" t="s">
+        <v>2</v>
+      </c>
+      <c r="D474" s="3">
+        <v>7125</v>
+      </c>
+      <c r="E474" s="3">
+        <v>1136</v>
+      </c>
+      <c r="F474">
+        <v>4.7</v>
+      </c>
+      <c r="G474">
+        <v>47</v>
+      </c>
+      <c r="H474">
+        <v>2</v>
+      </c>
+      <c r="I474">
+        <v>15</v>
+      </c>
+      <c r="J474">
+        <v>0.4</v>
+      </c>
+      <c r="K474">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="475" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A475" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B475" t="s">
+        <v>9</v>
+      </c>
+      <c r="C475" t="s">
+        <v>3</v>
+      </c>
+      <c r="D475" s="3">
+        <v>10236</v>
+      </c>
+      <c r="E475" s="3">
+        <v>2202</v>
+      </c>
+      <c r="F475">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G475">
+        <v>104</v>
+      </c>
+      <c r="H475">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I475">
+        <v>39</v>
+      </c>
+      <c r="J475">
+        <v>1</v>
+      </c>
+      <c r="K475">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="476" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A476" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B476" t="s">
+        <v>9</v>
+      </c>
+      <c r="C476" t="s">
+        <v>4</v>
+      </c>
+      <c r="D476" s="3">
+        <v>12409</v>
+      </c>
+      <c r="E476" s="3">
+        <v>3562</v>
+      </c>
+      <c r="F476">
+        <v>14.8</v>
+      </c>
+      <c r="G476">
+        <v>223</v>
+      </c>
+      <c r="H476">
+        <v>9.5</v>
+      </c>
+      <c r="I476">
+        <v>89</v>
+      </c>
+      <c r="J476">
+        <v>2.4</v>
+      </c>
+      <c r="K476">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="477" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A477" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B477" t="s">
+        <v>9</v>
+      </c>
+      <c r="C477" t="s">
+        <v>5</v>
+      </c>
+      <c r="D477" s="3">
+        <v>9332</v>
+      </c>
+      <c r="E477" s="3">
+        <v>4515</v>
+      </c>
+      <c r="F477">
+        <v>18.8</v>
+      </c>
+      <c r="G477">
+        <v>395</v>
+      </c>
+      <c r="H477">
+        <v>16.7</v>
+      </c>
+      <c r="I477">
+        <v>264</v>
+      </c>
+      <c r="J477">
+        <v>7</v>
+      </c>
+      <c r="K477">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="478" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A478" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B478" t="s">
+        <v>9</v>
+      </c>
+      <c r="C478" t="s">
+        <v>6</v>
+      </c>
+      <c r="D478" s="3">
+        <v>8069</v>
+      </c>
+      <c r="E478" s="3">
+        <v>5434</v>
+      </c>
+      <c r="F478">
+        <v>22.6</v>
+      </c>
+      <c r="G478">
+        <v>667</v>
+      </c>
+      <c r="H478">
+        <v>28.3</v>
+      </c>
+      <c r="I478">
+        <v>778</v>
+      </c>
+      <c r="J478">
+        <v>20.8</v>
+      </c>
+      <c r="K478">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="479" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A479" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B479" t="s">
+        <v>9</v>
+      </c>
+      <c r="C479" t="s">
+        <v>12</v>
+      </c>
+      <c r="D479" s="3">
+        <v>8830</v>
+      </c>
+      <c r="E479" s="3">
+        <v>4938</v>
+      </c>
+      <c r="F479">
+        <v>20.6</v>
+      </c>
+      <c r="G479">
+        <v>647</v>
+      </c>
+      <c r="H479">
+        <v>27.4</v>
+      </c>
+      <c r="I479" s="3">
+        <v>1653</v>
+      </c>
+      <c r="J479">
+        <v>44.1</v>
+      </c>
+      <c r="K479">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="480" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A480" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B480" t="s">
+        <v>9</v>
+      </c>
+      <c r="C480" t="s">
+        <v>13</v>
+      </c>
+      <c r="D480" s="3">
+        <v>4144</v>
+      </c>
+      <c r="E480" s="3">
+        <v>1646</v>
+      </c>
+      <c r="F480">
+        <v>6.9</v>
+      </c>
+      <c r="G480">
+        <v>255</v>
+      </c>
+      <c r="H480">
+        <v>10.8</v>
+      </c>
+      <c r="I480">
+        <v>901</v>
+      </c>
+      <c r="J480">
+        <v>24.1</v>
+      </c>
+      <c r="K480">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="481" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A481" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B481" t="s">
+        <v>10</v>
+      </c>
+      <c r="C481" t="s">
+        <v>0</v>
+      </c>
+      <c r="D481">
+        <v>205</v>
+      </c>
+      <c r="E481">
+        <v>80</v>
+      </c>
+      <c r="F481">
+        <v>0.2</v>
+      </c>
+      <c r="G481">
+        <v>14</v>
+      </c>
+      <c r="H481">
+        <v>0.4</v>
+      </c>
+      <c r="I481">
+        <v>0</v>
+      </c>
+      <c r="J481">
+        <v>0</v>
+      </c>
+      <c r="K481">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A482" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B482" t="s">
+        <v>10</v>
+      </c>
+      <c r="C482" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D482">
+        <v>321</v>
+      </c>
+      <c r="E482">
+        <v>59</v>
+      </c>
+      <c r="F482">
+        <v>0.2</v>
+      </c>
+      <c r="G482">
+        <v>4</v>
+      </c>
+      <c r="H482">
+        <v>0.1</v>
+      </c>
+      <c r="I482">
+        <v>0</v>
+      </c>
+      <c r="J482">
+        <v>0</v>
+      </c>
+      <c r="K482">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A483" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B483" t="s">
+        <v>10</v>
+      </c>
+      <c r="C483" t="s">
+        <v>1</v>
+      </c>
+      <c r="D483" s="3">
+        <v>2192</v>
+      </c>
+      <c r="E483">
+        <v>448</v>
+      </c>
+      <c r="F483">
+        <v>1.4</v>
+      </c>
+      <c r="G483">
+        <v>32</v>
+      </c>
+      <c r="H483">
+        <v>0.9</v>
+      </c>
+      <c r="I483">
+        <v>12</v>
+      </c>
+      <c r="J483">
+        <v>0.2</v>
+      </c>
+      <c r="K483">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="484" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A484" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B484" t="s">
+        <v>10</v>
+      </c>
+      <c r="C484" t="s">
+        <v>2</v>
+      </c>
+      <c r="D484" s="3">
+        <v>4626</v>
+      </c>
+      <c r="E484" s="3">
+        <v>1279</v>
+      </c>
+      <c r="F484">
+        <v>3.9</v>
+      </c>
+      <c r="G484">
+        <v>107</v>
+      </c>
+      <c r="H484">
+        <v>3.1</v>
+      </c>
+      <c r="I484">
+        <v>21</v>
+      </c>
+      <c r="J484">
+        <v>0.4</v>
+      </c>
+      <c r="K484">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="485" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A485" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B485" t="s">
+        <v>10</v>
+      </c>
+      <c r="C485" t="s">
+        <v>3</v>
+      </c>
+      <c r="D485" s="3">
+        <v>8149</v>
+      </c>
+      <c r="E485" s="3">
+        <v>3312</v>
+      </c>
+      <c r="F485">
+        <v>10</v>
+      </c>
+      <c r="G485">
+        <v>309</v>
+      </c>
+      <c r="H485">
+        <v>9</v>
+      </c>
+      <c r="I485">
+        <v>74</v>
+      </c>
+      <c r="J485">
+        <v>1.3</v>
+      </c>
+      <c r="K485">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="486" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A486" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B486" t="s">
+        <v>10</v>
+      </c>
+      <c r="C486" t="s">
+        <v>4</v>
+      </c>
+      <c r="D486" s="3">
+        <v>10432</v>
+      </c>
+      <c r="E486" s="3">
+        <v>5401</v>
+      </c>
+      <c r="F486">
+        <v>16.3</v>
+      </c>
+      <c r="G486">
+        <v>682</v>
+      </c>
+      <c r="H486">
+        <v>19.8</v>
+      </c>
+      <c r="I486">
+        <v>195</v>
+      </c>
+      <c r="J486">
+        <v>3.4</v>
+      </c>
+      <c r="K486">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="487" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A487" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B487" t="s">
+        <v>10</v>
+      </c>
+      <c r="C487" t="s">
+        <v>5</v>
+      </c>
+      <c r="D487" s="3">
+        <v>10802</v>
+      </c>
+      <c r="E487" s="3">
+        <v>6991</v>
+      </c>
+      <c r="F487">
+        <v>21.1</v>
+      </c>
+      <c r="G487" s="3">
+        <v>1132</v>
+      </c>
+      <c r="H487">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="I487">
+        <v>644</v>
+      </c>
+      <c r="J487">
+        <v>11.2</v>
+      </c>
+      <c r="K487">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="488" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A488" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B488" t="s">
+        <v>10</v>
+      </c>
+      <c r="C488" t="s">
+        <v>6</v>
+      </c>
+      <c r="D488" s="3">
+        <v>10970</v>
+      </c>
+      <c r="E488" s="3">
+        <v>8328</v>
+      </c>
+      <c r="F488">
+        <v>25.2</v>
+      </c>
+      <c r="G488" s="3">
+        <v>1070</v>
+      </c>
+      <c r="H488">
+        <v>31.1</v>
+      </c>
+      <c r="I488" s="3">
+        <v>1842</v>
+      </c>
+      <c r="J488">
+        <v>31.9</v>
+      </c>
+      <c r="K488">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="489" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A489" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B489" t="s">
+        <v>10</v>
+      </c>
+      <c r="C489" t="s">
+        <v>12</v>
+      </c>
+      <c r="D489" s="3">
+        <v>8132</v>
+      </c>
+      <c r="E489" s="3">
+        <v>5886</v>
+      </c>
+      <c r="F489">
+        <v>17.8</v>
+      </c>
+      <c r="G489">
+        <v>87</v>
+      </c>
+      <c r="H489">
+        <v>2.5</v>
+      </c>
+      <c r="I489" s="3">
+        <v>2291</v>
+      </c>
+      <c r="J489">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="K489">
+        <v>28.2</v>
+      </c>
+    </row>
+    <row r="490" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A490" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B490" t="s">
+        <v>10</v>
+      </c>
+      <c r="C490" t="s">
+        <v>13</v>
+      </c>
+      <c r="D490" s="3">
+        <v>2191</v>
+      </c>
+      <c r="E490" s="3">
+        <v>1282</v>
+      </c>
+      <c r="F490">
+        <v>3.9</v>
+      </c>
+      <c r="G490">
+        <v>9</v>
+      </c>
+      <c r="H490">
+        <v>0.3</v>
+      </c>
+      <c r="I490">
+        <v>695</v>
+      </c>
+      <c r="J490">
+        <v>12</v>
+      </c>
+      <c r="K490">
+        <v>31.7</v>
       </c>
     </row>
   </sheetData>

--- a/data/Covid-19_data_sexage.xlsx
+++ b/data/Covid-19_data_sexage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanjosevidal/Google Drive/Projects/Covid-19/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A463966-A672-6C41-A494-C1CE98AE9701}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8832AACF-BF29-4E49-82F3-127799A6F6F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{C24317C9-D1BD-7248-BEC1-07839536F6EA}"/>
   </bookViews>
@@ -42,6 +42,7 @@
     <definedName name="tabula_Actualizacion_74_COVID_19_1" localSheetId="0">Data!$C$431:$K$450</definedName>
     <definedName name="tabula_Actualizacion_75_COVID_19_1" localSheetId="0">Data!$C$451:$K$470</definedName>
     <definedName name="tabula_Actualizacion_76_COVID_19_2" localSheetId="0">Data!$C$471:$K$490</definedName>
+    <definedName name="tabula_Actualizacion_77_COVID_19_2" localSheetId="0">Data!$C$491:$K$510</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -420,7 +421,22 @@
     </textPr>
   </connection>
   <connection id="25" xr16:uid="{AA55B43A-6669-3349-88E7-2C63E39C369C}" name="tabula-Actualizacion_76_COVID-19(2)" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_76_COVID-19(2).csv" decimal="," thousands="." comma="1">
+    <textPr sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_76_COVID-19(2).csv" decimal="," thousands="." comma="1">
+      <textFields count="9">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="26" xr16:uid="{31DBD363-9AEB-E24E-9EA5-B2B5E91D4C2B}" name="tabula-Actualizacion_77_COVID-19(2)" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_77_COVID-19(2).csv" decimal="," thousands="." comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -438,7 +454,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="26">
   <si>
     <t>0-9</t>
   </si>
@@ -616,51 +632,51 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_77_COVID-19(2)" connectionId="26" xr16:uid="{B46FF584-84EC-AE4D-BCE8-171BFEBEEDEE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_59_COVID-19(1)" connectionId="7" xr16:uid="{6E93CE4F-1115-D449-959A-2A7263C31ABC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_64_COVID-19(1)" connectionId="13" xr16:uid="{24F5186E-14BA-4941-BB1A-F21AEE9F7F07}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_63_COVID-19(1)" connectionId="12" xr16:uid="{EFDFC980-4B86-C948-B035-B2786B80754E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_53_COVID-19" connectionId="2" xr16:uid="{31483431-2B39-A440-9E59-C26E082912EA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_65_COVID-19(1)" connectionId="14" xr16:uid="{1F7FC7F3-ADF7-CE4C-A901-C09AA03AA932}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_56_COVID-19(1)" connectionId="5" xr16:uid="{C5B10145-DA18-EE44-A918-E407BEA443E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(2)_1" connectionId="10" xr16:uid="{252D0C3F-8429-6D40-AFE6-2BAFDCF71E62}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_55_COVID-19" connectionId="4" xr16:uid="{10575DCA-3AE8-5C4C-A970-60205B471337}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_74_COVID-19(1)" connectionId="23" xr16:uid="{486A1335-E13C-A646-B386-9ED2A72BEEE6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_76_COVID-19(2)" connectionId="25" xr16:uid="{70AE20FA-7C65-AC4F-B077-971D1C6A5B94}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_63_COVID-19(1)" connectionId="12" xr16:uid="{EFDFC980-4B86-C948-B035-B2786B80754E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_55_COVID-19" connectionId="4" xr16:uid="{10575DCA-3AE8-5C4C-A970-60205B471337}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_52_COVID-19" connectionId="1" xr16:uid="{35D81D28-1058-4347-9DE2-5F2763DAC2A4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(1)" connectionId="9" xr16:uid="{C813FA0B-4B7A-0743-B527-E10C07F0E6C8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_73_COVID-19(1)" connectionId="22" xr16:uid="{144BDA4A-6CCF-094D-8B47-C4994B28C9F4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_65_COVID-19(1)" connectionId="14" xr16:uid="{1F7FC7F3-ADF7-CE4C-A901-C09AA03AA932}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_72_COVID-19(1)" connectionId="21" xr16:uid="{1488C0E5-7AB9-C44D-8BE2-997243B88982}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_75_COVID-19(1)" connectionId="24" xr16:uid="{D7A38836-E0C5-5046-B8FD-EF82AA804006}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_71_COVID-19(1)" connectionId="20" xr16:uid="{E40B0E49-9F2B-2549-8124-9C24FFB9F4B1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_64_COVID-19(1)" connectionId="13" xr16:uid="{24F5186E-14BA-4941-BB1A-F21AEE9F7F07}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_66_COVID-19(1)" connectionId="15" xr16:uid="{784FDDA9-F525-C54F-BA21-682143B55347}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_60_COVID-19(1)" connectionId="8" xr16:uid="{C2F0088C-0355-9A48-BE55-175198337C67}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
@@ -668,23 +684,27 @@
 </file>
 
 <file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_60_COVID-19(1)" connectionId="8" xr16:uid="{C2F0088C-0355-9A48-BE55-175198337C67}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_72_COVID-19(1)" connectionId="21" xr16:uid="{1488C0E5-7AB9-C44D-8BE2-997243B88982}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_68_COVID-19(1)" connectionId="17" xr16:uid="{15D6F25C-3F4D-0947-8994-7F669D041C1F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_66_COVID-19(1)" connectionId="15" xr16:uid="{784FDDA9-F525-C54F-BA21-682143B55347}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_53_COVID-19" connectionId="2" xr16:uid="{31483431-2B39-A440-9E59-C26E082912EA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_70_COVID-19(1)" connectionId="19" xr16:uid="{F30EDCDD-4769-4442-A6A9-407F59F6429F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(2)_1" connectionId="10" xr16:uid="{252D0C3F-8429-6D40-AFE6-2BAFDCF71E62}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_75_COVID-19(1)" connectionId="24" xr16:uid="{D7A38836-E0C5-5046-B8FD-EF82AA804006}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_70_COVID-19(1)" connectionId="19" xr16:uid="{F30EDCDD-4769-4442-A6A9-407F59F6429F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_52_COVID-19" connectionId="1" xr16:uid="{35D81D28-1058-4347-9DE2-5F2763DAC2A4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_54_COVID-19" connectionId="3" xr16:uid="{E94F4815-0D2F-454F-8291-FCBF0C165C57}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -692,23 +712,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_59_COVID-19(1)" connectionId="7" xr16:uid="{6E93CE4F-1115-D449-959A-2A7263C31ABC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_71_COVID-19(1)" connectionId="20" xr16:uid="{E40B0E49-9F2B-2549-8124-9C24FFB9F4B1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_56_COVID-19(1)" connectionId="5" xr16:uid="{C5B10145-DA18-EE44-A918-E407BEA443E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(1)" connectionId="9" xr16:uid="{C813FA0B-4B7A-0743-B527-E10C07F0E6C8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_74_COVID-19(1)" connectionId="23" xr16:uid="{486A1335-E13C-A646-B386-9ED2A72BEEE6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_69_COVID-19(1)" connectionId="18" xr16:uid="{43D60223-767A-964E-8CC2-E64E5ACAFF9F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_54_COVID-19" connectionId="3" xr16:uid="{E94F4815-0D2F-454F-8291-FCBF0C165C57}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_68_COVID-19(1)" connectionId="17" xr16:uid="{15D6F25C-3F4D-0947-8994-7F669D041C1F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_69_COVID-19(1)" connectionId="18" xr16:uid="{43D60223-767A-964E-8CC2-E64E5ACAFF9F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_73_COVID-19(1)" connectionId="22" xr16:uid="{144BDA4A-6CCF-094D-8B47-C4994B28C9F4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1012,10 +1032,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973FFFC2-62D5-A048-8409-BF1FADA21B40}">
-  <dimension ref="A1:T490"/>
+  <dimension ref="A1:T510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A454" workbookViewId="0">
-      <selection activeCell="E476" sqref="E476"/>
+    <sheetView tabSelected="1" topLeftCell="A472" workbookViewId="0">
+      <selection activeCell="Q496" sqref="Q496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18250,6 +18270,706 @@
         <v>31.7</v>
       </c>
     </row>
+    <row r="491" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A491" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B491" t="s">
+        <v>9</v>
+      </c>
+      <c r="C491" t="s">
+        <v>0</v>
+      </c>
+      <c r="D491">
+        <v>199</v>
+      </c>
+      <c r="E491">
+        <v>63</v>
+      </c>
+      <c r="F491">
+        <v>0.2</v>
+      </c>
+      <c r="G491">
+        <v>1</v>
+      </c>
+      <c r="H491">
+        <v>0</v>
+      </c>
+      <c r="I491">
+        <v>1</v>
+      </c>
+      <c r="J491">
+        <v>0</v>
+      </c>
+      <c r="K491">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="492" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A492" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B492" t="s">
+        <v>9</v>
+      </c>
+      <c r="C492" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D492">
+        <v>392</v>
+      </c>
+      <c r="E492">
+        <v>77</v>
+      </c>
+      <c r="F492">
+        <v>0.3</v>
+      </c>
+      <c r="G492">
+        <v>2</v>
+      </c>
+      <c r="H492">
+        <v>0.1</v>
+      </c>
+      <c r="I492">
+        <v>1</v>
+      </c>
+      <c r="J492">
+        <v>0</v>
+      </c>
+      <c r="K492">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="493" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A493" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B493" t="s">
+        <v>9</v>
+      </c>
+      <c r="C493" t="s">
+        <v>1</v>
+      </c>
+      <c r="D493" s="3">
+        <v>4428</v>
+      </c>
+      <c r="E493">
+        <v>488</v>
+      </c>
+      <c r="F493">
+        <v>1.9</v>
+      </c>
+      <c r="G493">
+        <v>19</v>
+      </c>
+      <c r="H493">
+        <v>0.8</v>
+      </c>
+      <c r="I493">
+        <v>5</v>
+      </c>
+      <c r="J493">
+        <v>0.1</v>
+      </c>
+      <c r="K493">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A494" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B494" t="s">
+        <v>9</v>
+      </c>
+      <c r="C494" t="s">
+        <v>2</v>
+      </c>
+      <c r="D494" s="3">
+        <v>7623</v>
+      </c>
+      <c r="E494" s="3">
+        <v>1172</v>
+      </c>
+      <c r="F494">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G494">
+        <v>48</v>
+      </c>
+      <c r="H494">
+        <v>2</v>
+      </c>
+      <c r="I494">
+        <v>16</v>
+      </c>
+      <c r="J494">
+        <v>0.4</v>
+      </c>
+      <c r="K494">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="495" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A495" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B495" t="s">
+        <v>9</v>
+      </c>
+      <c r="C495" t="s">
+        <v>3</v>
+      </c>
+      <c r="D495" s="3">
+        <v>10990</v>
+      </c>
+      <c r="E495" s="3">
+        <v>2296</v>
+      </c>
+      <c r="F495">
+        <v>9</v>
+      </c>
+      <c r="G495">
+        <v>115</v>
+      </c>
+      <c r="H495">
+        <v>4.8</v>
+      </c>
+      <c r="I495">
+        <v>42</v>
+      </c>
+      <c r="J495">
+        <v>1</v>
+      </c>
+      <c r="K495">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="496" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A496" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B496" t="s">
+        <v>9</v>
+      </c>
+      <c r="C496" t="s">
+        <v>4</v>
+      </c>
+      <c r="D496" s="3">
+        <v>13434</v>
+      </c>
+      <c r="E496" s="3">
+        <v>3760</v>
+      </c>
+      <c r="F496">
+        <v>14.8</v>
+      </c>
+      <c r="G496">
+        <v>240</v>
+      </c>
+      <c r="H496">
+        <v>9.9</v>
+      </c>
+      <c r="I496">
+        <v>102</v>
+      </c>
+      <c r="J496">
+        <v>2.4</v>
+      </c>
+      <c r="K496">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="497" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A497" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B497" t="s">
+        <v>9</v>
+      </c>
+      <c r="C497" t="s">
+        <v>5</v>
+      </c>
+      <c r="D497" s="3">
+        <v>9858</v>
+      </c>
+      <c r="E497" s="3">
+        <v>4688</v>
+      </c>
+      <c r="F497">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="G497">
+        <v>410</v>
+      </c>
+      <c r="H497">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="I497">
+        <v>282</v>
+      </c>
+      <c r="J497">
+        <v>6.5</v>
+      </c>
+      <c r="K497">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="498" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A498" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B498" t="s">
+        <v>9</v>
+      </c>
+      <c r="C498" t="s">
+        <v>6</v>
+      </c>
+      <c r="D498" s="3">
+        <v>8664</v>
+      </c>
+      <c r="E498" s="3">
+        <v>5682</v>
+      </c>
+      <c r="F498">
+        <v>22.3</v>
+      </c>
+      <c r="G498">
+        <v>681</v>
+      </c>
+      <c r="H498">
+        <v>28.1</v>
+      </c>
+      <c r="I498">
+        <v>850</v>
+      </c>
+      <c r="J498">
+        <v>19.7</v>
+      </c>
+      <c r="K498">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="499" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A499" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B499" t="s">
+        <v>9</v>
+      </c>
+      <c r="C499" t="s">
+        <v>12</v>
+      </c>
+      <c r="D499" s="3">
+        <v>10328</v>
+      </c>
+      <c r="E499" s="3">
+        <v>5380</v>
+      </c>
+      <c r="F499">
+        <v>21.1</v>
+      </c>
+      <c r="G499">
+        <v>648</v>
+      </c>
+      <c r="H499">
+        <v>26.8</v>
+      </c>
+      <c r="I499" s="3">
+        <v>1902</v>
+      </c>
+      <c r="J499">
+        <v>44.1</v>
+      </c>
+      <c r="K499">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="500" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A500" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B500" t="s">
+        <v>9</v>
+      </c>
+      <c r="C500" t="s">
+        <v>13</v>
+      </c>
+      <c r="D500" s="3">
+        <v>5264</v>
+      </c>
+      <c r="E500" s="3">
+        <v>1872</v>
+      </c>
+      <c r="F500">
+        <v>7.3</v>
+      </c>
+      <c r="G500">
+        <v>256</v>
+      </c>
+      <c r="H500">
+        <v>10.6</v>
+      </c>
+      <c r="I500" s="3">
+        <v>1115</v>
+      </c>
+      <c r="J500">
+        <v>25.8</v>
+      </c>
+      <c r="K500">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="501" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A501" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B501" t="s">
+        <v>10</v>
+      </c>
+      <c r="C501" t="s">
+        <v>0</v>
+      </c>
+      <c r="D501">
+        <v>224</v>
+      </c>
+      <c r="E501">
+        <v>88</v>
+      </c>
+      <c r="F501">
+        <v>0.3</v>
+      </c>
+      <c r="G501">
+        <v>13</v>
+      </c>
+      <c r="H501">
+        <v>0.4</v>
+      </c>
+      <c r="I501">
+        <v>0</v>
+      </c>
+      <c r="J501">
+        <v>0</v>
+      </c>
+      <c r="K501">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A502" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B502" t="s">
+        <v>10</v>
+      </c>
+      <c r="C502" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D502">
+        <v>342</v>
+      </c>
+      <c r="E502">
+        <v>66</v>
+      </c>
+      <c r="F502">
+        <v>0.2</v>
+      </c>
+      <c r="G502">
+        <v>5</v>
+      </c>
+      <c r="H502">
+        <v>0.1</v>
+      </c>
+      <c r="I502">
+        <v>1</v>
+      </c>
+      <c r="J502">
+        <v>0</v>
+      </c>
+      <c r="K502">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="503" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A503" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B503" t="s">
+        <v>10</v>
+      </c>
+      <c r="C503" t="s">
+        <v>1</v>
+      </c>
+      <c r="D503" s="3">
+        <v>2331</v>
+      </c>
+      <c r="E503">
+        <v>467</v>
+      </c>
+      <c r="F503">
+        <v>1.3</v>
+      </c>
+      <c r="G503">
+        <v>32</v>
+      </c>
+      <c r="H503">
+        <v>0.9</v>
+      </c>
+      <c r="I503">
+        <v>14</v>
+      </c>
+      <c r="J503">
+        <v>0.2</v>
+      </c>
+      <c r="K503">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="504" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A504" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B504" t="s">
+        <v>10</v>
+      </c>
+      <c r="C504" t="s">
+        <v>2</v>
+      </c>
+      <c r="D504" s="3">
+        <v>4843</v>
+      </c>
+      <c r="E504" s="3">
+        <v>1318</v>
+      </c>
+      <c r="F504">
+        <v>3.8</v>
+      </c>
+      <c r="G504">
+        <v>113</v>
+      </c>
+      <c r="H504">
+        <v>3.1</v>
+      </c>
+      <c r="I504">
+        <v>22</v>
+      </c>
+      <c r="J504">
+        <v>0.3</v>
+      </c>
+      <c r="K504">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="505" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A505" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B505" t="s">
+        <v>10</v>
+      </c>
+      <c r="C505" t="s">
+        <v>3</v>
+      </c>
+      <c r="D505" s="3">
+        <v>8543</v>
+      </c>
+      <c r="E505" s="3">
+        <v>3441</v>
+      </c>
+      <c r="F505">
+        <v>9.9</v>
+      </c>
+      <c r="G505">
+        <v>319</v>
+      </c>
+      <c r="H505">
+        <v>8.9</v>
+      </c>
+      <c r="I505">
+        <v>78</v>
+      </c>
+      <c r="J505">
+        <v>1.2</v>
+      </c>
+      <c r="K505">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="506" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A506" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B506" t="s">
+        <v>10</v>
+      </c>
+      <c r="C506" t="s">
+        <v>4</v>
+      </c>
+      <c r="D506" s="3">
+        <v>11034</v>
+      </c>
+      <c r="E506" s="3">
+        <v>5646</v>
+      </c>
+      <c r="F506">
+        <v>16.2</v>
+      </c>
+      <c r="G506">
+        <v>715</v>
+      </c>
+      <c r="H506">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="I506">
+        <v>210</v>
+      </c>
+      <c r="J506">
+        <v>3.3</v>
+      </c>
+      <c r="K506">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="507" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A507" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B507" t="s">
+        <v>10</v>
+      </c>
+      <c r="C507" t="s">
+        <v>5</v>
+      </c>
+      <c r="D507" s="3">
+        <v>11390</v>
+      </c>
+      <c r="E507" s="3">
+        <v>7344</v>
+      </c>
+      <c r="F507">
+        <v>21.1</v>
+      </c>
+      <c r="G507" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H507">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="I507">
+        <v>697</v>
+      </c>
+      <c r="J507">
+        <v>10.9</v>
+      </c>
+      <c r="K507">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A508" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B508" t="s">
+        <v>10</v>
+      </c>
+      <c r="C508" t="s">
+        <v>6</v>
+      </c>
+      <c r="D508" s="3">
+        <v>11620</v>
+      </c>
+      <c r="E508" s="3">
+        <v>8721</v>
+      </c>
+      <c r="F508">
+        <v>25.1</v>
+      </c>
+      <c r="G508" s="3">
+        <v>1102</v>
+      </c>
+      <c r="H508">
+        <v>30.6</v>
+      </c>
+      <c r="I508" s="3">
+        <v>2005</v>
+      </c>
+      <c r="J508">
+        <v>31.4</v>
+      </c>
+      <c r="K508">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="509" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A509" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B509" t="s">
+        <v>10</v>
+      </c>
+      <c r="C509" t="s">
+        <v>12</v>
+      </c>
+      <c r="D509" s="3">
+        <v>8989</v>
+      </c>
+      <c r="E509" s="3">
+        <v>6304</v>
+      </c>
+      <c r="F509">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="G509">
+        <v>93</v>
+      </c>
+      <c r="H509">
+        <v>2.6</v>
+      </c>
+      <c r="I509" s="3">
+        <v>2554</v>
+      </c>
+      <c r="J509">
+        <v>40</v>
+      </c>
+      <c r="K509">
+        <v>28.4</v>
+      </c>
+    </row>
+    <row r="510" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A510" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B510" t="s">
+        <v>10</v>
+      </c>
+      <c r="C510" t="s">
+        <v>13</v>
+      </c>
+      <c r="D510" s="3">
+        <v>2572</v>
+      </c>
+      <c r="E510" s="3">
+        <v>1410</v>
+      </c>
+      <c r="F510">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G510">
+        <v>9</v>
+      </c>
+      <c r="H510">
+        <v>0.2</v>
+      </c>
+      <c r="I510">
+        <v>811</v>
+      </c>
+      <c r="J510">
+        <v>12.7</v>
+      </c>
+      <c r="K510">
+        <v>31.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Covid-19_data_sexage.xlsx
+++ b/data/Covid-19_data_sexage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanjosevidal/Google Drive/Projects/Covid-19/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8832AACF-BF29-4E49-82F3-127799A6F6F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C710480C-F086-E144-86E6-25F9F9482B80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{C24317C9-D1BD-7248-BEC1-07839536F6EA}"/>
   </bookViews>
@@ -43,6 +43,7 @@
     <definedName name="tabula_Actualizacion_75_COVID_19_1" localSheetId="0">Data!$C$451:$K$470</definedName>
     <definedName name="tabula_Actualizacion_76_COVID_19_2" localSheetId="0">Data!$C$471:$K$490</definedName>
     <definedName name="tabula_Actualizacion_77_COVID_19_2" localSheetId="0">Data!$C$491:$K$510</definedName>
+    <definedName name="tabula_Actualizacion_78_COVID_19_2" localSheetId="0">Data!$C$511:$K$530</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -436,7 +437,22 @@
     </textPr>
   </connection>
   <connection id="26" xr16:uid="{31DBD363-9AEB-E24E-9EA5-B2B5E91D4C2B}" name="tabula-Actualizacion_77_COVID-19(2)" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_77_COVID-19(2).csv" decimal="," thousands="." comma="1">
+    <textPr sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_77_COVID-19(2).csv" decimal="," thousands="." comma="1">
+      <textFields count="9">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="27" xr16:uid="{DFC57172-597A-AC48-B3E6-DD954170BB9B}" name="tabula-Actualizacion_78_COVID-19(2)" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_78_COVID-19(2).csv" decimal="," thousands="." comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -454,7 +470,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="26">
   <si>
     <t>0-9</t>
   </si>
@@ -632,107 +648,111 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_78_COVID-19(2)" connectionId="27" xr16:uid="{DA1E7C1F-5CE0-764E-9BAE-85540697E15C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_56_COVID-19(1)" connectionId="5" xr16:uid="{C5B10145-DA18-EE44-A918-E407BEA443E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(1)" connectionId="9" xr16:uid="{C813FA0B-4B7A-0743-B527-E10C07F0E6C8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_75_COVID-19(1)" connectionId="24" xr16:uid="{D7A38836-E0C5-5046-B8FD-EF82AA804006}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_64_COVID-19(1)" connectionId="13" xr16:uid="{24F5186E-14BA-4941-BB1A-F21AEE9F7F07}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_69_COVID-19(1)" connectionId="18" xr16:uid="{43D60223-767A-964E-8CC2-E64E5ACAFF9F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_77_COVID-19(2)" connectionId="26" xr16:uid="{B46FF584-84EC-AE4D-BCE8-171BFEBEEDEE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_62_COVID-19(1)" connectionId="11" xr16:uid="{789174F4-7737-BE4C-9685-F15607B8C828}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(2)_1" connectionId="10" xr16:uid="{252D0C3F-8429-6D40-AFE6-2BAFDCF71E62}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_60_COVID-19(1)" connectionId="8" xr16:uid="{C2F0088C-0355-9A48-BE55-175198337C67}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_52_COVID-19" connectionId="1" xr16:uid="{35D81D28-1058-4347-9DE2-5F2763DAC2A4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_73_COVID-19(1)" connectionId="22" xr16:uid="{144BDA4A-6CCF-094D-8B47-C4994B28C9F4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_55_COVID-19" connectionId="4" xr16:uid="{10575DCA-3AE8-5C4C-A970-60205B471337}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_63_COVID-19(1)" connectionId="12" xr16:uid="{EFDFC980-4B86-C948-B035-B2786B80754E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_68_COVID-19(1)" connectionId="17" xr16:uid="{15D6F25C-3F4D-0947-8994-7F669D041C1F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_72_COVID-19(1)" connectionId="21" xr16:uid="{1488C0E5-7AB9-C44D-8BE2-997243B88982}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_57_COVID-19(1)" connectionId="6" xr16:uid="{78E004BB-228B-5143-9AFE-91688C440A41}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_54_COVID-19" connectionId="3" xr16:uid="{E94F4815-0D2F-454F-8291-FCBF0C165C57}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_74_COVID-19(1)" connectionId="23" xr16:uid="{486A1335-E13C-A646-B386-9ED2A72BEEE6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_53_COVID-19" connectionId="2" xr16:uid="{31483431-2B39-A440-9E59-C26E082912EA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_66_COVID-19(1)" connectionId="15" xr16:uid="{784FDDA9-F525-C54F-BA21-682143B55347}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_65_COVID-19(1)" connectionId="14" xr16:uid="{1F7FC7F3-ADF7-CE4C-A901-C09AA03AA932}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_67_COVID-19(1)" connectionId="16" xr16:uid="{0DCC7075-52E5-6445-A2D9-0D0404D0E63E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_71_COVID-19(1)" connectionId="20" xr16:uid="{E40B0E49-9F2B-2549-8124-9C24FFB9F4B1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_76_COVID-19(2)" connectionId="25" xr16:uid="{70AE20FA-7C65-AC4F-B077-971D1C6A5B94}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_59_COVID-19(1)" connectionId="7" xr16:uid="{6E93CE4F-1115-D449-959A-2A7263C31ABC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_64_COVID-19(1)" connectionId="13" xr16:uid="{24F5186E-14BA-4941-BB1A-F21AEE9F7F07}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_63_COVID-19(1)" connectionId="12" xr16:uid="{EFDFC980-4B86-C948-B035-B2786B80754E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_53_COVID-19" connectionId="2" xr16:uid="{31483431-2B39-A440-9E59-C26E082912EA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_65_COVID-19(1)" connectionId="14" xr16:uid="{1F7FC7F3-ADF7-CE4C-A901-C09AA03AA932}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_56_COVID-19(1)" connectionId="5" xr16:uid="{C5B10145-DA18-EE44-A918-E407BEA443E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(2)_1" connectionId="10" xr16:uid="{252D0C3F-8429-6D40-AFE6-2BAFDCF71E62}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_55_COVID-19" connectionId="4" xr16:uid="{10575DCA-3AE8-5C4C-A970-60205B471337}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_74_COVID-19(1)" connectionId="23" xr16:uid="{486A1335-E13C-A646-B386-9ED2A72BEEE6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_76_COVID-19(2)" connectionId="25" xr16:uid="{70AE20FA-7C65-AC4F-B077-971D1C6A5B94}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_60_COVID-19(1)" connectionId="8" xr16:uid="{C2F0088C-0355-9A48-BE55-175198337C67}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_62_COVID-19(1)" connectionId="11" xr16:uid="{789174F4-7737-BE4C-9685-F15607B8C828}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_72_COVID-19(1)" connectionId="21" xr16:uid="{1488C0E5-7AB9-C44D-8BE2-997243B88982}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_66_COVID-19(1)" connectionId="15" xr16:uid="{784FDDA9-F525-C54F-BA21-682143B55347}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_70_COVID-19(1)" connectionId="19" xr16:uid="{F30EDCDD-4769-4442-A6A9-407F59F6429F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_75_COVID-19(1)" connectionId="24" xr16:uid="{D7A38836-E0C5-5046-B8FD-EF82AA804006}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_52_COVID-19" connectionId="1" xr16:uid="{35D81D28-1058-4347-9DE2-5F2763DAC2A4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_54_COVID-19" connectionId="3" xr16:uid="{E94F4815-0D2F-454F-8291-FCBF0C165C57}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_57_COVID-19(1)" connectionId="6" xr16:uid="{78E004BB-228B-5143-9AFE-91688C440A41}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_71_COVID-19(1)" connectionId="20" xr16:uid="{E40B0E49-9F2B-2549-8124-9C24FFB9F4B1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(1)" connectionId="9" xr16:uid="{C813FA0B-4B7A-0743-B527-E10C07F0E6C8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_69_COVID-19(1)" connectionId="18" xr16:uid="{43D60223-767A-964E-8CC2-E64E5ACAFF9F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_68_COVID-19(1)" connectionId="17" xr16:uid="{15D6F25C-3F4D-0947-8994-7F669D041C1F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_73_COVID-19(1)" connectionId="22" xr16:uid="{144BDA4A-6CCF-094D-8B47-C4994B28C9F4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_67_COVID-19(1)" connectionId="16" xr16:uid="{0DCC7075-52E5-6445-A2D9-0D0404D0E63E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1032,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973FFFC2-62D5-A048-8409-BF1FADA21B40}">
-  <dimension ref="A1:T510"/>
+  <dimension ref="A1:T530"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A472" workbookViewId="0">
-      <selection activeCell="Q496" sqref="Q496"/>
+    <sheetView tabSelected="1" topLeftCell="A492" workbookViewId="0">
+      <selection activeCell="C511" sqref="C511"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18970,6 +18990,706 @@
         <v>31.5</v>
       </c>
     </row>
+    <row r="511" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A511" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B511" t="s">
+        <v>9</v>
+      </c>
+      <c r="C511" t="s">
+        <v>0</v>
+      </c>
+      <c r="D511">
+        <v>199</v>
+      </c>
+      <c r="E511">
+        <v>66</v>
+      </c>
+      <c r="F511">
+        <v>0.3</v>
+      </c>
+      <c r="G511">
+        <v>1</v>
+      </c>
+      <c r="H511">
+        <v>0</v>
+      </c>
+      <c r="I511">
+        <v>1</v>
+      </c>
+      <c r="J511">
+        <v>0</v>
+      </c>
+      <c r="K511">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="512" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A512" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B512" t="s">
+        <v>9</v>
+      </c>
+      <c r="C512" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D512">
+        <v>395</v>
+      </c>
+      <c r="E512">
+        <v>80</v>
+      </c>
+      <c r="F512">
+        <v>0.3</v>
+      </c>
+      <c r="G512">
+        <v>3</v>
+      </c>
+      <c r="H512">
+        <v>0.1</v>
+      </c>
+      <c r="I512">
+        <v>1</v>
+      </c>
+      <c r="J512">
+        <v>0</v>
+      </c>
+      <c r="K512">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="513" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A513" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B513" t="s">
+        <v>9</v>
+      </c>
+      <c r="C513" t="s">
+        <v>1</v>
+      </c>
+      <c r="D513" s="3">
+        <v>4501</v>
+      </c>
+      <c r="E513">
+        <v>490</v>
+      </c>
+      <c r="F513">
+        <v>1.9</v>
+      </c>
+      <c r="G513">
+        <v>19</v>
+      </c>
+      <c r="H513">
+        <v>0.8</v>
+      </c>
+      <c r="I513">
+        <v>5</v>
+      </c>
+      <c r="J513">
+        <v>0.1</v>
+      </c>
+      <c r="K513">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="514" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A514" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B514" t="s">
+        <v>9</v>
+      </c>
+      <c r="C514" t="s">
+        <v>2</v>
+      </c>
+      <c r="D514" s="3">
+        <v>7764</v>
+      </c>
+      <c r="E514" s="3">
+        <v>1195</v>
+      </c>
+      <c r="F514">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G514">
+        <v>49</v>
+      </c>
+      <c r="H514">
+        <v>2</v>
+      </c>
+      <c r="I514">
+        <v>15</v>
+      </c>
+      <c r="J514">
+        <v>0.3</v>
+      </c>
+      <c r="K514">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="515" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A515" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B515" t="s">
+        <v>9</v>
+      </c>
+      <c r="C515" t="s">
+        <v>3</v>
+      </c>
+      <c r="D515" s="3">
+        <v>11221</v>
+      </c>
+      <c r="E515" s="3">
+        <v>2341</v>
+      </c>
+      <c r="F515">
+        <v>9</v>
+      </c>
+      <c r="G515">
+        <v>117</v>
+      </c>
+      <c r="H515">
+        <v>4.8</v>
+      </c>
+      <c r="I515">
+        <v>42</v>
+      </c>
+      <c r="J515">
+        <v>0.9</v>
+      </c>
+      <c r="K515">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="516" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A516" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B516" t="s">
+        <v>9</v>
+      </c>
+      <c r="C516" t="s">
+        <v>4</v>
+      </c>
+      <c r="D516" s="3">
+        <v>13684</v>
+      </c>
+      <c r="E516" s="3">
+        <v>3810</v>
+      </c>
+      <c r="F516">
+        <v>14.7</v>
+      </c>
+      <c r="G516">
+        <v>243</v>
+      </c>
+      <c r="H516">
+        <v>9.9</v>
+      </c>
+      <c r="I516">
+        <v>103</v>
+      </c>
+      <c r="J516">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K516">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="517" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A517" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B517" t="s">
+        <v>9</v>
+      </c>
+      <c r="C517" t="s">
+        <v>5</v>
+      </c>
+      <c r="D517" s="3">
+        <v>10037</v>
+      </c>
+      <c r="E517" s="3">
+        <v>4767</v>
+      </c>
+      <c r="F517">
+        <v>18.3</v>
+      </c>
+      <c r="G517">
+        <v>421</v>
+      </c>
+      <c r="H517">
+        <v>17.2</v>
+      </c>
+      <c r="I517">
+        <v>285</v>
+      </c>
+      <c r="J517">
+        <v>6.4</v>
+      </c>
+      <c r="K517">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="518" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A518" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B518" t="s">
+        <v>9</v>
+      </c>
+      <c r="C518" t="s">
+        <v>6</v>
+      </c>
+      <c r="D518" s="3">
+        <v>8847</v>
+      </c>
+      <c r="E518" s="3">
+        <v>5781</v>
+      </c>
+      <c r="F518">
+        <v>22.3</v>
+      </c>
+      <c r="G518">
+        <v>695</v>
+      </c>
+      <c r="H518">
+        <v>28.3</v>
+      </c>
+      <c r="I518">
+        <v>864</v>
+      </c>
+      <c r="J518">
+        <v>19.5</v>
+      </c>
+      <c r="K518">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="519" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A519" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B519" t="s">
+        <v>9</v>
+      </c>
+      <c r="C519" t="s">
+        <v>12</v>
+      </c>
+      <c r="D519" s="3">
+        <v>10685</v>
+      </c>
+      <c r="E519" s="3">
+        <v>5507</v>
+      </c>
+      <c r="F519">
+        <v>21.2</v>
+      </c>
+      <c r="G519">
+        <v>650</v>
+      </c>
+      <c r="H519">
+        <v>26.5</v>
+      </c>
+      <c r="I519" s="3">
+        <v>1961</v>
+      </c>
+      <c r="J519">
+        <v>44.3</v>
+      </c>
+      <c r="K519">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="520" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A520" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B520" t="s">
+        <v>9</v>
+      </c>
+      <c r="C520" t="s">
+        <v>13</v>
+      </c>
+      <c r="D520" s="3">
+        <v>5467</v>
+      </c>
+      <c r="E520" s="3">
+        <v>1944</v>
+      </c>
+      <c r="F520">
+        <v>7.5</v>
+      </c>
+      <c r="G520">
+        <v>256</v>
+      </c>
+      <c r="H520">
+        <v>10.4</v>
+      </c>
+      <c r="I520" s="3">
+        <v>1149</v>
+      </c>
+      <c r="J520">
+        <v>26</v>
+      </c>
+      <c r="K520">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="521" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A521" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B521" t="s">
+        <v>10</v>
+      </c>
+      <c r="C521" t="s">
+        <v>0</v>
+      </c>
+      <c r="D521">
+        <v>236</v>
+      </c>
+      <c r="E521">
+        <v>93</v>
+      </c>
+      <c r="F521">
+        <v>0.3</v>
+      </c>
+      <c r="G521">
+        <v>13</v>
+      </c>
+      <c r="H521">
+        <v>0.4</v>
+      </c>
+      <c r="I521">
+        <v>0</v>
+      </c>
+      <c r="J521">
+        <v>0</v>
+      </c>
+      <c r="K521">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A522" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B522" t="s">
+        <v>10</v>
+      </c>
+      <c r="C522" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D522">
+        <v>345</v>
+      </c>
+      <c r="E522">
+        <v>70</v>
+      </c>
+      <c r="F522">
+        <v>0.2</v>
+      </c>
+      <c r="G522">
+        <v>5</v>
+      </c>
+      <c r="H522">
+        <v>0.1</v>
+      </c>
+      <c r="I522">
+        <v>1</v>
+      </c>
+      <c r="J522">
+        <v>0</v>
+      </c>
+      <c r="K522">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="523" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A523" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B523" t="s">
+        <v>10</v>
+      </c>
+      <c r="C523" t="s">
+        <v>1</v>
+      </c>
+      <c r="D523" s="3">
+        <v>2360</v>
+      </c>
+      <c r="E523">
+        <v>479</v>
+      </c>
+      <c r="F523">
+        <v>1.4</v>
+      </c>
+      <c r="G523">
+        <v>32</v>
+      </c>
+      <c r="H523">
+        <v>0.9</v>
+      </c>
+      <c r="I523">
+        <v>15</v>
+      </c>
+      <c r="J523">
+        <v>0.2</v>
+      </c>
+      <c r="K523">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="524" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A524" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B524" t="s">
+        <v>10</v>
+      </c>
+      <c r="C524" t="s">
+        <v>2</v>
+      </c>
+      <c r="D524" s="3">
+        <v>4903</v>
+      </c>
+      <c r="E524" s="3">
+        <v>1337</v>
+      </c>
+      <c r="F524">
+        <v>3.8</v>
+      </c>
+      <c r="G524">
+        <v>114</v>
+      </c>
+      <c r="H524">
+        <v>3.1</v>
+      </c>
+      <c r="I524">
+        <v>22</v>
+      </c>
+      <c r="J524">
+        <v>0.3</v>
+      </c>
+      <c r="K524">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="525" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A525" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B525" t="s">
+        <v>10</v>
+      </c>
+      <c r="C525" t="s">
+        <v>3</v>
+      </c>
+      <c r="D525" s="3">
+        <v>8660</v>
+      </c>
+      <c r="E525" s="3">
+        <v>3481</v>
+      </c>
+      <c r="F525">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G525">
+        <v>324</v>
+      </c>
+      <c r="H525">
+        <v>8.9</v>
+      </c>
+      <c r="I525">
+        <v>76</v>
+      </c>
+      <c r="J525">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K525">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="526" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A526" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B526" t="s">
+        <v>10</v>
+      </c>
+      <c r="C526" t="s">
+        <v>4</v>
+      </c>
+      <c r="D526" s="3">
+        <v>11198</v>
+      </c>
+      <c r="E526" s="3">
+        <v>5728</v>
+      </c>
+      <c r="F526">
+        <v>16.2</v>
+      </c>
+      <c r="G526">
+        <v>726</v>
+      </c>
+      <c r="H526">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="I526">
+        <v>216</v>
+      </c>
+      <c r="J526">
+        <v>3.3</v>
+      </c>
+      <c r="K526">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="527" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A527" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B527" t="s">
+        <v>10</v>
+      </c>
+      <c r="C527" t="s">
+        <v>5</v>
+      </c>
+      <c r="D527" s="3">
+        <v>11562</v>
+      </c>
+      <c r="E527" s="3">
+        <v>7447</v>
+      </c>
+      <c r="F527">
+        <v>21</v>
+      </c>
+      <c r="G527" s="3">
+        <v>1218</v>
+      </c>
+      <c r="H527">
+        <v>33.4</v>
+      </c>
+      <c r="I527">
+        <v>687</v>
+      </c>
+      <c r="J527">
+        <v>10.3</v>
+      </c>
+      <c r="K527">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="528" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A528" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B528" t="s">
+        <v>10</v>
+      </c>
+      <c r="C528" t="s">
+        <v>6</v>
+      </c>
+      <c r="D528" s="3">
+        <v>11810</v>
+      </c>
+      <c r="E528" s="3">
+        <v>8845</v>
+      </c>
+      <c r="F528">
+        <v>25</v>
+      </c>
+      <c r="G528" s="3">
+        <v>1109</v>
+      </c>
+      <c r="H528">
+        <v>30.4</v>
+      </c>
+      <c r="I528" s="3">
+        <v>2062</v>
+      </c>
+      <c r="J528">
+        <v>31.1</v>
+      </c>
+      <c r="K528">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="529" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A529" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B529" t="s">
+        <v>10</v>
+      </c>
+      <c r="C529" t="s">
+        <v>12</v>
+      </c>
+      <c r="D529" s="3">
+        <v>9241</v>
+      </c>
+      <c r="E529" s="3">
+        <v>6447</v>
+      </c>
+      <c r="F529">
+        <v>18.2</v>
+      </c>
+      <c r="G529">
+        <v>95</v>
+      </c>
+      <c r="H529">
+        <v>2.6</v>
+      </c>
+      <c r="I529" s="3">
+        <v>2698</v>
+      </c>
+      <c r="J529">
+        <v>40.6</v>
+      </c>
+      <c r="K529">
+        <v>29.2</v>
+      </c>
+    </row>
+    <row r="530" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A530" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B530" t="s">
+        <v>10</v>
+      </c>
+      <c r="C530" t="s">
+        <v>13</v>
+      </c>
+      <c r="D530" s="3">
+        <v>2667</v>
+      </c>
+      <c r="E530" s="3">
+        <v>1461</v>
+      </c>
+      <c r="F530">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G530">
+        <v>9</v>
+      </c>
+      <c r="H530">
+        <v>0.2</v>
+      </c>
+      <c r="I530">
+        <v>862</v>
+      </c>
+      <c r="J530">
+        <v>13</v>
+      </c>
+      <c r="K530">
+        <v>32.299999999999997</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Covid-19_data_sexage.xlsx
+++ b/data/Covid-19_data_sexage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanjosevidal/Google Drive/Projects/Covid-19/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C710480C-F086-E144-86E6-25F9F9482B80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289A6578-1D4C-894B-B559-48D751406306}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{C24317C9-D1BD-7248-BEC1-07839536F6EA}"/>
   </bookViews>
@@ -44,6 +44,7 @@
     <definedName name="tabula_Actualizacion_76_COVID_19_2" localSheetId="0">Data!$C$471:$K$490</definedName>
     <definedName name="tabula_Actualizacion_77_COVID_19_2" localSheetId="0">Data!$C$491:$K$510</definedName>
     <definedName name="tabula_Actualizacion_78_COVID_19_2" localSheetId="0">Data!$C$511:$K$530</definedName>
+    <definedName name="tabula_Actualizacion_79_COVID_19_2" localSheetId="0">Data!$C$531:$K$550</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -452,7 +453,22 @@
     </textPr>
   </connection>
   <connection id="27" xr16:uid="{DFC57172-597A-AC48-B3E6-DD954170BB9B}" name="tabula-Actualizacion_78_COVID-19(2)" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_78_COVID-19(2).csv" decimal="," thousands="." comma="1">
+    <textPr sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_78_COVID-19(2).csv" decimal="," thousands="." comma="1">
+      <textFields count="9">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="28" xr16:uid="{7FC1A382-24DC-584D-B1E1-B8DA37CC36ED}" name="tabula-Actualizacion_79_COVID-19(2)" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_79_COVID-19(2).csv" decimal="," thousands="." comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -470,7 +486,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="26">
   <si>
     <t>0-9</t>
   </si>
@@ -648,103 +664,107 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_79_COVID-19(2)" connectionId="28" xr16:uid="{CE4041F5-2CDB-234C-8611-179139CF531A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_68_COVID-19(1)" connectionId="17" xr16:uid="{15D6F25C-3F4D-0947-8994-7F669D041C1F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_69_COVID-19(1)" connectionId="18" xr16:uid="{43D60223-767A-964E-8CC2-E64E5ACAFF9F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_70_COVID-19(1)" connectionId="19" xr16:uid="{F30EDCDD-4769-4442-A6A9-407F59F6429F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_65_COVID-19(1)" connectionId="14" xr16:uid="{1F7FC7F3-ADF7-CE4C-A901-C09AA03AA932}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_52_COVID-19" connectionId="1" xr16:uid="{35D81D28-1058-4347-9DE2-5F2763DAC2A4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_56_COVID-19(1)" connectionId="5" xr16:uid="{C5B10145-DA18-EE44-A918-E407BEA443E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_72_COVID-19(1)" connectionId="21" xr16:uid="{1488C0E5-7AB9-C44D-8BE2-997243B88982}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_77_COVID-19(2)" connectionId="26" xr16:uid="{B46FF584-84EC-AE4D-BCE8-171BFEBEEDEE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_67_COVID-19(1)" connectionId="16" xr16:uid="{0DCC7075-52E5-6445-A2D9-0D0404D0E63E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_57_COVID-19(1)" connectionId="6" xr16:uid="{78E004BB-228B-5143-9AFE-91688C440A41}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_76_COVID-19(2)" connectionId="25" xr16:uid="{70AE20FA-7C65-AC4F-B077-971D1C6A5B94}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(1)" connectionId="9" xr16:uid="{C813FA0B-4B7A-0743-B527-E10C07F0E6C8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_71_COVID-19(1)" connectionId="20" xr16:uid="{E40B0E49-9F2B-2549-8124-9C24FFB9F4B1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_78_COVID-19(2)" connectionId="27" xr16:uid="{DA1E7C1F-5CE0-764E-9BAE-85540697E15C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_56_COVID-19(1)" connectionId="5" xr16:uid="{C5B10145-DA18-EE44-A918-E407BEA443E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_55_COVID-19" connectionId="4" xr16:uid="{10575DCA-3AE8-5C4C-A970-60205B471337}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(1)" connectionId="9" xr16:uid="{C813FA0B-4B7A-0743-B527-E10C07F0E6C8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_62_COVID-19(1)" connectionId="11" xr16:uid="{789174F4-7737-BE4C-9685-F15607B8C828}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_73_COVID-19(1)" connectionId="22" xr16:uid="{144BDA4A-6CCF-094D-8B47-C4994B28C9F4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_54_COVID-19" connectionId="3" xr16:uid="{E94F4815-0D2F-454F-8291-FCBF0C165C57}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(2)_1" connectionId="10" xr16:uid="{252D0C3F-8429-6D40-AFE6-2BAFDCF71E62}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_75_COVID-19(1)" connectionId="24" xr16:uid="{D7A38836-E0C5-5046-B8FD-EF82AA804006}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_64_COVID-19(1)" connectionId="13" xr16:uid="{24F5186E-14BA-4941-BB1A-F21AEE9F7F07}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_63_COVID-19(1)" connectionId="12" xr16:uid="{EFDFC980-4B86-C948-B035-B2786B80754E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_69_COVID-19(1)" connectionId="18" xr16:uid="{43D60223-767A-964E-8CC2-E64E5ACAFF9F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_66_COVID-19(1)" connectionId="15" xr16:uid="{784FDDA9-F525-C54F-BA21-682143B55347}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_77_COVID-19(2)" connectionId="26" xr16:uid="{B46FF584-84EC-AE4D-BCE8-171BFEBEEDEE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_74_COVID-19(1)" connectionId="23" xr16:uid="{486A1335-E13C-A646-B386-9ED2A72BEEE6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_62_COVID-19(1)" connectionId="11" xr16:uid="{789174F4-7737-BE4C-9685-F15607B8C828}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(2)_1" connectionId="10" xr16:uid="{252D0C3F-8429-6D40-AFE6-2BAFDCF71E62}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_60_COVID-19(1)" connectionId="8" xr16:uid="{C2F0088C-0355-9A48-BE55-175198337C67}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_52_COVID-19" connectionId="1" xr16:uid="{35D81D28-1058-4347-9DE2-5F2763DAC2A4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_73_COVID-19(1)" connectionId="22" xr16:uid="{144BDA4A-6CCF-094D-8B47-C4994B28C9F4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_55_COVID-19" connectionId="4" xr16:uid="{10575DCA-3AE8-5C4C-A970-60205B471337}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_63_COVID-19(1)" connectionId="12" xr16:uid="{EFDFC980-4B86-C948-B035-B2786B80754E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_68_COVID-19(1)" connectionId="17" xr16:uid="{15D6F25C-3F4D-0947-8994-7F669D041C1F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_72_COVID-19(1)" connectionId="21" xr16:uid="{1488C0E5-7AB9-C44D-8BE2-997243B88982}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_57_COVID-19(1)" connectionId="6" xr16:uid="{78E004BB-228B-5143-9AFE-91688C440A41}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_54_COVID-19" connectionId="3" xr16:uid="{E94F4815-0D2F-454F-8291-FCBF0C165C57}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_74_COVID-19(1)" connectionId="23" xr16:uid="{486A1335-E13C-A646-B386-9ED2A72BEEE6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_53_COVID-19" connectionId="2" xr16:uid="{31483431-2B39-A440-9E59-C26E082912EA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_66_COVID-19(1)" connectionId="15" xr16:uid="{784FDDA9-F525-C54F-BA21-682143B55347}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_65_COVID-19(1)" connectionId="14" xr16:uid="{1F7FC7F3-ADF7-CE4C-A901-C09AA03AA932}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_67_COVID-19(1)" connectionId="16" xr16:uid="{0DCC7075-52E5-6445-A2D9-0D0404D0E63E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_71_COVID-19(1)" connectionId="20" xr16:uid="{E40B0E49-9F2B-2549-8124-9C24FFB9F4B1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_76_COVID-19(2)" connectionId="25" xr16:uid="{70AE20FA-7C65-AC4F-B077-971D1C6A5B94}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_64_COVID-19(1)" connectionId="13" xr16:uid="{24F5186E-14BA-4941-BB1A-F21AEE9F7F07}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
@@ -752,7 +772,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_70_COVID-19(1)" connectionId="19" xr16:uid="{F30EDCDD-4769-4442-A6A9-407F59F6429F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_53_COVID-19" connectionId="2" xr16:uid="{31483431-2B39-A440-9E59-C26E082912EA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1052,10 +1072,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973FFFC2-62D5-A048-8409-BF1FADA21B40}">
-  <dimension ref="A1:T530"/>
+  <dimension ref="A1:T550"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A492" workbookViewId="0">
-      <selection activeCell="C511" sqref="C511"/>
+    <sheetView tabSelected="1" topLeftCell="A513" workbookViewId="0">
+      <selection activeCell="D545" sqref="D545"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19690,6 +19710,706 @@
         <v>32.299999999999997</v>
       </c>
     </row>
+    <row r="531" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A531" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B531" t="s">
+        <v>9</v>
+      </c>
+      <c r="C531" t="s">
+        <v>0</v>
+      </c>
+      <c r="D531">
+        <v>200</v>
+      </c>
+      <c r="E531">
+        <v>68</v>
+      </c>
+      <c r="F531">
+        <v>0.3</v>
+      </c>
+      <c r="G531">
+        <v>1</v>
+      </c>
+      <c r="H531">
+        <v>0</v>
+      </c>
+      <c r="I531">
+        <v>1</v>
+      </c>
+      <c r="J531">
+        <v>0</v>
+      </c>
+      <c r="K531">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="532" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A532" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B532" t="s">
+        <v>9</v>
+      </c>
+      <c r="C532" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D532">
+        <v>404</v>
+      </c>
+      <c r="E532">
+        <v>84</v>
+      </c>
+      <c r="F532">
+        <v>0.3</v>
+      </c>
+      <c r="G532">
+        <v>3</v>
+      </c>
+      <c r="H532">
+        <v>0.1</v>
+      </c>
+      <c r="I532">
+        <v>1</v>
+      </c>
+      <c r="J532">
+        <v>0</v>
+      </c>
+      <c r="K532">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="533" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A533" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B533" t="s">
+        <v>9</v>
+      </c>
+      <c r="C533" t="s">
+        <v>1</v>
+      </c>
+      <c r="D533" s="3">
+        <v>4535</v>
+      </c>
+      <c r="E533">
+        <v>501</v>
+      </c>
+      <c r="F533">
+        <v>1.9</v>
+      </c>
+      <c r="G533">
+        <v>19</v>
+      </c>
+      <c r="H533">
+        <v>0.8</v>
+      </c>
+      <c r="I533">
+        <v>5</v>
+      </c>
+      <c r="J533">
+        <v>0.1</v>
+      </c>
+      <c r="K533">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A534" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B534" t="s">
+        <v>9</v>
+      </c>
+      <c r="C534" t="s">
+        <v>2</v>
+      </c>
+      <c r="D534" s="3">
+        <v>7840</v>
+      </c>
+      <c r="E534" s="3">
+        <v>1230</v>
+      </c>
+      <c r="F534">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G534">
+        <v>52</v>
+      </c>
+      <c r="H534">
+        <v>2.1</v>
+      </c>
+      <c r="I534">
+        <v>15</v>
+      </c>
+      <c r="J534">
+        <v>0.3</v>
+      </c>
+      <c r="K534">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="535" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A535" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B535" t="s">
+        <v>9</v>
+      </c>
+      <c r="C535" t="s">
+        <v>3</v>
+      </c>
+      <c r="D535" s="3">
+        <v>11315</v>
+      </c>
+      <c r="E535" s="3">
+        <v>2421</v>
+      </c>
+      <c r="F535">
+        <v>9.1</v>
+      </c>
+      <c r="G535">
+        <v>122</v>
+      </c>
+      <c r="H535">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I535">
+        <v>42</v>
+      </c>
+      <c r="J535">
+        <v>0.9</v>
+      </c>
+      <c r="K535">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="536" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A536" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B536" t="s">
+        <v>9</v>
+      </c>
+      <c r="C536" t="s">
+        <v>4</v>
+      </c>
+      <c r="D536" s="3">
+        <v>13791</v>
+      </c>
+      <c r="E536" s="3">
+        <v>3898</v>
+      </c>
+      <c r="F536">
+        <v>14.6</v>
+      </c>
+      <c r="G536">
+        <v>253</v>
+      </c>
+      <c r="H536">
+        <v>10.1</v>
+      </c>
+      <c r="I536">
+        <v>103</v>
+      </c>
+      <c r="J536">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K536">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="537" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A537" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B537" t="s">
+        <v>9</v>
+      </c>
+      <c r="C537" t="s">
+        <v>5</v>
+      </c>
+      <c r="D537" s="3">
+        <v>10096</v>
+      </c>
+      <c r="E537" s="3">
+        <v>4888</v>
+      </c>
+      <c r="F537">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="G537">
+        <v>436</v>
+      </c>
+      <c r="H537">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="I537">
+        <v>288</v>
+      </c>
+      <c r="J537">
+        <v>6.4</v>
+      </c>
+      <c r="K537">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="538" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A538" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B538" t="s">
+        <v>9</v>
+      </c>
+      <c r="C538" t="s">
+        <v>6</v>
+      </c>
+      <c r="D538" s="3">
+        <v>8914</v>
+      </c>
+      <c r="E538" s="3">
+        <v>5920</v>
+      </c>
+      <c r="F538">
+        <v>22.2</v>
+      </c>
+      <c r="G538">
+        <v>715</v>
+      </c>
+      <c r="H538">
+        <v>28.5</v>
+      </c>
+      <c r="I538">
+        <v>871</v>
+      </c>
+      <c r="J538">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="K538">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="539" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A539" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B539" t="s">
+        <v>9</v>
+      </c>
+      <c r="C539" t="s">
+        <v>12</v>
+      </c>
+      <c r="D539" s="3">
+        <v>10807</v>
+      </c>
+      <c r="E539" s="3">
+        <v>5619</v>
+      </c>
+      <c r="F539">
+        <v>21.1</v>
+      </c>
+      <c r="G539">
+        <v>648</v>
+      </c>
+      <c r="H539">
+        <v>25.9</v>
+      </c>
+      <c r="I539" s="3">
+        <v>1984</v>
+      </c>
+      <c r="J539">
+        <v>44.3</v>
+      </c>
+      <c r="K539">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="540" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A540" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B540" t="s">
+        <v>9</v>
+      </c>
+      <c r="C540" t="s">
+        <v>13</v>
+      </c>
+      <c r="D540" s="3">
+        <v>5575</v>
+      </c>
+      <c r="E540" s="3">
+        <v>1994</v>
+      </c>
+      <c r="F540">
+        <v>7.5</v>
+      </c>
+      <c r="G540">
+        <v>256</v>
+      </c>
+      <c r="H540">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="I540" s="3">
+        <v>1172</v>
+      </c>
+      <c r="J540">
+        <v>26.1</v>
+      </c>
+      <c r="K540">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="541" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A541" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B541" t="s">
+        <v>10</v>
+      </c>
+      <c r="C541" t="s">
+        <v>0</v>
+      </c>
+      <c r="D541">
+        <v>250</v>
+      </c>
+      <c r="E541">
+        <v>97</v>
+      </c>
+      <c r="F541">
+        <v>0.3</v>
+      </c>
+      <c r="G541">
+        <v>13</v>
+      </c>
+      <c r="H541">
+        <v>0.3</v>
+      </c>
+      <c r="I541">
+        <v>0</v>
+      </c>
+      <c r="J541">
+        <v>0</v>
+      </c>
+      <c r="K541">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A542" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B542" t="s">
+        <v>10</v>
+      </c>
+      <c r="C542" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D542">
+        <v>355</v>
+      </c>
+      <c r="E542">
+        <v>75</v>
+      </c>
+      <c r="F542">
+        <v>0.2</v>
+      </c>
+      <c r="G542">
+        <v>5</v>
+      </c>
+      <c r="H542">
+        <v>0.1</v>
+      </c>
+      <c r="I542">
+        <v>1</v>
+      </c>
+      <c r="J542">
+        <v>0</v>
+      </c>
+      <c r="K542">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="543" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A543" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B543" t="s">
+        <v>10</v>
+      </c>
+      <c r="C543" t="s">
+        <v>1</v>
+      </c>
+      <c r="D543" s="3">
+        <v>2388</v>
+      </c>
+      <c r="E543">
+        <v>487</v>
+      </c>
+      <c r="F543">
+        <v>1.3</v>
+      </c>
+      <c r="G543">
+        <v>32</v>
+      </c>
+      <c r="H543">
+        <v>0.9</v>
+      </c>
+      <c r="I543">
+        <v>15</v>
+      </c>
+      <c r="J543">
+        <v>0.2</v>
+      </c>
+      <c r="K543">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="544" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A544" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B544" t="s">
+        <v>10</v>
+      </c>
+      <c r="C544" t="s">
+        <v>2</v>
+      </c>
+      <c r="D544" s="3">
+        <v>4944</v>
+      </c>
+      <c r="E544" s="3">
+        <v>1358</v>
+      </c>
+      <c r="F544">
+        <v>3.8</v>
+      </c>
+      <c r="G544">
+        <v>116</v>
+      </c>
+      <c r="H544">
+        <v>3.1</v>
+      </c>
+      <c r="I544">
+        <v>22</v>
+      </c>
+      <c r="J544">
+        <v>0.3</v>
+      </c>
+      <c r="K544">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="545" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A545" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B545" t="s">
+        <v>10</v>
+      </c>
+      <c r="C545" t="s">
+        <v>3</v>
+      </c>
+      <c r="D545" s="3">
+        <v>8726</v>
+      </c>
+      <c r="E545" s="3">
+        <v>3544</v>
+      </c>
+      <c r="F545">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G545">
+        <v>335</v>
+      </c>
+      <c r="H545">
+        <v>8.9</v>
+      </c>
+      <c r="I545">
+        <v>79</v>
+      </c>
+      <c r="J545">
+        <v>1.2</v>
+      </c>
+      <c r="K545">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="546" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A546" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B546" t="s">
+        <v>10</v>
+      </c>
+      <c r="C546" t="s">
+        <v>4</v>
+      </c>
+      <c r="D546" s="3">
+        <v>11288</v>
+      </c>
+      <c r="E546" s="3">
+        <v>5831</v>
+      </c>
+      <c r="F546">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="G546">
+        <v>743</v>
+      </c>
+      <c r="H546">
+        <v>19.8</v>
+      </c>
+      <c r="I546">
+        <v>219</v>
+      </c>
+      <c r="J546">
+        <v>3.3</v>
+      </c>
+      <c r="K546">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="547" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A547" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B547" t="s">
+        <v>10</v>
+      </c>
+      <c r="C547" t="s">
+        <v>5</v>
+      </c>
+      <c r="D547" s="3">
+        <v>11626</v>
+      </c>
+      <c r="E547" s="3">
+        <v>7596</v>
+      </c>
+      <c r="F547">
+        <v>21</v>
+      </c>
+      <c r="G547" s="3">
+        <v>1255</v>
+      </c>
+      <c r="H547">
+        <v>33.4</v>
+      </c>
+      <c r="I547">
+        <v>699</v>
+      </c>
+      <c r="J547">
+        <v>10.4</v>
+      </c>
+      <c r="K547">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="548" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A548" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B548" t="s">
+        <v>10</v>
+      </c>
+      <c r="C548" t="s">
+        <v>6</v>
+      </c>
+      <c r="D548" s="3">
+        <v>11875</v>
+      </c>
+      <c r="E548" s="3">
+        <v>9065</v>
+      </c>
+      <c r="F548">
+        <v>25.1</v>
+      </c>
+      <c r="G548" s="3">
+        <v>1150</v>
+      </c>
+      <c r="H548">
+        <v>30.6</v>
+      </c>
+      <c r="I548" s="3">
+        <v>2084</v>
+      </c>
+      <c r="J548">
+        <v>30.9</v>
+      </c>
+      <c r="K548">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="549" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A549" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B549" t="s">
+        <v>10</v>
+      </c>
+      <c r="C549" t="s">
+        <v>12</v>
+      </c>
+      <c r="D549" s="3">
+        <v>9325</v>
+      </c>
+      <c r="E549" s="3">
+        <v>6588</v>
+      </c>
+      <c r="F549">
+        <v>18.2</v>
+      </c>
+      <c r="G549">
+        <v>100</v>
+      </c>
+      <c r="H549">
+        <v>2.7</v>
+      </c>
+      <c r="I549" s="3">
+        <v>2742</v>
+      </c>
+      <c r="J549">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="K549">
+        <v>29.4</v>
+      </c>
+    </row>
+    <row r="550" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A550" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B550" t="s">
+        <v>10</v>
+      </c>
+      <c r="C550" t="s">
+        <v>13</v>
+      </c>
+      <c r="D550" s="3">
+        <v>2696</v>
+      </c>
+      <c r="E550" s="3">
+        <v>1496</v>
+      </c>
+      <c r="F550">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G550">
+        <v>10</v>
+      </c>
+      <c r="H550">
+        <v>0.3</v>
+      </c>
+      <c r="I550">
+        <v>876</v>
+      </c>
+      <c r="J550">
+        <v>13</v>
+      </c>
+      <c r="K550">
+        <v>32.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Covid-19_data_sexage.xlsx
+++ b/data/Covid-19_data_sexage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanjosevidal/Google Drive/Projects/Covid-19/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289A6578-1D4C-894B-B559-48D751406306}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26078EF9-2CF7-284B-B125-18E43AE73CC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{C24317C9-D1BD-7248-BEC1-07839536F6EA}"/>
   </bookViews>
@@ -45,6 +45,7 @@
     <definedName name="tabula_Actualizacion_77_COVID_19_2" localSheetId="0">Data!$C$491:$K$510</definedName>
     <definedName name="tabula_Actualizacion_78_COVID_19_2" localSheetId="0">Data!$C$511:$K$530</definedName>
     <definedName name="tabula_Actualizacion_79_COVID_19_2" localSheetId="0">Data!$C$531:$K$550</definedName>
+    <definedName name="tabula_Actualizacion_80_COVID_19_2" localSheetId="0">Data!$C$551:$K$570</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -468,7 +469,22 @@
     </textPr>
   </connection>
   <connection id="28" xr16:uid="{7FC1A382-24DC-584D-B1E1-B8DA37CC36ED}" name="tabula-Actualizacion_79_COVID-19(2)" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_79_COVID-19(2).csv" decimal="," thousands="." comma="1">
+    <textPr sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_79_COVID-19(2).csv" decimal="," thousands="." comma="1">
+      <textFields count="9">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="29" xr16:uid="{39B57FFF-D2D6-FA44-95D6-201633834398}" name="tabula-Actualizacion_80_COVID-19(2)" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_80_COVID-19(2).csv" decimal="," thousands="." comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -486,7 +502,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="26">
   <si>
     <t>0-9</t>
   </si>
@@ -664,115 +680,119 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_80_COVID-19(2)" connectionId="29" xr16:uid="{9A2F5700-61ED-F044-A56E-7B5EC6DF1036}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_75_COVID-19(1)" connectionId="24" xr16:uid="{D7A38836-E0C5-5046-B8FD-EF82AA804006}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_55_COVID-19" connectionId="4" xr16:uid="{10575DCA-3AE8-5C4C-A970-60205B471337}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_56_COVID-19(1)" connectionId="5" xr16:uid="{C5B10145-DA18-EE44-A918-E407BEA443E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_74_COVID-19(1)" connectionId="23" xr16:uid="{486A1335-E13C-A646-B386-9ED2A72BEEE6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_62_COVID-19(1)" connectionId="11" xr16:uid="{789174F4-7737-BE4C-9685-F15607B8C828}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_69_COVID-19(1)" connectionId="18" xr16:uid="{43D60223-767A-964E-8CC2-E64E5ACAFF9F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_60_COVID-19(1)" connectionId="8" xr16:uid="{C2F0088C-0355-9A48-BE55-175198337C67}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_79_COVID-19(2)" connectionId="28" xr16:uid="{CE4041F5-2CDB-234C-8611-179139CF531A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_68_COVID-19(1)" connectionId="17" xr16:uid="{15D6F25C-3F4D-0947-8994-7F669D041C1F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(1)" connectionId="9" xr16:uid="{C813FA0B-4B7A-0743-B527-E10C07F0E6C8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_69_COVID-19(1)" connectionId="18" xr16:uid="{43D60223-767A-964E-8CC2-E64E5ACAFF9F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_72_COVID-19(1)" connectionId="21" xr16:uid="{1488C0E5-7AB9-C44D-8BE2-997243B88982}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_59_COVID-19(1)" connectionId="7" xr16:uid="{6E93CE4F-1115-D449-959A-2A7263C31ABC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_76_COVID-19(2)" connectionId="25" xr16:uid="{70AE20FA-7C65-AC4F-B077-971D1C6A5B94}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_73_COVID-19(1)" connectionId="22" xr16:uid="{144BDA4A-6CCF-094D-8B47-C4994B28C9F4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_77_COVID-19(2)" connectionId="26" xr16:uid="{B46FF584-84EC-AE4D-BCE8-171BFEBEEDEE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_70_COVID-19(1)" connectionId="19" xr16:uid="{F30EDCDD-4769-4442-A6A9-407F59F6429F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_64_COVID-19(1)" connectionId="13" xr16:uid="{24F5186E-14BA-4941-BB1A-F21AEE9F7F07}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_71_COVID-19(1)" connectionId="20" xr16:uid="{E40B0E49-9F2B-2549-8124-9C24FFB9F4B1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_63_COVID-19(1)" connectionId="12" xr16:uid="{EFDFC980-4B86-C948-B035-B2786B80754E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_54_COVID-19" connectionId="3" xr16:uid="{E94F4815-0D2F-454F-8291-FCBF0C165C57}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_67_COVID-19(1)" connectionId="16" xr16:uid="{0DCC7075-52E5-6445-A2D9-0D0404D0E63E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_65_COVID-19(1)" connectionId="14" xr16:uid="{1F7FC7F3-ADF7-CE4C-A901-C09AA03AA932}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(2)_1" connectionId="10" xr16:uid="{252D0C3F-8429-6D40-AFE6-2BAFDCF71E62}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_78_COVID-19(2)" connectionId="27" xr16:uid="{DA1E7C1F-5CE0-764E-9BAE-85540697E15C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_52_COVID-19" connectionId="1" xr16:uid="{35D81D28-1058-4347-9DE2-5F2763DAC2A4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_56_COVID-19(1)" connectionId="5" xr16:uid="{C5B10145-DA18-EE44-A918-E407BEA443E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_53_COVID-19" connectionId="2" xr16:uid="{31483431-2B39-A440-9E59-C26E082912EA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_72_COVID-19(1)" connectionId="21" xr16:uid="{1488C0E5-7AB9-C44D-8BE2-997243B88982}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_66_COVID-19(1)" connectionId="15" xr16:uid="{784FDDA9-F525-C54F-BA21-682143B55347}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_77_COVID-19(2)" connectionId="26" xr16:uid="{B46FF584-84EC-AE4D-BCE8-171BFEBEEDEE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_67_COVID-19(1)" connectionId="16" xr16:uid="{0DCC7075-52E5-6445-A2D9-0D0404D0E63E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_57_COVID-19(1)" connectionId="6" xr16:uid="{78E004BB-228B-5143-9AFE-91688C440A41}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_76_COVID-19(2)" connectionId="25" xr16:uid="{70AE20FA-7C65-AC4F-B077-971D1C6A5B94}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(1)" connectionId="9" xr16:uid="{C813FA0B-4B7A-0743-B527-E10C07F0E6C8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_71_COVID-19(1)" connectionId="20" xr16:uid="{E40B0E49-9F2B-2549-8124-9C24FFB9F4B1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_78_COVID-19(2)" connectionId="27" xr16:uid="{DA1E7C1F-5CE0-764E-9BAE-85540697E15C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_55_COVID-19" connectionId="4" xr16:uid="{10575DCA-3AE8-5C4C-A970-60205B471337}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_62_COVID-19(1)" connectionId="11" xr16:uid="{789174F4-7737-BE4C-9685-F15607B8C828}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_73_COVID-19(1)" connectionId="22" xr16:uid="{144BDA4A-6CCF-094D-8B47-C4994B28C9F4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_54_COVID-19" connectionId="3" xr16:uid="{E94F4815-0D2F-454F-8291-FCBF0C165C57}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(2)_1" connectionId="10" xr16:uid="{252D0C3F-8429-6D40-AFE6-2BAFDCF71E62}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_75_COVID-19(1)" connectionId="24" xr16:uid="{D7A38836-E0C5-5046-B8FD-EF82AA804006}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_63_COVID-19(1)" connectionId="12" xr16:uid="{EFDFC980-4B86-C948-B035-B2786B80754E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_66_COVID-19(1)" connectionId="15" xr16:uid="{784FDDA9-F525-C54F-BA21-682143B55347}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_74_COVID-19(1)" connectionId="23" xr16:uid="{486A1335-E13C-A646-B386-9ED2A72BEEE6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_60_COVID-19(1)" connectionId="8" xr16:uid="{C2F0088C-0355-9A48-BE55-175198337C67}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_64_COVID-19(1)" connectionId="13" xr16:uid="{24F5186E-14BA-4941-BB1A-F21AEE9F7F07}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_59_COVID-19(1)" connectionId="7" xr16:uid="{6E93CE4F-1115-D449-959A-2A7263C31ABC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_53_COVID-19" connectionId="2" xr16:uid="{31483431-2B39-A440-9E59-C26E082912EA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_68_COVID-19(1)" connectionId="17" xr16:uid="{15D6F25C-3F4D-0947-8994-7F669D041C1F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1072,10 +1092,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973FFFC2-62D5-A048-8409-BF1FADA21B40}">
-  <dimension ref="A1:T550"/>
+  <dimension ref="A1:T570"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A513" workbookViewId="0">
-      <selection activeCell="D545" sqref="D545"/>
+    <sheetView tabSelected="1" topLeftCell="A532" workbookViewId="0">
+      <selection activeCell="A570" sqref="A551:A570"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20410,6 +20430,706 @@
         <v>32.5</v>
       </c>
     </row>
+    <row r="551" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A551" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B551" t="s">
+        <v>9</v>
+      </c>
+      <c r="C551" t="s">
+        <v>0</v>
+      </c>
+      <c r="D551">
+        <v>202</v>
+      </c>
+      <c r="E551">
+        <v>69</v>
+      </c>
+      <c r="F551">
+        <v>0.3</v>
+      </c>
+      <c r="G551">
+        <v>7</v>
+      </c>
+      <c r="H551">
+        <v>0.4</v>
+      </c>
+      <c r="I551">
+        <v>1</v>
+      </c>
+      <c r="J551">
+        <v>0</v>
+      </c>
+      <c r="K551">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="552" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A552" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B552" t="s">
+        <v>9</v>
+      </c>
+      <c r="C552" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D552">
+        <v>411</v>
+      </c>
+      <c r="E552">
+        <v>86</v>
+      </c>
+      <c r="F552">
+        <v>0.3</v>
+      </c>
+      <c r="G552">
+        <v>4</v>
+      </c>
+      <c r="H552">
+        <v>0.2</v>
+      </c>
+      <c r="I552">
+        <v>2</v>
+      </c>
+      <c r="J552">
+        <v>0</v>
+      </c>
+      <c r="K552">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="553" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A553" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B553" t="s">
+        <v>9</v>
+      </c>
+      <c r="C553" t="s">
+        <v>1</v>
+      </c>
+      <c r="D553" s="3">
+        <v>4588</v>
+      </c>
+      <c r="E553">
+        <v>512</v>
+      </c>
+      <c r="F553">
+        <v>1.9</v>
+      </c>
+      <c r="G553">
+        <v>25</v>
+      </c>
+      <c r="H553">
+        <v>1.5</v>
+      </c>
+      <c r="I553">
+        <v>7</v>
+      </c>
+      <c r="J553">
+        <v>0.1</v>
+      </c>
+      <c r="K553">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="554" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A554" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B554" t="s">
+        <v>9</v>
+      </c>
+      <c r="C554" t="s">
+        <v>2</v>
+      </c>
+      <c r="D554" s="3">
+        <v>7913</v>
+      </c>
+      <c r="E554" s="3">
+        <v>1246</v>
+      </c>
+      <c r="F554">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G554">
+        <v>70</v>
+      </c>
+      <c r="H554">
+        <v>4.2</v>
+      </c>
+      <c r="I554">
+        <v>23</v>
+      </c>
+      <c r="J554">
+        <v>0.5</v>
+      </c>
+      <c r="K554">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="555" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A555" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B555" t="s">
+        <v>9</v>
+      </c>
+      <c r="C555" t="s">
+        <v>3</v>
+      </c>
+      <c r="D555" s="3">
+        <v>11416</v>
+      </c>
+      <c r="E555" s="3">
+        <v>2477</v>
+      </c>
+      <c r="F555">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G555">
+        <v>161</v>
+      </c>
+      <c r="H555">
+        <v>9.5</v>
+      </c>
+      <c r="I555">
+        <v>48</v>
+      </c>
+      <c r="J555">
+        <v>1</v>
+      </c>
+      <c r="K555">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="556" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A556" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B556" t="s">
+        <v>9</v>
+      </c>
+      <c r="C556" t="s">
+        <v>4</v>
+      </c>
+      <c r="D556" s="3">
+        <v>13894</v>
+      </c>
+      <c r="E556" s="3">
+        <v>3973</v>
+      </c>
+      <c r="F556">
+        <v>14.7</v>
+      </c>
+      <c r="G556">
+        <v>304</v>
+      </c>
+      <c r="H556">
+        <v>18</v>
+      </c>
+      <c r="I556">
+        <v>110</v>
+      </c>
+      <c r="J556">
+        <v>2.4</v>
+      </c>
+      <c r="K556">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="557" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A557" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B557" t="s">
+        <v>9</v>
+      </c>
+      <c r="C557" t="s">
+        <v>5</v>
+      </c>
+      <c r="D557" s="3">
+        <v>10160</v>
+      </c>
+      <c r="E557" s="3">
+        <v>4950</v>
+      </c>
+      <c r="F557">
+        <v>18.3</v>
+      </c>
+      <c r="G557">
+        <v>507</v>
+      </c>
+      <c r="H557">
+        <v>30.1</v>
+      </c>
+      <c r="I557">
+        <v>315</v>
+      </c>
+      <c r="J557">
+        <v>6.7</v>
+      </c>
+      <c r="K557">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A558" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B558" t="s">
+        <v>9</v>
+      </c>
+      <c r="C558" t="s">
+        <v>6</v>
+      </c>
+      <c r="D558" s="3">
+        <v>8954</v>
+      </c>
+      <c r="E558" s="3">
+        <v>5996</v>
+      </c>
+      <c r="F558">
+        <v>22.2</v>
+      </c>
+      <c r="G558">
+        <v>506</v>
+      </c>
+      <c r="H558">
+        <v>30</v>
+      </c>
+      <c r="I558">
+        <v>922</v>
+      </c>
+      <c r="J558">
+        <v>19.7</v>
+      </c>
+      <c r="K558">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="559" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A559" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B559" t="s">
+        <v>9</v>
+      </c>
+      <c r="C559" t="s">
+        <v>12</v>
+      </c>
+      <c r="D559" s="3">
+        <v>10885</v>
+      </c>
+      <c r="E559" s="3">
+        <v>5709</v>
+      </c>
+      <c r="F559">
+        <v>21.1</v>
+      </c>
+      <c r="G559">
+        <v>90</v>
+      </c>
+      <c r="H559">
+        <v>5.3</v>
+      </c>
+      <c r="I559" s="3">
+        <v>2045</v>
+      </c>
+      <c r="J559">
+        <v>43.8</v>
+      </c>
+      <c r="K559">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="560" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A560" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B560" t="s">
+        <v>9</v>
+      </c>
+      <c r="C560" t="s">
+        <v>13</v>
+      </c>
+      <c r="D560" s="3">
+        <v>5631</v>
+      </c>
+      <c r="E560" s="3">
+        <v>2033</v>
+      </c>
+      <c r="F560">
+        <v>7.5</v>
+      </c>
+      <c r="G560">
+        <v>12</v>
+      </c>
+      <c r="H560">
+        <v>0.7</v>
+      </c>
+      <c r="I560" s="3">
+        <v>1197</v>
+      </c>
+      <c r="J560">
+        <v>25.6</v>
+      </c>
+      <c r="K560">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="561" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A561" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B561" t="s">
+        <v>10</v>
+      </c>
+      <c r="C561" t="s">
+        <v>0</v>
+      </c>
+      <c r="D561">
+        <v>251</v>
+      </c>
+      <c r="E561">
+        <v>98</v>
+      </c>
+      <c r="F561">
+        <v>0.3</v>
+      </c>
+      <c r="G561">
+        <v>14</v>
+      </c>
+      <c r="H561">
+        <v>0.4</v>
+      </c>
+      <c r="I561">
+        <v>1</v>
+      </c>
+      <c r="J561">
+        <v>0</v>
+      </c>
+      <c r="K561">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="562" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A562" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B562" t="s">
+        <v>10</v>
+      </c>
+      <c r="C562" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D562">
+        <v>359</v>
+      </c>
+      <c r="E562">
+        <v>76</v>
+      </c>
+      <c r="F562">
+        <v>0.2</v>
+      </c>
+      <c r="G562">
+        <v>6</v>
+      </c>
+      <c r="H562">
+        <v>0.2</v>
+      </c>
+      <c r="I562">
+        <v>1</v>
+      </c>
+      <c r="J562">
+        <v>0</v>
+      </c>
+      <c r="K562">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="563" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A563" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B563" t="s">
+        <v>10</v>
+      </c>
+      <c r="C563" t="s">
+        <v>1</v>
+      </c>
+      <c r="D563" s="3">
+        <v>2405</v>
+      </c>
+      <c r="E563">
+        <v>493</v>
+      </c>
+      <c r="F563">
+        <v>1.3</v>
+      </c>
+      <c r="G563">
+        <v>34</v>
+      </c>
+      <c r="H563">
+        <v>0.9</v>
+      </c>
+      <c r="I563">
+        <v>15</v>
+      </c>
+      <c r="J563">
+        <v>0.2</v>
+      </c>
+      <c r="K563">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="564" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A564" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B564" t="s">
+        <v>10</v>
+      </c>
+      <c r="C564" t="s">
+        <v>2</v>
+      </c>
+      <c r="D564" s="3">
+        <v>4987</v>
+      </c>
+      <c r="E564" s="3">
+        <v>1388</v>
+      </c>
+      <c r="F564">
+        <v>3.8</v>
+      </c>
+      <c r="G564">
+        <v>122</v>
+      </c>
+      <c r="H564">
+        <v>3.1</v>
+      </c>
+      <c r="I564">
+        <v>23</v>
+      </c>
+      <c r="J564">
+        <v>0.3</v>
+      </c>
+      <c r="K564">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="565" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A565" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B565" t="s">
+        <v>10</v>
+      </c>
+      <c r="C565" t="s">
+        <v>3</v>
+      </c>
+      <c r="D565" s="3">
+        <v>8790</v>
+      </c>
+      <c r="E565" s="3">
+        <v>3620</v>
+      </c>
+      <c r="F565">
+        <v>9.9</v>
+      </c>
+      <c r="G565">
+        <v>369</v>
+      </c>
+      <c r="H565">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="I565">
+        <v>86</v>
+      </c>
+      <c r="J565">
+        <v>1.2</v>
+      </c>
+      <c r="K565">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A566" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B566" t="s">
+        <v>10</v>
+      </c>
+      <c r="C566" t="s">
+        <v>4</v>
+      </c>
+      <c r="D566" s="3">
+        <v>11352</v>
+      </c>
+      <c r="E566" s="3">
+        <v>5939</v>
+      </c>
+      <c r="F566">
+        <v>16.2</v>
+      </c>
+      <c r="G566">
+        <v>781</v>
+      </c>
+      <c r="H566">
+        <v>19.7</v>
+      </c>
+      <c r="I566">
+        <v>246</v>
+      </c>
+      <c r="J566">
+        <v>3.5</v>
+      </c>
+      <c r="K566">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="567" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A567" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B567" t="s">
+        <v>10</v>
+      </c>
+      <c r="C567" t="s">
+        <v>5</v>
+      </c>
+      <c r="D567" s="3">
+        <v>11687</v>
+      </c>
+      <c r="E567" s="3">
+        <v>7705</v>
+      </c>
+      <c r="F567">
+        <v>21</v>
+      </c>
+      <c r="G567" s="3">
+        <v>1307</v>
+      </c>
+      <c r="H567">
+        <v>33</v>
+      </c>
+      <c r="I567">
+        <v>752</v>
+      </c>
+      <c r="J567">
+        <v>10.7</v>
+      </c>
+      <c r="K567">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="568" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A568" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B568" t="s">
+        <v>10</v>
+      </c>
+      <c r="C568" t="s">
+        <v>6</v>
+      </c>
+      <c r="D568" s="3">
+        <v>11944</v>
+      </c>
+      <c r="E568" s="3">
+        <v>9187</v>
+      </c>
+      <c r="F568">
+        <v>25</v>
+      </c>
+      <c r="G568" s="3">
+        <v>1197</v>
+      </c>
+      <c r="H568">
+        <v>30.3</v>
+      </c>
+      <c r="I568" s="3">
+        <v>2175</v>
+      </c>
+      <c r="J568">
+        <v>30.9</v>
+      </c>
+      <c r="K568">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="569" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A569" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B569" t="s">
+        <v>10</v>
+      </c>
+      <c r="C569" t="s">
+        <v>12</v>
+      </c>
+      <c r="D569" s="3">
+        <v>9387</v>
+      </c>
+      <c r="E569" s="3">
+        <v>6677</v>
+      </c>
+      <c r="F569">
+        <v>18.2</v>
+      </c>
+      <c r="G569">
+        <v>113</v>
+      </c>
+      <c r="H569">
+        <v>2.9</v>
+      </c>
+      <c r="I569" s="3">
+        <v>2838</v>
+      </c>
+      <c r="J569">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="K569">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="570" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A570" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B570" t="s">
+        <v>10</v>
+      </c>
+      <c r="C570" t="s">
+        <v>13</v>
+      </c>
+      <c r="D570" s="3">
+        <v>2716</v>
+      </c>
+      <c r="E570" s="3">
+        <v>1506</v>
+      </c>
+      <c r="F570">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G570">
+        <v>12</v>
+      </c>
+      <c r="H570">
+        <v>0.3</v>
+      </c>
+      <c r="I570">
+        <v>898</v>
+      </c>
+      <c r="J570">
+        <v>12.8</v>
+      </c>
+      <c r="K570">
+        <v>33.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Covid-19_data_sexage.xlsx
+++ b/data/Covid-19_data_sexage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanjosevidal/Google Drive/Projects/Covid-19/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26078EF9-2CF7-284B-B125-18E43AE73CC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981049EE-8D63-3A46-9B25-6A5E1A009B00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{C24317C9-D1BD-7248-BEC1-07839536F6EA}"/>
   </bookViews>
@@ -46,6 +46,7 @@
     <definedName name="tabula_Actualizacion_78_COVID_19_2" localSheetId="0">Data!$C$511:$K$530</definedName>
     <definedName name="tabula_Actualizacion_79_COVID_19_2" localSheetId="0">Data!$C$531:$K$550</definedName>
     <definedName name="tabula_Actualizacion_80_COVID_19_2" localSheetId="0">Data!$C$551:$K$570</definedName>
+    <definedName name="tabula_Actualizacion_81_COVID_19_2__1" localSheetId="0">Data!$C$571:$K$590</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -484,7 +485,22 @@
     </textPr>
   </connection>
   <connection id="29" xr16:uid="{39B57FFF-D2D6-FA44-95D6-201633834398}" name="tabula-Actualizacion_80_COVID-19(2)" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_80_COVID-19(2).csv" decimal="," thousands="." comma="1">
+    <textPr sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_80_COVID-19(2).csv" decimal="," thousands="." comma="1">
+      <textFields count="9">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="30" xr16:uid="{1A49A886-E58C-5343-AA2E-DD549F217550}" name="tabula-Actualizacion_81_COVID-19(2)" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_81_COVID-19(2).csv" decimal="," thousands="." comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -502,7 +518,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="26">
   <si>
     <t>0-9</t>
   </si>
@@ -680,119 +696,123 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_81_COVID-19(2)_1" connectionId="30" xr16:uid="{6EBD5E78-C6DF-2E41-9BEC-F2E99D2C6A50}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_72_COVID-19(1)" connectionId="21" xr16:uid="{1488C0E5-7AB9-C44D-8BE2-997243B88982}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_75_COVID-19(1)" connectionId="24" xr16:uid="{D7A38836-E0C5-5046-B8FD-EF82AA804006}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_67_COVID-19(1)" connectionId="16" xr16:uid="{0DCC7075-52E5-6445-A2D9-0D0404D0E63E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_70_COVID-19(1)" connectionId="19" xr16:uid="{F30EDCDD-4769-4442-A6A9-407F59F6429F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_69_COVID-19(1)" connectionId="18" xr16:uid="{43D60223-767A-964E-8CC2-E64E5ACAFF9F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_52_COVID-19" connectionId="1" xr16:uid="{35D81D28-1058-4347-9DE2-5F2763DAC2A4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_64_COVID-19(1)" connectionId="13" xr16:uid="{24F5186E-14BA-4941-BB1A-F21AEE9F7F07}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_55_COVID-19" connectionId="4" xr16:uid="{10575DCA-3AE8-5C4C-A970-60205B471337}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_53_COVID-19" connectionId="2" xr16:uid="{31483431-2B39-A440-9E59-C26E082912EA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_80_COVID-19(2)" connectionId="29" xr16:uid="{9A2F5700-61ED-F044-A56E-7B5EC6DF1036}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_75_COVID-19(1)" connectionId="24" xr16:uid="{D7A38836-E0C5-5046-B8FD-EF82AA804006}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(1)" connectionId="9" xr16:uid="{C813FA0B-4B7A-0743-B527-E10C07F0E6C8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_55_COVID-19" connectionId="4" xr16:uid="{10575DCA-3AE8-5C4C-A970-60205B471337}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_65_COVID-19(1)" connectionId="14" xr16:uid="{1F7FC7F3-ADF7-CE4C-A901-C09AA03AA932}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_76_COVID-19(2)" connectionId="25" xr16:uid="{70AE20FA-7C65-AC4F-B077-971D1C6A5B94}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_60_COVID-19(1)" connectionId="8" xr16:uid="{C2F0088C-0355-9A48-BE55-175198337C67}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_59_COVID-19(1)" connectionId="7" xr16:uid="{6E93CE4F-1115-D449-959A-2A7263C31ABC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_71_COVID-19(1)" connectionId="20" xr16:uid="{E40B0E49-9F2B-2549-8124-9C24FFB9F4B1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_79_COVID-19(2)" connectionId="28" xr16:uid="{CE4041F5-2CDB-234C-8611-179139CF531A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_56_COVID-19(1)" connectionId="5" xr16:uid="{C5B10145-DA18-EE44-A918-E407BEA443E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_66_COVID-19(1)" connectionId="15" xr16:uid="{784FDDA9-F525-C54F-BA21-682143B55347}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_73_COVID-19(1)" connectionId="22" xr16:uid="{144BDA4A-6CCF-094D-8B47-C4994B28C9F4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(2)_1" connectionId="10" xr16:uid="{252D0C3F-8429-6D40-AFE6-2BAFDCF71E62}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_74_COVID-19(1)" connectionId="23" xr16:uid="{486A1335-E13C-A646-B386-9ED2A72BEEE6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_63_COVID-19(1)" connectionId="12" xr16:uid="{EFDFC980-4B86-C948-B035-B2786B80754E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_57_COVID-19(1)" connectionId="6" xr16:uid="{78E004BB-228B-5143-9AFE-91688C440A41}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_54_COVID-19" connectionId="3" xr16:uid="{E94F4815-0D2F-454F-8291-FCBF0C165C57}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_77_COVID-19(2)" connectionId="26" xr16:uid="{B46FF584-84EC-AE4D-BCE8-171BFEBEEDEE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_62_COVID-19(1)" connectionId="11" xr16:uid="{789174F4-7737-BE4C-9685-F15607B8C828}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_69_COVID-19(1)" connectionId="18" xr16:uid="{43D60223-767A-964E-8CC2-E64E5ACAFF9F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_60_COVID-19(1)" connectionId="8" xr16:uid="{C2F0088C-0355-9A48-BE55-175198337C67}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_79_COVID-19(2)" connectionId="28" xr16:uid="{CE4041F5-2CDB-234C-8611-179139CF531A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(1)" connectionId="9" xr16:uid="{C813FA0B-4B7A-0743-B527-E10C07F0E6C8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_72_COVID-19(1)" connectionId="21" xr16:uid="{1488C0E5-7AB9-C44D-8BE2-997243B88982}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_59_COVID-19(1)" connectionId="7" xr16:uid="{6E93CE4F-1115-D449-959A-2A7263C31ABC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_76_COVID-19(2)" connectionId="25" xr16:uid="{70AE20FA-7C65-AC4F-B077-971D1C6A5B94}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_73_COVID-19(1)" connectionId="22" xr16:uid="{144BDA4A-6CCF-094D-8B47-C4994B28C9F4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_77_COVID-19(2)" connectionId="26" xr16:uid="{B46FF584-84EC-AE4D-BCE8-171BFEBEEDEE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_70_COVID-19(1)" connectionId="19" xr16:uid="{F30EDCDD-4769-4442-A6A9-407F59F6429F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_64_COVID-19(1)" connectionId="13" xr16:uid="{24F5186E-14BA-4941-BB1A-F21AEE9F7F07}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_71_COVID-19(1)" connectionId="20" xr16:uid="{E40B0E49-9F2B-2549-8124-9C24FFB9F4B1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_63_COVID-19(1)" connectionId="12" xr16:uid="{EFDFC980-4B86-C948-B035-B2786B80754E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_54_COVID-19" connectionId="3" xr16:uid="{E94F4815-0D2F-454F-8291-FCBF0C165C57}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_67_COVID-19(1)" connectionId="16" xr16:uid="{0DCC7075-52E5-6445-A2D9-0D0404D0E63E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_65_COVID-19(1)" connectionId="14" xr16:uid="{1F7FC7F3-ADF7-CE4C-A901-C09AA03AA932}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(2)_1" connectionId="10" xr16:uid="{252D0C3F-8429-6D40-AFE6-2BAFDCF71E62}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_78_COVID-19(2)" connectionId="27" xr16:uid="{DA1E7C1F-5CE0-764E-9BAE-85540697E15C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_52_COVID-19" connectionId="1" xr16:uid="{35D81D28-1058-4347-9DE2-5F2763DAC2A4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_53_COVID-19" connectionId="2" xr16:uid="{31483431-2B39-A440-9E59-C26E082912EA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_66_COVID-19(1)" connectionId="15" xr16:uid="{784FDDA9-F525-C54F-BA21-682143B55347}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_57_COVID-19(1)" connectionId="6" xr16:uid="{78E004BB-228B-5143-9AFE-91688C440A41}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_68_COVID-19(1)" connectionId="17" xr16:uid="{15D6F25C-3F4D-0947-8994-7F669D041C1F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_68_COVID-19(1)" connectionId="17" xr16:uid="{15D6F25C-3F4D-0947-8994-7F669D041C1F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_78_COVID-19(2)" connectionId="27" xr16:uid="{DA1E7C1F-5CE0-764E-9BAE-85540697E15C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1092,10 +1112,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973FFFC2-62D5-A048-8409-BF1FADA21B40}">
-  <dimension ref="A1:T570"/>
+  <dimension ref="A1:T590"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A532" workbookViewId="0">
-      <selection activeCell="A570" sqref="A551:A570"/>
+    <sheetView tabSelected="1" topLeftCell="A560" workbookViewId="0">
+      <selection activeCell="E570" sqref="E570"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21130,6 +21150,706 @@
         <v>33.1</v>
       </c>
     </row>
+    <row r="571" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A571" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B571" t="s">
+        <v>9</v>
+      </c>
+      <c r="C571" t="s">
+        <v>0</v>
+      </c>
+      <c r="D571">
+        <v>215</v>
+      </c>
+      <c r="E571">
+        <v>76</v>
+      </c>
+      <c r="F571">
+        <v>0.3</v>
+      </c>
+      <c r="G571">
+        <v>9</v>
+      </c>
+      <c r="H571">
+        <v>0.5</v>
+      </c>
+      <c r="I571">
+        <v>1</v>
+      </c>
+      <c r="J571">
+        <v>0</v>
+      </c>
+      <c r="K571">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="572" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A572" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B572" t="s">
+        <v>9</v>
+      </c>
+      <c r="C572" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D572">
+        <v>438</v>
+      </c>
+      <c r="E572">
+        <v>91</v>
+      </c>
+      <c r="F572">
+        <v>0.3</v>
+      </c>
+      <c r="G572">
+        <v>5</v>
+      </c>
+      <c r="H572">
+        <v>0.3</v>
+      </c>
+      <c r="I572">
+        <v>2</v>
+      </c>
+      <c r="J572">
+        <v>0</v>
+      </c>
+      <c r="K572">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="573" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A573" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B573" t="s">
+        <v>9</v>
+      </c>
+      <c r="C573" t="s">
+        <v>1</v>
+      </c>
+      <c r="D573" s="3">
+        <v>4924</v>
+      </c>
+      <c r="E573">
+        <v>555</v>
+      </c>
+      <c r="F573">
+        <v>1.9</v>
+      </c>
+      <c r="G573">
+        <v>30</v>
+      </c>
+      <c r="H573">
+        <v>1.7</v>
+      </c>
+      <c r="I573">
+        <v>12</v>
+      </c>
+      <c r="J573">
+        <v>0.2</v>
+      </c>
+      <c r="K573">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="574" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A574" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B574" t="s">
+        <v>9</v>
+      </c>
+      <c r="C574" t="s">
+        <v>2</v>
+      </c>
+      <c r="D574" s="3">
+        <v>8393</v>
+      </c>
+      <c r="E574" s="3">
+        <v>1322</v>
+      </c>
+      <c r="F574">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G574">
+        <v>72</v>
+      </c>
+      <c r="H574">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I574">
+        <v>28</v>
+      </c>
+      <c r="J574">
+        <v>0.6</v>
+      </c>
+      <c r="K574">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="575" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A575" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B575" t="s">
+        <v>9</v>
+      </c>
+      <c r="C575" t="s">
+        <v>3</v>
+      </c>
+      <c r="D575" s="3">
+        <v>12135</v>
+      </c>
+      <c r="E575" s="3">
+        <v>2641</v>
+      </c>
+      <c r="F575">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G575">
+        <v>172</v>
+      </c>
+      <c r="H575">
+        <v>9.9</v>
+      </c>
+      <c r="I575">
+        <v>54</v>
+      </c>
+      <c r="J575">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K575">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="576" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A576" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B576" t="s">
+        <v>9</v>
+      </c>
+      <c r="C576" t="s">
+        <v>4</v>
+      </c>
+      <c r="D576" s="3">
+        <v>14682</v>
+      </c>
+      <c r="E576" s="3">
+        <v>4265</v>
+      </c>
+      <c r="F576">
+        <v>14.8</v>
+      </c>
+      <c r="G576">
+        <v>313</v>
+      </c>
+      <c r="H576">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="I576">
+        <v>120</v>
+      </c>
+      <c r="J576">
+        <v>2.4</v>
+      </c>
+      <c r="K576">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="577" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A577" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B577" t="s">
+        <v>9</v>
+      </c>
+      <c r="C577" t="s">
+        <v>5</v>
+      </c>
+      <c r="D577" s="3">
+        <v>10649</v>
+      </c>
+      <c r="E577" s="3">
+        <v>5210</v>
+      </c>
+      <c r="F577">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="G577">
+        <v>522</v>
+      </c>
+      <c r="H577">
+        <v>29.9</v>
+      </c>
+      <c r="I577">
+        <v>328</v>
+      </c>
+      <c r="J577">
+        <v>6.6</v>
+      </c>
+      <c r="K577">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A578" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B578" t="s">
+        <v>9</v>
+      </c>
+      <c r="C578" t="s">
+        <v>6</v>
+      </c>
+      <c r="D578" s="3">
+        <v>9360</v>
+      </c>
+      <c r="E578" s="3">
+        <v>6282</v>
+      </c>
+      <c r="F578">
+        <v>21.8</v>
+      </c>
+      <c r="G578">
+        <v>515</v>
+      </c>
+      <c r="H578">
+        <v>29.5</v>
+      </c>
+      <c r="I578">
+        <v>966</v>
+      </c>
+      <c r="J578">
+        <v>19.5</v>
+      </c>
+      <c r="K578">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="579" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A579" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B579" t="s">
+        <v>9</v>
+      </c>
+      <c r="C579" t="s">
+        <v>12</v>
+      </c>
+      <c r="D579" s="3">
+        <v>11590</v>
+      </c>
+      <c r="E579" s="3">
+        <v>6146</v>
+      </c>
+      <c r="F579">
+        <v>21.3</v>
+      </c>
+      <c r="G579">
+        <v>93</v>
+      </c>
+      <c r="H579">
+        <v>5.3</v>
+      </c>
+      <c r="I579" s="3">
+        <v>2171</v>
+      </c>
+      <c r="J579">
+        <v>43.8</v>
+      </c>
+      <c r="K579">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="580" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A580" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B580" t="s">
+        <v>9</v>
+      </c>
+      <c r="C580" t="s">
+        <v>13</v>
+      </c>
+      <c r="D580" s="3">
+        <v>6087</v>
+      </c>
+      <c r="E580" s="3">
+        <v>2256</v>
+      </c>
+      <c r="F580">
+        <v>7.8</v>
+      </c>
+      <c r="G580">
+        <v>13</v>
+      </c>
+      <c r="H580">
+        <v>0.7</v>
+      </c>
+      <c r="I580" s="3">
+        <v>1269</v>
+      </c>
+      <c r="J580">
+        <v>25.6</v>
+      </c>
+      <c r="K580">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="581" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A581" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B581" t="s">
+        <v>10</v>
+      </c>
+      <c r="C581" t="s">
+        <v>0</v>
+      </c>
+      <c r="D581">
+        <v>267</v>
+      </c>
+      <c r="E581">
+        <v>106</v>
+      </c>
+      <c r="F581">
+        <v>0.3</v>
+      </c>
+      <c r="G581">
+        <v>16</v>
+      </c>
+      <c r="H581">
+        <v>0.4</v>
+      </c>
+      <c r="I581">
+        <v>2</v>
+      </c>
+      <c r="J581">
+        <v>0</v>
+      </c>
+      <c r="K581">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="582" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A582" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B582" t="s">
+        <v>10</v>
+      </c>
+      <c r="C582" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D582">
+        <v>381</v>
+      </c>
+      <c r="E582">
+        <v>89</v>
+      </c>
+      <c r="F582">
+        <v>0.2</v>
+      </c>
+      <c r="G582">
+        <v>8</v>
+      </c>
+      <c r="H582">
+        <v>0.2</v>
+      </c>
+      <c r="I582">
+        <v>1</v>
+      </c>
+      <c r="J582">
+        <v>0</v>
+      </c>
+      <c r="K582">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="583" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A583" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B583" t="s">
+        <v>10</v>
+      </c>
+      <c r="C583" t="s">
+        <v>1</v>
+      </c>
+      <c r="D583" s="3">
+        <v>2570</v>
+      </c>
+      <c r="E583">
+        <v>521</v>
+      </c>
+      <c r="F583">
+        <v>1.3</v>
+      </c>
+      <c r="G583">
+        <v>38</v>
+      </c>
+      <c r="H583">
+        <v>0.9</v>
+      </c>
+      <c r="I583">
+        <v>18</v>
+      </c>
+      <c r="J583">
+        <v>0.2</v>
+      </c>
+      <c r="K583">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="584" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A584" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B584" t="s">
+        <v>10</v>
+      </c>
+      <c r="C584" t="s">
+        <v>2</v>
+      </c>
+      <c r="D584" s="3">
+        <v>5241</v>
+      </c>
+      <c r="E584" s="3">
+        <v>1469</v>
+      </c>
+      <c r="F584">
+        <v>3.8</v>
+      </c>
+      <c r="G584">
+        <v>126</v>
+      </c>
+      <c r="H584">
+        <v>3.1</v>
+      </c>
+      <c r="I584">
+        <v>29</v>
+      </c>
+      <c r="J584">
+        <v>0.4</v>
+      </c>
+      <c r="K584">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="585" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A585" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B585" t="s">
+        <v>10</v>
+      </c>
+      <c r="C585" t="s">
+        <v>3</v>
+      </c>
+      <c r="D585" s="3">
+        <v>9190</v>
+      </c>
+      <c r="E585" s="3">
+        <v>3817</v>
+      </c>
+      <c r="F585">
+        <v>9.9</v>
+      </c>
+      <c r="G585">
+        <v>381</v>
+      </c>
+      <c r="H585">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="I585">
+        <v>90</v>
+      </c>
+      <c r="J585">
+        <v>1.2</v>
+      </c>
+      <c r="K585">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A586" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B586" t="s">
+        <v>10</v>
+      </c>
+      <c r="C586" t="s">
+        <v>4</v>
+      </c>
+      <c r="D586" s="3">
+        <v>11875</v>
+      </c>
+      <c r="E586" s="3">
+        <v>6302</v>
+      </c>
+      <c r="F586">
+        <v>16.3</v>
+      </c>
+      <c r="G586">
+        <v>811</v>
+      </c>
+      <c r="H586">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="I586">
+        <v>263</v>
+      </c>
+      <c r="J586">
+        <v>3.6</v>
+      </c>
+      <c r="K586">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="587" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A587" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B587" t="s">
+        <v>10</v>
+      </c>
+      <c r="C587" t="s">
+        <v>5</v>
+      </c>
+      <c r="D587" s="3">
+        <v>12142</v>
+      </c>
+      <c r="E587" s="3">
+        <v>8063</v>
+      </c>
+      <c r="F587">
+        <v>20.9</v>
+      </c>
+      <c r="G587" s="3">
+        <v>1342</v>
+      </c>
+      <c r="H587">
+        <v>32.9</v>
+      </c>
+      <c r="I587">
+        <v>770</v>
+      </c>
+      <c r="J587">
+        <v>10.5</v>
+      </c>
+      <c r="K587">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="588" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A588" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B588" t="s">
+        <v>10</v>
+      </c>
+      <c r="C588" t="s">
+        <v>6</v>
+      </c>
+      <c r="D588" s="3">
+        <v>12402</v>
+      </c>
+      <c r="E588" s="3">
+        <v>9554</v>
+      </c>
+      <c r="F588">
+        <v>24.7</v>
+      </c>
+      <c r="G588" s="3">
+        <v>1222</v>
+      </c>
+      <c r="H588">
+        <v>30</v>
+      </c>
+      <c r="I588" s="3">
+        <v>2240</v>
+      </c>
+      <c r="J588">
+        <v>30.5</v>
+      </c>
+      <c r="K588">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="589" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A589" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B589" t="s">
+        <v>10</v>
+      </c>
+      <c r="C589" t="s">
+        <v>12</v>
+      </c>
+      <c r="D589" s="3">
+        <v>9903</v>
+      </c>
+      <c r="E589" s="3">
+        <v>7059</v>
+      </c>
+      <c r="F589">
+        <v>18.3</v>
+      </c>
+      <c r="G589">
+        <v>121</v>
+      </c>
+      <c r="H589">
+        <v>3</v>
+      </c>
+      <c r="I589" s="3">
+        <v>2985</v>
+      </c>
+      <c r="J589">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="K589">
+        <v>30.1</v>
+      </c>
+    </row>
+    <row r="590" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A590" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B590" t="s">
+        <v>10</v>
+      </c>
+      <c r="C590" t="s">
+        <v>13</v>
+      </c>
+      <c r="D590" s="3">
+        <v>2910</v>
+      </c>
+      <c r="E590" s="3">
+        <v>1623</v>
+      </c>
+      <c r="F590">
+        <v>4.2</v>
+      </c>
+      <c r="G590">
+        <v>14</v>
+      </c>
+      <c r="H590">
+        <v>0.3</v>
+      </c>
+      <c r="I590">
+        <v>944</v>
+      </c>
+      <c r="J590">
+        <v>12.9</v>
+      </c>
+      <c r="K590">
+        <v>32.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Covid-19_data_sexage.xlsx
+++ b/data/Covid-19_data_sexage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanjosevidal/Google Drive/Projects/Covid-19/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981049EE-8D63-3A46-9B25-6A5E1A009B00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDABC7F-3119-4144-81AE-8764BFBDED57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{C24317C9-D1BD-7248-BEC1-07839536F6EA}"/>
   </bookViews>
@@ -47,6 +47,7 @@
     <definedName name="tabula_Actualizacion_79_COVID_19_2" localSheetId="0">Data!$C$531:$K$550</definedName>
     <definedName name="tabula_Actualizacion_80_COVID_19_2" localSheetId="0">Data!$C$551:$K$570</definedName>
     <definedName name="tabula_Actualizacion_81_COVID_19_2__1" localSheetId="0">Data!$C$571:$K$590</definedName>
+    <definedName name="tabula_Actualizacion_82_COVID_19_2" localSheetId="0">Data!$C$591:$K$610</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -500,7 +501,22 @@
     </textPr>
   </connection>
   <connection id="30" xr16:uid="{1A49A886-E58C-5343-AA2E-DD549F217550}" name="tabula-Actualizacion_81_COVID-19(2)" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_81_COVID-19(2).csv" decimal="," thousands="." comma="1">
+    <textPr sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_81_COVID-19(2).csv" decimal="," thousands="." comma="1">
+      <textFields count="9">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="31" xr16:uid="{13BC3A90-512F-7C42-BFBA-6744599FACE3}" name="tabula-Actualizacion_82_COVID-19(2)" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_82_COVID-19(2).csv" decimal="," thousands="." comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -518,7 +534,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="26">
   <si>
     <t>0-9</t>
   </si>
@@ -696,7 +712,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_81_COVID-19(2)_1" connectionId="30" xr16:uid="{6EBD5E78-C6DF-2E41-9BEC-F2E99D2C6A50}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_82_COVID-19(2)" connectionId="31" xr16:uid="{0C41A9C7-F783-5441-AFC3-59C34E6567FF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -704,43 +720,43 @@
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_73_COVID-19(1)" connectionId="22" xr16:uid="{144BDA4A-6CCF-094D-8B47-C4994B28C9F4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_59_COVID-19(1)" connectionId="7" xr16:uid="{6E93CE4F-1115-D449-959A-2A7263C31ABC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_52_COVID-19" connectionId="1" xr16:uid="{35D81D28-1058-4347-9DE2-5F2763DAC2A4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_54_COVID-19" connectionId="3" xr16:uid="{E94F4815-0D2F-454F-8291-FCBF0C165C57}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_71_COVID-19(1)" connectionId="20" xr16:uid="{E40B0E49-9F2B-2549-8124-9C24FFB9F4B1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_75_COVID-19(1)" connectionId="24" xr16:uid="{D7A38836-E0C5-5046-B8FD-EF82AA804006}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_67_COVID-19(1)" connectionId="16" xr16:uid="{0DCC7075-52E5-6445-A2D9-0D0404D0E63E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_70_COVID-19(1)" connectionId="19" xr16:uid="{F30EDCDD-4769-4442-A6A9-407F59F6429F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_69_COVID-19(1)" connectionId="18" xr16:uid="{43D60223-767A-964E-8CC2-E64E5ACAFF9F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_52_COVID-19" connectionId="1" xr16:uid="{35D81D28-1058-4347-9DE2-5F2763DAC2A4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_64_COVID-19(1)" connectionId="13" xr16:uid="{24F5186E-14BA-4941-BB1A-F21AEE9F7F07}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_55_COVID-19" connectionId="4" xr16:uid="{10575DCA-3AE8-5C4C-A970-60205B471337}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_77_COVID-19(2)" connectionId="26" xr16:uid="{B46FF584-84EC-AE4D-BCE8-171BFEBEEDEE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_53_COVID-19" connectionId="2" xr16:uid="{31483431-2B39-A440-9E59-C26E082912EA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_81_COVID-19(2)_1" connectionId="30" xr16:uid="{6EBD5E78-C6DF-2E41-9BEC-F2E99D2C6A50}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_80_COVID-19(2)" connectionId="29" xr16:uid="{9A2F5700-61ED-F044-A56E-7B5EC6DF1036}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(2)_1" connectionId="10" xr16:uid="{252D0C3F-8429-6D40-AFE6-2BAFDCF71E62}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(1)" connectionId="9" xr16:uid="{C813FA0B-4B7A-0743-B527-E10C07F0E6C8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_68_COVID-19(1)" connectionId="17" xr16:uid="{15D6F25C-3F4D-0947-8994-7F669D041C1F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
@@ -748,71 +764,75 @@
 </file>
 
 <file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_64_COVID-19(1)" connectionId="13" xr16:uid="{24F5186E-14BA-4941-BB1A-F21AEE9F7F07}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(1)" connectionId="9" xr16:uid="{C813FA0B-4B7A-0743-B527-E10C07F0E6C8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_79_COVID-19(2)" connectionId="28" xr16:uid="{CE4041F5-2CDB-234C-8611-179139CF531A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_55_COVID-19" connectionId="4" xr16:uid="{10575DCA-3AE8-5C4C-A970-60205B471337}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_67_COVID-19(1)" connectionId="16" xr16:uid="{0DCC7075-52E5-6445-A2D9-0D0404D0E63E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_62_COVID-19(1)" connectionId="11" xr16:uid="{789174F4-7737-BE4C-9685-F15607B8C828}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_76_COVID-19(2)" connectionId="25" xr16:uid="{70AE20FA-7C65-AC4F-B077-971D1C6A5B94}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_74_COVID-19(1)" connectionId="23" xr16:uid="{486A1335-E13C-A646-B386-9ED2A72BEEE6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_56_COVID-19(1)" connectionId="5" xr16:uid="{C5B10145-DA18-EE44-A918-E407BEA443E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_63_COVID-19(1)" connectionId="12" xr16:uid="{EFDFC980-4B86-C948-B035-B2786B80754E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_53_COVID-19" connectionId="2" xr16:uid="{31483431-2B39-A440-9E59-C26E082912EA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_70_COVID-19(1)" connectionId="19" xr16:uid="{F30EDCDD-4769-4442-A6A9-407F59F6429F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_66_COVID-19(1)" connectionId="15" xr16:uid="{784FDDA9-F525-C54F-BA21-682143B55347}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_60_COVID-19(1)" connectionId="8" xr16:uid="{C2F0088C-0355-9A48-BE55-175198337C67}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_59_COVID-19(1)" connectionId="7" xr16:uid="{6E93CE4F-1115-D449-959A-2A7263C31ABC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_69_COVID-19(1)" connectionId="18" xr16:uid="{43D60223-767A-964E-8CC2-E64E5ACAFF9F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_71_COVID-19(1)" connectionId="20" xr16:uid="{E40B0E49-9F2B-2549-8124-9C24FFB9F4B1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_78_COVID-19(2)" connectionId="27" xr16:uid="{DA1E7C1F-5CE0-764E-9BAE-85540697E15C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_79_COVID-19(2)" connectionId="28" xr16:uid="{CE4041F5-2CDB-234C-8611-179139CF531A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_56_COVID-19(1)" connectionId="5" xr16:uid="{C5B10145-DA18-EE44-A918-E407BEA443E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_66_COVID-19(1)" connectionId="15" xr16:uid="{784FDDA9-F525-C54F-BA21-682143B55347}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_73_COVID-19(1)" connectionId="22" xr16:uid="{144BDA4A-6CCF-094D-8B47-C4994B28C9F4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(2)_1" connectionId="10" xr16:uid="{252D0C3F-8429-6D40-AFE6-2BAFDCF71E62}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_74_COVID-19(1)" connectionId="23" xr16:uid="{486A1335-E13C-A646-B386-9ED2A72BEEE6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_63_COVID-19(1)" connectionId="12" xr16:uid="{EFDFC980-4B86-C948-B035-B2786B80754E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_57_COVID-19(1)" connectionId="6" xr16:uid="{78E004BB-228B-5143-9AFE-91688C440A41}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_54_COVID-19" connectionId="3" xr16:uid="{E94F4815-0D2F-454F-8291-FCBF0C165C57}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_77_COVID-19(2)" connectionId="26" xr16:uid="{B46FF584-84EC-AE4D-BCE8-171BFEBEEDEE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_62_COVID-19(1)" connectionId="11" xr16:uid="{789174F4-7737-BE4C-9685-F15607B8C828}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_68_COVID-19(1)" connectionId="17" xr16:uid="{15D6F25C-3F4D-0947-8994-7F669D041C1F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_78_COVID-19(2)" connectionId="27" xr16:uid="{DA1E7C1F-5CE0-764E-9BAE-85540697E15C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_80_COVID-19(2)" connectionId="29" xr16:uid="{9A2F5700-61ED-F044-A56E-7B5EC6DF1036}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1112,10 +1132,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973FFFC2-62D5-A048-8409-BF1FADA21B40}">
-  <dimension ref="A1:T590"/>
+  <dimension ref="A1:T610"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A560" workbookViewId="0">
-      <selection activeCell="E570" sqref="E570"/>
+    <sheetView tabSelected="1" topLeftCell="A579" workbookViewId="0">
+      <selection activeCell="A597" sqref="A597"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21850,6 +21870,706 @@
         <v>32.4</v>
       </c>
     </row>
+    <row r="591" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A591" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B591" t="s">
+        <v>9</v>
+      </c>
+      <c r="C591" t="s">
+        <v>0</v>
+      </c>
+      <c r="D591">
+        <v>216</v>
+      </c>
+      <c r="E591">
+        <v>76</v>
+      </c>
+      <c r="F591">
+        <v>0.3</v>
+      </c>
+      <c r="G591">
+        <v>9</v>
+      </c>
+      <c r="H591">
+        <v>0.5</v>
+      </c>
+      <c r="I591">
+        <v>1</v>
+      </c>
+      <c r="J591">
+        <v>0</v>
+      </c>
+      <c r="K591">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="592" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A592" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B592" t="s">
+        <v>9</v>
+      </c>
+      <c r="C592" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D592">
+        <v>440</v>
+      </c>
+      <c r="E592">
+        <v>92</v>
+      </c>
+      <c r="F592">
+        <v>0.3</v>
+      </c>
+      <c r="G592">
+        <v>5</v>
+      </c>
+      <c r="H592">
+        <v>0.3</v>
+      </c>
+      <c r="I592">
+        <v>2</v>
+      </c>
+      <c r="J592">
+        <v>0</v>
+      </c>
+      <c r="K592">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="593" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A593" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B593" t="s">
+        <v>9</v>
+      </c>
+      <c r="C593" t="s">
+        <v>1</v>
+      </c>
+      <c r="D593" s="3">
+        <v>4944</v>
+      </c>
+      <c r="E593">
+        <v>557</v>
+      </c>
+      <c r="F593">
+        <v>1.9</v>
+      </c>
+      <c r="G593">
+        <v>30</v>
+      </c>
+      <c r="H593">
+        <v>1.7</v>
+      </c>
+      <c r="I593">
+        <v>12</v>
+      </c>
+      <c r="J593">
+        <v>0.2</v>
+      </c>
+      <c r="K593">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="594" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A594" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B594" t="s">
+        <v>9</v>
+      </c>
+      <c r="C594" t="s">
+        <v>2</v>
+      </c>
+      <c r="D594" s="3">
+        <v>8427</v>
+      </c>
+      <c r="E594" s="3">
+        <v>1324</v>
+      </c>
+      <c r="F594">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G594">
+        <v>72</v>
+      </c>
+      <c r="H594">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I594">
+        <v>28</v>
+      </c>
+      <c r="J594">
+        <v>0.6</v>
+      </c>
+      <c r="K594">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="595" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A595" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B595" t="s">
+        <v>9</v>
+      </c>
+      <c r="C595" t="s">
+        <v>3</v>
+      </c>
+      <c r="D595" s="3">
+        <v>12168</v>
+      </c>
+      <c r="E595" s="3">
+        <v>2648</v>
+      </c>
+      <c r="F595">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G595">
+        <v>172</v>
+      </c>
+      <c r="H595">
+        <v>9.9</v>
+      </c>
+      <c r="I595">
+        <v>54</v>
+      </c>
+      <c r="J595">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K595">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="596" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A596" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B596" t="s">
+        <v>9</v>
+      </c>
+      <c r="C596" t="s">
+        <v>4</v>
+      </c>
+      <c r="D596" s="3">
+        <v>14716</v>
+      </c>
+      <c r="E596" s="3">
+        <v>4271</v>
+      </c>
+      <c r="F596">
+        <v>14.8</v>
+      </c>
+      <c r="G596">
+        <v>314</v>
+      </c>
+      <c r="H596">
+        <v>18</v>
+      </c>
+      <c r="I596">
+        <v>122</v>
+      </c>
+      <c r="J596">
+        <v>2.4</v>
+      </c>
+      <c r="K596">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="597" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A597" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B597" t="s">
+        <v>9</v>
+      </c>
+      <c r="C597" t="s">
+        <v>5</v>
+      </c>
+      <c r="D597" s="3">
+        <v>10675</v>
+      </c>
+      <c r="E597" s="3">
+        <v>5217</v>
+      </c>
+      <c r="F597">
+        <v>18</v>
+      </c>
+      <c r="G597">
+        <v>523</v>
+      </c>
+      <c r="H597">
+        <v>30</v>
+      </c>
+      <c r="I597">
+        <v>329</v>
+      </c>
+      <c r="J597">
+        <v>6.6</v>
+      </c>
+      <c r="K597">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="598" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A598" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B598" t="s">
+        <v>9</v>
+      </c>
+      <c r="C598" t="s">
+        <v>6</v>
+      </c>
+      <c r="D598" s="3">
+        <v>9388</v>
+      </c>
+      <c r="E598" s="3">
+        <v>6295</v>
+      </c>
+      <c r="F598">
+        <v>21.8</v>
+      </c>
+      <c r="G598">
+        <v>515</v>
+      </c>
+      <c r="H598">
+        <v>29.5</v>
+      </c>
+      <c r="I598">
+        <v>968</v>
+      </c>
+      <c r="J598">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="K598">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="599" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A599" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B599" t="s">
+        <v>9</v>
+      </c>
+      <c r="C599" t="s">
+        <v>12</v>
+      </c>
+      <c r="D599" s="3">
+        <v>11648</v>
+      </c>
+      <c r="E599" s="3">
+        <v>6167</v>
+      </c>
+      <c r="F599">
+        <v>21.3</v>
+      </c>
+      <c r="G599">
+        <v>93</v>
+      </c>
+      <c r="H599">
+        <v>5.3</v>
+      </c>
+      <c r="I599" s="3">
+        <v>2187</v>
+      </c>
+      <c r="J599">
+        <v>43.8</v>
+      </c>
+      <c r="K599">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="600" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A600" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B600" t="s">
+        <v>9</v>
+      </c>
+      <c r="C600" t="s">
+        <v>13</v>
+      </c>
+      <c r="D600" s="3">
+        <v>6125</v>
+      </c>
+      <c r="E600" s="3">
+        <v>2271</v>
+      </c>
+      <c r="F600">
+        <v>7.9</v>
+      </c>
+      <c r="G600">
+        <v>13</v>
+      </c>
+      <c r="H600">
+        <v>0.7</v>
+      </c>
+      <c r="I600" s="3">
+        <v>1285</v>
+      </c>
+      <c r="J600">
+        <v>25.8</v>
+      </c>
+      <c r="K600">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="601" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A601" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B601" t="s">
+        <v>10</v>
+      </c>
+      <c r="C601" t="s">
+        <v>0</v>
+      </c>
+      <c r="D601">
+        <v>270</v>
+      </c>
+      <c r="E601">
+        <v>110</v>
+      </c>
+      <c r="F601">
+        <v>0.3</v>
+      </c>
+      <c r="G601">
+        <v>16</v>
+      </c>
+      <c r="H601">
+        <v>0.4</v>
+      </c>
+      <c r="I601">
+        <v>2</v>
+      </c>
+      <c r="J601">
+        <v>0</v>
+      </c>
+      <c r="K601">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="602" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A602" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B602" t="s">
+        <v>10</v>
+      </c>
+      <c r="C602" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D602">
+        <v>383</v>
+      </c>
+      <c r="E602">
+        <v>90</v>
+      </c>
+      <c r="F602">
+        <v>0.2</v>
+      </c>
+      <c r="G602">
+        <v>8</v>
+      </c>
+      <c r="H602">
+        <v>0.2</v>
+      </c>
+      <c r="I602">
+        <v>1</v>
+      </c>
+      <c r="J602">
+        <v>0</v>
+      </c>
+      <c r="K602">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="603" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A603" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B603" t="s">
+        <v>10</v>
+      </c>
+      <c r="C603" t="s">
+        <v>1</v>
+      </c>
+      <c r="D603" s="3">
+        <v>2577</v>
+      </c>
+      <c r="E603">
+        <v>524</v>
+      </c>
+      <c r="F603">
+        <v>1.4</v>
+      </c>
+      <c r="G603">
+        <v>38</v>
+      </c>
+      <c r="H603">
+        <v>0.9</v>
+      </c>
+      <c r="I603">
+        <v>18</v>
+      </c>
+      <c r="J603">
+        <v>0.2</v>
+      </c>
+      <c r="K603">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="604" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A604" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B604" t="s">
+        <v>10</v>
+      </c>
+      <c r="C604" t="s">
+        <v>2</v>
+      </c>
+      <c r="D604" s="3">
+        <v>5256</v>
+      </c>
+      <c r="E604" s="3">
+        <v>1471</v>
+      </c>
+      <c r="F604">
+        <v>3.8</v>
+      </c>
+      <c r="G604">
+        <v>126</v>
+      </c>
+      <c r="H604">
+        <v>3.1</v>
+      </c>
+      <c r="I604">
+        <v>29</v>
+      </c>
+      <c r="J604">
+        <v>0.4</v>
+      </c>
+      <c r="K604">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="605" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A605" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B605" t="s">
+        <v>10</v>
+      </c>
+      <c r="C605" t="s">
+        <v>3</v>
+      </c>
+      <c r="D605" s="3">
+        <v>9207</v>
+      </c>
+      <c r="E605" s="3">
+        <v>3819</v>
+      </c>
+      <c r="F605">
+        <v>9.9</v>
+      </c>
+      <c r="G605">
+        <v>381</v>
+      </c>
+      <c r="H605">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="I605">
+        <v>90</v>
+      </c>
+      <c r="J605">
+        <v>1.2</v>
+      </c>
+      <c r="K605">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A606" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B606" t="s">
+        <v>10</v>
+      </c>
+      <c r="C606" t="s">
+        <v>4</v>
+      </c>
+      <c r="D606" s="3">
+        <v>11904</v>
+      </c>
+      <c r="E606" s="3">
+        <v>6316</v>
+      </c>
+      <c r="F606">
+        <v>16.3</v>
+      </c>
+      <c r="G606">
+        <v>812</v>
+      </c>
+      <c r="H606">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="I606">
+        <v>264</v>
+      </c>
+      <c r="J606">
+        <v>3.6</v>
+      </c>
+      <c r="K606">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="607" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A607" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B607" t="s">
+        <v>10</v>
+      </c>
+      <c r="C607" t="s">
+        <v>5</v>
+      </c>
+      <c r="D607" s="3">
+        <v>12161</v>
+      </c>
+      <c r="E607" s="3">
+        <v>8072</v>
+      </c>
+      <c r="F607">
+        <v>20.9</v>
+      </c>
+      <c r="G607" s="3">
+        <v>1346</v>
+      </c>
+      <c r="H607">
+        <v>32.9</v>
+      </c>
+      <c r="I607">
+        <v>774</v>
+      </c>
+      <c r="J607">
+        <v>10.5</v>
+      </c>
+      <c r="K607">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="608" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A608" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B608" t="s">
+        <v>10</v>
+      </c>
+      <c r="C608" t="s">
+        <v>6</v>
+      </c>
+      <c r="D608" s="3">
+        <v>12428</v>
+      </c>
+      <c r="E608" s="3">
+        <v>9569</v>
+      </c>
+      <c r="F608">
+        <v>24.7</v>
+      </c>
+      <c r="G608" s="3">
+        <v>1225</v>
+      </c>
+      <c r="H608">
+        <v>30</v>
+      </c>
+      <c r="I608" s="3">
+        <v>2254</v>
+      </c>
+      <c r="J608">
+        <v>30.6</v>
+      </c>
+      <c r="K608">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="609" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A609" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B609" t="s">
+        <v>10</v>
+      </c>
+      <c r="C609" t="s">
+        <v>12</v>
+      </c>
+      <c r="D609" s="3">
+        <v>9926</v>
+      </c>
+      <c r="E609" s="3">
+        <v>7072</v>
+      </c>
+      <c r="F609">
+        <v>18.3</v>
+      </c>
+      <c r="G609">
+        <v>121</v>
+      </c>
+      <c r="H609">
+        <v>3</v>
+      </c>
+      <c r="I609" s="3">
+        <v>2998</v>
+      </c>
+      <c r="J609">
+        <v>40.6</v>
+      </c>
+      <c r="K609">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="610" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A610" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B610" t="s">
+        <v>10</v>
+      </c>
+      <c r="C610" t="s">
+        <v>13</v>
+      </c>
+      <c r="D610" s="3">
+        <v>2919</v>
+      </c>
+      <c r="E610" s="3">
+        <v>1629</v>
+      </c>
+      <c r="F610">
+        <v>4.2</v>
+      </c>
+      <c r="G610">
+        <v>14</v>
+      </c>
+      <c r="H610">
+        <v>0.3</v>
+      </c>
+      <c r="I610">
+        <v>946</v>
+      </c>
+      <c r="J610">
+        <v>12.8</v>
+      </c>
+      <c r="K610">
+        <v>32.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Covid-19_data_sexage.xlsx
+++ b/data/Covid-19_data_sexage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanjosevidal/Google Drive/Projects/Covid-19/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDABC7F-3119-4144-81AE-8764BFBDED57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E882FCE-1B74-F44A-AEC6-60A768A09BB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{C24317C9-D1BD-7248-BEC1-07839536F6EA}"/>
   </bookViews>
@@ -48,6 +48,7 @@
     <definedName name="tabula_Actualizacion_80_COVID_19_2" localSheetId="0">Data!$C$551:$K$570</definedName>
     <definedName name="tabula_Actualizacion_81_COVID_19_2__1" localSheetId="0">Data!$C$571:$K$590</definedName>
     <definedName name="tabula_Actualizacion_82_COVID_19_2" localSheetId="0">Data!$C$591:$K$610</definedName>
+    <definedName name="tabula_Actualizacion_83_COVID_19_2" localSheetId="0">Data!$C$611:$K$630</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -516,7 +517,22 @@
     </textPr>
   </connection>
   <connection id="31" xr16:uid="{13BC3A90-512F-7C42-BFBA-6744599FACE3}" name="tabula-Actualizacion_82_COVID-19(2)" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_82_COVID-19(2).csv" decimal="," thousands="." comma="1">
+    <textPr sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_82_COVID-19(2).csv" decimal="," thousands="." comma="1">
+      <textFields count="9">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="32" xr16:uid="{B8F3CF1B-AC03-A449-9741-4DEEA91CAC0D}" name="tabula-Actualizacion_83_COVID-19(2)" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_83_COVID-19(2).csv" decimal="," thousands="." comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -534,7 +550,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="26">
   <si>
     <t>0-9</t>
   </si>
@@ -712,127 +728,131 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_83_COVID-19(2)" connectionId="32" xr16:uid="{F68CD602-B2A0-604F-A4DC-A153B85916C5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(2)_1" connectionId="10" xr16:uid="{252D0C3F-8429-6D40-AFE6-2BAFDCF71E62}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_72_COVID-19(1)" connectionId="21" xr16:uid="{1488C0E5-7AB9-C44D-8BE2-997243B88982}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_74_COVID-19(1)" connectionId="23" xr16:uid="{486A1335-E13C-A646-B386-9ED2A72BEEE6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_79_COVID-19(2)" connectionId="28" xr16:uid="{CE4041F5-2CDB-234C-8611-179139CF531A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_71_COVID-19(1)" connectionId="20" xr16:uid="{E40B0E49-9F2B-2549-8124-9C24FFB9F4B1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_60_COVID-19(1)" connectionId="8" xr16:uid="{C2F0088C-0355-9A48-BE55-175198337C67}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_55_COVID-19" connectionId="4" xr16:uid="{10575DCA-3AE8-5C4C-A970-60205B471337}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_73_COVID-19(1)" connectionId="22" xr16:uid="{144BDA4A-6CCF-094D-8B47-C4994B28C9F4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_69_COVID-19(1)" connectionId="18" xr16:uid="{43D60223-767A-964E-8CC2-E64E5ACAFF9F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_82_COVID-19(2)" connectionId="31" xr16:uid="{0C41A9C7-F783-5441-AFC3-59C34E6567FF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_72_COVID-19(1)" connectionId="21" xr16:uid="{1488C0E5-7AB9-C44D-8BE2-997243B88982}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_57_COVID-19(1)" connectionId="6" xr16:uid="{78E004BB-228B-5143-9AFE-91688C440A41}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_73_COVID-19(1)" connectionId="22" xr16:uid="{144BDA4A-6CCF-094D-8B47-C4994B28C9F4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_56_COVID-19(1)" connectionId="5" xr16:uid="{C5B10145-DA18-EE44-A918-E407BEA443E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_65_COVID-19(1)" connectionId="14" xr16:uid="{1F7FC7F3-ADF7-CE4C-A901-C09AA03AA932}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_75_COVID-19(1)" connectionId="24" xr16:uid="{D7A38836-E0C5-5046-B8FD-EF82AA804006}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_68_COVID-19(1)" connectionId="17" xr16:uid="{15D6F25C-3F4D-0947-8994-7F669D041C1F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_67_COVID-19(1)" connectionId="16" xr16:uid="{0DCC7075-52E5-6445-A2D9-0D0404D0E63E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_77_COVID-19(2)" connectionId="26" xr16:uid="{B46FF584-84EC-AE4D-BCE8-171BFEBEEDEE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_59_COVID-19(1)" connectionId="7" xr16:uid="{6E93CE4F-1115-D449-959A-2A7263C31ABC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_78_COVID-19(2)" connectionId="27" xr16:uid="{DA1E7C1F-5CE0-764E-9BAE-85540697E15C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_64_COVID-19(1)" connectionId="13" xr16:uid="{24F5186E-14BA-4941-BB1A-F21AEE9F7F07}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_63_COVID-19(1)" connectionId="12" xr16:uid="{EFDFC980-4B86-C948-B035-B2786B80754E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_53_COVID-19" connectionId="2" xr16:uid="{31483431-2B39-A440-9E59-C26E082912EA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_62_COVID-19(1)" connectionId="11" xr16:uid="{789174F4-7737-BE4C-9685-F15607B8C828}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_81_COVID-19(2)_1" connectionId="30" xr16:uid="{6EBD5E78-C6DF-2E41-9BEC-F2E99D2C6A50}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_52_COVID-19" connectionId="1" xr16:uid="{35D81D28-1058-4347-9DE2-5F2763DAC2A4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_76_COVID-19(2)" connectionId="25" xr16:uid="{70AE20FA-7C65-AC4F-B077-971D1C6A5B94}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(1)" connectionId="9" xr16:uid="{C813FA0B-4B7A-0743-B527-E10C07F0E6C8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_54_COVID-19" connectionId="3" xr16:uid="{E94F4815-0D2F-454F-8291-FCBF0C165C57}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_71_COVID-19(1)" connectionId="20" xr16:uid="{E40B0E49-9F2B-2549-8124-9C24FFB9F4B1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_80_COVID-19(2)" connectionId="29" xr16:uid="{9A2F5700-61ED-F044-A56E-7B5EC6DF1036}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_75_COVID-19(1)" connectionId="24" xr16:uid="{D7A38836-E0C5-5046-B8FD-EF82AA804006}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_77_COVID-19(2)" connectionId="26" xr16:uid="{B46FF584-84EC-AE4D-BCE8-171BFEBEEDEE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_81_COVID-19(2)_1" connectionId="30" xr16:uid="{6EBD5E78-C6DF-2E41-9BEC-F2E99D2C6A50}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(2)_1" connectionId="10" xr16:uid="{252D0C3F-8429-6D40-AFE6-2BAFDCF71E62}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_68_COVID-19(1)" connectionId="17" xr16:uid="{15D6F25C-3F4D-0947-8994-7F669D041C1F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_65_COVID-19(1)" connectionId="14" xr16:uid="{1F7FC7F3-ADF7-CE4C-A901-C09AA03AA932}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_64_COVID-19(1)" connectionId="13" xr16:uid="{24F5186E-14BA-4941-BB1A-F21AEE9F7F07}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(1)" connectionId="9" xr16:uid="{C813FA0B-4B7A-0743-B527-E10C07F0E6C8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_79_COVID-19(2)" connectionId="28" xr16:uid="{CE4041F5-2CDB-234C-8611-179139CF531A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_55_COVID-19" connectionId="4" xr16:uid="{10575DCA-3AE8-5C4C-A970-60205B471337}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_67_COVID-19(1)" connectionId="16" xr16:uid="{0DCC7075-52E5-6445-A2D9-0D0404D0E63E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_62_COVID-19(1)" connectionId="11" xr16:uid="{789174F4-7737-BE4C-9685-F15607B8C828}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_76_COVID-19(2)" connectionId="25" xr16:uid="{70AE20FA-7C65-AC4F-B077-971D1C6A5B94}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_74_COVID-19(1)" connectionId="23" xr16:uid="{486A1335-E13C-A646-B386-9ED2A72BEEE6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_56_COVID-19(1)" connectionId="5" xr16:uid="{C5B10145-DA18-EE44-A918-E407BEA443E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_63_COVID-19(1)" connectionId="12" xr16:uid="{EFDFC980-4B86-C948-B035-B2786B80754E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_53_COVID-19" connectionId="2" xr16:uid="{31483431-2B39-A440-9E59-C26E082912EA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_70_COVID-19(1)" connectionId="19" xr16:uid="{F30EDCDD-4769-4442-A6A9-407F59F6429F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_66_COVID-19(1)" connectionId="15" xr16:uid="{784FDDA9-F525-C54F-BA21-682143B55347}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_60_COVID-19(1)" connectionId="8" xr16:uid="{C2F0088C-0355-9A48-BE55-175198337C67}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_69_COVID-19(1)" connectionId="18" xr16:uid="{43D60223-767A-964E-8CC2-E64E5ACAFF9F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_78_COVID-19(2)" connectionId="27" xr16:uid="{DA1E7C1F-5CE0-764E-9BAE-85540697E15C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_57_COVID-19(1)" connectionId="6" xr16:uid="{78E004BB-228B-5143-9AFE-91688C440A41}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_80_COVID-19(2)" connectionId="29" xr16:uid="{9A2F5700-61ED-F044-A56E-7B5EC6DF1036}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_70_COVID-19(1)" connectionId="19" xr16:uid="{F30EDCDD-4769-4442-A6A9-407F59F6429F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1132,10 +1152,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973FFFC2-62D5-A048-8409-BF1FADA21B40}">
-  <dimension ref="A1:T610"/>
+  <dimension ref="A1:T630"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A579" workbookViewId="0">
-      <selection activeCell="A597" sqref="A597"/>
+    <sheetView tabSelected="1" topLeftCell="A592" workbookViewId="0">
+      <selection activeCell="E605" sqref="E605"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22570,6 +22590,706 @@
         <v>32.4</v>
       </c>
     </row>
+    <row r="611" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A611" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B611" t="s">
+        <v>9</v>
+      </c>
+      <c r="C611" t="s">
+        <v>0</v>
+      </c>
+      <c r="D611">
+        <v>220</v>
+      </c>
+      <c r="E611">
+        <v>78</v>
+      </c>
+      <c r="F611">
+        <v>0.3</v>
+      </c>
+      <c r="G611">
+        <v>9</v>
+      </c>
+      <c r="H611">
+        <v>0.5</v>
+      </c>
+      <c r="I611">
+        <v>1</v>
+      </c>
+      <c r="J611">
+        <v>0</v>
+      </c>
+      <c r="K611">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="612" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A612" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B612" t="s">
+        <v>9</v>
+      </c>
+      <c r="C612" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D612">
+        <v>450</v>
+      </c>
+      <c r="E612">
+        <v>94</v>
+      </c>
+      <c r="F612">
+        <v>0.3</v>
+      </c>
+      <c r="G612">
+        <v>5</v>
+      </c>
+      <c r="H612">
+        <v>0.3</v>
+      </c>
+      <c r="I612">
+        <v>2</v>
+      </c>
+      <c r="J612">
+        <v>0</v>
+      </c>
+      <c r="K612">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="613" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A613" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B613" t="s">
+        <v>9</v>
+      </c>
+      <c r="C613" t="s">
+        <v>1</v>
+      </c>
+      <c r="D613" s="3">
+        <v>5009</v>
+      </c>
+      <c r="E613">
+        <v>560</v>
+      </c>
+      <c r="F613">
+        <v>1.9</v>
+      </c>
+      <c r="G613">
+        <v>30</v>
+      </c>
+      <c r="H613">
+        <v>1.7</v>
+      </c>
+      <c r="I613">
+        <v>9</v>
+      </c>
+      <c r="J613">
+        <v>0.2</v>
+      </c>
+      <c r="K613">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="614" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A614" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B614" t="s">
+        <v>9</v>
+      </c>
+      <c r="C614" t="s">
+        <v>2</v>
+      </c>
+      <c r="D614" s="3">
+        <v>8544</v>
+      </c>
+      <c r="E614" s="3">
+        <v>1336</v>
+      </c>
+      <c r="F614">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G614">
+        <v>72</v>
+      </c>
+      <c r="H614">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I614">
+        <v>23</v>
+      </c>
+      <c r="J614">
+        <v>0.4</v>
+      </c>
+      <c r="K614">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="615" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A615" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B615" t="s">
+        <v>9</v>
+      </c>
+      <c r="C615" t="s">
+        <v>3</v>
+      </c>
+      <c r="D615" s="3">
+        <v>12358</v>
+      </c>
+      <c r="E615" s="3">
+        <v>2666</v>
+      </c>
+      <c r="F615">
+        <v>9.1</v>
+      </c>
+      <c r="G615">
+        <v>172</v>
+      </c>
+      <c r="H615">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I615">
+        <v>49</v>
+      </c>
+      <c r="J615">
+        <v>1</v>
+      </c>
+      <c r="K615">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="616" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A616" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B616" t="s">
+        <v>9</v>
+      </c>
+      <c r="C616" t="s">
+        <v>4</v>
+      </c>
+      <c r="D616" s="3">
+        <v>14959</v>
+      </c>
+      <c r="E616" s="3">
+        <v>4306</v>
+      </c>
+      <c r="F616">
+        <v>14.8</v>
+      </c>
+      <c r="G616">
+        <v>316</v>
+      </c>
+      <c r="H616">
+        <v>18</v>
+      </c>
+      <c r="I616">
+        <v>120</v>
+      </c>
+      <c r="J616">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K616">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="617" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A617" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B617" t="s">
+        <v>9</v>
+      </c>
+      <c r="C617" t="s">
+        <v>5</v>
+      </c>
+      <c r="D617" s="3">
+        <v>10813</v>
+      </c>
+      <c r="E617" s="3">
+        <v>5235</v>
+      </c>
+      <c r="F617">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="G617">
+        <v>524</v>
+      </c>
+      <c r="H617">
+        <v>29.9</v>
+      </c>
+      <c r="I617">
+        <v>331</v>
+      </c>
+      <c r="J617">
+        <v>6.5</v>
+      </c>
+      <c r="K617">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="618" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A618" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B618" t="s">
+        <v>9</v>
+      </c>
+      <c r="C618" t="s">
+        <v>6</v>
+      </c>
+      <c r="D618" s="3">
+        <v>9525</v>
+      </c>
+      <c r="E618" s="3">
+        <v>6347</v>
+      </c>
+      <c r="F618">
+        <v>21.7</v>
+      </c>
+      <c r="G618">
+        <v>518</v>
+      </c>
+      <c r="H618">
+        <v>29.6</v>
+      </c>
+      <c r="I618">
+        <v>987</v>
+      </c>
+      <c r="J618">
+        <v>19.3</v>
+      </c>
+      <c r="K618">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="619" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A619" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B619" t="s">
+        <v>9</v>
+      </c>
+      <c r="C619" t="s">
+        <v>12</v>
+      </c>
+      <c r="D619" s="3">
+        <v>11970</v>
+      </c>
+      <c r="E619" s="3">
+        <v>6248</v>
+      </c>
+      <c r="F619">
+        <v>21.4</v>
+      </c>
+      <c r="G619">
+        <v>93</v>
+      </c>
+      <c r="H619">
+        <v>5.3</v>
+      </c>
+      <c r="I619" s="3">
+        <v>2249</v>
+      </c>
+      <c r="J619">
+        <v>43.9</v>
+      </c>
+      <c r="K619">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="620" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A620" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B620" t="s">
+        <v>9</v>
+      </c>
+      <c r="C620" t="s">
+        <v>13</v>
+      </c>
+      <c r="D620" s="3">
+        <v>6405</v>
+      </c>
+      <c r="E620" s="3">
+        <v>2321</v>
+      </c>
+      <c r="F620">
+        <v>8</v>
+      </c>
+      <c r="G620">
+        <v>13</v>
+      </c>
+      <c r="H620">
+        <v>0.7</v>
+      </c>
+      <c r="I620" s="3">
+        <v>1356</v>
+      </c>
+      <c r="J620">
+        <v>26.4</v>
+      </c>
+      <c r="K620">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="621" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A621" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B621" t="s">
+        <v>10</v>
+      </c>
+      <c r="C621" t="s">
+        <v>0</v>
+      </c>
+      <c r="D621">
+        <v>274</v>
+      </c>
+      <c r="E621">
+        <v>111</v>
+      </c>
+      <c r="F621">
+        <v>0.3</v>
+      </c>
+      <c r="G621">
+        <v>16</v>
+      </c>
+      <c r="H621">
+        <v>0.4</v>
+      </c>
+      <c r="I621">
+        <v>1</v>
+      </c>
+      <c r="J621">
+        <v>0</v>
+      </c>
+      <c r="K621">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="622" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A622" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B622" t="s">
+        <v>10</v>
+      </c>
+      <c r="C622" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D622">
+        <v>390</v>
+      </c>
+      <c r="E622">
+        <v>90</v>
+      </c>
+      <c r="F622">
+        <v>0.2</v>
+      </c>
+      <c r="G622">
+        <v>8</v>
+      </c>
+      <c r="H622">
+        <v>0.2</v>
+      </c>
+      <c r="I622">
+        <v>1</v>
+      </c>
+      <c r="J622">
+        <v>0</v>
+      </c>
+      <c r="K622">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="623" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A623" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B623" t="s">
+        <v>10</v>
+      </c>
+      <c r="C623" t="s">
+        <v>1</v>
+      </c>
+      <c r="D623" s="3">
+        <v>2612</v>
+      </c>
+      <c r="E623">
+        <v>524</v>
+      </c>
+      <c r="F623">
+        <v>1.3</v>
+      </c>
+      <c r="G623">
+        <v>38</v>
+      </c>
+      <c r="H623">
+        <v>0.9</v>
+      </c>
+      <c r="I623">
+        <v>15</v>
+      </c>
+      <c r="J623">
+        <v>0.2</v>
+      </c>
+      <c r="K623">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="624" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A624" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B624" t="s">
+        <v>10</v>
+      </c>
+      <c r="C624" t="s">
+        <v>2</v>
+      </c>
+      <c r="D624" s="3">
+        <v>5309</v>
+      </c>
+      <c r="E624" s="3">
+        <v>1478</v>
+      </c>
+      <c r="F624">
+        <v>3.8</v>
+      </c>
+      <c r="G624">
+        <v>127</v>
+      </c>
+      <c r="H624">
+        <v>3.1</v>
+      </c>
+      <c r="I624">
+        <v>25</v>
+      </c>
+      <c r="J624">
+        <v>0.3</v>
+      </c>
+      <c r="K624">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="625" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A625" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B625" t="s">
+        <v>10</v>
+      </c>
+      <c r="C625" t="s">
+        <v>3</v>
+      </c>
+      <c r="D625" s="3">
+        <v>9305</v>
+      </c>
+      <c r="E625" s="3">
+        <v>3831</v>
+      </c>
+      <c r="F625">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G625">
+        <v>383</v>
+      </c>
+      <c r="H625">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="I625">
+        <v>89</v>
+      </c>
+      <c r="J625">
+        <v>1.2</v>
+      </c>
+      <c r="K625">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="626" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A626" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B626" t="s">
+        <v>10</v>
+      </c>
+      <c r="C626" t="s">
+        <v>4</v>
+      </c>
+      <c r="D626" s="3">
+        <v>12018</v>
+      </c>
+      <c r="E626" s="3">
+        <v>6345</v>
+      </c>
+      <c r="F626">
+        <v>16.3</v>
+      </c>
+      <c r="G626">
+        <v>817</v>
+      </c>
+      <c r="H626">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="I626">
+        <v>268</v>
+      </c>
+      <c r="J626">
+        <v>3.6</v>
+      </c>
+      <c r="K626">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="627" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A627" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B627" t="s">
+        <v>10</v>
+      </c>
+      <c r="C627" t="s">
+        <v>5</v>
+      </c>
+      <c r="D627" s="3">
+        <v>12291</v>
+      </c>
+      <c r="E627" s="3">
+        <v>8118</v>
+      </c>
+      <c r="F627">
+        <v>20.9</v>
+      </c>
+      <c r="G627" s="3">
+        <v>1350</v>
+      </c>
+      <c r="H627">
+        <v>32.9</v>
+      </c>
+      <c r="I627">
+        <v>788</v>
+      </c>
+      <c r="J627">
+        <v>10.5</v>
+      </c>
+      <c r="K627">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="628" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A628" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B628" t="s">
+        <v>10</v>
+      </c>
+      <c r="C628" t="s">
+        <v>6</v>
+      </c>
+      <c r="D628" s="3">
+        <v>12566</v>
+      </c>
+      <c r="E628" s="3">
+        <v>9637</v>
+      </c>
+      <c r="F628">
+        <v>24.8</v>
+      </c>
+      <c r="G628" s="3">
+        <v>1230</v>
+      </c>
+      <c r="H628">
+        <v>30</v>
+      </c>
+      <c r="I628" s="3">
+        <v>2291</v>
+      </c>
+      <c r="J628">
+        <v>30.5</v>
+      </c>
+      <c r="K628">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="629" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A629" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B629" t="s">
+        <v>10</v>
+      </c>
+      <c r="C629" t="s">
+        <v>12</v>
+      </c>
+      <c r="D629" s="3">
+        <v>10092</v>
+      </c>
+      <c r="E629" s="3">
+        <v>7142</v>
+      </c>
+      <c r="F629">
+        <v>18.3</v>
+      </c>
+      <c r="G629">
+        <v>122</v>
+      </c>
+      <c r="H629">
+        <v>3</v>
+      </c>
+      <c r="I629" s="3">
+        <v>3057</v>
+      </c>
+      <c r="J629">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="K629">
+        <v>30.3</v>
+      </c>
+    </row>
+    <row r="630" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A630" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B630" t="s">
+        <v>10</v>
+      </c>
+      <c r="C630" t="s">
+        <v>13</v>
+      </c>
+      <c r="D630" s="3">
+        <v>2997</v>
+      </c>
+      <c r="E630" s="3">
+        <v>1650</v>
+      </c>
+      <c r="F630">
+        <v>4.2</v>
+      </c>
+      <c r="G630">
+        <v>14</v>
+      </c>
+      <c r="H630">
+        <v>0.3</v>
+      </c>
+      <c r="I630">
+        <v>972</v>
+      </c>
+      <c r="J630">
+        <v>12.9</v>
+      </c>
+      <c r="K630">
+        <v>32.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Covid-19_data_sexage.xlsx
+++ b/data/Covid-19_data_sexage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanjosevidal/Google Drive/Projects/Covid-19/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E882FCE-1B74-F44A-AEC6-60A768A09BB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7728F82E-68D4-9F48-B4DE-469A5504894C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{C24317C9-D1BD-7248-BEC1-07839536F6EA}"/>
   </bookViews>
@@ -49,6 +49,7 @@
     <definedName name="tabula_Actualizacion_81_COVID_19_2__1" localSheetId="0">Data!$C$571:$K$590</definedName>
     <definedName name="tabula_Actualizacion_82_COVID_19_2" localSheetId="0">Data!$C$591:$K$610</definedName>
     <definedName name="tabula_Actualizacion_83_COVID_19_2" localSheetId="0">Data!$C$611:$K$630</definedName>
+    <definedName name="tabula_Actualizacion_84_COVID_19_2" localSheetId="0">Data!$C$631:$K$650</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -532,7 +533,22 @@
     </textPr>
   </connection>
   <connection id="32" xr16:uid="{B8F3CF1B-AC03-A449-9741-4DEEA91CAC0D}" name="tabula-Actualizacion_83_COVID-19(2)" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_83_COVID-19(2).csv" decimal="," thousands="." comma="1">
+    <textPr sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_83_COVID-19(2).csv" decimal="," thousands="." comma="1">
+      <textFields count="9">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="33" xr16:uid="{CE06FBCA-845A-C449-B4E0-589DC191BE95}" name="tabula-Actualizacion_84_COVID-19(2)" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_84_COVID-19(2).csv" decimal="," thousands="." comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -550,7 +566,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="26">
   <si>
     <t>0-9</t>
   </si>
@@ -728,71 +744,71 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_84_COVID-19(2)" connectionId="33" xr16:uid="{658D76C0-0942-AF43-952E-435C4A2BDAC3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_82_COVID-19(2)" connectionId="31" xr16:uid="{0C41A9C7-F783-5441-AFC3-59C34E6567FF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(2)_1" connectionId="10" xr16:uid="{252D0C3F-8429-6D40-AFE6-2BAFDCF71E62}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_64_COVID-19(1)" connectionId="13" xr16:uid="{24F5186E-14BA-4941-BB1A-F21AEE9F7F07}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_68_COVID-19(1)" connectionId="17" xr16:uid="{15D6F25C-3F4D-0947-8994-7F669D041C1F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_60_COVID-19(1)" connectionId="8" xr16:uid="{C2F0088C-0355-9A48-BE55-175198337C67}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(1)" connectionId="9" xr16:uid="{C813FA0B-4B7A-0743-B527-E10C07F0E6C8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_52_COVID-19" connectionId="1" xr16:uid="{35D81D28-1058-4347-9DE2-5F2763DAC2A4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_67_COVID-19(1)" connectionId="16" xr16:uid="{0DCC7075-52E5-6445-A2D9-0D0404D0E63E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_72_COVID-19(1)" connectionId="21" xr16:uid="{1488C0E5-7AB9-C44D-8BE2-997243B88982}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_54_COVID-19" connectionId="3" xr16:uid="{E94F4815-0D2F-454F-8291-FCBF0C165C57}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_66_COVID-19(1)" connectionId="15" xr16:uid="{784FDDA9-F525-C54F-BA21-682143B55347}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_83_COVID-19(2)" connectionId="32" xr16:uid="{F68CD602-B2A0-604F-A4DC-A153B85916C5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(2)_1" connectionId="10" xr16:uid="{252D0C3F-8429-6D40-AFE6-2BAFDCF71E62}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_63_COVID-19(1)" connectionId="12" xr16:uid="{EFDFC980-4B86-C948-B035-B2786B80754E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_72_COVID-19(1)" connectionId="21" xr16:uid="{1488C0E5-7AB9-C44D-8BE2-997243B88982}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_56_COVID-19(1)" connectionId="5" xr16:uid="{C5B10145-DA18-EE44-A918-E407BEA443E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_74_COVID-19(1)" connectionId="23" xr16:uid="{486A1335-E13C-A646-B386-9ED2A72BEEE6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_79_COVID-19(2)" connectionId="28" xr16:uid="{CE4041F5-2CDB-234C-8611-179139CF531A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_71_COVID-19(1)" connectionId="20" xr16:uid="{E40B0E49-9F2B-2549-8124-9C24FFB9F4B1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_60_COVID-19(1)" connectionId="8" xr16:uid="{C2F0088C-0355-9A48-BE55-175198337C67}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_55_COVID-19" connectionId="4" xr16:uid="{10575DCA-3AE8-5C4C-A970-60205B471337}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_73_COVID-19(1)" connectionId="22" xr16:uid="{144BDA4A-6CCF-094D-8B47-C4994B28C9F4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_69_COVID-19(1)" connectionId="18" xr16:uid="{43D60223-767A-964E-8CC2-E64E5ACAFF9F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_82_COVID-19(2)" connectionId="31" xr16:uid="{0C41A9C7-F783-5441-AFC3-59C34E6567FF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_57_COVID-19(1)" connectionId="6" xr16:uid="{78E004BB-228B-5143-9AFE-91688C440A41}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_56_COVID-19(1)" connectionId="5" xr16:uid="{C5B10145-DA18-EE44-A918-E407BEA443E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_65_COVID-19(1)" connectionId="14" xr16:uid="{1F7FC7F3-ADF7-CE4C-A901-C09AA03AA932}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_75_COVID-19(1)" connectionId="24" xr16:uid="{D7A38836-E0C5-5046-B8FD-EF82AA804006}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_68_COVID-19(1)" connectionId="17" xr16:uid="{15D6F25C-3F4D-0947-8994-7F669D041C1F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_67_COVID-19(1)" connectionId="16" xr16:uid="{0DCC7075-52E5-6445-A2D9-0D0404D0E63E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
@@ -800,59 +816,63 @@
 </file>
 
 <file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_73_COVID-19(1)" connectionId="22" xr16:uid="{144BDA4A-6CCF-094D-8B47-C4994B28C9F4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_74_COVID-19(1)" connectionId="23" xr16:uid="{486A1335-E13C-A646-B386-9ED2A72BEEE6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_80_COVID-19(2)" connectionId="29" xr16:uid="{9A2F5700-61ED-F044-A56E-7B5EC6DF1036}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_65_COVID-19(1)" connectionId="14" xr16:uid="{1F7FC7F3-ADF7-CE4C-A901-C09AA03AA932}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_62_COVID-19(1)" connectionId="11" xr16:uid="{789174F4-7737-BE4C-9685-F15607B8C828}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_53_COVID-19" connectionId="2" xr16:uid="{31483431-2B39-A440-9E59-C26E082912EA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_59_COVID-19(1)" connectionId="7" xr16:uid="{6E93CE4F-1115-D449-959A-2A7263C31ABC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_69_COVID-19(1)" connectionId="18" xr16:uid="{43D60223-767A-964E-8CC2-E64E5ACAFF9F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_79_COVID-19(2)" connectionId="28" xr16:uid="{CE4041F5-2CDB-234C-8611-179139CF531A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_78_COVID-19(2)" connectionId="27" xr16:uid="{DA1E7C1F-5CE0-764E-9BAE-85540697E15C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_64_COVID-19(1)" connectionId="13" xr16:uid="{24F5186E-14BA-4941-BB1A-F21AEE9F7F07}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_75_COVID-19(1)" connectionId="24" xr16:uid="{D7A38836-E0C5-5046-B8FD-EF82AA804006}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_63_COVID-19(1)" connectionId="12" xr16:uid="{EFDFC980-4B86-C948-B035-B2786B80754E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_71_COVID-19(1)" connectionId="20" xr16:uid="{E40B0E49-9F2B-2549-8124-9C24FFB9F4B1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_53_COVID-19" connectionId="2" xr16:uid="{31483431-2B39-A440-9E59-C26E082912EA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_70_COVID-19(1)" connectionId="19" xr16:uid="{F30EDCDD-4769-4442-A6A9-407F59F6429F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_62_COVID-19(1)" connectionId="11" xr16:uid="{789174F4-7737-BE4C-9685-F15607B8C828}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_81_COVID-19(2)_1" connectionId="30" xr16:uid="{6EBD5E78-C6DF-2E41-9BEC-F2E99D2C6A50}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_52_COVID-19" connectionId="1" xr16:uid="{35D81D28-1058-4347-9DE2-5F2763DAC2A4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_76_COVID-19(2)" connectionId="25" xr16:uid="{70AE20FA-7C65-AC4F-B077-971D1C6A5B94}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(1)" connectionId="9" xr16:uid="{C813FA0B-4B7A-0743-B527-E10C07F0E6C8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_54_COVID-19" connectionId="3" xr16:uid="{E94F4815-0D2F-454F-8291-FCBF0C165C57}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_80_COVID-19(2)" connectionId="29" xr16:uid="{9A2F5700-61ED-F044-A56E-7B5EC6DF1036}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_66_COVID-19(1)" connectionId="15" xr16:uid="{784FDDA9-F525-C54F-BA21-682143B55347}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_70_COVID-19(1)" connectionId="19" xr16:uid="{F30EDCDD-4769-4442-A6A9-407F59F6429F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_81_COVID-19(2)_1" connectionId="30" xr16:uid="{6EBD5E78-C6DF-2E41-9BEC-F2E99D2C6A50}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1152,10 +1172,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973FFFC2-62D5-A048-8409-BF1FADA21B40}">
-  <dimension ref="A1:T630"/>
+  <dimension ref="A1:T650"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A592" workbookViewId="0">
-      <selection activeCell="E605" sqref="E605"/>
+    <sheetView tabSelected="1" topLeftCell="A612" workbookViewId="0">
+      <selection activeCell="D633" sqref="D633"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23290,6 +23310,706 @@
         <v>32.4</v>
       </c>
     </row>
+    <row r="631" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A631" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B631" t="s">
+        <v>9</v>
+      </c>
+      <c r="C631" t="s">
+        <v>0</v>
+      </c>
+      <c r="D631">
+        <v>225</v>
+      </c>
+      <c r="E631">
+        <v>78</v>
+      </c>
+      <c r="F631">
+        <v>0.3</v>
+      </c>
+      <c r="G631">
+        <v>9</v>
+      </c>
+      <c r="H631">
+        <v>0.5</v>
+      </c>
+      <c r="I631">
+        <v>1</v>
+      </c>
+      <c r="J631">
+        <v>0</v>
+      </c>
+      <c r="K631">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="632" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A632" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B632" t="s">
+        <v>9</v>
+      </c>
+      <c r="C632" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D632">
+        <v>465</v>
+      </c>
+      <c r="E632">
+        <v>95</v>
+      </c>
+      <c r="F632">
+        <v>0.3</v>
+      </c>
+      <c r="G632">
+        <v>5</v>
+      </c>
+      <c r="H632">
+        <v>0.3</v>
+      </c>
+      <c r="I632">
+        <v>2</v>
+      </c>
+      <c r="J632">
+        <v>0</v>
+      </c>
+      <c r="K632">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="633" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A633" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B633" t="s">
+        <v>9</v>
+      </c>
+      <c r="C633" t="s">
+        <v>1</v>
+      </c>
+      <c r="D633" s="3">
+        <v>5276</v>
+      </c>
+      <c r="E633">
+        <v>577</v>
+      </c>
+      <c r="F633">
+        <v>1.9</v>
+      </c>
+      <c r="G633">
+        <v>31</v>
+      </c>
+      <c r="H633">
+        <v>1.7</v>
+      </c>
+      <c r="I633">
+        <v>10</v>
+      </c>
+      <c r="J633">
+        <v>0.2</v>
+      </c>
+      <c r="K633">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="634" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A634" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B634" t="s">
+        <v>9</v>
+      </c>
+      <c r="C634" t="s">
+        <v>2</v>
+      </c>
+      <c r="D634" s="3">
+        <v>8852</v>
+      </c>
+      <c r="E634" s="3">
+        <v>1361</v>
+      </c>
+      <c r="F634">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G634">
+        <v>79</v>
+      </c>
+      <c r="H634">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I634">
+        <v>24</v>
+      </c>
+      <c r="J634">
+        <v>0.4</v>
+      </c>
+      <c r="K634">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="635" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A635" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B635" t="s">
+        <v>9</v>
+      </c>
+      <c r="C635" t="s">
+        <v>3</v>
+      </c>
+      <c r="D635" s="3">
+        <v>12892</v>
+      </c>
+      <c r="E635" s="3">
+        <v>2711</v>
+      </c>
+      <c r="F635">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G635">
+        <v>178</v>
+      </c>
+      <c r="H635">
+        <v>9.9</v>
+      </c>
+      <c r="I635">
+        <v>49</v>
+      </c>
+      <c r="J635">
+        <v>0.9</v>
+      </c>
+      <c r="K635">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="636" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A636" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B636" t="s">
+        <v>9</v>
+      </c>
+      <c r="C636" t="s">
+        <v>4</v>
+      </c>
+      <c r="D636" s="3">
+        <v>15504</v>
+      </c>
+      <c r="E636" s="3">
+        <v>4346</v>
+      </c>
+      <c r="F636">
+        <v>14.7</v>
+      </c>
+      <c r="G636">
+        <v>320</v>
+      </c>
+      <c r="H636">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="I636">
+        <v>121</v>
+      </c>
+      <c r="J636">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K636">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="637" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A637" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B637" t="s">
+        <v>9</v>
+      </c>
+      <c r="C637" t="s">
+        <v>5</v>
+      </c>
+      <c r="D637" s="3">
+        <v>11097</v>
+      </c>
+      <c r="E637" s="3">
+        <v>5274</v>
+      </c>
+      <c r="F637">
+        <v>17.8</v>
+      </c>
+      <c r="G637">
+        <v>535</v>
+      </c>
+      <c r="H637">
+        <v>29.9</v>
+      </c>
+      <c r="I637">
+        <v>339</v>
+      </c>
+      <c r="J637">
+        <v>6.3</v>
+      </c>
+      <c r="K637">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="638" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A638" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B638" t="s">
+        <v>9</v>
+      </c>
+      <c r="C638" t="s">
+        <v>6</v>
+      </c>
+      <c r="D638" s="3">
+        <v>9733</v>
+      </c>
+      <c r="E638" s="3">
+        <v>6373</v>
+      </c>
+      <c r="F638">
+        <v>21.5</v>
+      </c>
+      <c r="G638">
+        <v>527</v>
+      </c>
+      <c r="H638">
+        <v>29.4</v>
+      </c>
+      <c r="I638" s="3">
+        <v>1027</v>
+      </c>
+      <c r="J638">
+        <v>19.2</v>
+      </c>
+      <c r="K638">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="639" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A639" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B639" t="s">
+        <v>9</v>
+      </c>
+      <c r="C639" t="s">
+        <v>12</v>
+      </c>
+      <c r="D639" s="3">
+        <v>12534</v>
+      </c>
+      <c r="E639" s="3">
+        <v>6388</v>
+      </c>
+      <c r="F639">
+        <v>21.6</v>
+      </c>
+      <c r="G639">
+        <v>93</v>
+      </c>
+      <c r="H639">
+        <v>5.2</v>
+      </c>
+      <c r="I639" s="3">
+        <v>2343</v>
+      </c>
+      <c r="J639">
+        <v>43.7</v>
+      </c>
+      <c r="K639">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="640" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A640" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B640" t="s">
+        <v>9</v>
+      </c>
+      <c r="C640" t="s">
+        <v>13</v>
+      </c>
+      <c r="D640" s="3">
+        <v>6751</v>
+      </c>
+      <c r="E640" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F640">
+        <v>8.1</v>
+      </c>
+      <c r="G640">
+        <v>13</v>
+      </c>
+      <c r="H640">
+        <v>0.7</v>
+      </c>
+      <c r="I640" s="3">
+        <v>1442</v>
+      </c>
+      <c r="J640">
+        <v>26.9</v>
+      </c>
+      <c r="K640">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="641" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A641" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B641" t="s">
+        <v>10</v>
+      </c>
+      <c r="C641" t="s">
+        <v>0</v>
+      </c>
+      <c r="D641">
+        <v>277</v>
+      </c>
+      <c r="E641">
+        <v>113</v>
+      </c>
+      <c r="F641">
+        <v>0.3</v>
+      </c>
+      <c r="G641">
+        <v>17</v>
+      </c>
+      <c r="H641">
+        <v>0.4</v>
+      </c>
+      <c r="I641">
+        <v>1</v>
+      </c>
+      <c r="J641">
+        <v>0</v>
+      </c>
+      <c r="K641">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="642" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A642" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B642" t="s">
+        <v>10</v>
+      </c>
+      <c r="C642" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D642">
+        <v>404</v>
+      </c>
+      <c r="E642">
+        <v>94</v>
+      </c>
+      <c r="F642">
+        <v>0.2</v>
+      </c>
+      <c r="G642">
+        <v>8</v>
+      </c>
+      <c r="H642">
+        <v>0.2</v>
+      </c>
+      <c r="I642">
+        <v>1</v>
+      </c>
+      <c r="J642">
+        <v>0</v>
+      </c>
+      <c r="K642">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="643" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A643" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B643" t="s">
+        <v>10</v>
+      </c>
+      <c r="C643" t="s">
+        <v>1</v>
+      </c>
+      <c r="D643" s="3">
+        <v>2684</v>
+      </c>
+      <c r="E643">
+        <v>531</v>
+      </c>
+      <c r="F643">
+        <v>1.4</v>
+      </c>
+      <c r="G643">
+        <v>37</v>
+      </c>
+      <c r="H643">
+        <v>0.9</v>
+      </c>
+      <c r="I643">
+        <v>15</v>
+      </c>
+      <c r="J643">
+        <v>0.2</v>
+      </c>
+      <c r="K643">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="644" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A644" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B644" t="s">
+        <v>10</v>
+      </c>
+      <c r="C644" t="s">
+        <v>2</v>
+      </c>
+      <c r="D644" s="3">
+        <v>5452</v>
+      </c>
+      <c r="E644" s="3">
+        <v>1484</v>
+      </c>
+      <c r="F644">
+        <v>3.8</v>
+      </c>
+      <c r="G644">
+        <v>128</v>
+      </c>
+      <c r="H644">
+        <v>3.1</v>
+      </c>
+      <c r="I644">
+        <v>26</v>
+      </c>
+      <c r="J644">
+        <v>0.3</v>
+      </c>
+      <c r="K644">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="645" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A645" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B645" t="s">
+        <v>10</v>
+      </c>
+      <c r="C645" t="s">
+        <v>3</v>
+      </c>
+      <c r="D645" s="3">
+        <v>9537</v>
+      </c>
+      <c r="E645" s="3">
+        <v>3859</v>
+      </c>
+      <c r="F645">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G645">
+        <v>382</v>
+      </c>
+      <c r="H645">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I645">
+        <v>89</v>
+      </c>
+      <c r="J645">
+        <v>1.2</v>
+      </c>
+      <c r="K645">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="646" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A646" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B646" t="s">
+        <v>10</v>
+      </c>
+      <c r="C646" t="s">
+        <v>4</v>
+      </c>
+      <c r="D646" s="3">
+        <v>12289</v>
+      </c>
+      <c r="E646" s="3">
+        <v>6415</v>
+      </c>
+      <c r="F646">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="G646">
+        <v>841</v>
+      </c>
+      <c r="H646">
+        <v>20.2</v>
+      </c>
+      <c r="I646">
+        <v>279</v>
+      </c>
+      <c r="J646">
+        <v>3.6</v>
+      </c>
+      <c r="K646">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="647" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A647" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B647" t="s">
+        <v>10</v>
+      </c>
+      <c r="C647" t="s">
+        <v>5</v>
+      </c>
+      <c r="D647" s="3">
+        <v>12498</v>
+      </c>
+      <c r="E647" s="3">
+        <v>8159</v>
+      </c>
+      <c r="F647">
+        <v>20.8</v>
+      </c>
+      <c r="G647" s="3">
+        <v>1359</v>
+      </c>
+      <c r="H647">
+        <v>32.6</v>
+      </c>
+      <c r="I647">
+        <v>810</v>
+      </c>
+      <c r="J647">
+        <v>10.5</v>
+      </c>
+      <c r="K647">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="648" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A648" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B648" t="s">
+        <v>10</v>
+      </c>
+      <c r="C648" t="s">
+        <v>6</v>
+      </c>
+      <c r="D648" s="3">
+        <v>12737</v>
+      </c>
+      <c r="E648" s="3">
+        <v>9648</v>
+      </c>
+      <c r="F648">
+        <v>24.6</v>
+      </c>
+      <c r="G648" s="3">
+        <v>1254</v>
+      </c>
+      <c r="H648">
+        <v>30.1</v>
+      </c>
+      <c r="I648" s="3">
+        <v>2347</v>
+      </c>
+      <c r="J648">
+        <v>30.4</v>
+      </c>
+      <c r="K648">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="649" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A649" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B649" t="s">
+        <v>10</v>
+      </c>
+      <c r="C649" t="s">
+        <v>12</v>
+      </c>
+      <c r="D649" s="3">
+        <v>10298</v>
+      </c>
+      <c r="E649" s="3">
+        <v>7247</v>
+      </c>
+      <c r="F649">
+        <v>18.5</v>
+      </c>
+      <c r="G649">
+        <v>125</v>
+      </c>
+      <c r="H649">
+        <v>3</v>
+      </c>
+      <c r="I649" s="3">
+        <v>3148</v>
+      </c>
+      <c r="J649">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="K649">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="650" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A650" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B650" t="s">
+        <v>10</v>
+      </c>
+      <c r="C650" t="s">
+        <v>13</v>
+      </c>
+      <c r="D650" s="3">
+        <v>3077</v>
+      </c>
+      <c r="E650" s="3">
+        <v>1685</v>
+      </c>
+      <c r="F650">
+        <v>4.3</v>
+      </c>
+      <c r="G650">
+        <v>15</v>
+      </c>
+      <c r="H650">
+        <v>0.4</v>
+      </c>
+      <c r="I650" s="3">
+        <v>1004</v>
+      </c>
+      <c r="J650">
+        <v>13</v>
+      </c>
+      <c r="K650">
+        <v>32.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Covid-19_data_sexage.xlsx
+++ b/data/Covid-19_data_sexage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanjosevidal/Google Drive/Projects/Covid-19/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7728F82E-68D4-9F48-B4DE-469A5504894C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC7E1FF-6B0A-8441-BB60-3588BB34A7FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{C24317C9-D1BD-7248-BEC1-07839536F6EA}"/>
   </bookViews>
@@ -50,6 +50,7 @@
     <definedName name="tabula_Actualizacion_82_COVID_19_2" localSheetId="0">Data!$C$591:$K$610</definedName>
     <definedName name="tabula_Actualizacion_83_COVID_19_2" localSheetId="0">Data!$C$611:$K$630</definedName>
     <definedName name="tabula_Actualizacion_84_COVID_19_2" localSheetId="0">Data!$C$631:$K$650</definedName>
+    <definedName name="tabula_Actualizacion_85_COVID_19_2" localSheetId="0">Data!$C$651:$K$670</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -548,7 +549,22 @@
     </textPr>
   </connection>
   <connection id="33" xr16:uid="{CE06FBCA-845A-C449-B4E0-589DC191BE95}" name="tabula-Actualizacion_84_COVID-19(2)" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_84_COVID-19(2).csv" decimal="," thousands="." comma="1">
+    <textPr sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_84_COVID-19(2).csv" decimal="," thousands="." comma="1">
+      <textFields count="9">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="34" xr16:uid="{DD4A4591-5F2F-AC4F-8155-7E45BE8B2C86}" name="tabula-Actualizacion_85_COVID-19(2)" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_85_COVID-19(2).csv" decimal="," thousands="." comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -566,7 +582,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="26">
   <si>
     <t>0-9</t>
   </si>
@@ -744,27 +760,27 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_84_COVID-19(2)" connectionId="33" xr16:uid="{658D76C0-0942-AF43-952E-435C4A2BDAC3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_85_COVID-19(2)" connectionId="34" xr16:uid="{4236AA15-44DD-864C-BBB9-D1CF1013BE00}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_59_COVID-19(1)" connectionId="7" xr16:uid="{6E93CE4F-1115-D449-959A-2A7263C31ABC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_54_COVID-19" connectionId="3" xr16:uid="{E94F4815-0D2F-454F-8291-FCBF0C165C57}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_82_COVID-19(2)" connectionId="31" xr16:uid="{0C41A9C7-F783-5441-AFC3-59C34E6567FF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(2)_1" connectionId="10" xr16:uid="{252D0C3F-8429-6D40-AFE6-2BAFDCF71E62}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_64_COVID-19(1)" connectionId="13" xr16:uid="{24F5186E-14BA-4941-BB1A-F21AEE9F7F07}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_68_COVID-19(1)" connectionId="17" xr16:uid="{15D6F25C-3F4D-0947-8994-7F669D041C1F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_80_COVID-19(2)" connectionId="29" xr16:uid="{9A2F5700-61ED-F044-A56E-7B5EC6DF1036}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_60_COVID-19(1)" connectionId="8" xr16:uid="{C2F0088C-0355-9A48-BE55-175198337C67}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_55_COVID-19" connectionId="4" xr16:uid="{10575DCA-3AE8-5C4C-A970-60205B471337}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
@@ -772,107 +788,111 @@
 </file>
 
 <file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_75_COVID-19(1)" connectionId="24" xr16:uid="{D7A38836-E0C5-5046-B8FD-EF82AA804006}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_69_COVID-19(1)" connectionId="18" xr16:uid="{43D60223-767A-964E-8CC2-E64E5ACAFF9F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_57_COVID-19(1)" connectionId="6" xr16:uid="{78E004BB-228B-5143-9AFE-91688C440A41}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(2)_1" connectionId="10" xr16:uid="{252D0C3F-8429-6D40-AFE6-2BAFDCF71E62}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_68_COVID-19(1)" connectionId="17" xr16:uid="{15D6F25C-3F4D-0947-8994-7F669D041C1F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_71_COVID-19(1)" connectionId="20" xr16:uid="{E40B0E49-9F2B-2549-8124-9C24FFB9F4B1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_84_COVID-19(2)" connectionId="33" xr16:uid="{658D76C0-0942-AF43-952E-435C4A2BDAC3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_65_COVID-19(1)" connectionId="14" xr16:uid="{1F7FC7F3-ADF7-CE4C-A901-C09AA03AA932}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_83_COVID-19(2)" connectionId="32" xr16:uid="{F68CD602-B2A0-604F-A4DC-A153B85916C5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_52_COVID-19" connectionId="1" xr16:uid="{35D81D28-1058-4347-9DE2-5F2763DAC2A4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_66_COVID-19(1)" connectionId="15" xr16:uid="{784FDDA9-F525-C54F-BA21-682143B55347}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_79_COVID-19(2)" connectionId="28" xr16:uid="{CE4041F5-2CDB-234C-8611-179139CF531A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_77_COVID-19(2)" connectionId="26" xr16:uid="{B46FF584-84EC-AE4D-BCE8-171BFEBEEDEE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_67_COVID-19(1)" connectionId="16" xr16:uid="{0DCC7075-52E5-6445-A2D9-0D0404D0E63E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_64_COVID-19(1)" connectionId="13" xr16:uid="{24F5186E-14BA-4941-BB1A-F21AEE9F7F07}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_76_COVID-19(2)" connectionId="25" xr16:uid="{70AE20FA-7C65-AC4F-B077-971D1C6A5B94}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_70_COVID-19(1)" connectionId="19" xr16:uid="{F30EDCDD-4769-4442-A6A9-407F59F6429F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_63_COVID-19(1)" connectionId="12" xr16:uid="{EFDFC980-4B86-C948-B035-B2786B80754E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_62_COVID-19(1)" connectionId="11" xr16:uid="{789174F4-7737-BE4C-9685-F15607B8C828}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_73_COVID-19(1)" connectionId="22" xr16:uid="{144BDA4A-6CCF-094D-8B47-C4994B28C9F4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_72_COVID-19(1)" connectionId="21" xr16:uid="{1488C0E5-7AB9-C44D-8BE2-997243B88982}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_54_COVID-19" connectionId="3" xr16:uid="{E94F4815-0D2F-454F-8291-FCBF0C165C57}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_53_COVID-19" connectionId="2" xr16:uid="{31483431-2B39-A440-9E59-C26E082912EA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_66_COVID-19(1)" connectionId="15" xr16:uid="{784FDDA9-F525-C54F-BA21-682143B55347}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_74_COVID-19(1)" connectionId="23" xr16:uid="{486A1335-E13C-A646-B386-9ED2A72BEEE6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_83_COVID-19(2)" connectionId="32" xr16:uid="{F68CD602-B2A0-604F-A4DC-A153B85916C5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_63_COVID-19(1)" connectionId="12" xr16:uid="{EFDFC980-4B86-C948-B035-B2786B80754E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_56_COVID-19(1)" connectionId="5" xr16:uid="{C5B10145-DA18-EE44-A918-E407BEA443E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_55_COVID-19" connectionId="4" xr16:uid="{10575DCA-3AE8-5C4C-A970-60205B471337}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_57_COVID-19(1)" connectionId="6" xr16:uid="{78E004BB-228B-5143-9AFE-91688C440A41}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_77_COVID-19(2)" connectionId="26" xr16:uid="{B46FF584-84EC-AE4D-BCE8-171BFEBEEDEE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_73_COVID-19(1)" connectionId="22" xr16:uid="{144BDA4A-6CCF-094D-8B47-C4994B28C9F4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_74_COVID-19(1)" connectionId="23" xr16:uid="{486A1335-E13C-A646-B386-9ED2A72BEEE6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_80_COVID-19(2)" connectionId="29" xr16:uid="{9A2F5700-61ED-F044-A56E-7B5EC6DF1036}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_65_COVID-19(1)" connectionId="14" xr16:uid="{1F7FC7F3-ADF7-CE4C-A901-C09AA03AA932}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_62_COVID-19(1)" connectionId="11" xr16:uid="{789174F4-7737-BE4C-9685-F15607B8C828}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_53_COVID-19" connectionId="2" xr16:uid="{31483431-2B39-A440-9E59-C26E082912EA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_59_COVID-19(1)" connectionId="7" xr16:uid="{6E93CE4F-1115-D449-959A-2A7263C31ABC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_69_COVID-19(1)" connectionId="18" xr16:uid="{43D60223-767A-964E-8CC2-E64E5ACAFF9F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_79_COVID-19(2)" connectionId="28" xr16:uid="{CE4041F5-2CDB-234C-8611-179139CF531A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_78_COVID-19(2)" connectionId="27" xr16:uid="{DA1E7C1F-5CE0-764E-9BAE-85540697E15C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_75_COVID-19(1)" connectionId="24" xr16:uid="{D7A38836-E0C5-5046-B8FD-EF82AA804006}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_71_COVID-19(1)" connectionId="20" xr16:uid="{E40B0E49-9F2B-2549-8124-9C24FFB9F4B1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_70_COVID-19(1)" connectionId="19" xr16:uid="{F30EDCDD-4769-4442-A6A9-407F59F6429F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_60_COVID-19(1)" connectionId="8" xr16:uid="{C2F0088C-0355-9A48-BE55-175198337C67}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_76_COVID-19(2)" connectionId="25" xr16:uid="{70AE20FA-7C65-AC4F-B077-971D1C6A5B94}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_81_COVID-19(2)_1" connectionId="30" xr16:uid="{6EBD5E78-C6DF-2E41-9BEC-F2E99D2C6A50}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_81_COVID-19(2)_1" connectionId="30" xr16:uid="{6EBD5E78-C6DF-2E41-9BEC-F2E99D2C6A50}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_78_COVID-19(2)" connectionId="27" xr16:uid="{DA1E7C1F-5CE0-764E-9BAE-85540697E15C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1172,10 +1192,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973FFFC2-62D5-A048-8409-BF1FADA21B40}">
-  <dimension ref="A1:T650"/>
+  <dimension ref="A1:T670"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A612" workbookViewId="0">
-      <selection activeCell="D633" sqref="D633"/>
+      <selection activeCell="A637" sqref="A637"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1199,7 +1219,7 @@
     <col min="20" max="21" width="5.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="43" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>21</v>
       </c>
@@ -24008,6 +24028,706 @@
       </c>
       <c r="K650">
         <v>32.6</v>
+      </c>
+    </row>
+    <row r="651" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A651" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B651" t="s">
+        <v>9</v>
+      </c>
+      <c r="C651" t="s">
+        <v>0</v>
+      </c>
+      <c r="D651">
+        <v>228</v>
+      </c>
+      <c r="E651">
+        <v>78</v>
+      </c>
+      <c r="F651">
+        <v>0.3</v>
+      </c>
+      <c r="G651">
+        <v>9</v>
+      </c>
+      <c r="H651">
+        <v>0.5</v>
+      </c>
+      <c r="I651">
+        <v>1</v>
+      </c>
+      <c r="J651">
+        <v>0</v>
+      </c>
+      <c r="K651">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="652" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A652" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B652" t="s">
+        <v>9</v>
+      </c>
+      <c r="C652" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D652">
+        <v>466</v>
+      </c>
+      <c r="E652">
+        <v>95</v>
+      </c>
+      <c r="F652">
+        <v>0.3</v>
+      </c>
+      <c r="G652">
+        <v>5</v>
+      </c>
+      <c r="H652">
+        <v>0.3</v>
+      </c>
+      <c r="I652">
+        <v>2</v>
+      </c>
+      <c r="J652">
+        <v>0</v>
+      </c>
+      <c r="K652">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="653" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A653" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B653" t="s">
+        <v>9</v>
+      </c>
+      <c r="C653" t="s">
+        <v>1</v>
+      </c>
+      <c r="D653" s="3">
+        <v>5286</v>
+      </c>
+      <c r="E653">
+        <v>577</v>
+      </c>
+      <c r="F653">
+        <v>1.9</v>
+      </c>
+      <c r="G653">
+        <v>31</v>
+      </c>
+      <c r="H653">
+        <v>1.7</v>
+      </c>
+      <c r="I653">
+        <v>10</v>
+      </c>
+      <c r="J653">
+        <v>0.2</v>
+      </c>
+      <c r="K653">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="654" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A654" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B654" t="s">
+        <v>9</v>
+      </c>
+      <c r="C654" t="s">
+        <v>2</v>
+      </c>
+      <c r="D654" s="3">
+        <v>8876</v>
+      </c>
+      <c r="E654" s="3">
+        <v>1364</v>
+      </c>
+      <c r="F654">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G654">
+        <v>80</v>
+      </c>
+      <c r="H654">
+        <v>4.5</v>
+      </c>
+      <c r="I654">
+        <v>24</v>
+      </c>
+      <c r="J654">
+        <v>0.4</v>
+      </c>
+      <c r="K654">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="655" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A655" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B655" t="s">
+        <v>9</v>
+      </c>
+      <c r="C655" t="s">
+        <v>3</v>
+      </c>
+      <c r="D655" s="3">
+        <v>12924</v>
+      </c>
+      <c r="E655" s="3">
+        <v>2716</v>
+      </c>
+      <c r="F655">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G655">
+        <v>178</v>
+      </c>
+      <c r="H655">
+        <v>9.9</v>
+      </c>
+      <c r="I655">
+        <v>49</v>
+      </c>
+      <c r="J655">
+        <v>0.9</v>
+      </c>
+      <c r="K655">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="656" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A656" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B656" t="s">
+        <v>9</v>
+      </c>
+      <c r="C656" t="s">
+        <v>4</v>
+      </c>
+      <c r="D656" s="3">
+        <v>15550</v>
+      </c>
+      <c r="E656" s="3">
+        <v>4349</v>
+      </c>
+      <c r="F656">
+        <v>14.7</v>
+      </c>
+      <c r="G656">
+        <v>320</v>
+      </c>
+      <c r="H656">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="I656">
+        <v>121</v>
+      </c>
+      <c r="J656">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K656">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="657" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A657" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B657" t="s">
+        <v>9</v>
+      </c>
+      <c r="C657" t="s">
+        <v>5</v>
+      </c>
+      <c r="D657" s="3">
+        <v>11118</v>
+      </c>
+      <c r="E657" s="3">
+        <v>5273</v>
+      </c>
+      <c r="F657">
+        <v>17.8</v>
+      </c>
+      <c r="G657">
+        <v>535</v>
+      </c>
+      <c r="H657">
+        <v>29.9</v>
+      </c>
+      <c r="I657">
+        <v>340</v>
+      </c>
+      <c r="J657">
+        <v>6.3</v>
+      </c>
+      <c r="K657">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="658" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A658" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B658" t="s">
+        <v>9</v>
+      </c>
+      <c r="C658" t="s">
+        <v>6</v>
+      </c>
+      <c r="D658" s="3">
+        <v>9742</v>
+      </c>
+      <c r="E658" s="3">
+        <v>6377</v>
+      </c>
+      <c r="F658">
+        <v>21.5</v>
+      </c>
+      <c r="G658">
+        <v>527</v>
+      </c>
+      <c r="H658">
+        <v>29.4</v>
+      </c>
+      <c r="I658" s="3">
+        <v>1028</v>
+      </c>
+      <c r="J658">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K658">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="659" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A659" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B659" t="s">
+        <v>9</v>
+      </c>
+      <c r="C659" t="s">
+        <v>12</v>
+      </c>
+      <c r="D659" s="3">
+        <v>12565</v>
+      </c>
+      <c r="E659" s="3">
+        <v>6404</v>
+      </c>
+      <c r="F659">
+        <v>21.6</v>
+      </c>
+      <c r="G659">
+        <v>93</v>
+      </c>
+      <c r="H659">
+        <v>5.2</v>
+      </c>
+      <c r="I659" s="3">
+        <v>2351</v>
+      </c>
+      <c r="J659">
+        <v>43.7</v>
+      </c>
+      <c r="K659">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="660" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A660" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B660" t="s">
+        <v>9</v>
+      </c>
+      <c r="C660" t="s">
+        <v>13</v>
+      </c>
+      <c r="D660" s="3">
+        <v>6767</v>
+      </c>
+      <c r="E660" s="3">
+        <v>2406</v>
+      </c>
+      <c r="F660">
+        <v>8.1</v>
+      </c>
+      <c r="G660">
+        <v>13</v>
+      </c>
+      <c r="H660">
+        <v>0.7</v>
+      </c>
+      <c r="I660" s="3">
+        <v>1448</v>
+      </c>
+      <c r="J660">
+        <v>26.9</v>
+      </c>
+      <c r="K660">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="661" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A661" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B661" t="s">
+        <v>10</v>
+      </c>
+      <c r="C661" t="s">
+        <v>0</v>
+      </c>
+      <c r="D661">
+        <v>278</v>
+      </c>
+      <c r="E661">
+        <v>114</v>
+      </c>
+      <c r="F661">
+        <v>0.3</v>
+      </c>
+      <c r="G661">
+        <v>17</v>
+      </c>
+      <c r="H661">
+        <v>0.4</v>
+      </c>
+      <c r="I661">
+        <v>1</v>
+      </c>
+      <c r="J661">
+        <v>0</v>
+      </c>
+      <c r="K661">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="662" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A662" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B662" t="s">
+        <v>10</v>
+      </c>
+      <c r="C662" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D662">
+        <v>405</v>
+      </c>
+      <c r="E662">
+        <v>94</v>
+      </c>
+      <c r="F662">
+        <v>0.2</v>
+      </c>
+      <c r="G662">
+        <v>8</v>
+      </c>
+      <c r="H662">
+        <v>0.2</v>
+      </c>
+      <c r="I662">
+        <v>1</v>
+      </c>
+      <c r="J662">
+        <v>0</v>
+      </c>
+      <c r="K662">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="663" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A663" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B663" t="s">
+        <v>10</v>
+      </c>
+      <c r="C663" t="s">
+        <v>1</v>
+      </c>
+      <c r="D663" s="3">
+        <v>2693</v>
+      </c>
+      <c r="E663">
+        <v>531</v>
+      </c>
+      <c r="F663">
+        <v>1.4</v>
+      </c>
+      <c r="G663">
+        <v>37</v>
+      </c>
+      <c r="H663">
+        <v>0.9</v>
+      </c>
+      <c r="I663">
+        <v>15</v>
+      </c>
+      <c r="J663">
+        <v>0.2</v>
+      </c>
+      <c r="K663">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="664" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A664" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B664" t="s">
+        <v>10</v>
+      </c>
+      <c r="C664" t="s">
+        <v>2</v>
+      </c>
+      <c r="D664" s="3">
+        <v>5462</v>
+      </c>
+      <c r="E664" s="3">
+        <v>1486</v>
+      </c>
+      <c r="F664">
+        <v>3.8</v>
+      </c>
+      <c r="G664">
+        <v>129</v>
+      </c>
+      <c r="H664">
+        <v>3.1</v>
+      </c>
+      <c r="I664">
+        <v>26</v>
+      </c>
+      <c r="J664">
+        <v>0.3</v>
+      </c>
+      <c r="K664">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="665" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A665" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B665" t="s">
+        <v>10</v>
+      </c>
+      <c r="C665" t="s">
+        <v>3</v>
+      </c>
+      <c r="D665" s="3">
+        <v>9551</v>
+      </c>
+      <c r="E665" s="3">
+        <v>3864</v>
+      </c>
+      <c r="F665">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G665">
+        <v>382</v>
+      </c>
+      <c r="H665">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I665">
+        <v>89</v>
+      </c>
+      <c r="J665">
+        <v>1.2</v>
+      </c>
+      <c r="K665">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="666" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A666" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B666" t="s">
+        <v>10</v>
+      </c>
+      <c r="C666" t="s">
+        <v>4</v>
+      </c>
+      <c r="D666" s="3">
+        <v>12306</v>
+      </c>
+      <c r="E666" s="3">
+        <v>6427</v>
+      </c>
+      <c r="F666">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="G666">
+        <v>841</v>
+      </c>
+      <c r="H666">
+        <v>20.2</v>
+      </c>
+      <c r="I666">
+        <v>280</v>
+      </c>
+      <c r="J666">
+        <v>3.6</v>
+      </c>
+      <c r="K666">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="667" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A667" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B667" t="s">
+        <v>10</v>
+      </c>
+      <c r="C667" t="s">
+        <v>5</v>
+      </c>
+      <c r="D667" s="3">
+        <v>12521</v>
+      </c>
+      <c r="E667" s="3">
+        <v>8174</v>
+      </c>
+      <c r="F667">
+        <v>20.8</v>
+      </c>
+      <c r="G667" s="3">
+        <v>1360</v>
+      </c>
+      <c r="H667">
+        <v>32.6</v>
+      </c>
+      <c r="I667">
+        <v>812</v>
+      </c>
+      <c r="J667">
+        <v>10.5</v>
+      </c>
+      <c r="K667">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="668" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A668" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B668" t="s">
+        <v>10</v>
+      </c>
+      <c r="C668" t="s">
+        <v>6</v>
+      </c>
+      <c r="D668" s="3">
+        <v>12748</v>
+      </c>
+      <c r="E668" s="3">
+        <v>9655</v>
+      </c>
+      <c r="F668">
+        <v>24.6</v>
+      </c>
+      <c r="G668" s="3">
+        <v>1254</v>
+      </c>
+      <c r="H668">
+        <v>30.1</v>
+      </c>
+      <c r="I668" s="3">
+        <v>2347</v>
+      </c>
+      <c r="J668">
+        <v>30.4</v>
+      </c>
+      <c r="K668">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="669" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A669" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B669" t="s">
+        <v>10</v>
+      </c>
+      <c r="C669" t="s">
+        <v>12</v>
+      </c>
+      <c r="D669" s="3">
+        <v>10309</v>
+      </c>
+      <c r="E669" s="3">
+        <v>7250</v>
+      </c>
+      <c r="F669">
+        <v>18.5</v>
+      </c>
+      <c r="G669">
+        <v>125</v>
+      </c>
+      <c r="H669">
+        <v>3</v>
+      </c>
+      <c r="I669" s="3">
+        <v>3151</v>
+      </c>
+      <c r="J669">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="K669">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="670" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A670" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B670" t="s">
+        <v>10</v>
+      </c>
+      <c r="C670" t="s">
+        <v>13</v>
+      </c>
+      <c r="D670" s="3">
+        <v>3081</v>
+      </c>
+      <c r="E670" s="3">
+        <v>1689</v>
+      </c>
+      <c r="F670">
+        <v>4.3</v>
+      </c>
+      <c r="G670">
+        <v>15</v>
+      </c>
+      <c r="H670">
+        <v>0.4</v>
+      </c>
+      <c r="I670" s="3">
+        <v>1009</v>
+      </c>
+      <c r="J670">
+        <v>13.1</v>
+      </c>
+      <c r="K670">
+        <v>32.700000000000003</v>
       </c>
     </row>
   </sheetData>

--- a/data/Covid-19_data_sexage.xlsx
+++ b/data/Covid-19_data_sexage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanjosevidal/Google Drive/Projects/Covid-19/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC7E1FF-6B0A-8441-BB60-3588BB34A7FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA705D6A-E82D-A349-93CF-E2AA696852E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{C24317C9-D1BD-7248-BEC1-07839536F6EA}"/>
   </bookViews>
@@ -51,6 +51,7 @@
     <definedName name="tabula_Actualizacion_83_COVID_19_2" localSheetId="0">Data!$C$611:$K$630</definedName>
     <definedName name="tabula_Actualizacion_84_COVID_19_2" localSheetId="0">Data!$C$631:$K$650</definedName>
     <definedName name="tabula_Actualizacion_85_COVID_19_2" localSheetId="0">Data!$C$651:$K$670</definedName>
+    <definedName name="tabula_Actualizacion_86_COVID_19_2" localSheetId="0">Data!$C$671:$K$690</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -564,7 +565,22 @@
     </textPr>
   </connection>
   <connection id="34" xr16:uid="{DD4A4591-5F2F-AC4F-8155-7E45BE8B2C86}" name="tabula-Actualizacion_85_COVID-19(2)" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_85_COVID-19(2).csv" decimal="," thousands="." comma="1">
+    <textPr sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_85_COVID-19(2).csv" decimal="," thousands="." comma="1">
+      <textFields count="9">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="35" xr16:uid="{8580F28B-BF03-A148-BA27-062BFFEFF1E9}" name="tabula-Actualizacion_86_COVID-19(2)" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_86_COVID-19(2).csv" decimal="," thousands="." comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -582,7 +598,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="26">
   <si>
     <t>0-9</t>
   </si>
@@ -760,27 +776,27 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_85_COVID-19(2)" connectionId="34" xr16:uid="{4236AA15-44DD-864C-BBB9-D1CF1013BE00}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_86_COVID-19(2)" connectionId="35" xr16:uid="{95015227-8A0A-4C48-AC40-AEF4A2B2143A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_63_COVID-19(1)" connectionId="12" xr16:uid="{EFDFC980-4B86-C948-B035-B2786B80754E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(2)_1" connectionId="10" xr16:uid="{252D0C3F-8429-6D40-AFE6-2BAFDCF71E62}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_59_COVID-19(1)" connectionId="7" xr16:uid="{6E93CE4F-1115-D449-959A-2A7263C31ABC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_54_COVID-19" connectionId="3" xr16:uid="{E94F4815-0D2F-454F-8291-FCBF0C165C57}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_82_COVID-19(2)" connectionId="31" xr16:uid="{0C41A9C7-F783-5441-AFC3-59C34E6567FF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_80_COVID-19(2)" connectionId="29" xr16:uid="{9A2F5700-61ED-F044-A56E-7B5EC6DF1036}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_67_COVID-19(1)" connectionId="16" xr16:uid="{0DCC7075-52E5-6445-A2D9-0D0404D0E63E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_55_COVID-19" connectionId="4" xr16:uid="{10575DCA-3AE8-5C4C-A970-60205B471337}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_83_COVID-19(2)" connectionId="32" xr16:uid="{F68CD602-B2A0-604F-A4DC-A153B85916C5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
@@ -788,111 +804,115 @@
 </file>
 
 <file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_74_COVID-19(1)" connectionId="23" xr16:uid="{486A1335-E13C-A646-B386-9ED2A72BEEE6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_62_COVID-19(1)" connectionId="11" xr16:uid="{789174F4-7737-BE4C-9685-F15607B8C828}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_52_COVID-19" connectionId="1" xr16:uid="{35D81D28-1058-4347-9DE2-5F2763DAC2A4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_54_COVID-19" connectionId="3" xr16:uid="{E94F4815-0D2F-454F-8291-FCBF0C165C57}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_80_COVID-19(2)" connectionId="29" xr16:uid="{9A2F5700-61ED-F044-A56E-7B5EC6DF1036}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_56_COVID-19(1)" connectionId="5" xr16:uid="{C5B10145-DA18-EE44-A918-E407BEA443E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_85_COVID-19(2)" connectionId="34" xr16:uid="{4236AA15-44DD-864C-BBB9-D1CF1013BE00}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_64_COVID-19(1)" connectionId="13" xr16:uid="{24F5186E-14BA-4941-BB1A-F21AEE9F7F07}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_71_COVID-19(1)" connectionId="20" xr16:uid="{E40B0E49-9F2B-2549-8124-9C24FFB9F4B1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_75_COVID-19(1)" connectionId="24" xr16:uid="{D7A38836-E0C5-5046-B8FD-EF82AA804006}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_68_COVID-19(1)" connectionId="17" xr16:uid="{15D6F25C-3F4D-0947-8994-7F669D041C1F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_73_COVID-19(1)" connectionId="22" xr16:uid="{144BDA4A-6CCF-094D-8B47-C4994B28C9F4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_66_COVID-19(1)" connectionId="15" xr16:uid="{784FDDA9-F525-C54F-BA21-682143B55347}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_69_COVID-19(1)" connectionId="18" xr16:uid="{43D60223-767A-964E-8CC2-E64E5ACAFF9F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_82_COVID-19(2)" connectionId="31" xr16:uid="{0C41A9C7-F783-5441-AFC3-59C34E6567FF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_81_COVID-19(2)_1" connectionId="30" xr16:uid="{6EBD5E78-C6DF-2E41-9BEC-F2E99D2C6A50}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_60_COVID-19(1)" connectionId="8" xr16:uid="{C2F0088C-0355-9A48-BE55-175198337C67}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_72_COVID-19(1)" connectionId="21" xr16:uid="{1488C0E5-7AB9-C44D-8BE2-997243B88982}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_84_COVID-19(2)" connectionId="33" xr16:uid="{658D76C0-0942-AF43-952E-435C4A2BDAC3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_76_COVID-19(2)" connectionId="25" xr16:uid="{70AE20FA-7C65-AC4F-B077-971D1C6A5B94}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_79_COVID-19(2)" connectionId="28" xr16:uid="{CE4041F5-2CDB-234C-8611-179139CF531A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_57_COVID-19(1)" connectionId="6" xr16:uid="{78E004BB-228B-5143-9AFE-91688C440A41}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(2)_1" connectionId="10" xr16:uid="{252D0C3F-8429-6D40-AFE6-2BAFDCF71E62}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_70_COVID-19(1)" connectionId="19" xr16:uid="{F30EDCDD-4769-4442-A6A9-407F59F6429F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_68_COVID-19(1)" connectionId="17" xr16:uid="{15D6F25C-3F4D-0947-8994-7F669D041C1F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_77_COVID-19(2)" connectionId="26" xr16:uid="{B46FF584-84EC-AE4D-BCE8-171BFEBEEDEE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_71_COVID-19(1)" connectionId="20" xr16:uid="{E40B0E49-9F2B-2549-8124-9C24FFB9F4B1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_84_COVID-19(2)" connectionId="33" xr16:uid="{658D76C0-0942-AF43-952E-435C4A2BDAC3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_65_COVID-19(1)" connectionId="14" xr16:uid="{1F7FC7F3-ADF7-CE4C-A901-C09AA03AA932}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_83_COVID-19(2)" connectionId="32" xr16:uid="{F68CD602-B2A0-604F-A4DC-A153B85916C5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_52_COVID-19" connectionId="1" xr16:uid="{35D81D28-1058-4347-9DE2-5F2763DAC2A4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_66_COVID-19(1)" connectionId="15" xr16:uid="{784FDDA9-F525-C54F-BA21-682143B55347}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_79_COVID-19(2)" connectionId="28" xr16:uid="{CE4041F5-2CDB-234C-8611-179139CF531A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_77_COVID-19(2)" connectionId="26" xr16:uid="{B46FF584-84EC-AE4D-BCE8-171BFEBEEDEE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_67_COVID-19(1)" connectionId="16" xr16:uid="{0DCC7075-52E5-6445-A2D9-0D0404D0E63E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_64_COVID-19(1)" connectionId="13" xr16:uid="{24F5186E-14BA-4941-BB1A-F21AEE9F7F07}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_76_COVID-19(2)" connectionId="25" xr16:uid="{70AE20FA-7C65-AC4F-B077-971D1C6A5B94}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_70_COVID-19(1)" connectionId="19" xr16:uid="{F30EDCDD-4769-4442-A6A9-407F59F6429F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_63_COVID-19(1)" connectionId="12" xr16:uid="{EFDFC980-4B86-C948-B035-B2786B80754E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_62_COVID-19(1)" connectionId="11" xr16:uid="{789174F4-7737-BE4C-9685-F15607B8C828}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_73_COVID-19(1)" connectionId="22" xr16:uid="{144BDA4A-6CCF-094D-8B47-C4994B28C9F4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_72_COVID-19(1)" connectionId="21" xr16:uid="{1488C0E5-7AB9-C44D-8BE2-997243B88982}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_53_COVID-19" connectionId="2" xr16:uid="{31483431-2B39-A440-9E59-C26E082912EA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_74_COVID-19(1)" connectionId="23" xr16:uid="{486A1335-E13C-A646-B386-9ED2A72BEEE6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_56_COVID-19(1)" connectionId="5" xr16:uid="{C5B10145-DA18-EE44-A918-E407BEA443E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_60_COVID-19(1)" connectionId="8" xr16:uid="{C2F0088C-0355-9A48-BE55-175198337C67}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_55_COVID-19" connectionId="4" xr16:uid="{10575DCA-3AE8-5C4C-A970-60205B471337}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_81_COVID-19(2)_1" connectionId="30" xr16:uid="{6EBD5E78-C6DF-2E41-9BEC-F2E99D2C6A50}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_78_COVID-19(2)" connectionId="27" xr16:uid="{DA1E7C1F-5CE0-764E-9BAE-85540697E15C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_78_COVID-19(2)" connectionId="27" xr16:uid="{DA1E7C1F-5CE0-764E-9BAE-85540697E15C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_53_COVID-19" connectionId="2" xr16:uid="{31483431-2B39-A440-9E59-C26E082912EA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1192,10 +1212,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973FFFC2-62D5-A048-8409-BF1FADA21B40}">
-  <dimension ref="A1:T670"/>
+  <dimension ref="A1:T690"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A612" workbookViewId="0">
-      <selection activeCell="A637" sqref="A637"/>
+    <sheetView tabSelected="1" topLeftCell="A660" workbookViewId="0">
+      <selection activeCell="C673" sqref="C673"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1203,8 +1223,7 @@
     <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.1640625" bestFit="1" customWidth="1"/>
@@ -24728,6 +24747,706 @@
       </c>
       <c r="K670">
         <v>32.700000000000003</v>
+      </c>
+    </row>
+    <row r="671" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A671" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B671" t="s">
+        <v>9</v>
+      </c>
+      <c r="C671" t="s">
+        <v>0</v>
+      </c>
+      <c r="D671">
+        <v>299</v>
+      </c>
+      <c r="E671">
+        <v>92</v>
+      </c>
+      <c r="F671">
+        <v>0.3</v>
+      </c>
+      <c r="G671">
+        <v>12</v>
+      </c>
+      <c r="H671">
+        <v>0.6</v>
+      </c>
+      <c r="I671">
+        <v>1</v>
+      </c>
+      <c r="J671">
+        <v>0</v>
+      </c>
+      <c r="K671">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="672" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A672" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B672" t="s">
+        <v>9</v>
+      </c>
+      <c r="C672" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D672">
+        <v>645</v>
+      </c>
+      <c r="E672">
+        <v>111</v>
+      </c>
+      <c r="F672">
+        <v>0.3</v>
+      </c>
+      <c r="G672">
+        <v>8</v>
+      </c>
+      <c r="H672">
+        <v>0.4</v>
+      </c>
+      <c r="I672">
+        <v>3</v>
+      </c>
+      <c r="J672">
+        <v>0</v>
+      </c>
+      <c r="K672">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="673" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A673" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B673" t="s">
+        <v>9</v>
+      </c>
+      <c r="C673" t="s">
+        <v>1</v>
+      </c>
+      <c r="D673" s="3">
+        <v>7086</v>
+      </c>
+      <c r="E673">
+        <v>651</v>
+      </c>
+      <c r="F673">
+        <v>1.9</v>
+      </c>
+      <c r="G673">
+        <v>36</v>
+      </c>
+      <c r="H673">
+        <v>1.7</v>
+      </c>
+      <c r="I673">
+        <v>11</v>
+      </c>
+      <c r="J673">
+        <v>0.2</v>
+      </c>
+      <c r="K673">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="674" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A674" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B674" t="s">
+        <v>9</v>
+      </c>
+      <c r="C674" t="s">
+        <v>2</v>
+      </c>
+      <c r="D674" s="3">
+        <v>11271</v>
+      </c>
+      <c r="E674" s="3">
+        <v>1517</v>
+      </c>
+      <c r="F674">
+        <v>4.5</v>
+      </c>
+      <c r="G674">
+        <v>92</v>
+      </c>
+      <c r="H674">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I674">
+        <v>25</v>
+      </c>
+      <c r="J674">
+        <v>0.4</v>
+      </c>
+      <c r="K674">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="675" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A675" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B675" t="s">
+        <v>9</v>
+      </c>
+      <c r="C675" t="s">
+        <v>3</v>
+      </c>
+      <c r="D675" s="3">
+        <v>16384</v>
+      </c>
+      <c r="E675" s="3">
+        <v>3121</v>
+      </c>
+      <c r="F675">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G675">
+        <v>211</v>
+      </c>
+      <c r="H675">
+        <v>10.1</v>
+      </c>
+      <c r="I675">
+        <v>57</v>
+      </c>
+      <c r="J675">
+        <v>0.9</v>
+      </c>
+      <c r="K675">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="676" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A676" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B676" t="s">
+        <v>9</v>
+      </c>
+      <c r="C676" t="s">
+        <v>4</v>
+      </c>
+      <c r="D676" s="3">
+        <v>19352</v>
+      </c>
+      <c r="E676" s="3">
+        <v>4932</v>
+      </c>
+      <c r="F676">
+        <v>14.6</v>
+      </c>
+      <c r="G676">
+        <v>382</v>
+      </c>
+      <c r="H676">
+        <v>18.3</v>
+      </c>
+      <c r="I676">
+        <v>137</v>
+      </c>
+      <c r="J676">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K676">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="677" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A677" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B677" t="s">
+        <v>9</v>
+      </c>
+      <c r="C677" t="s">
+        <v>5</v>
+      </c>
+      <c r="D677" s="3">
+        <v>13817</v>
+      </c>
+      <c r="E677" s="3">
+        <v>6032</v>
+      </c>
+      <c r="F677">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="G677">
+        <v>619</v>
+      </c>
+      <c r="H677">
+        <v>29.7</v>
+      </c>
+      <c r="I677">
+        <v>382</v>
+      </c>
+      <c r="J677">
+        <v>6.3</v>
+      </c>
+      <c r="K677">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="678" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A678" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B678" t="s">
+        <v>9</v>
+      </c>
+      <c r="C678" t="s">
+        <v>6</v>
+      </c>
+      <c r="D678" s="3">
+        <v>12560</v>
+      </c>
+      <c r="E678" s="3">
+        <v>7344</v>
+      </c>
+      <c r="F678">
+        <v>21.8</v>
+      </c>
+      <c r="G678">
+        <v>593</v>
+      </c>
+      <c r="H678">
+        <v>28.5</v>
+      </c>
+      <c r="I678" s="3">
+        <v>1167</v>
+      </c>
+      <c r="J678">
+        <v>19.3</v>
+      </c>
+      <c r="K678">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="679" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A679" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B679" t="s">
+        <v>9</v>
+      </c>
+      <c r="C679" t="s">
+        <v>12</v>
+      </c>
+      <c r="D679" s="3">
+        <v>17056</v>
+      </c>
+      <c r="E679" s="3">
+        <v>7175</v>
+      </c>
+      <c r="F679">
+        <v>21.3</v>
+      </c>
+      <c r="G679">
+        <v>112</v>
+      </c>
+      <c r="H679">
+        <v>5.4</v>
+      </c>
+      <c r="I679" s="3">
+        <v>2640</v>
+      </c>
+      <c r="J679">
+        <v>43.6</v>
+      </c>
+      <c r="K679">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="680" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A680" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B680" t="s">
+        <v>9</v>
+      </c>
+      <c r="C680" t="s">
+        <v>13</v>
+      </c>
+      <c r="D680" s="3">
+        <v>9717</v>
+      </c>
+      <c r="E680" s="3">
+        <v>2730</v>
+      </c>
+      <c r="F680">
+        <v>8.1</v>
+      </c>
+      <c r="G680">
+        <v>17</v>
+      </c>
+      <c r="H680">
+        <v>0.8</v>
+      </c>
+      <c r="I680" s="3">
+        <v>1638</v>
+      </c>
+      <c r="J680">
+        <v>27</v>
+      </c>
+      <c r="K680">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="681" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A681" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B681" t="s">
+        <v>10</v>
+      </c>
+      <c r="C681" t="s">
+        <v>0</v>
+      </c>
+      <c r="D681">
+        <v>330</v>
+      </c>
+      <c r="E681">
+        <v>121</v>
+      </c>
+      <c r="F681">
+        <v>0.3</v>
+      </c>
+      <c r="G681">
+        <v>17</v>
+      </c>
+      <c r="H681">
+        <v>0.4</v>
+      </c>
+      <c r="I681">
+        <v>1</v>
+      </c>
+      <c r="J681">
+        <v>0</v>
+      </c>
+      <c r="K681">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="682" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A682" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B682" t="s">
+        <v>10</v>
+      </c>
+      <c r="C682" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D682">
+        <v>499</v>
+      </c>
+      <c r="E682">
+        <v>104</v>
+      </c>
+      <c r="F682">
+        <v>0.2</v>
+      </c>
+      <c r="G682">
+        <v>9</v>
+      </c>
+      <c r="H682">
+        <v>0.2</v>
+      </c>
+      <c r="I682">
+        <v>1</v>
+      </c>
+      <c r="J682">
+        <v>0</v>
+      </c>
+      <c r="K682">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="683" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A683" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B683" t="s">
+        <v>10</v>
+      </c>
+      <c r="C683" t="s">
+        <v>1</v>
+      </c>
+      <c r="D683" s="3">
+        <v>3484</v>
+      </c>
+      <c r="E683">
+        <v>592</v>
+      </c>
+      <c r="F683">
+        <v>1.3</v>
+      </c>
+      <c r="G683">
+        <v>42</v>
+      </c>
+      <c r="H683">
+        <v>0.9</v>
+      </c>
+      <c r="I683">
+        <v>17</v>
+      </c>
+      <c r="J683">
+        <v>0.2</v>
+      </c>
+      <c r="K683">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="684" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A684" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B684" t="s">
+        <v>10</v>
+      </c>
+      <c r="C684" t="s">
+        <v>2</v>
+      </c>
+      <c r="D684" s="3">
+        <v>6758</v>
+      </c>
+      <c r="E684" s="3">
+        <v>1686</v>
+      </c>
+      <c r="F684">
+        <v>3.8</v>
+      </c>
+      <c r="G684">
+        <v>150</v>
+      </c>
+      <c r="H684">
+        <v>3.1</v>
+      </c>
+      <c r="I684">
+        <v>29</v>
+      </c>
+      <c r="J684">
+        <v>0.3</v>
+      </c>
+      <c r="K684">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="685" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A685" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B685" t="s">
+        <v>10</v>
+      </c>
+      <c r="C685" t="s">
+        <v>3</v>
+      </c>
+      <c r="D685" s="3">
+        <v>11895</v>
+      </c>
+      <c r="E685" s="3">
+        <v>4439</v>
+      </c>
+      <c r="F685">
+        <v>9.9</v>
+      </c>
+      <c r="G685">
+        <v>451</v>
+      </c>
+      <c r="H685">
+        <v>9.4</v>
+      </c>
+      <c r="I685">
+        <v>98</v>
+      </c>
+      <c r="J685">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K685">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="686" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A686" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B686" t="s">
+        <v>10</v>
+      </c>
+      <c r="C686" t="s">
+        <v>4</v>
+      </c>
+      <c r="D686" s="3">
+        <v>15312</v>
+      </c>
+      <c r="E686" s="3">
+        <v>7337</v>
+      </c>
+      <c r="F686">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="G686">
+        <v>971</v>
+      </c>
+      <c r="H686">
+        <v>20.3</v>
+      </c>
+      <c r="I686">
+        <v>318</v>
+      </c>
+      <c r="J686">
+        <v>3.7</v>
+      </c>
+      <c r="K686">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="687" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A687" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B687" t="s">
+        <v>10</v>
+      </c>
+      <c r="C687" t="s">
+        <v>5</v>
+      </c>
+      <c r="D687" s="3">
+        <v>15473</v>
+      </c>
+      <c r="E687" s="3">
+        <v>9272</v>
+      </c>
+      <c r="F687">
+        <v>20.7</v>
+      </c>
+      <c r="G687" s="3">
+        <v>1569</v>
+      </c>
+      <c r="H687">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="I687">
+        <v>903</v>
+      </c>
+      <c r="J687">
+        <v>10.5</v>
+      </c>
+      <c r="K687">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="688" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A688" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B688" t="s">
+        <v>10</v>
+      </c>
+      <c r="C688" t="s">
+        <v>6</v>
+      </c>
+      <c r="D688" s="3">
+        <v>16044</v>
+      </c>
+      <c r="E688" s="3">
+        <v>11065</v>
+      </c>
+      <c r="F688">
+        <v>24.7</v>
+      </c>
+      <c r="G688" s="3">
+        <v>1407</v>
+      </c>
+      <c r="H688">
+        <v>29.4</v>
+      </c>
+      <c r="I688" s="3">
+        <v>2584</v>
+      </c>
+      <c r="J688">
+        <v>30.2</v>
+      </c>
+      <c r="K688">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="689" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A689" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B689" t="s">
+        <v>10</v>
+      </c>
+      <c r="C689" t="s">
+        <v>12</v>
+      </c>
+      <c r="D689" s="3">
+        <v>13274</v>
+      </c>
+      <c r="E689" s="3">
+        <v>8251</v>
+      </c>
+      <c r="F689">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="G689">
+        <v>153</v>
+      </c>
+      <c r="H689">
+        <v>3.2</v>
+      </c>
+      <c r="I689" s="3">
+        <v>3504</v>
+      </c>
+      <c r="J689">
+        <v>40.9</v>
+      </c>
+      <c r="K689">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="690" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A690" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B690" t="s">
+        <v>10</v>
+      </c>
+      <c r="C690" t="s">
+        <v>13</v>
+      </c>
+      <c r="D690" s="3">
+        <v>3973</v>
+      </c>
+      <c r="E690" s="3">
+        <v>1855</v>
+      </c>
+      <c r="F690">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G690">
+        <v>15</v>
+      </c>
+      <c r="H690">
+        <v>0.3</v>
+      </c>
+      <c r="I690" s="3">
+        <v>1113</v>
+      </c>
+      <c r="J690">
+        <v>13</v>
+      </c>
+      <c r="K690">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/data/Covid-19_data_sexage.xlsx
+++ b/data/Covid-19_data_sexage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanjosevidal/Google Drive/Projects/Covid-19/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA705D6A-E82D-A349-93CF-E2AA696852E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5B4984-CD06-E44F-BE4E-F051131CEB5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{C24317C9-D1BD-7248-BEC1-07839536F6EA}"/>
   </bookViews>
@@ -52,6 +52,8 @@
     <definedName name="tabula_Actualizacion_84_COVID_19_2" localSheetId="0">Data!$C$631:$K$650</definedName>
     <definedName name="tabula_Actualizacion_85_COVID_19_2" localSheetId="0">Data!$C$651:$K$670</definedName>
     <definedName name="tabula_Actualizacion_86_COVID_19_2" localSheetId="0">Data!$C$671:$K$690</definedName>
+    <definedName name="tabula_Actualizacion_87_COVID_19_2" localSheetId="0">Data!$C$691:$K$710</definedName>
+    <definedName name="tabula_Actualizacion_88_COVID_19_2" localSheetId="0">Data!$C$711:$K$730</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -580,7 +582,37 @@
     </textPr>
   </connection>
   <connection id="35" xr16:uid="{8580F28B-BF03-A148-BA27-062BFFEFF1E9}" name="tabula-Actualizacion_86_COVID-19(2)" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_86_COVID-19(2).csv" decimal="," thousands="." comma="1">
+    <textPr sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_86_COVID-19(2).csv" decimal="," thousands="." comma="1">
+      <textFields count="9">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="36" xr16:uid="{73CF007A-6862-C443-8258-A45A2ABFA00D}" name="tabula-Actualizacion_87_COVID-19(2)" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_87_COVID-19(2).csv" decimal="," thousands="." comma="1">
+      <textFields count="9">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="37" xr16:uid="{E8C1FC3E-CA51-6A46-B353-160355F9DC22}" name="tabula-Actualizacion_88_COVID-19(2)" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_88_COVID-19(2).csv" decimal="," thousands="." comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -598,7 +630,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="26">
   <si>
     <t>0-9</t>
   </si>
@@ -776,143 +808,151 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_88_COVID-19(2)" connectionId="37" xr16:uid="{442A7796-311C-914C-842C-C67D04E6CDF2}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_53_COVID-19" connectionId="2" xr16:uid="{31483431-2B39-A440-9E59-C26E082912EA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_70_COVID-19(1)" connectionId="19" xr16:uid="{F30EDCDD-4769-4442-A6A9-407F59F6429F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_72_COVID-19(1)" connectionId="21" xr16:uid="{1488C0E5-7AB9-C44D-8BE2-997243B88982}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_54_COVID-19" connectionId="3" xr16:uid="{E94F4815-0D2F-454F-8291-FCBF0C165C57}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_63_COVID-19(1)" connectionId="12" xr16:uid="{EFDFC980-4B86-C948-B035-B2786B80754E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_69_COVID-19(1)" connectionId="18" xr16:uid="{43D60223-767A-964E-8CC2-E64E5ACAFF9F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_71_COVID-19(1)" connectionId="20" xr16:uid="{E40B0E49-9F2B-2549-8124-9C24FFB9F4B1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(1)" connectionId="9" xr16:uid="{C813FA0B-4B7A-0743-B527-E10C07F0E6C8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_77_COVID-19(2)" connectionId="26" xr16:uid="{B46FF584-84EC-AE4D-BCE8-171BFEBEEDEE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_84_COVID-19(2)" connectionId="33" xr16:uid="{658D76C0-0942-AF43-952E-435C4A2BDAC3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_87_COVID-19(2)" connectionId="36" xr16:uid="{3DC9730C-EB61-3546-A484-563DA03EF996}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_75_COVID-19(1)" connectionId="24" xr16:uid="{D7A38836-E0C5-5046-B8FD-EF82AA804006}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(2)_1" connectionId="10" xr16:uid="{252D0C3F-8429-6D40-AFE6-2BAFDCF71E62}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_65_COVID-19(1)" connectionId="14" xr16:uid="{1F7FC7F3-ADF7-CE4C-A901-C09AA03AA932}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_86_COVID-19(2)" connectionId="35" xr16:uid="{95015227-8A0A-4C48-AC40-AEF4A2B2143A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_63_COVID-19(1)" connectionId="12" xr16:uid="{EFDFC980-4B86-C948-B035-B2786B80754E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_82_COVID-19(2)" connectionId="31" xr16:uid="{0C41A9C7-F783-5441-AFC3-59C34E6567FF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(2)_1" connectionId="10" xr16:uid="{252D0C3F-8429-6D40-AFE6-2BAFDCF71E62}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_56_COVID-19(1)" connectionId="5" xr16:uid="{C5B10145-DA18-EE44-A918-E407BEA443E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_74_COVID-19(1)" connectionId="23" xr16:uid="{486A1335-E13C-A646-B386-9ED2A72BEEE6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_80_COVID-19(2)" connectionId="29" xr16:uid="{9A2F5700-61ED-F044-A56E-7B5EC6DF1036}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_76_COVID-19(2)" connectionId="25" xr16:uid="{70AE20FA-7C65-AC4F-B077-971D1C6A5B94}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_68_COVID-19(1)" connectionId="17" xr16:uid="{15D6F25C-3F4D-0947-8994-7F669D041C1F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_67_COVID-19(1)" connectionId="16" xr16:uid="{0DCC7075-52E5-6445-A2D9-0D0404D0E63E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_62_COVID-19(1)" connectionId="11" xr16:uid="{789174F4-7737-BE4C-9685-F15607B8C828}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_59_COVID-19(1)" connectionId="7" xr16:uid="{6E93CE4F-1115-D449-959A-2A7263C31ABC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_67_COVID-19(1)" connectionId="16" xr16:uid="{0DCC7075-52E5-6445-A2D9-0D0404D0E63E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_55_COVID-19" connectionId="4" xr16:uid="{10575DCA-3AE8-5C4C-A970-60205B471337}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_83_COVID-19(2)" connectionId="32" xr16:uid="{F68CD602-B2A0-604F-A4DC-A153B85916C5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_79_COVID-19(2)" connectionId="28" xr16:uid="{CE4041F5-2CDB-234C-8611-179139CF531A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(1)" connectionId="9" xr16:uid="{C813FA0B-4B7A-0743-B527-E10C07F0E6C8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_85_COVID-19(2)" connectionId="34" xr16:uid="{4236AA15-44DD-864C-BBB9-D1CF1013BE00}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_74_COVID-19(1)" connectionId="23" xr16:uid="{486A1335-E13C-A646-B386-9ED2A72BEEE6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_81_COVID-19(2)_1" connectionId="30" xr16:uid="{6EBD5E78-C6DF-2E41-9BEC-F2E99D2C6A50}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_62_COVID-19(1)" connectionId="11" xr16:uid="{789174F4-7737-BE4C-9685-F15607B8C828}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_73_COVID-19(1)" connectionId="22" xr16:uid="{144BDA4A-6CCF-094D-8B47-C4994B28C9F4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_52_COVID-19" connectionId="1" xr16:uid="{35D81D28-1058-4347-9DE2-5F2763DAC2A4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_54_COVID-19" connectionId="3" xr16:uid="{E94F4815-0D2F-454F-8291-FCBF0C165C57}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_78_COVID-19(2)" connectionId="27" xr16:uid="{DA1E7C1F-5CE0-764E-9BAE-85540697E15C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_80_COVID-19(2)" connectionId="29" xr16:uid="{9A2F5700-61ED-F044-A56E-7B5EC6DF1036}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_57_COVID-19(1)" connectionId="6" xr16:uid="{78E004BB-228B-5143-9AFE-91688C440A41}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_56_COVID-19(1)" connectionId="5" xr16:uid="{C5B10145-DA18-EE44-A918-E407BEA443E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_60_COVID-19(1)" connectionId="8" xr16:uid="{C2F0088C-0355-9A48-BE55-175198337C67}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_85_COVID-19(2)" connectionId="34" xr16:uid="{4236AA15-44DD-864C-BBB9-D1CF1013BE00}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_66_COVID-19(1)" connectionId="15" xr16:uid="{784FDDA9-F525-C54F-BA21-682143B55347}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_64_COVID-19(1)" connectionId="13" xr16:uid="{24F5186E-14BA-4941-BB1A-F21AEE9F7F07}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_71_COVID-19(1)" connectionId="20" xr16:uid="{E40B0E49-9F2B-2549-8124-9C24FFB9F4B1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_75_COVID-19(1)" connectionId="24" xr16:uid="{D7A38836-E0C5-5046-B8FD-EF82AA804006}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_68_COVID-19(1)" connectionId="17" xr16:uid="{15D6F25C-3F4D-0947-8994-7F669D041C1F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_73_COVID-19(1)" connectionId="22" xr16:uid="{144BDA4A-6CCF-094D-8B47-C4994B28C9F4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_66_COVID-19(1)" connectionId="15" xr16:uid="{784FDDA9-F525-C54F-BA21-682143B55347}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_69_COVID-19(1)" connectionId="18" xr16:uid="{43D60223-767A-964E-8CC2-E64E5ACAFF9F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_82_COVID-19(2)" connectionId="31" xr16:uid="{0C41A9C7-F783-5441-AFC3-59C34E6567FF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_81_COVID-19(2)_1" connectionId="30" xr16:uid="{6EBD5E78-C6DF-2E41-9BEC-F2E99D2C6A50}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_60_COVID-19(1)" connectionId="8" xr16:uid="{C2F0088C-0355-9A48-BE55-175198337C67}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_72_COVID-19(1)" connectionId="21" xr16:uid="{1488C0E5-7AB9-C44D-8BE2-997243B88982}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_84_COVID-19(2)" connectionId="33" xr16:uid="{658D76C0-0942-AF43-952E-435C4A2BDAC3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_76_COVID-19(2)" connectionId="25" xr16:uid="{70AE20FA-7C65-AC4F-B077-971D1C6A5B94}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_79_COVID-19(2)" connectionId="28" xr16:uid="{CE4041F5-2CDB-234C-8611-179139CF531A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_57_COVID-19(1)" connectionId="6" xr16:uid="{78E004BB-228B-5143-9AFE-91688C440A41}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_70_COVID-19(1)" connectionId="19" xr16:uid="{F30EDCDD-4769-4442-A6A9-407F59F6429F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_77_COVID-19(2)" connectionId="26" xr16:uid="{B46FF584-84EC-AE4D-BCE8-171BFEBEEDEE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_65_COVID-19(1)" connectionId="14" xr16:uid="{1F7FC7F3-ADF7-CE4C-A901-C09AA03AA932}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_55_COVID-19" connectionId="4" xr16:uid="{10575DCA-3AE8-5C4C-A970-60205B471337}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_78_COVID-19(2)" connectionId="27" xr16:uid="{DA1E7C1F-5CE0-764E-9BAE-85540697E15C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_53_COVID-19" connectionId="2" xr16:uid="{31483431-2B39-A440-9E59-C26E082912EA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_83_COVID-19(2)" connectionId="32" xr16:uid="{F68CD602-B2A0-604F-A4DC-A153B85916C5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1212,10 +1252,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973FFFC2-62D5-A048-8409-BF1FADA21B40}">
-  <dimension ref="A1:T690"/>
+  <dimension ref="A1:T730"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A660" workbookViewId="0">
-      <selection activeCell="C673" sqref="C673"/>
+    <sheetView tabSelected="1" topLeftCell="A692" workbookViewId="0">
+      <selection activeCell="D715" sqref="D715"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25449,6 +25489,1406 @@
         <v>28</v>
       </c>
     </row>
+    <row r="691" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A691" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B691" t="s">
+        <v>9</v>
+      </c>
+      <c r="C691" t="s">
+        <v>0</v>
+      </c>
+      <c r="D691">
+        <v>302</v>
+      </c>
+      <c r="E691">
+        <v>93</v>
+      </c>
+      <c r="F691">
+        <v>0.3</v>
+      </c>
+      <c r="G691">
+        <v>12</v>
+      </c>
+      <c r="H691">
+        <v>0.6</v>
+      </c>
+      <c r="I691">
+        <v>1</v>
+      </c>
+      <c r="J691">
+        <v>0</v>
+      </c>
+      <c r="K691">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="692" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A692" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B692" t="s">
+        <v>9</v>
+      </c>
+      <c r="C692" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D692">
+        <v>643</v>
+      </c>
+      <c r="E692">
+        <v>110</v>
+      </c>
+      <c r="F692">
+        <v>0.3</v>
+      </c>
+      <c r="G692">
+        <v>8</v>
+      </c>
+      <c r="H692">
+        <v>0.4</v>
+      </c>
+      <c r="I692">
+        <v>3</v>
+      </c>
+      <c r="J692">
+        <v>0</v>
+      </c>
+      <c r="K692">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="693" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A693" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B693" t="s">
+        <v>9</v>
+      </c>
+      <c r="C693" t="s">
+        <v>1</v>
+      </c>
+      <c r="D693" s="3">
+        <v>7101</v>
+      </c>
+      <c r="E693">
+        <v>646</v>
+      </c>
+      <c r="F693">
+        <v>1.9</v>
+      </c>
+      <c r="G693">
+        <v>36</v>
+      </c>
+      <c r="H693">
+        <v>1.7</v>
+      </c>
+      <c r="I693">
+        <v>11</v>
+      </c>
+      <c r="J693">
+        <v>0.2</v>
+      </c>
+      <c r="K693">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="694" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A694" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B694" t="s">
+        <v>9</v>
+      </c>
+      <c r="C694" t="s">
+        <v>2</v>
+      </c>
+      <c r="D694" s="3">
+        <v>11297</v>
+      </c>
+      <c r="E694" s="3">
+        <v>1518</v>
+      </c>
+      <c r="F694">
+        <v>4.5</v>
+      </c>
+      <c r="G694">
+        <v>89</v>
+      </c>
+      <c r="H694">
+        <v>4.3</v>
+      </c>
+      <c r="I694">
+        <v>25</v>
+      </c>
+      <c r="J694">
+        <v>0.4</v>
+      </c>
+      <c r="K694">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="695" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A695" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B695" t="s">
+        <v>9</v>
+      </c>
+      <c r="C695" t="s">
+        <v>3</v>
+      </c>
+      <c r="D695" s="3">
+        <v>16440</v>
+      </c>
+      <c r="E695" s="3">
+        <v>3126</v>
+      </c>
+      <c r="F695">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G695">
+        <v>208</v>
+      </c>
+      <c r="H695">
+        <v>10</v>
+      </c>
+      <c r="I695">
+        <v>57</v>
+      </c>
+      <c r="J695">
+        <v>0.9</v>
+      </c>
+      <c r="K695">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="696" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A696" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B696" t="s">
+        <v>9</v>
+      </c>
+      <c r="C696" t="s">
+        <v>4</v>
+      </c>
+      <c r="D696" s="3">
+        <v>19445</v>
+      </c>
+      <c r="E696" s="3">
+        <v>4961</v>
+      </c>
+      <c r="F696">
+        <v>14.7</v>
+      </c>
+      <c r="G696">
+        <v>384</v>
+      </c>
+      <c r="H696">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="I696">
+        <v>137</v>
+      </c>
+      <c r="J696">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K696">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="697" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A697" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B697" t="s">
+        <v>9</v>
+      </c>
+      <c r="C697" t="s">
+        <v>5</v>
+      </c>
+      <c r="D697" s="3">
+        <v>13852</v>
+      </c>
+      <c r="E697" s="3">
+        <v>6070</v>
+      </c>
+      <c r="F697">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="G697">
+        <v>612</v>
+      </c>
+      <c r="H697">
+        <v>29.4</v>
+      </c>
+      <c r="I697">
+        <v>382</v>
+      </c>
+      <c r="J697">
+        <v>6.3</v>
+      </c>
+      <c r="K697">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="698" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A698" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B698" t="s">
+        <v>9</v>
+      </c>
+      <c r="C698" t="s">
+        <v>6</v>
+      </c>
+      <c r="D698" s="3">
+        <v>12583</v>
+      </c>
+      <c r="E698" s="3">
+        <v>7406</v>
+      </c>
+      <c r="F698">
+        <v>21.9</v>
+      </c>
+      <c r="G698">
+        <v>598</v>
+      </c>
+      <c r="H698">
+        <v>28.7</v>
+      </c>
+      <c r="I698" s="3">
+        <v>1169</v>
+      </c>
+      <c r="J698">
+        <v>19.2</v>
+      </c>
+      <c r="K698">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="699" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A699" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B699" t="s">
+        <v>9</v>
+      </c>
+      <c r="C699" t="s">
+        <v>12</v>
+      </c>
+      <c r="D699" s="3">
+        <v>17116</v>
+      </c>
+      <c r="E699" s="3">
+        <v>7193</v>
+      </c>
+      <c r="F699">
+        <v>21.2</v>
+      </c>
+      <c r="G699">
+        <v>118</v>
+      </c>
+      <c r="H699">
+        <v>5.7</v>
+      </c>
+      <c r="I699" s="3">
+        <v>2641</v>
+      </c>
+      <c r="J699">
+        <v>43.5</v>
+      </c>
+      <c r="K699">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="700" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A700" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B700" t="s">
+        <v>9</v>
+      </c>
+      <c r="C700" t="s">
+        <v>13</v>
+      </c>
+      <c r="D700" s="3">
+        <v>9751</v>
+      </c>
+      <c r="E700" s="3">
+        <v>2735</v>
+      </c>
+      <c r="F700">
+        <v>8.1</v>
+      </c>
+      <c r="G700">
+        <v>17</v>
+      </c>
+      <c r="H700">
+        <v>0.8</v>
+      </c>
+      <c r="I700" s="3">
+        <v>1650</v>
+      </c>
+      <c r="J700">
+        <v>27.2</v>
+      </c>
+      <c r="K700">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="701" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A701" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B701" t="s">
+        <v>10</v>
+      </c>
+      <c r="C701" t="s">
+        <v>0</v>
+      </c>
+      <c r="D701">
+        <v>337</v>
+      </c>
+      <c r="E701">
+        <v>120</v>
+      </c>
+      <c r="F701">
+        <v>0.3</v>
+      </c>
+      <c r="G701">
+        <v>17</v>
+      </c>
+      <c r="H701">
+        <v>0.4</v>
+      </c>
+      <c r="I701">
+        <v>1</v>
+      </c>
+      <c r="J701">
+        <v>0</v>
+      </c>
+      <c r="K701">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="702" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A702" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B702" t="s">
+        <v>10</v>
+      </c>
+      <c r="C702" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D702">
+        <v>499</v>
+      </c>
+      <c r="E702">
+        <v>106</v>
+      </c>
+      <c r="F702">
+        <v>0.2</v>
+      </c>
+      <c r="G702">
+        <v>9</v>
+      </c>
+      <c r="H702">
+        <v>0.2</v>
+      </c>
+      <c r="I702">
+        <v>1</v>
+      </c>
+      <c r="J702">
+        <v>0</v>
+      </c>
+      <c r="K702">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="703" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A703" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B703" t="s">
+        <v>10</v>
+      </c>
+      <c r="C703" t="s">
+        <v>1</v>
+      </c>
+      <c r="D703" s="3">
+        <v>3503</v>
+      </c>
+      <c r="E703">
+        <v>593</v>
+      </c>
+      <c r="F703">
+        <v>1.3</v>
+      </c>
+      <c r="G703">
+        <v>42</v>
+      </c>
+      <c r="H703">
+        <v>0.9</v>
+      </c>
+      <c r="I703">
+        <v>17</v>
+      </c>
+      <c r="J703">
+        <v>0.2</v>
+      </c>
+      <c r="K703">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="704" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A704" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B704" t="s">
+        <v>10</v>
+      </c>
+      <c r="C704" t="s">
+        <v>2</v>
+      </c>
+      <c r="D704" s="3">
+        <v>6772</v>
+      </c>
+      <c r="E704" s="3">
+        <v>1696</v>
+      </c>
+      <c r="F704">
+        <v>3.8</v>
+      </c>
+      <c r="G704">
+        <v>151</v>
+      </c>
+      <c r="H704">
+        <v>3.1</v>
+      </c>
+      <c r="I704">
+        <v>29</v>
+      </c>
+      <c r="J704">
+        <v>0.3</v>
+      </c>
+      <c r="K704">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="705" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A705" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B705" t="s">
+        <v>10</v>
+      </c>
+      <c r="C705" t="s">
+        <v>3</v>
+      </c>
+      <c r="D705" s="3">
+        <v>11910</v>
+      </c>
+      <c r="E705" s="3">
+        <v>4474</v>
+      </c>
+      <c r="F705">
+        <v>9.9</v>
+      </c>
+      <c r="G705">
+        <v>454</v>
+      </c>
+      <c r="H705">
+        <v>9.5</v>
+      </c>
+      <c r="I705">
+        <v>98</v>
+      </c>
+      <c r="J705">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K705">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="706" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A706" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B706" t="s">
+        <v>10</v>
+      </c>
+      <c r="C706" t="s">
+        <v>4</v>
+      </c>
+      <c r="D706" s="3">
+        <v>15334</v>
+      </c>
+      <c r="E706" s="3">
+        <v>7375</v>
+      </c>
+      <c r="F706">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="G706">
+        <v>966</v>
+      </c>
+      <c r="H706">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="I706">
+        <v>318</v>
+      </c>
+      <c r="J706">
+        <v>3.7</v>
+      </c>
+      <c r="K706">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="707" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A707" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B707" t="s">
+        <v>10</v>
+      </c>
+      <c r="C707" t="s">
+        <v>5</v>
+      </c>
+      <c r="D707" s="3">
+        <v>15509</v>
+      </c>
+      <c r="E707" s="3">
+        <v>9354</v>
+      </c>
+      <c r="F707">
+        <v>20.8</v>
+      </c>
+      <c r="G707" s="3">
+        <v>1588</v>
+      </c>
+      <c r="H707">
+        <v>33.1</v>
+      </c>
+      <c r="I707">
+        <v>906</v>
+      </c>
+      <c r="J707">
+        <v>10.5</v>
+      </c>
+      <c r="K707">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="708" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A708" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B708" t="s">
+        <v>10</v>
+      </c>
+      <c r="C708" t="s">
+        <v>6</v>
+      </c>
+      <c r="D708" s="3">
+        <v>16072</v>
+      </c>
+      <c r="E708" s="3">
+        <v>11170</v>
+      </c>
+      <c r="F708">
+        <v>24.8</v>
+      </c>
+      <c r="G708" s="3">
+        <v>1406</v>
+      </c>
+      <c r="H708">
+        <v>29.3</v>
+      </c>
+      <c r="I708" s="3">
+        <v>2594</v>
+      </c>
+      <c r="J708">
+        <v>30.2</v>
+      </c>
+      <c r="K708">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="709" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A709" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B709" t="s">
+        <v>10</v>
+      </c>
+      <c r="C709" t="s">
+        <v>12</v>
+      </c>
+      <c r="D709" s="3">
+        <v>13312</v>
+      </c>
+      <c r="E709" s="3">
+        <v>8293</v>
+      </c>
+      <c r="F709">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="G709">
+        <v>153</v>
+      </c>
+      <c r="H709">
+        <v>3.2</v>
+      </c>
+      <c r="I709" s="3">
+        <v>3510</v>
+      </c>
+      <c r="J709">
+        <v>40.9</v>
+      </c>
+      <c r="K709">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="710" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A710" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B710" t="s">
+        <v>10</v>
+      </c>
+      <c r="C710" t="s">
+        <v>13</v>
+      </c>
+      <c r="D710" s="3">
+        <v>3978</v>
+      </c>
+      <c r="E710" s="3">
+        <v>1858</v>
+      </c>
+      <c r="F710">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G710">
+        <v>14</v>
+      </c>
+      <c r="H710">
+        <v>0.3</v>
+      </c>
+      <c r="I710" s="3">
+        <v>1117</v>
+      </c>
+      <c r="J710">
+        <v>13</v>
+      </c>
+      <c r="K710">
+        <v>28.1</v>
+      </c>
+    </row>
+    <row r="711" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A711" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B711" t="s">
+        <v>9</v>
+      </c>
+      <c r="C711" t="s">
+        <v>0</v>
+      </c>
+      <c r="D711">
+        <v>308</v>
+      </c>
+      <c r="E711">
+        <v>98</v>
+      </c>
+      <c r="F711">
+        <v>0.3</v>
+      </c>
+      <c r="G711">
+        <v>11</v>
+      </c>
+      <c r="H711">
+        <v>0.5</v>
+      </c>
+      <c r="I711">
+        <v>1</v>
+      </c>
+      <c r="J711">
+        <v>0</v>
+      </c>
+      <c r="K711">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="712" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A712" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B712" t="s">
+        <v>9</v>
+      </c>
+      <c r="C712" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D712">
+        <v>677</v>
+      </c>
+      <c r="E712">
+        <v>121</v>
+      </c>
+      <c r="F712">
+        <v>0.3</v>
+      </c>
+      <c r="G712">
+        <v>8</v>
+      </c>
+      <c r="H712">
+        <v>0.4</v>
+      </c>
+      <c r="I712">
+        <v>3</v>
+      </c>
+      <c r="J712">
+        <v>0</v>
+      </c>
+      <c r="K712">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="713" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A713" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B713" t="s">
+        <v>9</v>
+      </c>
+      <c r="C713" t="s">
+        <v>1</v>
+      </c>
+      <c r="D713" s="3">
+        <v>7452</v>
+      </c>
+      <c r="E713">
+        <v>692</v>
+      </c>
+      <c r="F713">
+        <v>1.9</v>
+      </c>
+      <c r="G713">
+        <v>38</v>
+      </c>
+      <c r="H713">
+        <v>1.7</v>
+      </c>
+      <c r="I713">
+        <v>8</v>
+      </c>
+      <c r="J713">
+        <v>0.1</v>
+      </c>
+      <c r="K713">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="714" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A714" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B714" t="s">
+        <v>9</v>
+      </c>
+      <c r="C714" t="s">
+        <v>2</v>
+      </c>
+      <c r="D714" s="3">
+        <v>11890</v>
+      </c>
+      <c r="E714" s="3">
+        <v>1633</v>
+      </c>
+      <c r="F714">
+        <v>4.5</v>
+      </c>
+      <c r="G714">
+        <v>93</v>
+      </c>
+      <c r="H714">
+        <v>4.2</v>
+      </c>
+      <c r="I714">
+        <v>21</v>
+      </c>
+      <c r="J714">
+        <v>0.3</v>
+      </c>
+      <c r="K714">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="715" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A715" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B715" t="s">
+        <v>9</v>
+      </c>
+      <c r="C715" t="s">
+        <v>3</v>
+      </c>
+      <c r="D715" s="3">
+        <v>17329</v>
+      </c>
+      <c r="E715" s="3">
+        <v>3320</v>
+      </c>
+      <c r="F715">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G715">
+        <v>214</v>
+      </c>
+      <c r="H715">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="I715">
+        <v>60</v>
+      </c>
+      <c r="J715">
+        <v>0.9</v>
+      </c>
+      <c r="K715">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="716" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A716" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B716" t="s">
+        <v>9</v>
+      </c>
+      <c r="C716" t="s">
+        <v>4</v>
+      </c>
+      <c r="D716" s="3">
+        <v>20542</v>
+      </c>
+      <c r="E716" s="3">
+        <v>5279</v>
+      </c>
+      <c r="F716">
+        <v>14.6</v>
+      </c>
+      <c r="G716">
+        <v>414</v>
+      </c>
+      <c r="H716">
+        <v>18.8</v>
+      </c>
+      <c r="I716">
+        <v>146</v>
+      </c>
+      <c r="J716">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K716">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="717" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A717" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B717" t="s">
+        <v>9</v>
+      </c>
+      <c r="C717" t="s">
+        <v>5</v>
+      </c>
+      <c r="D717" s="3">
+        <v>14409</v>
+      </c>
+      <c r="E717" s="3">
+        <v>6386</v>
+      </c>
+      <c r="F717">
+        <v>17.7</v>
+      </c>
+      <c r="G717">
+        <v>647</v>
+      </c>
+      <c r="H717">
+        <v>29.4</v>
+      </c>
+      <c r="I717">
+        <v>407</v>
+      </c>
+      <c r="J717">
+        <v>6.2</v>
+      </c>
+      <c r="K717">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="718" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A718" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B718" t="s">
+        <v>9</v>
+      </c>
+      <c r="C718" t="s">
+        <v>6</v>
+      </c>
+      <c r="D718" s="3">
+        <v>13109</v>
+      </c>
+      <c r="E718" s="3">
+        <v>7774</v>
+      </c>
+      <c r="F718">
+        <v>21.5</v>
+      </c>
+      <c r="G718">
+        <v>625</v>
+      </c>
+      <c r="H718">
+        <v>28.4</v>
+      </c>
+      <c r="I718" s="3">
+        <v>1257</v>
+      </c>
+      <c r="J718">
+        <v>19.2</v>
+      </c>
+      <c r="K718">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="719" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A719" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B719" t="s">
+        <v>9</v>
+      </c>
+      <c r="C719" t="s">
+        <v>12</v>
+      </c>
+      <c r="D719" s="3">
+        <v>18285</v>
+      </c>
+      <c r="E719" s="3">
+        <v>7771</v>
+      </c>
+      <c r="F719">
+        <v>21.5</v>
+      </c>
+      <c r="G719">
+        <v>130</v>
+      </c>
+      <c r="H719">
+        <v>5.9</v>
+      </c>
+      <c r="I719" s="3">
+        <v>2832</v>
+      </c>
+      <c r="J719">
+        <v>43.3</v>
+      </c>
+      <c r="K719">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="720" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A720" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B720" t="s">
+        <v>9</v>
+      </c>
+      <c r="C720" t="s">
+        <v>13</v>
+      </c>
+      <c r="D720" s="3">
+        <v>10491</v>
+      </c>
+      <c r="E720" s="3">
+        <v>3047</v>
+      </c>
+      <c r="F720">
+        <v>8.4</v>
+      </c>
+      <c r="G720">
+        <v>22</v>
+      </c>
+      <c r="H720">
+        <v>1</v>
+      </c>
+      <c r="I720" s="3">
+        <v>1808</v>
+      </c>
+      <c r="J720">
+        <v>27.6</v>
+      </c>
+      <c r="K720">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="721" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A721" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B721" t="s">
+        <v>10</v>
+      </c>
+      <c r="C721" t="s">
+        <v>0</v>
+      </c>
+      <c r="D721">
+        <v>354</v>
+      </c>
+      <c r="E721">
+        <v>129</v>
+      </c>
+      <c r="F721">
+        <v>0.3</v>
+      </c>
+      <c r="G721">
+        <v>21</v>
+      </c>
+      <c r="H721">
+        <v>0.4</v>
+      </c>
+      <c r="I721">
+        <v>1</v>
+      </c>
+      <c r="J721">
+        <v>0</v>
+      </c>
+      <c r="K721">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="722" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A722" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B722" t="s">
+        <v>10</v>
+      </c>
+      <c r="C722" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D722">
+        <v>537</v>
+      </c>
+      <c r="E722">
+        <v>113</v>
+      </c>
+      <c r="F722">
+        <v>0.2</v>
+      </c>
+      <c r="G722">
+        <v>9</v>
+      </c>
+      <c r="H722">
+        <v>0.2</v>
+      </c>
+      <c r="I722">
+        <v>1</v>
+      </c>
+      <c r="J722">
+        <v>0</v>
+      </c>
+      <c r="K722">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="723" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A723" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B723" t="s">
+        <v>10</v>
+      </c>
+      <c r="C723" t="s">
+        <v>1</v>
+      </c>
+      <c r="D723" s="3">
+        <v>3683</v>
+      </c>
+      <c r="E723">
+        <v>625</v>
+      </c>
+      <c r="F723">
+        <v>1.3</v>
+      </c>
+      <c r="G723">
+        <v>45</v>
+      </c>
+      <c r="H723">
+        <v>0.9</v>
+      </c>
+      <c r="I723">
+        <v>14</v>
+      </c>
+      <c r="J723">
+        <v>0.2</v>
+      </c>
+      <c r="K723">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="724" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A724" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B724" t="s">
+        <v>10</v>
+      </c>
+      <c r="C724" t="s">
+        <v>2</v>
+      </c>
+      <c r="D724" s="3">
+        <v>7069</v>
+      </c>
+      <c r="E724" s="3">
+        <v>1787</v>
+      </c>
+      <c r="F724">
+        <v>3.8</v>
+      </c>
+      <c r="G724">
+        <v>156</v>
+      </c>
+      <c r="H724">
+        <v>3.1</v>
+      </c>
+      <c r="I724">
+        <v>33</v>
+      </c>
+      <c r="J724">
+        <v>0.4</v>
+      </c>
+      <c r="K724">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="725" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A725" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B725" t="s">
+        <v>10</v>
+      </c>
+      <c r="C725" t="s">
+        <v>3</v>
+      </c>
+      <c r="D725" s="3">
+        <v>12370</v>
+      </c>
+      <c r="E725" s="3">
+        <v>4719</v>
+      </c>
+      <c r="F725">
+        <v>9.9</v>
+      </c>
+      <c r="G725">
+        <v>480</v>
+      </c>
+      <c r="H725">
+        <v>9.6</v>
+      </c>
+      <c r="I725">
+        <v>110</v>
+      </c>
+      <c r="J725">
+        <v>1.2</v>
+      </c>
+      <c r="K725">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="726" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A726" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B726" t="s">
+        <v>10</v>
+      </c>
+      <c r="C726" t="s">
+        <v>4</v>
+      </c>
+      <c r="D726" s="3">
+        <v>15979</v>
+      </c>
+      <c r="E726" s="3">
+        <v>7754</v>
+      </c>
+      <c r="F726">
+        <v>16.3</v>
+      </c>
+      <c r="G726" s="3">
+        <v>1020</v>
+      </c>
+      <c r="H726">
+        <v>20.3</v>
+      </c>
+      <c r="I726">
+        <v>349</v>
+      </c>
+      <c r="J726">
+        <v>3.8</v>
+      </c>
+      <c r="K726">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="727" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A727" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B727" t="s">
+        <v>10</v>
+      </c>
+      <c r="C727" t="s">
+        <v>5</v>
+      </c>
+      <c r="D727" s="3">
+        <v>16036</v>
+      </c>
+      <c r="E727" s="3">
+        <v>9837</v>
+      </c>
+      <c r="F727">
+        <v>20.7</v>
+      </c>
+      <c r="G727" s="3">
+        <v>1668</v>
+      </c>
+      <c r="H727">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="I727">
+        <v>973</v>
+      </c>
+      <c r="J727">
+        <v>10.6</v>
+      </c>
+      <c r="K727">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="728" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A728" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B728" t="s">
+        <v>10</v>
+      </c>
+      <c r="C728" t="s">
+        <v>6</v>
+      </c>
+      <c r="D728" s="3">
+        <v>16564</v>
+      </c>
+      <c r="E728" s="3">
+        <v>11656</v>
+      </c>
+      <c r="F728">
+        <v>24.6</v>
+      </c>
+      <c r="G728" s="3">
+        <v>1441</v>
+      </c>
+      <c r="H728">
+        <v>28.7</v>
+      </c>
+      <c r="I728" s="3">
+        <v>2746</v>
+      </c>
+      <c r="J728">
+        <v>29.8</v>
+      </c>
+      <c r="K728">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="729" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A729" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B729" t="s">
+        <v>10</v>
+      </c>
+      <c r="C729" t="s">
+        <v>12</v>
+      </c>
+      <c r="D729" s="3">
+        <v>13917</v>
+      </c>
+      <c r="E729" s="3">
+        <v>8795</v>
+      </c>
+      <c r="F729">
+        <v>18.5</v>
+      </c>
+      <c r="G729">
+        <v>163</v>
+      </c>
+      <c r="H729">
+        <v>3.2</v>
+      </c>
+      <c r="I729" s="3">
+        <v>3752</v>
+      </c>
+      <c r="J729">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="K729">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="730" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A730" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B730" t="s">
+        <v>10</v>
+      </c>
+      <c r="C730" t="s">
+        <v>13</v>
+      </c>
+      <c r="D730" s="3">
+        <v>4265</v>
+      </c>
+      <c r="E730" s="3">
+        <v>2046</v>
+      </c>
+      <c r="F730">
+        <v>4.3</v>
+      </c>
+      <c r="G730">
+        <v>16</v>
+      </c>
+      <c r="H730">
+        <v>0.3</v>
+      </c>
+      <c r="I730" s="3">
+        <v>1242</v>
+      </c>
+      <c r="J730">
+        <v>13.5</v>
+      </c>
+      <c r="K730">
+        <v>29.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Covid-19_data_sexage.xlsx
+++ b/data/Covid-19_data_sexage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanjosevidal/Google Drive/Projects/Covid-19/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5B4984-CD06-E44F-BE4E-F051131CEB5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA6DCA5-BCF7-DB48-B4B1-3369AE7F866D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{C24317C9-D1BD-7248-BEC1-07839536F6EA}"/>
   </bookViews>
@@ -54,6 +54,12 @@
     <definedName name="tabula_Actualizacion_86_COVID_19_2" localSheetId="0">Data!$C$671:$K$690</definedName>
     <definedName name="tabula_Actualizacion_87_COVID_19_2" localSheetId="0">Data!$C$691:$K$710</definedName>
     <definedName name="tabula_Actualizacion_88_COVID_19_2" localSheetId="0">Data!$C$711:$K$730</definedName>
+    <definedName name="tabula_Actualizacion_89_COVID_19" localSheetId="0">Data!$C$731:$K$750</definedName>
+    <definedName name="tabula_Actualizacion_90_COVID_19" localSheetId="0">Data!$C$751:$K$770</definedName>
+    <definedName name="tabula_Actualizacion_91_COVID_19" localSheetId="0">Data!$C$771:$K$790</definedName>
+    <definedName name="tabula_Actualizacion_92_COVID_19" localSheetId="0">Data!$C$791:$K$810</definedName>
+    <definedName name="tabula_Actualizacion_93_COVID_19" localSheetId="0">Data!$C$811:$K$830</definedName>
+    <definedName name="tabula_Actualizacion_94_COVID_19" localSheetId="0">Data!$C$831:$K$850</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -597,7 +603,7 @@
     </textPr>
   </connection>
   <connection id="36" xr16:uid="{73CF007A-6862-C443-8258-A45A2ABFA00D}" name="tabula-Actualizacion_87_COVID-19(2)" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_87_COVID-19(2).csv" decimal="," thousands="." comma="1">
+    <textPr sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_87_COVID-19(2).csv" decimal="," thousands="." comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -612,7 +618,97 @@
     </textPr>
   </connection>
   <connection id="37" xr16:uid="{E8C1FC3E-CA51-6A46-B353-160355F9DC22}" name="tabula-Actualizacion_88_COVID-19(2)" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_88_COVID-19(2).csv" decimal="," thousands="." comma="1">
+    <textPr sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_88_COVID-19(2).csv" decimal="," thousands="." comma="1">
+      <textFields count="9">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="38" xr16:uid="{C3E1A69F-8B7E-6B43-BC5D-E06982B30200}" name="tabula-Actualizacion_89_COVID-191" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_89_COVID-19.csv" decimal="," thousands="." comma="1">
+      <textFields count="9">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="39" xr16:uid="{087DFE1B-3741-FE4C-9B0D-327F1CED87AC}" name="tabula-Actualizacion_90_COVID-19" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_90_COVID-19.csv" decimal="," thousands="." comma="1">
+      <textFields count="9">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="40" xr16:uid="{73C49DD9-FD9B-E141-A3F9-FED657D452BB}" name="tabula-Actualizacion_91_COVID-19" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_91_COVID-19.csv" decimal="," thousands="." comma="1">
+      <textFields count="9">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="41" xr16:uid="{976AE8FA-AD7F-D745-A59B-524FC52002A8}" name="tabula-Actualizacion_92_COVID-19" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_92_COVID-19.csv" decimal="," thousands="." comma="1">
+      <textFields count="9">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="42" xr16:uid="{D302820C-066C-364B-BDBB-65072DCE5142}" name="tabula-Actualizacion_93_COVID-19" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_93_COVID-19.csv" decimal="," thousands="." comma="1">
+      <textFields count="9">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="43" xr16:uid="{7D726A8B-9669-2243-9E73-5A200DDE1F7F}" name="tabula-Actualizacion_94_COVID-19" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_94_COVID-19.csv" decimal="," thousands="." comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -630,7 +726,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="26">
   <si>
     <t>0-9</t>
   </si>
@@ -808,67 +904,67 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_88_COVID-19(2)" connectionId="37" xr16:uid="{442A7796-311C-914C-842C-C67D04E6CDF2}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_94_COVID-19" connectionId="43" xr16:uid="{E1DB3760-CEAD-1243-B89B-5083F9C5FD9D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_53_COVID-19" connectionId="2" xr16:uid="{31483431-2B39-A440-9E59-C26E082912EA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_54_COVID-19" connectionId="3" xr16:uid="{E94F4815-0D2F-454F-8291-FCBF0C165C57}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_70_COVID-19(1)" connectionId="19" xr16:uid="{F30EDCDD-4769-4442-A6A9-407F59F6429F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_80_COVID-19(2)" connectionId="29" xr16:uid="{9A2F5700-61ED-F044-A56E-7B5EC6DF1036}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_72_COVID-19(1)" connectionId="21" xr16:uid="{1488C0E5-7AB9-C44D-8BE2-997243B88982}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_66_COVID-19(1)" connectionId="15" xr16:uid="{784FDDA9-F525-C54F-BA21-682143B55347}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_54_COVID-19" connectionId="3" xr16:uid="{E94F4815-0D2F-454F-8291-FCBF0C165C57}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_87_COVID-19(2)" connectionId="36" xr16:uid="{3DC9730C-EB61-3546-A484-563DA03EF996}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_68_COVID-19(1)" connectionId="17" xr16:uid="{15D6F25C-3F4D-0947-8994-7F669D041C1F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_55_COVID-19" connectionId="4" xr16:uid="{10575DCA-3AE8-5C4C-A970-60205B471337}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_84_COVID-19(2)" connectionId="33" xr16:uid="{658D76C0-0942-AF43-952E-435C4A2BDAC3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_65_COVID-19(1)" connectionId="14" xr16:uid="{1F7FC7F3-ADF7-CE4C-A901-C09AA03AA932}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_67_COVID-19(1)" connectionId="16" xr16:uid="{0DCC7075-52E5-6445-A2D9-0D0404D0E63E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_79_COVID-19(2)" connectionId="28" xr16:uid="{CE4041F5-2CDB-234C-8611-179139CF531A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_93_COVID-19" connectionId="42" xr16:uid="{9B502165-113E-5343-9630-B2499685DBE0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_69_COVID-19(1)" connectionId="18" xr16:uid="{43D60223-767A-964E-8CC2-E64E5ACAFF9F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_63_COVID-19(1)" connectionId="12" xr16:uid="{EFDFC980-4B86-C948-B035-B2786B80754E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_69_COVID-19(1)" connectionId="18" xr16:uid="{43D60223-767A-964E-8CC2-E64E5ACAFF9F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_71_COVID-19(1)" connectionId="20" xr16:uid="{E40B0E49-9F2B-2549-8124-9C24FFB9F4B1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(1)" connectionId="9" xr16:uid="{C813FA0B-4B7A-0743-B527-E10C07F0E6C8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_77_COVID-19(2)" connectionId="26" xr16:uid="{B46FF584-84EC-AE4D-BCE8-171BFEBEEDEE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_84_COVID-19(2)" connectionId="33" xr16:uid="{658D76C0-0942-AF43-952E-435C4A2BDAC3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_87_COVID-19(2)" connectionId="36" xr16:uid="{3DC9730C-EB61-3546-A484-563DA03EF996}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_75_COVID-19(1)" connectionId="24" xr16:uid="{D7A38836-E0C5-5046-B8FD-EF82AA804006}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(2)_1" connectionId="10" xr16:uid="{252D0C3F-8429-6D40-AFE6-2BAFDCF71E62}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_65_COVID-19(1)" connectionId="14" xr16:uid="{1F7FC7F3-ADF7-CE4C-A901-C09AA03AA932}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_85_COVID-19(2)" connectionId="34" xr16:uid="{4236AA15-44DD-864C-BBB9-D1CF1013BE00}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_86_COVID-19(2)" connectionId="35" xr16:uid="{95015227-8A0A-4C48-AC40-AEF4A2B2143A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_75_COVID-19(1)" connectionId="24" xr16:uid="{D7A38836-E0C5-5046-B8FD-EF82AA804006}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
@@ -876,83 +972,107 @@
 </file>
 
 <file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_53_COVID-19" connectionId="2" xr16:uid="{31483431-2B39-A440-9E59-C26E082912EA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_64_COVID-19(1)" connectionId="13" xr16:uid="{24F5186E-14BA-4941-BB1A-F21AEE9F7F07}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(2)_1" connectionId="10" xr16:uid="{252D0C3F-8429-6D40-AFE6-2BAFDCF71E62}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_56_COVID-19(1)" connectionId="5" xr16:uid="{C5B10145-DA18-EE44-A918-E407BEA443E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_70_COVID-19(1)" connectionId="19" xr16:uid="{F30EDCDD-4769-4442-A6A9-407F59F6429F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_92_COVID-19" connectionId="41" xr16:uid="{36511222-D462-6C49-8765-A7C39A844257}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_83_COVID-19(2)" connectionId="32" xr16:uid="{F68CD602-B2A0-604F-A4DC-A153B85916C5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_81_COVID-19(2)_1" connectionId="30" xr16:uid="{6EBD5E78-C6DF-2E41-9BEC-F2E99D2C6A50}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_74_COVID-19(1)" connectionId="23" xr16:uid="{486A1335-E13C-A646-B386-9ED2A72BEEE6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_80_COVID-19(2)" connectionId="29" xr16:uid="{9A2F5700-61ED-F044-A56E-7B5EC6DF1036}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_71_COVID-19(1)" connectionId="20" xr16:uid="{E40B0E49-9F2B-2549-8124-9C24FFB9F4B1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_57_COVID-19(1)" connectionId="6" xr16:uid="{78E004BB-228B-5143-9AFE-91688C440A41}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_73_COVID-19(1)" connectionId="22" xr16:uid="{144BDA4A-6CCF-094D-8B47-C4994B28C9F4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_77_COVID-19(2)" connectionId="26" xr16:uid="{B46FF584-84EC-AE4D-BCE8-171BFEBEEDEE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(1)" connectionId="9" xr16:uid="{C813FA0B-4B7A-0743-B527-E10C07F0E6C8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable38.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_60_COVID-19(1)" connectionId="8" xr16:uid="{C2F0088C-0355-9A48-BE55-175198337C67}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable39.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_76_COVID-19(2)" connectionId="25" xr16:uid="{70AE20FA-7C65-AC4F-B077-971D1C6A5B94}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_68_COVID-19(1)" connectionId="17" xr16:uid="{15D6F25C-3F4D-0947-8994-7F669D041C1F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_91_COVID-19" connectionId="40" xr16:uid="{84536095-CC54-8C41-83F7-F36B6B61C343}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_67_COVID-19(1)" connectionId="16" xr16:uid="{0DCC7075-52E5-6445-A2D9-0D0404D0E63E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable40.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_78_COVID-19(2)" connectionId="27" xr16:uid="{DA1E7C1F-5CE0-764E-9BAE-85540697E15C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable41.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_62_COVID-19(1)" connectionId="11" xr16:uid="{789174F4-7737-BE4C-9685-F15607B8C828}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_59_COVID-19(1)" connectionId="7" xr16:uid="{6E93CE4F-1115-D449-959A-2A7263C31ABC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable42.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_72_COVID-19(1)" connectionId="21" xr16:uid="{1488C0E5-7AB9-C44D-8BE2-997243B88982}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_55_COVID-19" connectionId="4" xr16:uid="{10575DCA-3AE8-5C4C-A970-60205B471337}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_79_COVID-19(2)" connectionId="28" xr16:uid="{CE4041F5-2CDB-234C-8611-179139CF531A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_85_COVID-19(2)" connectionId="34" xr16:uid="{4236AA15-44DD-864C-BBB9-D1CF1013BE00}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_81_COVID-19(2)_1" connectionId="30" xr16:uid="{6EBD5E78-C6DF-2E41-9BEC-F2E99D2C6A50}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_73_COVID-19(1)" connectionId="22" xr16:uid="{144BDA4A-6CCF-094D-8B47-C4994B28C9F4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable43.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_52_COVID-19" connectionId="1" xr16:uid="{35D81D28-1058-4347-9DE2-5F2763DAC2A4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_78_COVID-19(2)" connectionId="27" xr16:uid="{DA1E7C1F-5CE0-764E-9BAE-85540697E15C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_57_COVID-19(1)" connectionId="6" xr16:uid="{78E004BB-228B-5143-9AFE-91688C440A41}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_90_COVID-19" connectionId="39" xr16:uid="{A93A93AC-3885-8E4E-8C26-49BA468F1F08}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_60_COVID-19(1)" connectionId="8" xr16:uid="{C2F0088C-0355-9A48-BE55-175198337C67}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_89_COVID-19" connectionId="38" xr16:uid="{7196C996-97E2-574F-AA83-DA40EB48943E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_66_COVID-19(1)" connectionId="15" xr16:uid="{784FDDA9-F525-C54F-BA21-682143B55347}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_88_COVID-19(2)" connectionId="37" xr16:uid="{442A7796-311C-914C-842C-C67D04E6CDF2}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_64_COVID-19(1)" connectionId="13" xr16:uid="{24F5186E-14BA-4941-BB1A-F21AEE9F7F07}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_86_COVID-19(2)" connectionId="35" xr16:uid="{95015227-8A0A-4C48-AC40-AEF4A2B2143A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_83_COVID-19(2)" connectionId="32" xr16:uid="{F68CD602-B2A0-604F-A4DC-A153B85916C5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_59_COVID-19(1)" connectionId="7" xr16:uid="{6E93CE4F-1115-D449-959A-2A7263C31ABC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1252,10 +1372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973FFFC2-62D5-A048-8409-BF1FADA21B40}">
-  <dimension ref="A1:T730"/>
+  <dimension ref="A1:T850"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A692" workbookViewId="0">
-      <selection activeCell="D715" sqref="D715"/>
+    <sheetView tabSelected="1" topLeftCell="A814" workbookViewId="0">
+      <selection activeCell="C842" sqref="C842"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26889,6 +27009,4206 @@
         <v>29.1</v>
       </c>
     </row>
+    <row r="731" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A731" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B731" t="s">
+        <v>9</v>
+      </c>
+      <c r="C731" t="s">
+        <v>0</v>
+      </c>
+      <c r="D731">
+        <v>304</v>
+      </c>
+      <c r="E731">
+        <v>99</v>
+      </c>
+      <c r="F731">
+        <v>0.3</v>
+      </c>
+      <c r="G731">
+        <v>11</v>
+      </c>
+      <c r="H731">
+        <v>0.5</v>
+      </c>
+      <c r="I731">
+        <v>1</v>
+      </c>
+      <c r="J731">
+        <v>0</v>
+      </c>
+      <c r="K731">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="732" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A732" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B732" t="s">
+        <v>9</v>
+      </c>
+      <c r="C732" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D732">
+        <v>668</v>
+      </c>
+      <c r="E732">
+        <v>121</v>
+      </c>
+      <c r="F732">
+        <v>0.3</v>
+      </c>
+      <c r="G732">
+        <v>8</v>
+      </c>
+      <c r="H732">
+        <v>0.4</v>
+      </c>
+      <c r="I732">
+        <v>3</v>
+      </c>
+      <c r="J732">
+        <v>0</v>
+      </c>
+      <c r="K732">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="733" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A733" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B733" t="s">
+        <v>9</v>
+      </c>
+      <c r="C733" t="s">
+        <v>1</v>
+      </c>
+      <c r="D733" s="3">
+        <v>7437</v>
+      </c>
+      <c r="E733">
+        <v>696</v>
+      </c>
+      <c r="F733">
+        <v>1.9</v>
+      </c>
+      <c r="G733">
+        <v>38</v>
+      </c>
+      <c r="H733">
+        <v>1.7</v>
+      </c>
+      <c r="I733">
+        <v>8</v>
+      </c>
+      <c r="J733">
+        <v>0.1</v>
+      </c>
+      <c r="K733">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="734" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A734" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B734" t="s">
+        <v>9</v>
+      </c>
+      <c r="C734" t="s">
+        <v>2</v>
+      </c>
+      <c r="D734" s="3">
+        <v>11841</v>
+      </c>
+      <c r="E734" s="3">
+        <v>1638</v>
+      </c>
+      <c r="F734">
+        <v>4.5</v>
+      </c>
+      <c r="G734">
+        <v>94</v>
+      </c>
+      <c r="H734">
+        <v>4.3</v>
+      </c>
+      <c r="I734">
+        <v>22</v>
+      </c>
+      <c r="J734">
+        <v>0.3</v>
+      </c>
+      <c r="K734">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="735" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A735" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B735" t="s">
+        <v>9</v>
+      </c>
+      <c r="C735" t="s">
+        <v>3</v>
+      </c>
+      <c r="D735" s="3">
+        <v>17230</v>
+      </c>
+      <c r="E735" s="3">
+        <v>3324</v>
+      </c>
+      <c r="F735">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G735">
+        <v>215</v>
+      </c>
+      <c r="H735">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I735">
+        <v>62</v>
+      </c>
+      <c r="J735">
+        <v>0.9</v>
+      </c>
+      <c r="K735">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="736" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A736" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B736" t="s">
+        <v>9</v>
+      </c>
+      <c r="C736" t="s">
+        <v>4</v>
+      </c>
+      <c r="D736" s="3">
+        <v>20412</v>
+      </c>
+      <c r="E736" s="3">
+        <v>5282</v>
+      </c>
+      <c r="F736">
+        <v>14.6</v>
+      </c>
+      <c r="G736">
+        <v>416</v>
+      </c>
+      <c r="H736">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="I736">
+        <v>146</v>
+      </c>
+      <c r="J736">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K736">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="737" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A737" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B737" t="s">
+        <v>9</v>
+      </c>
+      <c r="C737" t="s">
+        <v>5</v>
+      </c>
+      <c r="D737" s="3">
+        <v>14303</v>
+      </c>
+      <c r="E737" s="3">
+        <v>6392</v>
+      </c>
+      <c r="F737">
+        <v>17.7</v>
+      </c>
+      <c r="G737">
+        <v>646</v>
+      </c>
+      <c r="H737">
+        <v>29.3</v>
+      </c>
+      <c r="I737">
+        <v>409</v>
+      </c>
+      <c r="J737">
+        <v>6.2</v>
+      </c>
+      <c r="K737">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="738" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A738" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B738" t="s">
+        <v>9</v>
+      </c>
+      <c r="C738" t="s">
+        <v>6</v>
+      </c>
+      <c r="D738" s="3">
+        <v>12974</v>
+      </c>
+      <c r="E738" s="3">
+        <v>7781</v>
+      </c>
+      <c r="F738">
+        <v>21.5</v>
+      </c>
+      <c r="G738">
+        <v>625</v>
+      </c>
+      <c r="H738">
+        <v>28.3</v>
+      </c>
+      <c r="I738" s="3">
+        <v>1259</v>
+      </c>
+      <c r="J738">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K738">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="739" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A739" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B739" t="s">
+        <v>9</v>
+      </c>
+      <c r="C739" t="s">
+        <v>12</v>
+      </c>
+      <c r="D739" s="3">
+        <v>18264</v>
+      </c>
+      <c r="E739" s="3">
+        <v>7794</v>
+      </c>
+      <c r="F739">
+        <v>21.5</v>
+      </c>
+      <c r="G739">
+        <v>130</v>
+      </c>
+      <c r="H739">
+        <v>5.9</v>
+      </c>
+      <c r="I739" s="3">
+        <v>2852</v>
+      </c>
+      <c r="J739">
+        <v>43.3</v>
+      </c>
+      <c r="K739">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="740" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A740" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B740" t="s">
+        <v>9</v>
+      </c>
+      <c r="C740" t="s">
+        <v>13</v>
+      </c>
+      <c r="D740" s="3">
+        <v>10499</v>
+      </c>
+      <c r="E740" s="3">
+        <v>3060</v>
+      </c>
+      <c r="F740">
+        <v>8.5</v>
+      </c>
+      <c r="G740">
+        <v>22</v>
+      </c>
+      <c r="H740">
+        <v>1</v>
+      </c>
+      <c r="I740" s="3">
+        <v>1830</v>
+      </c>
+      <c r="J740">
+        <v>27.8</v>
+      </c>
+      <c r="K740">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="741" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A741" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B741" t="s">
+        <v>10</v>
+      </c>
+      <c r="C741" t="s">
+        <v>0</v>
+      </c>
+      <c r="D741">
+        <v>356</v>
+      </c>
+      <c r="E741">
+        <v>130</v>
+      </c>
+      <c r="F741">
+        <v>0.3</v>
+      </c>
+      <c r="G741">
+        <v>21</v>
+      </c>
+      <c r="H741">
+        <v>0.4</v>
+      </c>
+      <c r="I741">
+        <v>1</v>
+      </c>
+      <c r="J741">
+        <v>0</v>
+      </c>
+      <c r="K741">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="742" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A742" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B742" t="s">
+        <v>10</v>
+      </c>
+      <c r="C742" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D742">
+        <v>538</v>
+      </c>
+      <c r="E742">
+        <v>114</v>
+      </c>
+      <c r="F742">
+        <v>0.2</v>
+      </c>
+      <c r="G742">
+        <v>9</v>
+      </c>
+      <c r="H742">
+        <v>0.2</v>
+      </c>
+      <c r="I742">
+        <v>1</v>
+      </c>
+      <c r="J742">
+        <v>0</v>
+      </c>
+      <c r="K742">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="743" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A743" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B743" t="s">
+        <v>10</v>
+      </c>
+      <c r="C743" t="s">
+        <v>1</v>
+      </c>
+      <c r="D743" s="3">
+        <v>3701</v>
+      </c>
+      <c r="E743">
+        <v>628</v>
+      </c>
+      <c r="F743">
+        <v>1.3</v>
+      </c>
+      <c r="G743">
+        <v>45</v>
+      </c>
+      <c r="H743">
+        <v>0.9</v>
+      </c>
+      <c r="I743">
+        <v>14</v>
+      </c>
+      <c r="J743">
+        <v>0.2</v>
+      </c>
+      <c r="K743">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="744" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A744" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B744" t="s">
+        <v>10</v>
+      </c>
+      <c r="C744" t="s">
+        <v>2</v>
+      </c>
+      <c r="D744" s="3">
+        <v>7083</v>
+      </c>
+      <c r="E744" s="3">
+        <v>1791</v>
+      </c>
+      <c r="F744">
+        <v>3.8</v>
+      </c>
+      <c r="G744">
+        <v>156</v>
+      </c>
+      <c r="H744">
+        <v>3.1</v>
+      </c>
+      <c r="I744">
+        <v>33</v>
+      </c>
+      <c r="J744">
+        <v>0.4</v>
+      </c>
+      <c r="K744">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="745" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A745" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B745" t="s">
+        <v>10</v>
+      </c>
+      <c r="C745" t="s">
+        <v>3</v>
+      </c>
+      <c r="D745" s="3">
+        <v>12398</v>
+      </c>
+      <c r="E745" s="3">
+        <v>4724</v>
+      </c>
+      <c r="F745">
+        <v>9.9</v>
+      </c>
+      <c r="G745">
+        <v>480</v>
+      </c>
+      <c r="H745">
+        <v>9.5</v>
+      </c>
+      <c r="I745">
+        <v>110</v>
+      </c>
+      <c r="J745">
+        <v>1.2</v>
+      </c>
+      <c r="K745">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="746" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A746" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B746" t="s">
+        <v>10</v>
+      </c>
+      <c r="C746" t="s">
+        <v>4</v>
+      </c>
+      <c r="D746" s="3">
+        <v>16009</v>
+      </c>
+      <c r="E746" s="3">
+        <v>7765</v>
+      </c>
+      <c r="F746">
+        <v>16.3</v>
+      </c>
+      <c r="G746" s="3">
+        <v>1020</v>
+      </c>
+      <c r="H746">
+        <v>20.3</v>
+      </c>
+      <c r="I746">
+        <v>351</v>
+      </c>
+      <c r="J746">
+        <v>3.8</v>
+      </c>
+      <c r="K746">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="747" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A747" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B747" t="s">
+        <v>10</v>
+      </c>
+      <c r="C747" t="s">
+        <v>5</v>
+      </c>
+      <c r="D747" s="3">
+        <v>16054</v>
+      </c>
+      <c r="E747" s="3">
+        <v>9846</v>
+      </c>
+      <c r="F747">
+        <v>20.7</v>
+      </c>
+      <c r="G747" s="3">
+        <v>1673</v>
+      </c>
+      <c r="H747">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="I747">
+        <v>978</v>
+      </c>
+      <c r="J747">
+        <v>10.6</v>
+      </c>
+      <c r="K747">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="748" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A748" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B748" t="s">
+        <v>10</v>
+      </c>
+      <c r="C748" t="s">
+        <v>6</v>
+      </c>
+      <c r="D748" s="3">
+        <v>16575</v>
+      </c>
+      <c r="E748" s="3">
+        <v>11669</v>
+      </c>
+      <c r="F748">
+        <v>24.6</v>
+      </c>
+      <c r="G748" s="3">
+        <v>1444</v>
+      </c>
+      <c r="H748">
+        <v>28.7</v>
+      </c>
+      <c r="I748" s="3">
+        <v>2753</v>
+      </c>
+      <c r="J748">
+        <v>29.7</v>
+      </c>
+      <c r="K748">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="749" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A749" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B749" t="s">
+        <v>10</v>
+      </c>
+      <c r="C749" t="s">
+        <v>12</v>
+      </c>
+      <c r="D749" s="3">
+        <v>13932</v>
+      </c>
+      <c r="E749" s="3">
+        <v>8806</v>
+      </c>
+      <c r="F749">
+        <v>18.5</v>
+      </c>
+      <c r="G749">
+        <v>163</v>
+      </c>
+      <c r="H749">
+        <v>3.2</v>
+      </c>
+      <c r="I749" s="3">
+        <v>3769</v>
+      </c>
+      <c r="J749">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="K749">
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="750" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A750" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B750" t="s">
+        <v>10</v>
+      </c>
+      <c r="C750" t="s">
+        <v>13</v>
+      </c>
+      <c r="D750" s="3">
+        <v>4278</v>
+      </c>
+      <c r="E750" s="3">
+        <v>2052</v>
+      </c>
+      <c r="F750">
+        <v>4.3</v>
+      </c>
+      <c r="G750">
+        <v>16</v>
+      </c>
+      <c r="H750">
+        <v>0.3</v>
+      </c>
+      <c r="I750" s="3">
+        <v>1251</v>
+      </c>
+      <c r="J750">
+        <v>13.5</v>
+      </c>
+      <c r="K750">
+        <v>29.2</v>
+      </c>
+    </row>
+    <row r="751" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A751" s="2">
+        <v>43949</v>
+      </c>
+      <c r="B751" t="s">
+        <v>9</v>
+      </c>
+      <c r="C751" t="s">
+        <v>0</v>
+      </c>
+      <c r="D751">
+        <v>307</v>
+      </c>
+      <c r="E751">
+        <v>101</v>
+      </c>
+      <c r="F751">
+        <v>0.3</v>
+      </c>
+      <c r="G751">
+        <v>11</v>
+      </c>
+      <c r="H751">
+        <v>0.5</v>
+      </c>
+      <c r="I751">
+        <v>1</v>
+      </c>
+      <c r="J751">
+        <v>0</v>
+      </c>
+      <c r="K751">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="752" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A752" s="2">
+        <v>43949</v>
+      </c>
+      <c r="B752" t="s">
+        <v>9</v>
+      </c>
+      <c r="C752" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D752">
+        <v>675</v>
+      </c>
+      <c r="E752">
+        <v>124</v>
+      </c>
+      <c r="F752">
+        <v>0.3</v>
+      </c>
+      <c r="G752">
+        <v>8</v>
+      </c>
+      <c r="H752">
+        <v>0.4</v>
+      </c>
+      <c r="I752">
+        <v>3</v>
+      </c>
+      <c r="J752">
+        <v>0</v>
+      </c>
+      <c r="K752">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="753" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A753" s="2">
+        <v>43949</v>
+      </c>
+      <c r="B753" t="s">
+        <v>9</v>
+      </c>
+      <c r="C753" t="s">
+        <v>1</v>
+      </c>
+      <c r="D753" s="3">
+        <v>7455</v>
+      </c>
+      <c r="E753">
+        <v>699</v>
+      </c>
+      <c r="F753">
+        <v>1.9</v>
+      </c>
+      <c r="G753">
+        <v>38</v>
+      </c>
+      <c r="H753">
+        <v>1.7</v>
+      </c>
+      <c r="I753">
+        <v>8</v>
+      </c>
+      <c r="J753">
+        <v>0.1</v>
+      </c>
+      <c r="K753">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="754" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A754" s="2">
+        <v>43949</v>
+      </c>
+      <c r="B754" t="s">
+        <v>9</v>
+      </c>
+      <c r="C754" t="s">
+        <v>2</v>
+      </c>
+      <c r="D754" s="3">
+        <v>11870</v>
+      </c>
+      <c r="E754" s="3">
+        <v>1644</v>
+      </c>
+      <c r="F754">
+        <v>4.5</v>
+      </c>
+      <c r="G754">
+        <v>94</v>
+      </c>
+      <c r="H754">
+        <v>4.3</v>
+      </c>
+      <c r="I754">
+        <v>22</v>
+      </c>
+      <c r="J754">
+        <v>0.3</v>
+      </c>
+      <c r="K754">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="755" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A755" s="2">
+        <v>43949</v>
+      </c>
+      <c r="B755" t="s">
+        <v>9</v>
+      </c>
+      <c r="C755" t="s">
+        <v>3</v>
+      </c>
+      <c r="D755" s="3">
+        <v>17264</v>
+      </c>
+      <c r="E755" s="3">
+        <v>3344</v>
+      </c>
+      <c r="F755">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G755">
+        <v>215</v>
+      </c>
+      <c r="H755">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="I755">
+        <v>62</v>
+      </c>
+      <c r="J755">
+        <v>0.9</v>
+      </c>
+      <c r="K755">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="756" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A756" s="2">
+        <v>43949</v>
+      </c>
+      <c r="B756" t="s">
+        <v>9</v>
+      </c>
+      <c r="C756" t="s">
+        <v>4</v>
+      </c>
+      <c r="D756" s="3">
+        <v>20444</v>
+      </c>
+      <c r="E756" s="3">
+        <v>5294</v>
+      </c>
+      <c r="F756">
+        <v>14.6</v>
+      </c>
+      <c r="G756">
+        <v>417</v>
+      </c>
+      <c r="H756">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="I756">
+        <v>146</v>
+      </c>
+      <c r="J756">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K756">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="757" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A757" s="2">
+        <v>43949</v>
+      </c>
+      <c r="B757" t="s">
+        <v>9</v>
+      </c>
+      <c r="C757" t="s">
+        <v>5</v>
+      </c>
+      <c r="D757" s="3">
+        <v>14325</v>
+      </c>
+      <c r="E757" s="3">
+        <v>6405</v>
+      </c>
+      <c r="F757">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="G757">
+        <v>648</v>
+      </c>
+      <c r="H757">
+        <v>29.3</v>
+      </c>
+      <c r="I757">
+        <v>411</v>
+      </c>
+      <c r="J757">
+        <v>6.2</v>
+      </c>
+      <c r="K757">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="758" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A758" s="2">
+        <v>43949</v>
+      </c>
+      <c r="B758" t="s">
+        <v>9</v>
+      </c>
+      <c r="C758" t="s">
+        <v>6</v>
+      </c>
+      <c r="D758" s="3">
+        <v>12983</v>
+      </c>
+      <c r="E758" s="3">
+        <v>7797</v>
+      </c>
+      <c r="F758">
+        <v>21.5</v>
+      </c>
+      <c r="G758">
+        <v>626</v>
+      </c>
+      <c r="H758">
+        <v>28.3</v>
+      </c>
+      <c r="I758" s="3">
+        <v>1264</v>
+      </c>
+      <c r="J758">
+        <v>19</v>
+      </c>
+      <c r="K758">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="759" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A759" s="2">
+        <v>43949</v>
+      </c>
+      <c r="B759" t="s">
+        <v>9</v>
+      </c>
+      <c r="C759" t="s">
+        <v>12</v>
+      </c>
+      <c r="D759" s="3">
+        <v>18238</v>
+      </c>
+      <c r="E759" s="3">
+        <v>7817</v>
+      </c>
+      <c r="F759">
+        <v>21.5</v>
+      </c>
+      <c r="G759">
+        <v>132</v>
+      </c>
+      <c r="H759">
+        <v>6</v>
+      </c>
+      <c r="I759" s="3">
+        <v>2878</v>
+      </c>
+      <c r="J759">
+        <v>43.2</v>
+      </c>
+      <c r="K759">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="760" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A760" s="2">
+        <v>43949</v>
+      </c>
+      <c r="B760" t="s">
+        <v>9</v>
+      </c>
+      <c r="C760" t="s">
+        <v>13</v>
+      </c>
+      <c r="D760" s="3">
+        <v>10487</v>
+      </c>
+      <c r="E760" s="3">
+        <v>3072</v>
+      </c>
+      <c r="F760">
+        <v>8.5</v>
+      </c>
+      <c r="G760">
+        <v>22</v>
+      </c>
+      <c r="H760">
+        <v>1</v>
+      </c>
+      <c r="I760" s="3">
+        <v>1861</v>
+      </c>
+      <c r="J760">
+        <v>28</v>
+      </c>
+      <c r="K760">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="761" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A761" s="2">
+        <v>43949</v>
+      </c>
+      <c r="B761" t="s">
+        <v>10</v>
+      </c>
+      <c r="C761" t="s">
+        <v>0</v>
+      </c>
+      <c r="D761">
+        <v>363</v>
+      </c>
+      <c r="E761">
+        <v>130</v>
+      </c>
+      <c r="F761">
+        <v>0.3</v>
+      </c>
+      <c r="G761">
+        <v>21</v>
+      </c>
+      <c r="H761">
+        <v>0.4</v>
+      </c>
+      <c r="I761">
+        <v>1</v>
+      </c>
+      <c r="J761">
+        <v>0</v>
+      </c>
+      <c r="K761">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="762" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A762" s="2">
+        <v>43949</v>
+      </c>
+      <c r="B762" t="s">
+        <v>10</v>
+      </c>
+      <c r="C762" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D762">
+        <v>544</v>
+      </c>
+      <c r="E762">
+        <v>115</v>
+      </c>
+      <c r="F762">
+        <v>0.2</v>
+      </c>
+      <c r="G762">
+        <v>9</v>
+      </c>
+      <c r="H762">
+        <v>0.2</v>
+      </c>
+      <c r="I762">
+        <v>1</v>
+      </c>
+      <c r="J762">
+        <v>0</v>
+      </c>
+      <c r="K762">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="763" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A763" s="2">
+        <v>43949</v>
+      </c>
+      <c r="B763" t="s">
+        <v>10</v>
+      </c>
+      <c r="C763" t="s">
+        <v>1</v>
+      </c>
+      <c r="D763" s="3">
+        <v>3707</v>
+      </c>
+      <c r="E763">
+        <v>633</v>
+      </c>
+      <c r="F763">
+        <v>1.3</v>
+      </c>
+      <c r="G763">
+        <v>46</v>
+      </c>
+      <c r="H763">
+        <v>0.9</v>
+      </c>
+      <c r="I763">
+        <v>14</v>
+      </c>
+      <c r="J763">
+        <v>0.2</v>
+      </c>
+      <c r="K763">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="764" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A764" s="2">
+        <v>43949</v>
+      </c>
+      <c r="B764" t="s">
+        <v>10</v>
+      </c>
+      <c r="C764" t="s">
+        <v>2</v>
+      </c>
+      <c r="D764" s="3">
+        <v>7105</v>
+      </c>
+      <c r="E764" s="3">
+        <v>1794</v>
+      </c>
+      <c r="F764">
+        <v>3.8</v>
+      </c>
+      <c r="G764">
+        <v>156</v>
+      </c>
+      <c r="H764">
+        <v>3.1</v>
+      </c>
+      <c r="I764">
+        <v>33</v>
+      </c>
+      <c r="J764">
+        <v>0.4</v>
+      </c>
+      <c r="K764">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="765" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A765" s="2">
+        <v>43949</v>
+      </c>
+      <c r="B765" t="s">
+        <v>10</v>
+      </c>
+      <c r="C765" t="s">
+        <v>3</v>
+      </c>
+      <c r="D765" s="3">
+        <v>12415</v>
+      </c>
+      <c r="E765" s="3">
+        <v>4737</v>
+      </c>
+      <c r="F765">
+        <v>9.9</v>
+      </c>
+      <c r="G765">
+        <v>480</v>
+      </c>
+      <c r="H765">
+        <v>9.5</v>
+      </c>
+      <c r="I765">
+        <v>110</v>
+      </c>
+      <c r="J765">
+        <v>1.2</v>
+      </c>
+      <c r="K765">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="766" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A766" s="2">
+        <v>43949</v>
+      </c>
+      <c r="B766" t="s">
+        <v>10</v>
+      </c>
+      <c r="C766" t="s">
+        <v>4</v>
+      </c>
+      <c r="D766" s="3">
+        <v>16035</v>
+      </c>
+      <c r="E766" s="3">
+        <v>7782</v>
+      </c>
+      <c r="F766">
+        <v>16.3</v>
+      </c>
+      <c r="G766" s="3">
+        <v>1021</v>
+      </c>
+      <c r="H766">
+        <v>20.3</v>
+      </c>
+      <c r="I766">
+        <v>353</v>
+      </c>
+      <c r="J766">
+        <v>3.8</v>
+      </c>
+      <c r="K766">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="767" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A767" s="2">
+        <v>43949</v>
+      </c>
+      <c r="B767" t="s">
+        <v>10</v>
+      </c>
+      <c r="C767" t="s">
+        <v>5</v>
+      </c>
+      <c r="D767" s="3">
+        <v>16065</v>
+      </c>
+      <c r="E767" s="3">
+        <v>9860</v>
+      </c>
+      <c r="F767">
+        <v>20.7</v>
+      </c>
+      <c r="G767" s="3">
+        <v>1677</v>
+      </c>
+      <c r="H767">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="I767">
+        <v>982</v>
+      </c>
+      <c r="J767">
+        <v>10.6</v>
+      </c>
+      <c r="K767">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="768" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A768" s="2">
+        <v>43949</v>
+      </c>
+      <c r="B768" t="s">
+        <v>10</v>
+      </c>
+      <c r="C768" t="s">
+        <v>6</v>
+      </c>
+      <c r="D768" s="3">
+        <v>16580</v>
+      </c>
+      <c r="E768" s="3">
+        <v>11688</v>
+      </c>
+      <c r="F768">
+        <v>24.5</v>
+      </c>
+      <c r="G768" s="3">
+        <v>1448</v>
+      </c>
+      <c r="H768">
+        <v>28.7</v>
+      </c>
+      <c r="I768" s="3">
+        <v>2760</v>
+      </c>
+      <c r="J768">
+        <v>29.7</v>
+      </c>
+      <c r="K768">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="769" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A769" s="2">
+        <v>43949</v>
+      </c>
+      <c r="B769" t="s">
+        <v>10</v>
+      </c>
+      <c r="C769" t="s">
+        <v>12</v>
+      </c>
+      <c r="D769" s="3">
+        <v>13933</v>
+      </c>
+      <c r="E769" s="3">
+        <v>8828</v>
+      </c>
+      <c r="F769">
+        <v>18.5</v>
+      </c>
+      <c r="G769">
+        <v>164</v>
+      </c>
+      <c r="H769">
+        <v>3.3</v>
+      </c>
+      <c r="I769" s="3">
+        <v>3783</v>
+      </c>
+      <c r="J769">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="K769">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="770" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A770" s="2">
+        <v>43949</v>
+      </c>
+      <c r="B770" t="s">
+        <v>10</v>
+      </c>
+      <c r="C770" t="s">
+        <v>13</v>
+      </c>
+      <c r="D770" s="3">
+        <v>4282</v>
+      </c>
+      <c r="E770" s="3">
+        <v>2061</v>
+      </c>
+      <c r="F770">
+        <v>4.3</v>
+      </c>
+      <c r="G770">
+        <v>16</v>
+      </c>
+      <c r="H770">
+        <v>0.3</v>
+      </c>
+      <c r="I770" s="3">
+        <v>1263</v>
+      </c>
+      <c r="J770">
+        <v>13.6</v>
+      </c>
+      <c r="K770">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="771" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A771" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B771" t="s">
+        <v>9</v>
+      </c>
+      <c r="C771" t="s">
+        <v>0</v>
+      </c>
+      <c r="D771">
+        <v>317</v>
+      </c>
+      <c r="E771">
+        <v>102</v>
+      </c>
+      <c r="F771">
+        <v>0.3</v>
+      </c>
+      <c r="G771">
+        <v>11</v>
+      </c>
+      <c r="H771">
+        <v>0.5</v>
+      </c>
+      <c r="I771">
+        <v>1</v>
+      </c>
+      <c r="J771">
+        <v>0</v>
+      </c>
+      <c r="K771">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="772" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A772" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B772" t="s">
+        <v>9</v>
+      </c>
+      <c r="C772" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D772">
+        <v>696</v>
+      </c>
+      <c r="E772">
+        <v>123</v>
+      </c>
+      <c r="F772">
+        <v>0.3</v>
+      </c>
+      <c r="G772">
+        <v>8</v>
+      </c>
+      <c r="H772">
+        <v>0.4</v>
+      </c>
+      <c r="I772">
+        <v>3</v>
+      </c>
+      <c r="J772">
+        <v>0</v>
+      </c>
+      <c r="K772">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="773" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A773" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B773" t="s">
+        <v>9</v>
+      </c>
+      <c r="C773" t="s">
+        <v>1</v>
+      </c>
+      <c r="D773" s="3">
+        <v>7725</v>
+      </c>
+      <c r="E773">
+        <v>705</v>
+      </c>
+      <c r="F773">
+        <v>1.9</v>
+      </c>
+      <c r="G773">
+        <v>37</v>
+      </c>
+      <c r="H773">
+        <v>1.6</v>
+      </c>
+      <c r="I773">
+        <v>8</v>
+      </c>
+      <c r="J773">
+        <v>0.1</v>
+      </c>
+      <c r="K773">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="774" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A774" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B774" t="s">
+        <v>9</v>
+      </c>
+      <c r="C774" t="s">
+        <v>2</v>
+      </c>
+      <c r="D774" s="3">
+        <v>12280</v>
+      </c>
+      <c r="E774" s="3">
+        <v>1667</v>
+      </c>
+      <c r="F774">
+        <v>4.5</v>
+      </c>
+      <c r="G774">
+        <v>92</v>
+      </c>
+      <c r="H774">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I774">
+        <v>21</v>
+      </c>
+      <c r="J774">
+        <v>0.3</v>
+      </c>
+      <c r="K774">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="775" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A775" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B775" t="s">
+        <v>9</v>
+      </c>
+      <c r="C775" t="s">
+        <v>3</v>
+      </c>
+      <c r="D775" s="3">
+        <v>17890</v>
+      </c>
+      <c r="E775" s="3">
+        <v>3373</v>
+      </c>
+      <c r="F775">
+        <v>9.1</v>
+      </c>
+      <c r="G775">
+        <v>218</v>
+      </c>
+      <c r="H775">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="I775">
+        <v>64</v>
+      </c>
+      <c r="J775">
+        <v>0.9</v>
+      </c>
+      <c r="K775">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="776" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A776" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B776" t="s">
+        <v>9</v>
+      </c>
+      <c r="C776" t="s">
+        <v>4</v>
+      </c>
+      <c r="D776" s="3">
+        <v>21167</v>
+      </c>
+      <c r="E776" s="3">
+        <v>5356</v>
+      </c>
+      <c r="F776">
+        <v>14.5</v>
+      </c>
+      <c r="G776">
+        <v>422</v>
+      </c>
+      <c r="H776">
+        <v>18.7</v>
+      </c>
+      <c r="I776">
+        <v>149</v>
+      </c>
+      <c r="J776">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K776">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="777" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A777" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B777" t="s">
+        <v>9</v>
+      </c>
+      <c r="C777" t="s">
+        <v>5</v>
+      </c>
+      <c r="D777" s="3">
+        <v>14627</v>
+      </c>
+      <c r="E777" s="3">
+        <v>6454</v>
+      </c>
+      <c r="F777">
+        <v>17.5</v>
+      </c>
+      <c r="G777">
+        <v>659</v>
+      </c>
+      <c r="H777">
+        <v>29.2</v>
+      </c>
+      <c r="I777">
+        <v>423</v>
+      </c>
+      <c r="J777">
+        <v>6.1</v>
+      </c>
+      <c r="K777">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="778" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A778" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B778" t="s">
+        <v>9</v>
+      </c>
+      <c r="C778" t="s">
+        <v>6</v>
+      </c>
+      <c r="D778" s="3">
+        <v>13228</v>
+      </c>
+      <c r="E778" s="3">
+        <v>7889</v>
+      </c>
+      <c r="F778">
+        <v>21.4</v>
+      </c>
+      <c r="G778">
+        <v>642</v>
+      </c>
+      <c r="H778">
+        <v>28.5</v>
+      </c>
+      <c r="I778" s="3">
+        <v>1298</v>
+      </c>
+      <c r="J778">
+        <v>18.7</v>
+      </c>
+      <c r="K778">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="779" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A779" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B779" t="s">
+        <v>9</v>
+      </c>
+      <c r="C779" t="s">
+        <v>12</v>
+      </c>
+      <c r="D779" s="3">
+        <v>18832</v>
+      </c>
+      <c r="E779" s="3">
+        <v>8011</v>
+      </c>
+      <c r="F779">
+        <v>21.7</v>
+      </c>
+      <c r="G779">
+        <v>139</v>
+      </c>
+      <c r="H779">
+        <v>6.2</v>
+      </c>
+      <c r="I779" s="3">
+        <v>2991</v>
+      </c>
+      <c r="J779">
+        <v>43.2</v>
+      </c>
+      <c r="K779">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="780" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A780" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B780" t="s">
+        <v>9</v>
+      </c>
+      <c r="C780" t="s">
+        <v>13</v>
+      </c>
+      <c r="D780" s="3">
+        <v>10889</v>
+      </c>
+      <c r="E780" s="3">
+        <v>3202</v>
+      </c>
+      <c r="F780">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="G780">
+        <v>25</v>
+      </c>
+      <c r="H780">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I780" s="3">
+        <v>1971</v>
+      </c>
+      <c r="J780">
+        <v>28.4</v>
+      </c>
+      <c r="K780">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="781" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A781" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B781" t="s">
+        <v>10</v>
+      </c>
+      <c r="C781" t="s">
+        <v>0</v>
+      </c>
+      <c r="D781">
+        <v>377</v>
+      </c>
+      <c r="E781">
+        <v>132</v>
+      </c>
+      <c r="F781">
+        <v>0.3</v>
+      </c>
+      <c r="G781">
+        <v>21</v>
+      </c>
+      <c r="H781">
+        <v>0.4</v>
+      </c>
+      <c r="I781">
+        <v>1</v>
+      </c>
+      <c r="J781">
+        <v>0</v>
+      </c>
+      <c r="K781">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="782" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A782" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B782" t="s">
+        <v>10</v>
+      </c>
+      <c r="C782" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D782">
+        <v>562</v>
+      </c>
+      <c r="E782">
+        <v>116</v>
+      </c>
+      <c r="F782">
+        <v>0.2</v>
+      </c>
+      <c r="G782">
+        <v>10</v>
+      </c>
+      <c r="H782">
+        <v>0.2</v>
+      </c>
+      <c r="I782">
+        <v>2</v>
+      </c>
+      <c r="J782">
+        <v>0</v>
+      </c>
+      <c r="K782">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="783" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A783" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B783" t="s">
+        <v>10</v>
+      </c>
+      <c r="C783" t="s">
+        <v>1</v>
+      </c>
+      <c r="D783" s="3">
+        <v>3815</v>
+      </c>
+      <c r="E783">
+        <v>643</v>
+      </c>
+      <c r="F783">
+        <v>1.3</v>
+      </c>
+      <c r="G783">
+        <v>49</v>
+      </c>
+      <c r="H783">
+        <v>1</v>
+      </c>
+      <c r="I783">
+        <v>14</v>
+      </c>
+      <c r="J783">
+        <v>0.1</v>
+      </c>
+      <c r="K783">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="784" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A784" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B784" t="s">
+        <v>10</v>
+      </c>
+      <c r="C784" t="s">
+        <v>2</v>
+      </c>
+      <c r="D784" s="3">
+        <v>7278</v>
+      </c>
+      <c r="E784" s="3">
+        <v>1799</v>
+      </c>
+      <c r="F784">
+        <v>3.7</v>
+      </c>
+      <c r="G784">
+        <v>157</v>
+      </c>
+      <c r="H784">
+        <v>3.1</v>
+      </c>
+      <c r="I784">
+        <v>34</v>
+      </c>
+      <c r="J784">
+        <v>0.4</v>
+      </c>
+      <c r="K784">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="785" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A785" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B785" t="s">
+        <v>10</v>
+      </c>
+      <c r="C785" t="s">
+        <v>3</v>
+      </c>
+      <c r="D785" s="3">
+        <v>12682</v>
+      </c>
+      <c r="E785" s="3">
+        <v>4754</v>
+      </c>
+      <c r="F785">
+        <v>9.9</v>
+      </c>
+      <c r="G785">
+        <v>483</v>
+      </c>
+      <c r="H785">
+        <v>9.5</v>
+      </c>
+      <c r="I785">
+        <v>110</v>
+      </c>
+      <c r="J785">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K785">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="786" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A786" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B786" t="s">
+        <v>10</v>
+      </c>
+      <c r="C786" t="s">
+        <v>4</v>
+      </c>
+      <c r="D786" s="3">
+        <v>16387</v>
+      </c>
+      <c r="E786" s="3">
+        <v>7852</v>
+      </c>
+      <c r="F786">
+        <v>16.3</v>
+      </c>
+      <c r="G786" s="3">
+        <v>1028</v>
+      </c>
+      <c r="H786">
+        <v>20.2</v>
+      </c>
+      <c r="I786">
+        <v>374</v>
+      </c>
+      <c r="J786">
+        <v>3.9</v>
+      </c>
+      <c r="K786">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="787" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A787" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B787" t="s">
+        <v>10</v>
+      </c>
+      <c r="C787" t="s">
+        <v>5</v>
+      </c>
+      <c r="D787" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E787" s="3">
+        <v>9924</v>
+      </c>
+      <c r="F787">
+        <v>20.6</v>
+      </c>
+      <c r="G787" s="3">
+        <v>1690</v>
+      </c>
+      <c r="H787">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="I787" s="3">
+        <v>1022</v>
+      </c>
+      <c r="J787">
+        <v>10.7</v>
+      </c>
+      <c r="K787">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="788" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A788" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B788" t="s">
+        <v>10</v>
+      </c>
+      <c r="C788" t="s">
+        <v>6</v>
+      </c>
+      <c r="D788" s="3">
+        <v>16750</v>
+      </c>
+      <c r="E788" s="3">
+        <v>11800</v>
+      </c>
+      <c r="F788">
+        <v>24.5</v>
+      </c>
+      <c r="G788" s="3">
+        <v>1464</v>
+      </c>
+      <c r="H788">
+        <v>28.8</v>
+      </c>
+      <c r="I788" s="3">
+        <v>2821</v>
+      </c>
+      <c r="J788">
+        <v>29.4</v>
+      </c>
+      <c r="K788">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="789" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A789" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B789" t="s">
+        <v>10</v>
+      </c>
+      <c r="C789" t="s">
+        <v>12</v>
+      </c>
+      <c r="D789" s="3">
+        <v>14207</v>
+      </c>
+      <c r="E789" s="3">
+        <v>8984</v>
+      </c>
+      <c r="F789">
+        <v>18.7</v>
+      </c>
+      <c r="G789">
+        <v>171</v>
+      </c>
+      <c r="H789">
+        <v>3.4</v>
+      </c>
+      <c r="I789" s="3">
+        <v>3885</v>
+      </c>
+      <c r="J789">
+        <v>40.5</v>
+      </c>
+      <c r="K789">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="790" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A790" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B790" t="s">
+        <v>10</v>
+      </c>
+      <c r="C790" t="s">
+        <v>13</v>
+      </c>
+      <c r="D790" s="3">
+        <v>4390</v>
+      </c>
+      <c r="E790" s="3">
+        <v>2123</v>
+      </c>
+      <c r="F790">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G790">
+        <v>18</v>
+      </c>
+      <c r="H790">
+        <v>0.4</v>
+      </c>
+      <c r="I790" s="3">
+        <v>1325</v>
+      </c>
+      <c r="J790">
+        <v>13.8</v>
+      </c>
+      <c r="K790">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="791" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A791" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B791" t="s">
+        <v>9</v>
+      </c>
+      <c r="C791" t="s">
+        <v>0</v>
+      </c>
+      <c r="D791">
+        <v>317</v>
+      </c>
+      <c r="E791">
+        <v>102</v>
+      </c>
+      <c r="F791">
+        <v>0.3</v>
+      </c>
+      <c r="G791">
+        <v>11</v>
+      </c>
+      <c r="H791">
+        <v>0.5</v>
+      </c>
+      <c r="I791">
+        <v>1</v>
+      </c>
+      <c r="J791">
+        <v>0</v>
+      </c>
+      <c r="K791">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="792" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A792" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B792" t="s">
+        <v>9</v>
+      </c>
+      <c r="C792" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D792">
+        <v>700</v>
+      </c>
+      <c r="E792">
+        <v>123</v>
+      </c>
+      <c r="F792">
+        <v>0.3</v>
+      </c>
+      <c r="G792">
+        <v>8</v>
+      </c>
+      <c r="H792">
+        <v>0.4</v>
+      </c>
+      <c r="I792">
+        <v>3</v>
+      </c>
+      <c r="J792">
+        <v>0</v>
+      </c>
+      <c r="K792">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="793" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A793" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B793" t="s">
+        <v>9</v>
+      </c>
+      <c r="C793" t="s">
+        <v>1</v>
+      </c>
+      <c r="D793" s="3">
+        <v>7760</v>
+      </c>
+      <c r="E793">
+        <v>707</v>
+      </c>
+      <c r="F793">
+        <v>1.9</v>
+      </c>
+      <c r="G793">
+        <v>37</v>
+      </c>
+      <c r="H793">
+        <v>1.6</v>
+      </c>
+      <c r="I793">
+        <v>8</v>
+      </c>
+      <c r="J793">
+        <v>0.1</v>
+      </c>
+      <c r="K793">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="794" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A794" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B794" t="s">
+        <v>9</v>
+      </c>
+      <c r="C794" t="s">
+        <v>2</v>
+      </c>
+      <c r="D794" s="3">
+        <v>12352</v>
+      </c>
+      <c r="E794" s="3">
+        <v>1670</v>
+      </c>
+      <c r="F794">
+        <v>4.5</v>
+      </c>
+      <c r="G794">
+        <v>93</v>
+      </c>
+      <c r="H794">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I794">
+        <v>22</v>
+      </c>
+      <c r="J794">
+        <v>0.3</v>
+      </c>
+      <c r="K794">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="795" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A795" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B795" t="s">
+        <v>9</v>
+      </c>
+      <c r="C795" t="s">
+        <v>3</v>
+      </c>
+      <c r="D795" s="3">
+        <v>17984</v>
+      </c>
+      <c r="E795" s="3">
+        <v>3383</v>
+      </c>
+      <c r="F795">
+        <v>9.1</v>
+      </c>
+      <c r="G795">
+        <v>219</v>
+      </c>
+      <c r="H795">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="I795">
+        <v>64</v>
+      </c>
+      <c r="J795">
+        <v>0.9</v>
+      </c>
+      <c r="K795">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="796" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A796" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B796" t="s">
+        <v>9</v>
+      </c>
+      <c r="C796" t="s">
+        <v>4</v>
+      </c>
+      <c r="D796" s="3">
+        <v>21305</v>
+      </c>
+      <c r="E796" s="3">
+        <v>5373</v>
+      </c>
+      <c r="F796">
+        <v>14.5</v>
+      </c>
+      <c r="G796">
+        <v>423</v>
+      </c>
+      <c r="H796">
+        <v>18.7</v>
+      </c>
+      <c r="I796">
+        <v>149</v>
+      </c>
+      <c r="J796">
+        <v>2.1</v>
+      </c>
+      <c r="K796">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="797" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A797" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B797" t="s">
+        <v>9</v>
+      </c>
+      <c r="C797" t="s">
+        <v>5</v>
+      </c>
+      <c r="D797" s="3">
+        <v>14717</v>
+      </c>
+      <c r="E797" s="3">
+        <v>6473</v>
+      </c>
+      <c r="F797">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="G797">
+        <v>660</v>
+      </c>
+      <c r="H797">
+        <v>29.2</v>
+      </c>
+      <c r="I797">
+        <v>426</v>
+      </c>
+      <c r="J797">
+        <v>6.1</v>
+      </c>
+      <c r="K797">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="798" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A798" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B798" t="s">
+        <v>9</v>
+      </c>
+      <c r="C798" t="s">
+        <v>6</v>
+      </c>
+      <c r="D798" s="3">
+        <v>13299</v>
+      </c>
+      <c r="E798" s="3">
+        <v>7925</v>
+      </c>
+      <c r="F798">
+        <v>21.3</v>
+      </c>
+      <c r="G798">
+        <v>643</v>
+      </c>
+      <c r="H798">
+        <v>28.5</v>
+      </c>
+      <c r="I798" s="3">
+        <v>1308</v>
+      </c>
+      <c r="J798">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="K798">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="799" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A799" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B799" t="s">
+        <v>9</v>
+      </c>
+      <c r="C799" t="s">
+        <v>12</v>
+      </c>
+      <c r="D799" s="3">
+        <v>18972</v>
+      </c>
+      <c r="E799" s="3">
+        <v>8113</v>
+      </c>
+      <c r="F799">
+        <v>21.8</v>
+      </c>
+      <c r="G799">
+        <v>140</v>
+      </c>
+      <c r="H799">
+        <v>6.2</v>
+      </c>
+      <c r="I799" s="3">
+        <v>3015</v>
+      </c>
+      <c r="J799">
+        <v>43</v>
+      </c>
+      <c r="K799">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="800" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A800" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B800" t="s">
+        <v>9</v>
+      </c>
+      <c r="C800" t="s">
+        <v>13</v>
+      </c>
+      <c r="D800" s="3">
+        <v>11028</v>
+      </c>
+      <c r="E800" s="3">
+        <v>3286</v>
+      </c>
+      <c r="F800">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G800">
+        <v>26</v>
+      </c>
+      <c r="H800">
+        <v>1.2</v>
+      </c>
+      <c r="I800" s="3">
+        <v>2018</v>
+      </c>
+      <c r="J800">
+        <v>28.8</v>
+      </c>
+      <c r="K800">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="801" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A801" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B801" t="s">
+        <v>10</v>
+      </c>
+      <c r="C801" t="s">
+        <v>0</v>
+      </c>
+      <c r="D801">
+        <v>379</v>
+      </c>
+      <c r="E801">
+        <v>132</v>
+      </c>
+      <c r="F801">
+        <v>0.3</v>
+      </c>
+      <c r="G801">
+        <v>21</v>
+      </c>
+      <c r="H801">
+        <v>0.4</v>
+      </c>
+      <c r="I801">
+        <v>1</v>
+      </c>
+      <c r="J801">
+        <v>0</v>
+      </c>
+      <c r="K801">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="802" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A802" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B802" t="s">
+        <v>10</v>
+      </c>
+      <c r="C802" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D802">
+        <v>569</v>
+      </c>
+      <c r="E802">
+        <v>116</v>
+      </c>
+      <c r="F802">
+        <v>0.2</v>
+      </c>
+      <c r="G802">
+        <v>10</v>
+      </c>
+      <c r="H802">
+        <v>0.2</v>
+      </c>
+      <c r="I802">
+        <v>2</v>
+      </c>
+      <c r="J802">
+        <v>0</v>
+      </c>
+      <c r="K802">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="803" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A803" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B803" t="s">
+        <v>10</v>
+      </c>
+      <c r="C803" t="s">
+        <v>1</v>
+      </c>
+      <c r="D803" s="3">
+        <v>3834</v>
+      </c>
+      <c r="E803">
+        <v>644</v>
+      </c>
+      <c r="F803">
+        <v>1.3</v>
+      </c>
+      <c r="G803">
+        <v>49</v>
+      </c>
+      <c r="H803">
+        <v>1</v>
+      </c>
+      <c r="I803">
+        <v>14</v>
+      </c>
+      <c r="J803">
+        <v>0.1</v>
+      </c>
+      <c r="K803">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="804" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A804" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B804" t="s">
+        <v>10</v>
+      </c>
+      <c r="C804" t="s">
+        <v>2</v>
+      </c>
+      <c r="D804" s="3">
+        <v>7306</v>
+      </c>
+      <c r="E804" s="3">
+        <v>1804</v>
+      </c>
+      <c r="F804">
+        <v>3.7</v>
+      </c>
+      <c r="G804">
+        <v>157</v>
+      </c>
+      <c r="H804">
+        <v>3.1</v>
+      </c>
+      <c r="I804">
+        <v>34</v>
+      </c>
+      <c r="J804">
+        <v>0.4</v>
+      </c>
+      <c r="K804">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="805" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A805" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B805" t="s">
+        <v>10</v>
+      </c>
+      <c r="C805" t="s">
+        <v>3</v>
+      </c>
+      <c r="D805" s="3">
+        <v>12722</v>
+      </c>
+      <c r="E805" s="3">
+        <v>4764</v>
+      </c>
+      <c r="F805">
+        <v>9.9</v>
+      </c>
+      <c r="G805">
+        <v>483</v>
+      </c>
+      <c r="H805">
+        <v>9.5</v>
+      </c>
+      <c r="I805">
+        <v>110</v>
+      </c>
+      <c r="J805">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K805">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="806" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A806" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B806" t="s">
+        <v>10</v>
+      </c>
+      <c r="C806" t="s">
+        <v>4</v>
+      </c>
+      <c r="D806" s="3">
+        <v>16463</v>
+      </c>
+      <c r="E806" s="3">
+        <v>7864</v>
+      </c>
+      <c r="F806">
+        <v>16.3</v>
+      </c>
+      <c r="G806" s="3">
+        <v>1031</v>
+      </c>
+      <c r="H806">
+        <v>20.2</v>
+      </c>
+      <c r="I806">
+        <v>376</v>
+      </c>
+      <c r="J806">
+        <v>3.9</v>
+      </c>
+      <c r="K806">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="807" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A807" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B807" t="s">
+        <v>10</v>
+      </c>
+      <c r="C807" t="s">
+        <v>5</v>
+      </c>
+      <c r="D807" s="3">
+        <v>16371</v>
+      </c>
+      <c r="E807" s="3">
+        <v>9955</v>
+      </c>
+      <c r="F807">
+        <v>20.6</v>
+      </c>
+      <c r="G807" s="3">
+        <v>1697</v>
+      </c>
+      <c r="H807">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="I807" s="3">
+        <v>1033</v>
+      </c>
+      <c r="J807">
+        <v>10.7</v>
+      </c>
+      <c r="K807">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="808" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A808" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B808" t="s">
+        <v>10</v>
+      </c>
+      <c r="C808" t="s">
+        <v>6</v>
+      </c>
+      <c r="D808" s="3">
+        <v>16811</v>
+      </c>
+      <c r="E808" s="3">
+        <v>11840</v>
+      </c>
+      <c r="F808">
+        <v>24.5</v>
+      </c>
+      <c r="G808" s="3">
+        <v>1473</v>
+      </c>
+      <c r="H808">
+        <v>28.8</v>
+      </c>
+      <c r="I808" s="3">
+        <v>2843</v>
+      </c>
+      <c r="J808">
+        <v>29.4</v>
+      </c>
+      <c r="K808">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="809" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A809" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B809" t="s">
+        <v>10</v>
+      </c>
+      <c r="C809" t="s">
+        <v>12</v>
+      </c>
+      <c r="D809" s="3">
+        <v>14284</v>
+      </c>
+      <c r="E809" s="3">
+        <v>9038</v>
+      </c>
+      <c r="F809">
+        <v>18.7</v>
+      </c>
+      <c r="G809">
+        <v>172</v>
+      </c>
+      <c r="H809">
+        <v>3.4</v>
+      </c>
+      <c r="I809" s="3">
+        <v>3912</v>
+      </c>
+      <c r="J809">
+        <v>40.5</v>
+      </c>
+      <c r="K809">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="810" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A810" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B810" t="s">
+        <v>10</v>
+      </c>
+      <c r="C810" t="s">
+        <v>13</v>
+      </c>
+      <c r="D810" s="3">
+        <v>4428</v>
+      </c>
+      <c r="E810" s="3">
+        <v>2149</v>
+      </c>
+      <c r="F810">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G810">
+        <v>17</v>
+      </c>
+      <c r="H810">
+        <v>0.3</v>
+      </c>
+      <c r="I810" s="3">
+        <v>1341</v>
+      </c>
+      <c r="J810">
+        <v>13.9</v>
+      </c>
+      <c r="K810">
+        <v>30.3</v>
+      </c>
+    </row>
+    <row r="811" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A811" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B811" t="s">
+        <v>9</v>
+      </c>
+      <c r="C811" t="s">
+        <v>0</v>
+      </c>
+      <c r="D811">
+        <v>322</v>
+      </c>
+      <c r="E811">
+        <v>103</v>
+      </c>
+      <c r="F811">
+        <v>0.3</v>
+      </c>
+      <c r="G811">
+        <v>11</v>
+      </c>
+      <c r="H811">
+        <v>0.5</v>
+      </c>
+      <c r="I811">
+        <v>1</v>
+      </c>
+      <c r="J811">
+        <v>0</v>
+      </c>
+      <c r="K811">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="812" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A812" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B812" t="s">
+        <v>9</v>
+      </c>
+      <c r="C812" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D812">
+        <v>710</v>
+      </c>
+      <c r="E812">
+        <v>125</v>
+      </c>
+      <c r="F812">
+        <v>0.3</v>
+      </c>
+      <c r="G812">
+        <v>8</v>
+      </c>
+      <c r="H812">
+        <v>0.4</v>
+      </c>
+      <c r="I812">
+        <v>3</v>
+      </c>
+      <c r="J812">
+        <v>0</v>
+      </c>
+      <c r="K812">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="813" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A813" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B813" t="s">
+        <v>9</v>
+      </c>
+      <c r="C813" t="s">
+        <v>1</v>
+      </c>
+      <c r="D813" s="3">
+        <v>7807</v>
+      </c>
+      <c r="E813">
+        <v>707</v>
+      </c>
+      <c r="F813">
+        <v>1.9</v>
+      </c>
+      <c r="G813">
+        <v>37</v>
+      </c>
+      <c r="H813">
+        <v>1.6</v>
+      </c>
+      <c r="I813">
+        <v>8</v>
+      </c>
+      <c r="J813">
+        <v>0.1</v>
+      </c>
+      <c r="K813">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="814" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A814" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B814" t="s">
+        <v>9</v>
+      </c>
+      <c r="C814" t="s">
+        <v>2</v>
+      </c>
+      <c r="D814" s="3">
+        <v>12431</v>
+      </c>
+      <c r="E814" s="3">
+        <v>1675</v>
+      </c>
+      <c r="F814">
+        <v>4.5</v>
+      </c>
+      <c r="G814">
+        <v>93</v>
+      </c>
+      <c r="H814">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I814">
+        <v>22</v>
+      </c>
+      <c r="J814">
+        <v>0.3</v>
+      </c>
+      <c r="K814">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="815" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A815" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B815" t="s">
+        <v>9</v>
+      </c>
+      <c r="C815" t="s">
+        <v>3</v>
+      </c>
+      <c r="D815" s="3">
+        <v>18076</v>
+      </c>
+      <c r="E815" s="3">
+        <v>3385</v>
+      </c>
+      <c r="F815">
+        <v>9.1</v>
+      </c>
+      <c r="G815">
+        <v>219</v>
+      </c>
+      <c r="H815">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="I815">
+        <v>64</v>
+      </c>
+      <c r="J815">
+        <v>0.9</v>
+      </c>
+      <c r="K815">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="816" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A816" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B816" t="s">
+        <v>9</v>
+      </c>
+      <c r="C816" t="s">
+        <v>4</v>
+      </c>
+      <c r="D816" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E816" s="3">
+        <v>5381</v>
+      </c>
+      <c r="F816">
+        <v>14.5</v>
+      </c>
+      <c r="G816">
+        <v>423</v>
+      </c>
+      <c r="H816">
+        <v>18.7</v>
+      </c>
+      <c r="I816">
+        <v>151</v>
+      </c>
+      <c r="J816">
+        <v>2.1</v>
+      </c>
+      <c r="K816">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="817" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A817" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B817" t="s">
+        <v>9</v>
+      </c>
+      <c r="C817" t="s">
+        <v>5</v>
+      </c>
+      <c r="D817" s="3">
+        <v>14784</v>
+      </c>
+      <c r="E817" s="3">
+        <v>6484</v>
+      </c>
+      <c r="F817">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="G817">
+        <v>662</v>
+      </c>
+      <c r="H817">
+        <v>29.2</v>
+      </c>
+      <c r="I817">
+        <v>426</v>
+      </c>
+      <c r="J817">
+        <v>6</v>
+      </c>
+      <c r="K817">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="818" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A818" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B818" t="s">
+        <v>9</v>
+      </c>
+      <c r="C818" t="s">
+        <v>6</v>
+      </c>
+      <c r="D818" s="3">
+        <v>13332</v>
+      </c>
+      <c r="E818" s="3">
+        <v>7942</v>
+      </c>
+      <c r="F818">
+        <v>21.3</v>
+      </c>
+      <c r="G818">
+        <v>647</v>
+      </c>
+      <c r="H818">
+        <v>28.6</v>
+      </c>
+      <c r="I818" s="3">
+        <v>1318</v>
+      </c>
+      <c r="J818">
+        <v>18.7</v>
+      </c>
+      <c r="K818">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="819" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A819" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B819" t="s">
+        <v>9</v>
+      </c>
+      <c r="C819" t="s">
+        <v>12</v>
+      </c>
+      <c r="D819" s="3">
+        <v>19043</v>
+      </c>
+      <c r="E819" s="3">
+        <v>8140</v>
+      </c>
+      <c r="F819">
+        <v>21.9</v>
+      </c>
+      <c r="G819">
+        <v>140</v>
+      </c>
+      <c r="H819">
+        <v>6.2</v>
+      </c>
+      <c r="I819" s="3">
+        <v>3028</v>
+      </c>
+      <c r="J819">
+        <v>43</v>
+      </c>
+      <c r="K819">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="820" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A820" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B820" t="s">
+        <v>9</v>
+      </c>
+      <c r="C820" t="s">
+        <v>13</v>
+      </c>
+      <c r="D820" s="3">
+        <v>11061</v>
+      </c>
+      <c r="E820" s="3">
+        <v>3294</v>
+      </c>
+      <c r="F820">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G820">
+        <v>26</v>
+      </c>
+      <c r="H820">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I820" s="3">
+        <v>2028</v>
+      </c>
+      <c r="J820">
+        <v>28.8</v>
+      </c>
+      <c r="K820">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="821" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A821" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B821" t="s">
+        <v>10</v>
+      </c>
+      <c r="C821" t="s">
+        <v>0</v>
+      </c>
+      <c r="D821">
+        <v>383</v>
+      </c>
+      <c r="E821">
+        <v>132</v>
+      </c>
+      <c r="F821">
+        <v>0.3</v>
+      </c>
+      <c r="G821">
+        <v>21</v>
+      </c>
+      <c r="H821">
+        <v>0.4</v>
+      </c>
+      <c r="I821">
+        <v>1</v>
+      </c>
+      <c r="J821">
+        <v>0</v>
+      </c>
+      <c r="K821">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="822" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A822" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B822" t="s">
+        <v>10</v>
+      </c>
+      <c r="C822" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D822">
+        <v>572</v>
+      </c>
+      <c r="E822">
+        <v>118</v>
+      </c>
+      <c r="F822">
+        <v>0.2</v>
+      </c>
+      <c r="G822">
+        <v>11</v>
+      </c>
+      <c r="H822">
+        <v>0.2</v>
+      </c>
+      <c r="I822">
+        <v>2</v>
+      </c>
+      <c r="J822">
+        <v>0</v>
+      </c>
+      <c r="K822">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="823" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A823" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B823" t="s">
+        <v>10</v>
+      </c>
+      <c r="C823" t="s">
+        <v>1</v>
+      </c>
+      <c r="D823" s="3">
+        <v>3856</v>
+      </c>
+      <c r="E823">
+        <v>645</v>
+      </c>
+      <c r="F823">
+        <v>1.3</v>
+      </c>
+      <c r="G823">
+        <v>49</v>
+      </c>
+      <c r="H823">
+        <v>1</v>
+      </c>
+      <c r="I823">
+        <v>14</v>
+      </c>
+      <c r="J823">
+        <v>0.1</v>
+      </c>
+      <c r="K823">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="824" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A824" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B824" t="s">
+        <v>10</v>
+      </c>
+      <c r="C824" t="s">
+        <v>2</v>
+      </c>
+      <c r="D824" s="3">
+        <v>7342</v>
+      </c>
+      <c r="E824" s="3">
+        <v>1806</v>
+      </c>
+      <c r="F824">
+        <v>3.7</v>
+      </c>
+      <c r="G824">
+        <v>158</v>
+      </c>
+      <c r="H824">
+        <v>3.1</v>
+      </c>
+      <c r="I824">
+        <v>34</v>
+      </c>
+      <c r="J824">
+        <v>0.4</v>
+      </c>
+      <c r="K824">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="825" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A825" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B825" t="s">
+        <v>10</v>
+      </c>
+      <c r="C825" t="s">
+        <v>3</v>
+      </c>
+      <c r="D825" s="3">
+        <v>12784</v>
+      </c>
+      <c r="E825" s="3">
+        <v>4773</v>
+      </c>
+      <c r="F825">
+        <v>9.9</v>
+      </c>
+      <c r="G825">
+        <v>485</v>
+      </c>
+      <c r="H825">
+        <v>9.5</v>
+      </c>
+      <c r="I825">
+        <v>111</v>
+      </c>
+      <c r="J825">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K825">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="826" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A826" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B826" t="s">
+        <v>10</v>
+      </c>
+      <c r="C826" t="s">
+        <v>4</v>
+      </c>
+      <c r="D826" s="3">
+        <v>16536</v>
+      </c>
+      <c r="E826" s="3">
+        <v>7876</v>
+      </c>
+      <c r="F826">
+        <v>16.3</v>
+      </c>
+      <c r="G826" s="3">
+        <v>1033</v>
+      </c>
+      <c r="H826">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="I826">
+        <v>377</v>
+      </c>
+      <c r="J826">
+        <v>3.9</v>
+      </c>
+      <c r="K826">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="827" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A827" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B827" t="s">
+        <v>10</v>
+      </c>
+      <c r="C827" t="s">
+        <v>5</v>
+      </c>
+      <c r="D827" s="3">
+        <v>16441</v>
+      </c>
+      <c r="E827" s="3">
+        <v>9984</v>
+      </c>
+      <c r="F827">
+        <v>20.6</v>
+      </c>
+      <c r="G827" s="3">
+        <v>1705</v>
+      </c>
+      <c r="H827">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="I827" s="3">
+        <v>1035</v>
+      </c>
+      <c r="J827">
+        <v>10.7</v>
+      </c>
+      <c r="K827">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="828" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A828" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B828" t="s">
+        <v>10</v>
+      </c>
+      <c r="C828" t="s">
+        <v>6</v>
+      </c>
+      <c r="D828" s="3">
+        <v>16857</v>
+      </c>
+      <c r="E828" s="3">
+        <v>11863</v>
+      </c>
+      <c r="F828">
+        <v>24.5</v>
+      </c>
+      <c r="G828" s="3">
+        <v>1479</v>
+      </c>
+      <c r="H828">
+        <v>28.8</v>
+      </c>
+      <c r="I828" s="3">
+        <v>2849</v>
+      </c>
+      <c r="J828">
+        <v>29.4</v>
+      </c>
+      <c r="K828">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="829" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A829" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B829" t="s">
+        <v>10</v>
+      </c>
+      <c r="C829" t="s">
+        <v>12</v>
+      </c>
+      <c r="D829" s="3">
+        <v>14305</v>
+      </c>
+      <c r="E829" s="3">
+        <v>9049</v>
+      </c>
+      <c r="F829">
+        <v>18.7</v>
+      </c>
+      <c r="G829">
+        <v>172</v>
+      </c>
+      <c r="H829">
+        <v>3.4</v>
+      </c>
+      <c r="I829" s="3">
+        <v>3918</v>
+      </c>
+      <c r="J829">
+        <v>40.4</v>
+      </c>
+      <c r="K829">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="830" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A830" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B830" t="s">
+        <v>10</v>
+      </c>
+      <c r="C830" t="s">
+        <v>13</v>
+      </c>
+      <c r="D830" s="3">
+        <v>4442</v>
+      </c>
+      <c r="E830" s="3">
+        <v>2155</v>
+      </c>
+      <c r="F830">
+        <v>4.5</v>
+      </c>
+      <c r="G830">
+        <v>18</v>
+      </c>
+      <c r="H830">
+        <v>0.4</v>
+      </c>
+      <c r="I830" s="3">
+        <v>1351</v>
+      </c>
+      <c r="J830">
+        <v>13.9</v>
+      </c>
+      <c r="K830">
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="831" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A831" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B831" t="s">
+        <v>9</v>
+      </c>
+      <c r="C831" t="s">
+        <v>0</v>
+      </c>
+      <c r="D831">
+        <v>329</v>
+      </c>
+      <c r="E831">
+        <v>107</v>
+      </c>
+      <c r="F831">
+        <v>0.3</v>
+      </c>
+      <c r="G831">
+        <v>13</v>
+      </c>
+      <c r="H831">
+        <v>0.6</v>
+      </c>
+      <c r="I831">
+        <v>1</v>
+      </c>
+      <c r="J831">
+        <v>0</v>
+      </c>
+      <c r="K831">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="832" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A832" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B832" t="s">
+        <v>9</v>
+      </c>
+      <c r="C832" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D832">
+        <v>726</v>
+      </c>
+      <c r="E832">
+        <v>131</v>
+      </c>
+      <c r="F832">
+        <v>0.3</v>
+      </c>
+      <c r="G832">
+        <v>8</v>
+      </c>
+      <c r="H832">
+        <v>0.3</v>
+      </c>
+      <c r="I832">
+        <v>3</v>
+      </c>
+      <c r="J832">
+        <v>0</v>
+      </c>
+      <c r="K832">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="833" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A833" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B833" t="s">
+        <v>9</v>
+      </c>
+      <c r="C833" t="s">
+        <v>1</v>
+      </c>
+      <c r="D833" s="3">
+        <v>7998</v>
+      </c>
+      <c r="E833">
+        <v>725</v>
+      </c>
+      <c r="F833">
+        <v>1.9</v>
+      </c>
+      <c r="G833">
+        <v>38</v>
+      </c>
+      <c r="H833">
+        <v>1.6</v>
+      </c>
+      <c r="I833">
+        <v>8</v>
+      </c>
+      <c r="J833">
+        <v>0.1</v>
+      </c>
+      <c r="K833">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="834" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A834" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B834" t="s">
+        <v>9</v>
+      </c>
+      <c r="C834" t="s">
+        <v>2</v>
+      </c>
+      <c r="D834" s="3">
+        <v>12666</v>
+      </c>
+      <c r="E834" s="3">
+        <v>1724</v>
+      </c>
+      <c r="F834">
+        <v>4.5</v>
+      </c>
+      <c r="G834">
+        <v>94</v>
+      </c>
+      <c r="H834">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I834">
+        <v>22</v>
+      </c>
+      <c r="J834">
+        <v>0.3</v>
+      </c>
+      <c r="K834">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="835" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A835" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B835" t="s">
+        <v>9</v>
+      </c>
+      <c r="C835" t="s">
+        <v>3</v>
+      </c>
+      <c r="D835" s="3">
+        <v>18407</v>
+      </c>
+      <c r="E835" s="3">
+        <v>3448</v>
+      </c>
+      <c r="F835">
+        <v>9</v>
+      </c>
+      <c r="G835">
+        <v>222</v>
+      </c>
+      <c r="H835">
+        <v>9.6</v>
+      </c>
+      <c r="I835">
+        <v>69</v>
+      </c>
+      <c r="J835">
+        <v>1</v>
+      </c>
+      <c r="K835">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="836" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A836" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B836" t="s">
+        <v>9</v>
+      </c>
+      <c r="C836" t="s">
+        <v>4</v>
+      </c>
+      <c r="D836" s="3">
+        <v>21734</v>
+      </c>
+      <c r="E836" s="3">
+        <v>5515</v>
+      </c>
+      <c r="F836">
+        <v>14.5</v>
+      </c>
+      <c r="G836">
+        <v>431</v>
+      </c>
+      <c r="H836">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="I836">
+        <v>160</v>
+      </c>
+      <c r="J836">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K836">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="837" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A837" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B837" t="s">
+        <v>9</v>
+      </c>
+      <c r="C837" t="s">
+        <v>5</v>
+      </c>
+      <c r="D837" s="3">
+        <v>14952</v>
+      </c>
+      <c r="E837" s="3">
+        <v>6580</v>
+      </c>
+      <c r="F837">
+        <v>17.3</v>
+      </c>
+      <c r="G837">
+        <v>678</v>
+      </c>
+      <c r="H837">
+        <v>29.3</v>
+      </c>
+      <c r="I837">
+        <v>438</v>
+      </c>
+      <c r="J837">
+        <v>6.1</v>
+      </c>
+      <c r="K837">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="838" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A838" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B838" t="s">
+        <v>9</v>
+      </c>
+      <c r="C838" t="s">
+        <v>6</v>
+      </c>
+      <c r="D838" s="3">
+        <v>13481</v>
+      </c>
+      <c r="E838" s="3">
+        <v>8081</v>
+      </c>
+      <c r="F838">
+        <v>21.2</v>
+      </c>
+      <c r="G838">
+        <v>661</v>
+      </c>
+      <c r="H838">
+        <v>28.6</v>
+      </c>
+      <c r="I838" s="3">
+        <v>1349</v>
+      </c>
+      <c r="J838">
+        <v>18.7</v>
+      </c>
+      <c r="K838">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="839" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A839" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B839" t="s">
+        <v>9</v>
+      </c>
+      <c r="C839" t="s">
+        <v>12</v>
+      </c>
+      <c r="D839" s="3">
+        <v>19383</v>
+      </c>
+      <c r="E839" s="3">
+        <v>8360</v>
+      </c>
+      <c r="F839">
+        <v>21.9</v>
+      </c>
+      <c r="G839">
+        <v>140</v>
+      </c>
+      <c r="H839">
+        <v>6.1</v>
+      </c>
+      <c r="I839" s="3">
+        <v>3084</v>
+      </c>
+      <c r="J839">
+        <v>42.7</v>
+      </c>
+      <c r="K839">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="840" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A840" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B840" t="s">
+        <v>9</v>
+      </c>
+      <c r="C840" t="s">
+        <v>13</v>
+      </c>
+      <c r="D840" s="3">
+        <v>11309</v>
+      </c>
+      <c r="E840" s="3">
+        <v>3437</v>
+      </c>
+      <c r="F840">
+        <v>9</v>
+      </c>
+      <c r="G840">
+        <v>26</v>
+      </c>
+      <c r="H840">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I840" s="3">
+        <v>2089</v>
+      </c>
+      <c r="J840">
+        <v>28.9</v>
+      </c>
+      <c r="K840">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="841" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A841" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B841" t="s">
+        <v>10</v>
+      </c>
+      <c r="C841" t="s">
+        <v>0</v>
+      </c>
+      <c r="D841">
+        <v>396</v>
+      </c>
+      <c r="E841">
+        <v>139</v>
+      </c>
+      <c r="F841">
+        <v>0.3</v>
+      </c>
+      <c r="G841">
+        <v>24</v>
+      </c>
+      <c r="H841">
+        <v>0.5</v>
+      </c>
+      <c r="I841">
+        <v>1</v>
+      </c>
+      <c r="J841">
+        <v>0</v>
+      </c>
+      <c r="K841">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="842" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A842" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B842" t="s">
+        <v>10</v>
+      </c>
+      <c r="C842" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D842">
+        <v>580</v>
+      </c>
+      <c r="E842">
+        <v>123</v>
+      </c>
+      <c r="F842">
+        <v>0.3</v>
+      </c>
+      <c r="G842">
+        <v>11</v>
+      </c>
+      <c r="H842">
+        <v>0.2</v>
+      </c>
+      <c r="I842">
+        <v>2</v>
+      </c>
+      <c r="J842">
+        <v>0</v>
+      </c>
+      <c r="K842">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="843" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A843" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B843" t="s">
+        <v>10</v>
+      </c>
+      <c r="C843" t="s">
+        <v>1</v>
+      </c>
+      <c r="D843" s="3">
+        <v>3916</v>
+      </c>
+      <c r="E843">
+        <v>655</v>
+      </c>
+      <c r="F843">
+        <v>1.3</v>
+      </c>
+      <c r="G843">
+        <v>49</v>
+      </c>
+      <c r="H843">
+        <v>0.9</v>
+      </c>
+      <c r="I843">
+        <v>14</v>
+      </c>
+      <c r="J843">
+        <v>0.1</v>
+      </c>
+      <c r="K843">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="844" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A844" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B844" t="s">
+        <v>10</v>
+      </c>
+      <c r="C844" t="s">
+        <v>2</v>
+      </c>
+      <c r="D844" s="3">
+        <v>7459</v>
+      </c>
+      <c r="E844" s="3">
+        <v>1851</v>
+      </c>
+      <c r="F844">
+        <v>3.8</v>
+      </c>
+      <c r="G844">
+        <v>162</v>
+      </c>
+      <c r="H844">
+        <v>3.1</v>
+      </c>
+      <c r="I844">
+        <v>35</v>
+      </c>
+      <c r="J844">
+        <v>0.4</v>
+      </c>
+      <c r="K844">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="845" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A845" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B845" t="s">
+        <v>10</v>
+      </c>
+      <c r="C845" t="s">
+        <v>3</v>
+      </c>
+      <c r="D845" s="3">
+        <v>12934</v>
+      </c>
+      <c r="E845" s="3">
+        <v>4852</v>
+      </c>
+      <c r="F845">
+        <v>9.9</v>
+      </c>
+      <c r="G845">
+        <v>494</v>
+      </c>
+      <c r="H845">
+        <v>9.4</v>
+      </c>
+      <c r="I845">
+        <v>113</v>
+      </c>
+      <c r="J845">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K845">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="846" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A846" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B846" t="s">
+        <v>10</v>
+      </c>
+      <c r="C846" t="s">
+        <v>4</v>
+      </c>
+      <c r="D846" s="3">
+        <v>16704</v>
+      </c>
+      <c r="E846" s="3">
+        <v>8016</v>
+      </c>
+      <c r="F846">
+        <v>16.3</v>
+      </c>
+      <c r="G846" s="3">
+        <v>1060</v>
+      </c>
+      <c r="H846">
+        <v>20.3</v>
+      </c>
+      <c r="I846">
+        <v>404</v>
+      </c>
+      <c r="J846">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K846">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="847" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A847" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B847" t="s">
+        <v>10</v>
+      </c>
+      <c r="C847" t="s">
+        <v>5</v>
+      </c>
+      <c r="D847" s="3">
+        <v>16621</v>
+      </c>
+      <c r="E847" s="3">
+        <v>10116</v>
+      </c>
+      <c r="F847">
+        <v>20.6</v>
+      </c>
+      <c r="G847" s="3">
+        <v>1742</v>
+      </c>
+      <c r="H847">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="I847" s="3">
+        <v>1077</v>
+      </c>
+      <c r="J847">
+        <v>10.9</v>
+      </c>
+      <c r="K847">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="848" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A848" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B848" t="s">
+        <v>10</v>
+      </c>
+      <c r="C848" t="s">
+        <v>6</v>
+      </c>
+      <c r="D848" s="3">
+        <v>16996</v>
+      </c>
+      <c r="E848" s="3">
+        <v>12004</v>
+      </c>
+      <c r="F848">
+        <v>24.4</v>
+      </c>
+      <c r="G848" s="3">
+        <v>1498</v>
+      </c>
+      <c r="H848">
+        <v>28.6</v>
+      </c>
+      <c r="I848" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J848">
+        <v>29.2</v>
+      </c>
+      <c r="K848">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="849" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A849" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B849" t="s">
+        <v>10</v>
+      </c>
+      <c r="C849" t="s">
+        <v>12</v>
+      </c>
+      <c r="D849" s="3">
+        <v>14453</v>
+      </c>
+      <c r="E849" s="3">
+        <v>9194</v>
+      </c>
+      <c r="F849">
+        <v>18.7</v>
+      </c>
+      <c r="G849">
+        <v>173</v>
+      </c>
+      <c r="H849">
+        <v>3.3</v>
+      </c>
+      <c r="I849" s="3">
+        <v>3987</v>
+      </c>
+      <c r="J849">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="K849">
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="850" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A850" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B850" t="s">
+        <v>10</v>
+      </c>
+      <c r="C850" t="s">
+        <v>13</v>
+      </c>
+      <c r="D850" s="3">
+        <v>4519</v>
+      </c>
+      <c r="E850" s="3">
+        <v>2233</v>
+      </c>
+      <c r="F850">
+        <v>4.5</v>
+      </c>
+      <c r="G850">
+        <v>20</v>
+      </c>
+      <c r="H850">
+        <v>0.4</v>
+      </c>
+      <c r="I850" s="3">
+        <v>1383</v>
+      </c>
+      <c r="J850">
+        <v>13.9</v>
+      </c>
+      <c r="K850">
+        <v>30.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Covid-19_data_sexage.xlsx
+++ b/data/Covid-19_data_sexage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanjosevidal/Google Drive/Projects/Covid-19/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA6DCA5-BCF7-DB48-B4B1-3369AE7F866D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97EF21AB-E9C6-FA4D-9AC7-108DF5AB9605}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{C24317C9-D1BD-7248-BEC1-07839536F6EA}"/>
   </bookViews>
@@ -60,6 +60,7 @@
     <definedName name="tabula_Actualizacion_92_COVID_19" localSheetId="0">Data!$C$791:$K$810</definedName>
     <definedName name="tabula_Actualizacion_93_COVID_19" localSheetId="0">Data!$C$811:$K$830</definedName>
     <definedName name="tabula_Actualizacion_94_COVID_19" localSheetId="0">Data!$C$831:$K$850</definedName>
+    <definedName name="tabula_Actualizacion_95_COVID_19" localSheetId="0">Data!$C$851:$K$870</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -633,7 +634,7 @@
     </textPr>
   </connection>
   <connection id="38" xr16:uid="{C3E1A69F-8B7E-6B43-BC5D-E06982B30200}" name="tabula-Actualizacion_89_COVID-191" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_89_COVID-19.csv" decimal="," thousands="." comma="1">
+    <textPr sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_89_COVID-19.csv" decimal="," thousands="." comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -648,7 +649,7 @@
     </textPr>
   </connection>
   <connection id="39" xr16:uid="{087DFE1B-3741-FE4C-9B0D-327F1CED87AC}" name="tabula-Actualizacion_90_COVID-19" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_90_COVID-19.csv" decimal="," thousands="." comma="1">
+    <textPr sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_90_COVID-19.csv" decimal="," thousands="." comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -663,7 +664,7 @@
     </textPr>
   </connection>
   <connection id="40" xr16:uid="{73C49DD9-FD9B-E141-A3F9-FED657D452BB}" name="tabula-Actualizacion_91_COVID-19" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_91_COVID-19.csv" decimal="," thousands="." comma="1">
+    <textPr sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_91_COVID-19.csv" decimal="," thousands="." comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -678,7 +679,7 @@
     </textPr>
   </connection>
   <connection id="41" xr16:uid="{976AE8FA-AD7F-D745-A59B-524FC52002A8}" name="tabula-Actualizacion_92_COVID-19" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_92_COVID-19.csv" decimal="," thousands="." comma="1">
+    <textPr sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_92_COVID-19.csv" decimal="," thousands="." comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -693,7 +694,7 @@
     </textPr>
   </connection>
   <connection id="42" xr16:uid="{D302820C-066C-364B-BDBB-65072DCE5142}" name="tabula-Actualizacion_93_COVID-19" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_93_COVID-19.csv" decimal="," thousands="." comma="1">
+    <textPr sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_93_COVID-19.csv" decimal="," thousands="." comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -708,7 +709,22 @@
     </textPr>
   </connection>
   <connection id="43" xr16:uid="{7D726A8B-9669-2243-9E73-5A200DDE1F7F}" name="tabula-Actualizacion_94_COVID-19" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_94_COVID-19.csv" decimal="," thousands="." comma="1">
+    <textPr sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_94_COVID-19.csv" decimal="," thousands="." comma="1">
+      <textFields count="9">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="44" xr16:uid="{B59C3CA5-D7F0-3E4A-B3B5-7C462F22B488}" name="tabula-Actualizacion_95_COVID-19" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/juanjosevidal/Downloads/tabula-Actualizacion_95_COVID-19.csv" decimal="," thousands="." comma="1">
       <textFields count="9">
         <textField/>
         <textField/>
@@ -726,7 +742,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="26">
   <si>
     <t>0-9</t>
   </si>
@@ -904,19 +920,19 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_94_COVID-19" connectionId="43" xr16:uid="{E1DB3760-CEAD-1243-B89B-5083F9C5FD9D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_95_COVID-19" connectionId="44" xr16:uid="{50535D0C-F452-CC4F-B0B4-D5BD9D462B85}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_54_COVID-19" connectionId="3" xr16:uid="{E94F4815-0D2F-454F-8291-FCBF0C165C57}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_76_COVID-19(2)" connectionId="25" xr16:uid="{70AE20FA-7C65-AC4F-B077-971D1C6A5B94}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_80_COVID-19(2)" connectionId="29" xr16:uid="{9A2F5700-61ED-F044-A56E-7B5EC6DF1036}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_64_COVID-19(1)" connectionId="13" xr16:uid="{24F5186E-14BA-4941-BB1A-F21AEE9F7F07}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_66_COVID-19(1)" connectionId="15" xr16:uid="{784FDDA9-F525-C54F-BA21-682143B55347}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_67_COVID-19(1)" connectionId="16" xr16:uid="{0DCC7075-52E5-6445-A2D9-0D0404D0E63E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
@@ -924,15 +940,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_68_COVID-19(1)" connectionId="17" xr16:uid="{15D6F25C-3F4D-0947-8994-7F669D041C1F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_60_COVID-19(1)" connectionId="8" xr16:uid="{C2F0088C-0355-9A48-BE55-175198337C67}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_55_COVID-19" connectionId="4" xr16:uid="{10575DCA-3AE8-5C4C-A970-60205B471337}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_71_COVID-19(1)" connectionId="20" xr16:uid="{E40B0E49-9F2B-2549-8124-9C24FFB9F4B1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_84_COVID-19(2)" connectionId="33" xr16:uid="{658D76C0-0942-AF43-952E-435C4A2BDAC3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_53_COVID-19" connectionId="2" xr16:uid="{31483431-2B39-A440-9E59-C26E082912EA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
@@ -940,139 +956,143 @@
 </file>
 
 <file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_67_COVID-19(1)" connectionId="16" xr16:uid="{0DCC7075-52E5-6445-A2D9-0D0404D0E63E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_66_COVID-19(1)" connectionId="15" xr16:uid="{784FDDA9-F525-C54F-BA21-682143B55347}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_92_COVID-19" connectionId="41" xr16:uid="{36511222-D462-6C49-8765-A7C39A844257}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_70_COVID-19(1)" connectionId="19" xr16:uid="{F30EDCDD-4769-4442-A6A9-407F59F6429F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_86_COVID-19(2)" connectionId="35" xr16:uid="{95015227-8A0A-4C48-AC40-AEF4A2B2143A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_52_COVID-19" connectionId="1" xr16:uid="{35D81D28-1058-4347-9DE2-5F2763DAC2A4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_73_COVID-19(1)" connectionId="22" xr16:uid="{144BDA4A-6CCF-094D-8B47-C4994B28C9F4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_83_COVID-19(2)" connectionId="32" xr16:uid="{F68CD602-B2A0-604F-A4DC-A153B85916C5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(2)_1" connectionId="10" xr16:uid="{252D0C3F-8429-6D40-AFE6-2BAFDCF71E62}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_85_COVID-19(2)" connectionId="34" xr16:uid="{4236AA15-44DD-864C-BBB9-D1CF1013BE00}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_68_COVID-19(1)" connectionId="17" xr16:uid="{15D6F25C-3F4D-0947-8994-7F669D041C1F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_59_COVID-19(1)" connectionId="7" xr16:uid="{6E93CE4F-1115-D449-959A-2A7263C31ABC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_91_COVID-19" connectionId="40" xr16:uid="{84536095-CC54-8C41-83F7-F36B6B61C343}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_81_COVID-19(2)_1" connectionId="30" xr16:uid="{6EBD5E78-C6DF-2E41-9BEC-F2E99D2C6A50}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_69_COVID-19(1)" connectionId="18" xr16:uid="{43D60223-767A-964E-8CC2-E64E5ACAFF9F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_79_COVID-19(2)" connectionId="28" xr16:uid="{CE4041F5-2CDB-234C-8611-179139CF531A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_54_COVID-19" connectionId="3" xr16:uid="{E94F4815-0D2F-454F-8291-FCBF0C165C57}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_77_COVID-19(2)" connectionId="26" xr16:uid="{B46FF584-84EC-AE4D-BCE8-171BFEBEEDEE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_56_COVID-19(1)" connectionId="5" xr16:uid="{C5B10145-DA18-EE44-A918-E407BEA443E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_75_COVID-19(1)" connectionId="24" xr16:uid="{D7A38836-E0C5-5046-B8FD-EF82AA804006}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_55_COVID-19" connectionId="4" xr16:uid="{10575DCA-3AE8-5C4C-A970-60205B471337}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_90_COVID-19" connectionId="39" xr16:uid="{A93A93AC-3885-8E4E-8C26-49BA468F1F08}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_78_COVID-19(2)" connectionId="27" xr16:uid="{DA1E7C1F-5CE0-764E-9BAE-85540697E15C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable38.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(1)" connectionId="9" xr16:uid="{C813FA0B-4B7A-0743-B527-E10C07F0E6C8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable39.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_74_COVID-19(1)" connectionId="23" xr16:uid="{486A1335-E13C-A646-B386-9ED2A72BEEE6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_84_COVID-19(2)" connectionId="33" xr16:uid="{658D76C0-0942-AF43-952E-435C4A2BDAC3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable40.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_82_COVID-19(2)" connectionId="31" xr16:uid="{0C41A9C7-F783-5441-AFC3-59C34E6567FF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable41.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_80_COVID-19(2)" connectionId="29" xr16:uid="{9A2F5700-61ED-F044-A56E-7B5EC6DF1036}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable42.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_89_COVID-19" connectionId="38" xr16:uid="{7196C996-97E2-574F-AA83-DA40EB48943E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable43.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_94_COVID-19" connectionId="43" xr16:uid="{E1DB3760-CEAD-1243-B89B-5083F9C5FD9D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable44.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_62_COVID-19(1)" connectionId="11" xr16:uid="{789174F4-7737-BE4C-9685-F15607B8C828}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_93_COVID-19" connectionId="42" xr16:uid="{9B502165-113E-5343-9630-B2499685DBE0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_69_COVID-19(1)" connectionId="18" xr16:uid="{43D60223-767A-964E-8CC2-E64E5ACAFF9F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_88_COVID-19(2)" connectionId="37" xr16:uid="{442A7796-311C-914C-842C-C67D04E6CDF2}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_63_COVID-19(1)" connectionId="12" xr16:uid="{EFDFC980-4B86-C948-B035-B2786B80754E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_72_COVID-19(1)" connectionId="21" xr16:uid="{1488C0E5-7AB9-C44D-8BE2-997243B88982}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_85_COVID-19(2)" connectionId="34" xr16:uid="{4236AA15-44DD-864C-BBB9-D1CF1013BE00}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_75_COVID-19(1)" connectionId="24" xr16:uid="{D7A38836-E0C5-5046-B8FD-EF82AA804006}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_82_COVID-19(2)" connectionId="31" xr16:uid="{0C41A9C7-F783-5441-AFC3-59C34E6567FF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_53_COVID-19" connectionId="2" xr16:uid="{31483431-2B39-A440-9E59-C26E082912EA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_64_COVID-19(1)" connectionId="13" xr16:uid="{24F5186E-14BA-4941-BB1A-F21AEE9F7F07}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(2)_1" connectionId="10" xr16:uid="{252D0C3F-8429-6D40-AFE6-2BAFDCF71E62}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_56_COVID-19(1)" connectionId="5" xr16:uid="{C5B10145-DA18-EE44-A918-E407BEA443E9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_70_COVID-19(1)" connectionId="19" xr16:uid="{F30EDCDD-4769-4442-A6A9-407F59F6429F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_92_COVID-19" connectionId="41" xr16:uid="{36511222-D462-6C49-8765-A7C39A844257}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_83_COVID-19(2)" connectionId="32" xr16:uid="{F68CD602-B2A0-604F-A4DC-A153B85916C5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_81_COVID-19(2)_1" connectionId="30" xr16:uid="{6EBD5E78-C6DF-2E41-9BEC-F2E99D2C6A50}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_74_COVID-19(1)" connectionId="23" xr16:uid="{486A1335-E13C-A646-B386-9ED2A72BEEE6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_71_COVID-19(1)" connectionId="20" xr16:uid="{E40B0E49-9F2B-2549-8124-9C24FFB9F4B1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_57_COVID-19(1)" connectionId="6" xr16:uid="{78E004BB-228B-5143-9AFE-91688C440A41}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_73_COVID-19(1)" connectionId="22" xr16:uid="{144BDA4A-6CCF-094D-8B47-C4994B28C9F4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_77_COVID-19(2)" connectionId="26" xr16:uid="{B46FF584-84EC-AE4D-BCE8-171BFEBEEDEE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_61_COVID-19(1)" connectionId="9" xr16:uid="{C813FA0B-4B7A-0743-B527-E10C07F0E6C8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable38.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_60_COVID-19(1)" connectionId="8" xr16:uid="{C2F0088C-0355-9A48-BE55-175198337C67}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable39.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_76_COVID-19(2)" connectionId="25" xr16:uid="{70AE20FA-7C65-AC4F-B077-971D1C6A5B94}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_91_COVID-19" connectionId="40" xr16:uid="{84536095-CC54-8C41-83F7-F36B6B61C343}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable40.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_78_COVID-19(2)" connectionId="27" xr16:uid="{DA1E7C1F-5CE0-764E-9BAE-85540697E15C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable41.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_62_COVID-19(1)" connectionId="11" xr16:uid="{789174F4-7737-BE4C-9685-F15607B8C828}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable42.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_72_COVID-19(1)" connectionId="21" xr16:uid="{1488C0E5-7AB9-C44D-8BE2-997243B88982}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable43.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_52_COVID-19" connectionId="1" xr16:uid="{35D81D28-1058-4347-9DE2-5F2763DAC2A4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_90_COVID-19" connectionId="39" xr16:uid="{A93A93AC-3885-8E4E-8C26-49BA468F1F08}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_89_COVID-19" connectionId="38" xr16:uid="{7196C996-97E2-574F-AA83-DA40EB48943E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_88_COVID-19(2)" connectionId="37" xr16:uid="{442A7796-311C-914C-842C-C67D04E6CDF2}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_86_COVID-19(2)" connectionId="35" xr16:uid="{95015227-8A0A-4C48-AC40-AEF4A2B2143A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_59_COVID-19(1)" connectionId="7" xr16:uid="{6E93CE4F-1115-D449-959A-2A7263C31ABC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tabula-Actualizacion_63_COVID-19(1)" connectionId="12" xr16:uid="{EFDFC980-4B86-C948-B035-B2786B80754E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1372,10 +1392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973FFFC2-62D5-A048-8409-BF1FADA21B40}">
-  <dimension ref="A1:T850"/>
+  <dimension ref="A1:T870"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A814" workbookViewId="0">
-      <selection activeCell="C842" sqref="C842"/>
+    <sheetView tabSelected="1" topLeftCell="A835" workbookViewId="0">
+      <selection activeCell="B870" sqref="B870"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31209,6 +31229,706 @@
         <v>30.6</v>
       </c>
     </row>
+    <row r="851" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A851" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B851" t="s">
+        <v>9</v>
+      </c>
+      <c r="C851" t="s">
+        <v>0</v>
+      </c>
+      <c r="D851">
+        <v>330</v>
+      </c>
+      <c r="E851">
+        <v>107</v>
+      </c>
+      <c r="F851">
+        <v>0.3</v>
+      </c>
+      <c r="G851">
+        <v>13</v>
+      </c>
+      <c r="H851">
+        <v>0.6</v>
+      </c>
+      <c r="I851">
+        <v>1</v>
+      </c>
+      <c r="J851">
+        <v>0</v>
+      </c>
+      <c r="K851">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="852" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A852" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B852" t="s">
+        <v>9</v>
+      </c>
+      <c r="C852" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D852">
+        <v>729</v>
+      </c>
+      <c r="E852">
+        <v>131</v>
+      </c>
+      <c r="F852">
+        <v>0.3</v>
+      </c>
+      <c r="G852">
+        <v>8</v>
+      </c>
+      <c r="H852">
+        <v>0.3</v>
+      </c>
+      <c r="I852">
+        <v>3</v>
+      </c>
+      <c r="J852">
+        <v>0</v>
+      </c>
+      <c r="K852">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="853" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A853" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B853" t="s">
+        <v>9</v>
+      </c>
+      <c r="C853" t="s">
+        <v>1</v>
+      </c>
+      <c r="D853" s="3">
+        <v>8069</v>
+      </c>
+      <c r="E853">
+        <v>727</v>
+      </c>
+      <c r="F853">
+        <v>1.9</v>
+      </c>
+      <c r="G853">
+        <v>38</v>
+      </c>
+      <c r="H853">
+        <v>1.6</v>
+      </c>
+      <c r="I853">
+        <v>8</v>
+      </c>
+      <c r="J853">
+        <v>0.1</v>
+      </c>
+      <c r="K853">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="854" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A854" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B854" t="s">
+        <v>9</v>
+      </c>
+      <c r="C854" t="s">
+        <v>2</v>
+      </c>
+      <c r="D854" s="3">
+        <v>12791</v>
+      </c>
+      <c r="E854" s="3">
+        <v>1726</v>
+      </c>
+      <c r="F854">
+        <v>4.5</v>
+      </c>
+      <c r="G854">
+        <v>94</v>
+      </c>
+      <c r="H854">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I854">
+        <v>22</v>
+      </c>
+      <c r="J854">
+        <v>0.3</v>
+      </c>
+      <c r="K854">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="855" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A855" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B855" t="s">
+        <v>9</v>
+      </c>
+      <c r="C855" t="s">
+        <v>3</v>
+      </c>
+      <c r="D855" s="3">
+        <v>18558</v>
+      </c>
+      <c r="E855" s="3">
+        <v>3453</v>
+      </c>
+      <c r="F855">
+        <v>9</v>
+      </c>
+      <c r="G855">
+        <v>223</v>
+      </c>
+      <c r="H855">
+        <v>9.6</v>
+      </c>
+      <c r="I855">
+        <v>70</v>
+      </c>
+      <c r="J855">
+        <v>1</v>
+      </c>
+      <c r="K855">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="856" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A856" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B856" t="s">
+        <v>9</v>
+      </c>
+      <c r="C856" t="s">
+        <v>4</v>
+      </c>
+      <c r="D856" s="3">
+        <v>21932</v>
+      </c>
+      <c r="E856" s="3">
+        <v>5529</v>
+      </c>
+      <c r="F856">
+        <v>14.5</v>
+      </c>
+      <c r="G856">
+        <v>432</v>
+      </c>
+      <c r="H856">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="I856">
+        <v>161</v>
+      </c>
+      <c r="J856">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K856">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="857" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A857" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B857" t="s">
+        <v>9</v>
+      </c>
+      <c r="C857" t="s">
+        <v>5</v>
+      </c>
+      <c r="D857" s="3">
+        <v>15069</v>
+      </c>
+      <c r="E857" s="3">
+        <v>6591</v>
+      </c>
+      <c r="F857">
+        <v>17.3</v>
+      </c>
+      <c r="G857">
+        <v>679</v>
+      </c>
+      <c r="H857">
+        <v>29.3</v>
+      </c>
+      <c r="I857">
+        <v>439</v>
+      </c>
+      <c r="J857">
+        <v>6.1</v>
+      </c>
+      <c r="K857">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="858" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A858" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B858" t="s">
+        <v>9</v>
+      </c>
+      <c r="C858" t="s">
+        <v>6</v>
+      </c>
+      <c r="D858" s="3">
+        <v>13537</v>
+      </c>
+      <c r="E858" s="3">
+        <v>8098</v>
+      </c>
+      <c r="F858">
+        <v>21.2</v>
+      </c>
+      <c r="G858">
+        <v>664</v>
+      </c>
+      <c r="H858">
+        <v>28.7</v>
+      </c>
+      <c r="I858" s="3">
+        <v>1352</v>
+      </c>
+      <c r="J858">
+        <v>18.7</v>
+      </c>
+      <c r="K858">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="859" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A859" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B859" t="s">
+        <v>9</v>
+      </c>
+      <c r="C859" t="s">
+        <v>12</v>
+      </c>
+      <c r="D859" s="3">
+        <v>19462</v>
+      </c>
+      <c r="E859" s="3">
+        <v>8375</v>
+      </c>
+      <c r="F859">
+        <v>21.9</v>
+      </c>
+      <c r="G859">
+        <v>140</v>
+      </c>
+      <c r="H859">
+        <v>6</v>
+      </c>
+      <c r="I859" s="3">
+        <v>3089</v>
+      </c>
+      <c r="J859">
+        <v>42.7</v>
+      </c>
+      <c r="K859">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="860" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A860" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B860" t="s">
+        <v>9</v>
+      </c>
+      <c r="C860" t="s">
+        <v>13</v>
+      </c>
+      <c r="D860" s="3">
+        <v>11355</v>
+      </c>
+      <c r="E860" s="3">
+        <v>3446</v>
+      </c>
+      <c r="F860">
+        <v>9</v>
+      </c>
+      <c r="G860">
+        <v>26</v>
+      </c>
+      <c r="H860">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I860" s="3">
+        <v>2093</v>
+      </c>
+      <c r="J860">
+        <v>28.9</v>
+      </c>
+      <c r="K860">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="861" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A861" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B861" t="s">
+        <v>10</v>
+      </c>
+      <c r="C861" t="s">
+        <v>0</v>
+      </c>
+      <c r="D861">
+        <v>401</v>
+      </c>
+      <c r="E861">
+        <v>140</v>
+      </c>
+      <c r="F861">
+        <v>0.3</v>
+      </c>
+      <c r="G861">
+        <v>25</v>
+      </c>
+      <c r="H861">
+        <v>0.5</v>
+      </c>
+      <c r="I861">
+        <v>1</v>
+      </c>
+      <c r="J861">
+        <v>0</v>
+      </c>
+      <c r="K861">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="862" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A862" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B862" t="s">
+        <v>10</v>
+      </c>
+      <c r="C862" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D862">
+        <v>589</v>
+      </c>
+      <c r="E862">
+        <v>123</v>
+      </c>
+      <c r="F862">
+        <v>0.2</v>
+      </c>
+      <c r="G862">
+        <v>11</v>
+      </c>
+      <c r="H862">
+        <v>0.2</v>
+      </c>
+      <c r="I862">
+        <v>2</v>
+      </c>
+      <c r="J862">
+        <v>0</v>
+      </c>
+      <c r="K862">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="863" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A863" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B863" t="s">
+        <v>10</v>
+      </c>
+      <c r="C863" t="s">
+        <v>1</v>
+      </c>
+      <c r="D863" s="3">
+        <v>3953</v>
+      </c>
+      <c r="E863">
+        <v>657</v>
+      </c>
+      <c r="F863">
+        <v>1.3</v>
+      </c>
+      <c r="G863">
+        <v>50</v>
+      </c>
+      <c r="H863">
+        <v>1</v>
+      </c>
+      <c r="I863">
+        <v>14</v>
+      </c>
+      <c r="J863">
+        <v>0.1</v>
+      </c>
+      <c r="K863">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="864" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A864" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B864" t="s">
+        <v>10</v>
+      </c>
+      <c r="C864" t="s">
+        <v>2</v>
+      </c>
+      <c r="D864" s="3">
+        <v>7521</v>
+      </c>
+      <c r="E864" s="3">
+        <v>1852</v>
+      </c>
+      <c r="F864">
+        <v>3.8</v>
+      </c>
+      <c r="G864">
+        <v>162</v>
+      </c>
+      <c r="H864">
+        <v>3.1</v>
+      </c>
+      <c r="I864">
+        <v>35</v>
+      </c>
+      <c r="J864">
+        <v>0.4</v>
+      </c>
+      <c r="K864">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="865" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A865" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B865" t="s">
+        <v>10</v>
+      </c>
+      <c r="C865" t="s">
+        <v>3</v>
+      </c>
+      <c r="D865" s="3">
+        <v>13010</v>
+      </c>
+      <c r="E865" s="3">
+        <v>4859</v>
+      </c>
+      <c r="F865">
+        <v>9.9</v>
+      </c>
+      <c r="G865">
+        <v>495</v>
+      </c>
+      <c r="H865">
+        <v>9.4</v>
+      </c>
+      <c r="I865">
+        <v>113</v>
+      </c>
+      <c r="J865">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K865">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="866" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A866" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B866" t="s">
+        <v>10</v>
+      </c>
+      <c r="C866" t="s">
+        <v>4</v>
+      </c>
+      <c r="D866" s="3">
+        <v>16788</v>
+      </c>
+      <c r="E866" s="3">
+        <v>8029</v>
+      </c>
+      <c r="F866">
+        <v>16.3</v>
+      </c>
+      <c r="G866" s="3">
+        <v>1062</v>
+      </c>
+      <c r="H866">
+        <v>20.3</v>
+      </c>
+      <c r="I866">
+        <v>405</v>
+      </c>
+      <c r="J866">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K866">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="867" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A867" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B867" t="s">
+        <v>10</v>
+      </c>
+      <c r="C867" t="s">
+        <v>5</v>
+      </c>
+      <c r="D867" s="3">
+        <v>16698</v>
+      </c>
+      <c r="E867" s="3">
+        <v>10137</v>
+      </c>
+      <c r="F867">
+        <v>20.6</v>
+      </c>
+      <c r="G867" s="3">
+        <v>1744</v>
+      </c>
+      <c r="H867">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="I867" s="3">
+        <v>1079</v>
+      </c>
+      <c r="J867">
+        <v>10.9</v>
+      </c>
+      <c r="K867">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="868" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A868" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B868" t="s">
+        <v>10</v>
+      </c>
+      <c r="C868" t="s">
+        <v>6</v>
+      </c>
+      <c r="D868" s="3">
+        <v>17046</v>
+      </c>
+      <c r="E868" s="3">
+        <v>12037</v>
+      </c>
+      <c r="F868">
+        <v>24.4</v>
+      </c>
+      <c r="G868" s="3">
+        <v>1502</v>
+      </c>
+      <c r="H868">
+        <v>28.6</v>
+      </c>
+      <c r="I868" s="3">
+        <v>2908</v>
+      </c>
+      <c r="J868">
+        <v>29.3</v>
+      </c>
+      <c r="K868">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="869" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A869" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B869" t="s">
+        <v>10</v>
+      </c>
+      <c r="C869" t="s">
+        <v>12</v>
+      </c>
+      <c r="D869" s="3">
+        <v>14480</v>
+      </c>
+      <c r="E869" s="3">
+        <v>9206</v>
+      </c>
+      <c r="F869">
+        <v>18.7</v>
+      </c>
+      <c r="G869">
+        <v>172</v>
+      </c>
+      <c r="H869">
+        <v>3.3</v>
+      </c>
+      <c r="I869" s="3">
+        <v>3997</v>
+      </c>
+      <c r="J869">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="K869">
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="870" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A870" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B870" t="s">
+        <v>10</v>
+      </c>
+      <c r="C870" t="s">
+        <v>13</v>
+      </c>
+      <c r="D870" s="3">
+        <v>4527</v>
+      </c>
+      <c r="E870" s="3">
+        <v>2236</v>
+      </c>
+      <c r="F870">
+        <v>4.5</v>
+      </c>
+      <c r="G870">
+        <v>21</v>
+      </c>
+      <c r="H870">
+        <v>0.4</v>
+      </c>
+      <c r="I870" s="3">
+        <v>1386</v>
+      </c>
+      <c r="J870">
+        <v>13.9</v>
+      </c>
+      <c r="K870">
+        <v>30.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
